--- a/기사데이터/토스/엑셀파일/news(토스, 2023.06.01~2023.06.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.06.01~2023.06.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>[스페셜리포트] “오전에 조기마감”...대환대출플랫폼 인터넷은행 초반 승기 잡았다</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003105192?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>최저금리 연 4.5%·최대 한도 3억원카뱅, 경쟁사 대비 낮은 금리 입소문3일 누적 5679건·1541억 대출 이동금리 10%P 이상 낮춘 사례도 나와대환대출플랫폼이 순항 중이다. 카카오뱅크 등 선두업체들은 3일 연속 한도를 조기 소진하는 등 그 효과를 톡톡히 누리고 있다. 인터넷전문은행 선전이 이어지는 가운데, 플랫폼 출범 3일만에 누적 1500억원 이상 규모 대출이 이동하며 금리 인하 효과도 발생하는 것으로 파악됐다.◇ 카카오뱅크 3일 연속 대환대출 한도 소진…접근성·저금리 앞세워 ‘돌풍’대환대출플랫폼 출범 초기 고객 접근 인프라와 낮은 금리를 갖춘 인터넷전문은행들이 선전하는 분위기다.각 은행사에서만 제공하는 유리한 대환대출 상품에 접근하려면 개별 앱을 설치해야 하는데, 기존 이미 설치건수가 많은 인터넷은행이나 주거래은행 앱이 접근성이 좋기 때문이다. 은행 개별 앱 중 가장 이용자가 많은 카카오뱅크는 지난해 기준 이미 이용자 2000만명을 넘어섰다. 월간활성이용자수(MAU)를 기준으로 따지면 시중은행 대비 2~3배 가량 더 높다.인터넷은행들은 자사 계열사를 포함해 ‘네카토(네이버파이낸셜·카카오페이·토스)’ 빅테크 플랫폼에 상품을 입점시키지 않고 자체 앱에서만 대환이 가능하도록 운영 중이다. 그럼에도 카카오뱅크의 경우 지난달 31일 대환대출 인프라 출범 당일부터 3일 연속으로 대환대출 상품 하루 한도를 오전에 조기 마감했다. 경쟁사 대비 낮은 금리 상품을 내놓은 것이 입소문을 타면서 고객이 몰렸다.카카오뱅크 대환대출 상품은 최저금리 연 4.5%, 최대 한도를 3억원으로 설정했다. 케이뱅크와 토스뱅크가 각각 최저금리를 연 5.91%, 연 5.37%로 내놓은 것과 비교할 때 최대 1.4%포인트 경쟁력 있는 금리다.각 은행들은 대환대출 상품 한도로 최대 4000억원까지 취급할 수 있다. 카카오뱅크는 하루 한도로 지정한 대환대출 금액은 공개하지 않고 있다.일각에서는 고신용자 대출 증가로 중저신용자 대출 비율이 낮아질 것을 우려해 한도를 낮게 설정했을 것으로 추정하고 있으나, 카카오뱅크 측은 전체 대출액을 고려할 때 크게 영향을 미칠 정도는 아니라는 입장이다.카카오뱅크의 중저신용자 대출 비율은 지난달 말 기 25.7% 수준인데, 연말까지 이를 30%까지 끌어올려야 한다. 올해 1분기 카카오뱅크의 중·저신용 대출 잔액은 3조4774억원 수준이다.카카오뱅크 관계자는 “안정적 관리를 위해 접수 건수를 유동적으로 운영중”이라며 “비대면 편의성, 간편한 대환 프로세스 등으로 인해 고객 수요가 매우 높은 상황”이라고 전했다.대환대출 플랫폼·은행 제휴사 및 특화 마케팅·상품 현황◇ 대환대출 시스템 오류 상당 부분 해결…첫 날 대비 이동건수·잔액 더욱 늘어금융위원회에 따르면 지난달 31일 대환대출 플랫폼 인프라 출범 이후 3일 동안 누적 5679건, 1541억원어치 대출자산 이동이 발생했다. 두번째 날인 1일 대환대출 건수는 2068건, 규모는 581억원으로 집계됐는데, 이는 첫날 대비 건수는 13%, 금액은 23% 증가한 수치다. 첫날 발생한 시스템 오류 문제가 부분적으로 점진 해결됨에 따라 연결 안정성이 높아진 결과로 해석된다.대환대출 서비스를 출범 초기에 이용했던 고객 상당수는 기존보다 높은 금리가 추천되거나 갈아탈 상품이 없다는 메시지를 접했다. 이는 시스템이 안정화되기 이전 각 금융사와 신용평가사(CB)가 일부 조회물량을 완전히 처리하지 못한 것이 원인으로 드러났다.또 빅테크 업체 대환대출플랫폼을 이용한 경우, 실제 갈아탈 수 있는 상품이 전부 표시되지 않는 문제도 발생했다. 각 금융사 앱을 개별 설치해야 금리와 한도가 유리한 상품을 발견할 수 있었다. 이는 시중은행이 대환대출 플랫폼에 입점시킨 상품 구색이 제한적이기 때문에 나타나는 문제다. 플랫폼 입점 상품이 차후 늘어날 경우 이용자들의 선택지도 늘어날 것으로 전망된다.오히려 다양한 경로 대출 이동을 통해 금리가 인하된 사례가 확인되고 있다. 대환대출 플랫폼은 은행을 방문하지 않고도 스마트폰 앱 등을 통해 간편하게 유리한 대출로 갈아탈 수 있는 서비스다. 대환대출 플랫폼 이용을 통해 금리를 10%포인트 이상 낮춘 경우도 다수 발견됐다. 저축은행에서 14.8% 금리로 4800만원을 빌렸던 한 고객은 은행으로 대환대출에 성공하면서 이자를 6.5%로 크게 낮췄다. 카드론 300만원을 18.5% 금리로 빌렸던 고객도 은행으로 대환을 통해 8.72% 대출 상품으로 갈아탔다.금융당국은 소비자가 직접 금리를 조회하고 유리한 조건으로 갈아탈 수 있게 되면서, 금융사 간 대출 고객 유치를 위한 금리 인하 경쟁이 더욱 촉진될 것으로 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>"플랫폼 여전히 규제에 신음…혁신 막는 일 더이상 없어야"</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004197313?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>'타다' 이재웅 무죄 확정"택시 종사자 등 영향력 크지만국민 편익 위해 혁신 계속돼야"이재웅 전 쏘카 대표. 연합뉴스[서울경제] “저의 혁신은 멈췄지만 새로운 일자리를 만들고 국민 편익을 증가시키는 혁신은 계속돼야 합니다.”이재웅 다음 창업자 겸 전 쏘카 대표는 1일 대법원이 차량 호출 서비스 ‘타다’의 전직 경영진에 대해 무죄판결을 확정하자 자신의 소셜네트워크서비스(SNS)에 이 같은 소회를 밝혔다. 그는 “4년 가까운 긴 시간 동안의 싸움 끝에 혁신은 무죄임을 최종적으로 확인 받았지만 그 사이 혁신이 두려운 기득권의 편에 선 정치인들은 법을 바꿔서 혁신을 주저 앉혔다”며 “혁신을 만들어내는 기업가를 저주하고, 기소하고, 법을 바꾸어 혁신을 막고 기득권의 이익을 지켜내는 일은 이번을 마지막으로 더 이상 없어야 한다”고 목소리를 높였다.앞서 정치권은 택시 사업자들의 반발을 의식해 이른바 ‘타다금지법’으로 불리는 여객자동차법 개정안을 2019년 발의해 이듬해 관련 법안을 통과시켰다. 타다금지법 시행으로 운전기사를 포함한 11인승 차량 렌터카 서비스 ‘타다 베이직’과 이동이 불편한 이들을 위한 차량 호출서비스 ‘타다 어시스트’는 종료됐다. 장병규 전 4차산업혁명위원장은 타다금지법 국회 통과를 막지 못한 것과 관련해 “스스로를 역사적 죄인이라 생각한다”고 밝히는 등 당시 정보기술(IT) 업계와 스타트업 관계자들의 반발과 좌절감이 상당했다.서비스가 중단된 후 쏘카 측은 타다 운영사 VCNC의 지분 60%를 2021년 토스 운영사인 비바리퍼블리카에 넘겼으며 현재는 카셰어링 서비스에만 집중하고 있다. 각종 규제에 발목이 잡힌 VCNC의 손실은 눈덩이처럼 늘고 있다. 타다 금지법 시행 전인 2019년 VCNC의 영업손실액은 16억 원 수준이었지만 지난해에는 262억 원으로 급증했다. 이에 따라 비바리퍼블리카 측은 타다를 진모빌리티가 운영하는 ‘IM택시’와 합병을 추진해 활로를 모색 중이다.특히 모빌리티 업계에서는 24만여 명에 달하는 택시산업 종사자와 이들의 정치적 영향력을 감안하면 ‘제2의 타다금지법’이 언제든 출현할 수 있다고 우려한다. 올 1분기 49억 원의 영업이익을 기록한 카카오모빌리티를 제외하면 기득권과 결탁한 정치권과 정부 규제로 인해 IT 기술을 기반으로 한 모빌리티 플랫폼 사업자들은 대부분 영업손실을 기록 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>국내은행 자본비율 0.29%p↑…순이익 증가 영향</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011891522?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>올해 3월말 국내은행 총자본비율 15.58%"全은행 규제비율 상회…부실 확대 선제 대비"[서울=뉴시스]올해 3월말 기준 국내은행(은행지주회사 및 은행) 자본비율. (자료=금융감독원 제공) *재판매 및 DB 금지[서울=뉴시스] 김형섭 기자 = 국내 은행의 건전성 지표인 국제은행(BIS) 기준 자본비율이 순이익 등에 힘입어 전분기 대비 상승한 것으로 나타났다.금융감독원이 1일 발표한 '2023년 3월말 은행지주회사 및 은행 BIS기준 자본비율 현황'에 따르면 올해 1분기 기준 국내 은행의 총자본비율은 15.58%로 전분기 대비 0.29%포인트 상승했다.총자본비율은 은행의 총자본(분자)을 위험가중자산(분모)으로 나눈 값이다. 비율이 높을수록 건전성이 좋다는 것을 뜻한다. 반대로 해당 비율이 줄었다는 것은 위험가중자산이 크게 늘었다는 걸 의미한다.보통주자본비율과 기본자본비율, 단기자본비율은 각각 12.88%, 14.24%, 6.51%였다. 역시 전분기 대비 각각 0.28%포인트, 0.33%포인트, 0.31%포인트씩 올랐다.국내은행의 자본비율이 상승한 것은 1분기 순이익 시현과 증자·신종자본증권 발행 등으로  자본은 크게 확충된 반면 대출자산 증가 속에서도 바젤은행감독위원회(BCBS)의 신국제은행자본규제인 바젤Ⅲ 최종안 적용에 따라 위험가중자산이 소폭 증가에 그친 데 따른 것이다.올해 3월말 기준 국내은행의 총자본은 전분기대비 4.6%(15조원) 증가했으며 위험가중자산은 2.7%(56조5000억원) 늘었다.국내 은행은 보통주자본 7.0%, 기본자본 8.5%, 총자본 10.5%의 규제비율을 지켜야 한다. 여기에 금융체계상 중요한 은행(D-SIB)은 1%포인트의 규제비율이 추가된다. 단순기본자본 규제비율은 3.0%다.올해 1분기 기준으로 모든 국내은행의 자본비율은 규제비율을 상회했다. KB·우리·DGB·JB·농협·SC·씨티·기업·수출입·수협·토스 등 11개 은행은 자본비율이 상승했으며 신한·하나·케이·카카오·산업 등 5개 은행은 자본비율이 하락했다.은행 중에서 총자본비율이 가장 높은 곳은 카카오뱅크로 35.26%를 기록했으며 씨티은행과 SC제일은행이 각각 27.15%, 21.09%로 뒤를 이었다.총자본비율이 가장 낮은 곳은 토스뱅크로 12.69%이며 산업은행과 BNK가 각각 13.08%, 13.54%로 뒤를 이었다. 다만 토스뱅크의 경우 올해까지 바젤Ⅰ 적용으로 완충자본과 단순자기자본비율 규제를 적용받지 않는다.금융지주의 경우 총자본비율은 KB지주가 16.84%로 가장 높았으며 농협지주 15.97%, 신한지주 15.81%, 우리지주 15.79%, 하나지주 15.31% 등의 순이었다. 5대 금융지주를 제외한 나머지 지주는 JB지주 14.84%, DGB지주 14.06%, BNK지주 13.54% 등으로 집계됐다.금감원 관계자는 "국내은행의 자본비율은 전분기말 대비 상승했고 모든 은행의 자본비율이 규제비율을 상회하는 등 양호한 수준을 유지하고 있다"고 평가하면서도 "다만 최근 금융시장 불안이 지속되고 있고 대내외 경제여건도 악화되고 있는 만큼 향후 부실확대 가능성에 선제적으로 대비할 필요가 있다"고 진단했다.금감원은 대내외 경제 충격에도 은행이 건전성을 유지할 수 있도록 손실흡수능력 확충을 계속해서 유도할 예정이다.국내은행의 자본비율 현황에 대한 모니터링을 한층 강화하고 자본비율이 취약한 은행에 대해서는 자본적정성 관리를 강화토록 하는 동시에 경기대응완충자본(CCyB) 적립의무 부과, 스트레스 완충자본 제도 도입 추진 등 강화되는 자본규제에 대비해 은행이 충분한 수준의 자기자본을 유지토록 할 계획이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>연체율 상승에 커지는 고민, 은행권 부실대출 손실처리 ‘껑충’</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005502211?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>1분기 대손상각비 1조3000억대…전년대비 145% 증가NIM 개선됐지만 차주 부담 커져, 연체율 1% 넘는 곳도연체율 관리 본격화, 상각·매각 6510억으로 16% 늘어(사진=게티이미지뱅크)[이데일리 이명철 기자] 올해 들어 은행권 대출 연체가 증가하면서 부실 우려가 커졌다. 고금리에 힘입어 대규모 이자이익을 창출했지만 늘어난 대출이자 부담을 감당하지 못한 차주들이 늘어난 탓이다. 은행들은 실제 부실채권을 손실 처리하거나 싼값에 매각하는 방식으로 연체율 관리에 나서고 있다. 실제 상각과 충당금 등을 반영해 은행들이 지출 비용으로 처리한 금액은 1년새 두배 이상 급증한 것으로 나타났다.NIM 최고 2.96%, 이자이익이 실적 견인6일 이데일리가 4대 시중은행(KB국민·신한·하나·우리), 특수은행(NH농협·Sh수협), 지방은행(부산·대구·경남·광주·전북·제주), 인터넷은행(카카오·케이·토스) 15개의 1분기 경영 공시를 분석한 결과 대손상각비는 1조3193억원으로 전년동기(5386억원)대비 145.0% 증가했다.4대 은행만 놓고 보면 1분기 대손상각비가 7191억원으로 전년동기(1899억원)보다 278.7% 급증했다. 인터넷은행도 같은기간 754억원에서 1871억원으로 148.1% 늘어 본격적으로 리스크 대응에 나섰다. 특수은행(1974억원)과 지방은행(2157억원)은 1년새 각각 31.3%, 75.4% 증가했다.은행들이 재무제표상 손익계산서에 기재하는 대손상각비는 부실채권 매각·상각과 준비금 성격의 충당금 등을 포함해 비용으로 처리하는 항목이다.같은기간 은행 15개 당기순이익(개별 기준)은 3조9184억원에서 4조6183억원으로 17.9% 늘었다. 리스크에 대응한 비용 처리 증가폭이 순이익을 크게 웃돌았다.올해 1분기 은행들의 각종 이익 관련 지표는 1년 전보다 크게 개선됐다. 하지만 부실 징후가 커지면서 이에 못지않게 리스크 관련 지출을 늘리는 것으로 풀이된다.15개 은행의 1분기 평균 자기자본순이익률(ROE)은 8.26%로 전년동기(5.02%)보다 3%포인트 이상 개선됐다. 4대 은행이 평균 11.78%로 가장 높았고 이어 특수은행 10.04%, 지방은행 9.81% 순이다. 인터넷은행은 아직까지 이익이 나지 않는 토스뱅크(-11.67%)의 영향으로 마이너스(-) 0.73%에 그쳤다.은행별로는 광주은행 13.97%, 우리은행 13.37%, 하나은행 12.86%, 전북은행 11.51%, 신한은행 10.96%, 대구은행 10.84% 등 순으로 높았다. 일부 지방은행은 시중은행보다 높은 수익성을 나타내며 실적이 성장했다.이익이 늘어난 이유는 금리 상승에 따른 순이자마진(NIM)의 증가 영향이 크다. 1분기 15개 은행 평균 NIM의 경우 지난해 1분기 1.78%에서 올해 1분기 2.06%로 0.28%포인트 상승했다. 최근 들어 대출금리가 낮아지고 있지만 높은 금리가 적용됐던 대출 잔액이 이익을 창출하고 있는 것으로 풀이된다.NIM은 지방은행(2.34%)이 가장 높았고 인터넷은행(2.22%)도 2%대를 넘었다. 광주은행과 전북은행은 NIM이 각각 2.96%, 2.93%에 달했고 카카오뱅크도 2.62%로 높은 편이었다. 4대 은행과 특수은행은 각각 1.68%, 1.72%에 머물렀다.[이데일리 김일환 기자]◇“더 늦으면 큰일” 부실채권 매각 증가세은행 이익이 개선되고 있지만 연체율 또한 꾸준히 상승세다. 금융감독원에 따르면 3월말 기준 국내은행 연체율(1개월 이상 원리금 연체 기준)은 0.33%로 전년동월말(0.22%)대비 0.11%포인트 상승했다.1분기 기준 연체율이 가장 높은 곳은 토스뱅크(1.32%)로 전년동기(0.04%)보다 대폭 상승했다. 케이뱅크(0.82%), 카카오뱅크(0.58%)도 전년동기 각각 0.48%, 0.26%보다 크게 올랐다. 지난해부터 본격적으로 대출 규모가 늘면서 연체율 또한 올랐다. 전북은행은 1.19%로 두 번째로 높다. 가계대출 연체율이 1.73%로 전체 은행권에서 최고치를 기록한 영향이다. 제주은행(0.59%), 대구은행(0.54%)도 상대적으로 높은 수준이다.부실채권(NPL)인 고정이하여신의 비율도 상승세다. 15개 은행의 NPL비율을 단순 합산해 나눈 수치는 1분기 0.49%로 전년동기(0.32%)보다 0.17%포인트 올랐다. 토스뱅크 1.04%, 케이뱅크 0.94%, 전북은행 0.85%, 대구은행 0.60% 등 순으로 높았다.4대 은행의 경우 1분기 연체율은 0.20~0.28%로 아직까진 안정적이지만 지난해 1분기 0.12~0.21%와 비교하면 부쩍 올라갔다. NPL비율도 같은기간 0.19~0.26%에서 0.19~0.28%로 소폭 상승했다.실제 부실이 발생한 대출을 처리하는 경우도 많아졌다. 분기보고서를 공시한 13개 은행(농협·수협은행, 토스뱅크 제외)이 올해 1분기 손상으로 인식해 손실 처리했거나(상각), 부실채권을 매각한 규모는 6510억원으로 전년동기(5621억원)대비 15.8% 증가했다.상각은 1분기 4686억원으로 전년동기(4768억원)대비 오히려 1.7% 감소한 반면 매각은 같은기간 853억원에서 1824억원으로 113.9%나 늘었다. 부실화된 대출을 보유하고 있다가 연체율 관리를 위해 부실채권 전문회사 등에 넘긴 것으로 보인다.4대 은행의 상각·매각 규모는 총 4496억원, 각사별로는 1000억~1300억원대에 달했다. 카카오뱅크는 지난해 1분기 129억원에서 올해 1분기는 204억원, 케이뱅크는 같은기간 6억원에서 401억원으로 급증했다. 지방은행은 적게는 28억원(제주은행)에서 많게는 519억원(부산은행)으로 다양했다.한 시중은행 관계자는 “여신 심사 전략의 정교화와 지속적인 모니터링을 통해 여신 건전성 관리를 해나갈 예정”이라며 “어려움을 겪는 차주의 금융 부담 완화를 통한 금융 지원도 실시하고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>세계 최대 VC 세쿼이아, 사업부 분리…업계 파장 '예의주시'</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005269209?sid=104</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>미·중, 인도 등 3개 업체로 분할대중국 투자 규제 강화 영향미국 벤처 투자 올해 큰 폭 감소세계 최대 벤처캐피탈(VC)인 세쿼이아 캐피털이 미국, 중국, 동남아·인도 등 3개 독립 업체로 분할할 계획을 내놨다. 미·중간 지정학적 갈등의 골이 깊어지자, 이에 따른 대응을 위한 결정이다. 시장에서는 이런 결정이 VC업계 전반으로 확산될지 주목하고 있다.6일(현지시간) 블룸버그에 따르면 세콰이아의 주요 파트너인 로엘로프 보타와 닐 셴, 샤일렌드라 싱은 이날 투자자들에게 "분산된 글로벌 투자 사업을 운용하는 것이 점점 더 어려워지고 있다"며 사업부 분리 방침을 밝혔다. 현재 보타는 세쿼이아의 미국과 유럽사업부를 맡고 있으며 셴은 중국, 싱은 동남아 사업부를 맡고 있다.세쿼이아 캐피탈 [이미지출처=로이터연합뉴스]CNBC에 따르면 세쿼이아는 늦어도 내년 3월까지 현재 사업부를 미국, 중국, 동남아·인도 등 3개의 독립 기업체로 쪼개는 계획을 마무리 한다. 3개 업체로 분할이 완료되면 중국과 인도 분할 법인은 수익 일부를 글로벌 본사와 공유하지 않고 독립적인 운영을 하게 된다. 중국과 인도 분할 법인의 브랜드도 각각 ‘홍샨(Hongshan)’과 ‘피크 XV(Peak XV)’이라는 이름으로 변경될 것으로 예상된다.미국 사업부를 맡고 있는 보타는 주요 외신과의 인터뷰에서 "지난 몇 달 동안 사업부 분리 결정을 고심해왔다"며 "수년간 우리(세쿼이아)는 사업부 분리에 드는 비용과 그로 인해 얻을 수 있는 이익 사이에 균형을 맞추며 회사에 적합한 결정인지 재평가해왔다"고 밝혔다.세쿼이아는 구글과 인스타그램 등의 유수 IT 기업의 창업 초기에 투자해 큰 수익을 거둔 것으로 유명하다. 한국에서는 쿠팡과 토스, 컬리 등에 투자한 바 있다. 중국에서는 셴이 2005년 세쿼이아의 투자 자회사를 설립한 이후 음식 배달 플랫폼인 메이퇀과 중국판 넷플릭스로 불리는 아이치이(iQIYI) 등에 투자하며 막대한 수익을 거뒀다.미 당국의 규제 강화로 중국 기업에 원활한 투자가 어려워지면서 세쿼이아는 사업부를 분할키로 한 것으로 보인다. 현재 조 바이든 정부는 중국 첨단기술 산업에 미국 기업들이 투자하는 것을 원천 차단하는 방안을 검토 중이다. 미국의 투자자금이 중국 기업에 들어갈 경우 첨단 기술 경쟁에서 미국을 뒤처질 것이라는 판단에서다. 미국 기업의 투자 금지 대상으로 유력한 분야는 양자컴퓨터와 군사·안보기술 분야 인공지능(AI)이 거론되고 있다.더욱이 미·중 갈등이 고조되면서 중국 기업 투자가 줄고 있는 것도 세쿼이아의 결정에 큰 영향을 미쳤다. 스타트업 시장조사업체 피치북에 따르면 올해 미국의 대중국 벤처투자는 2021~2022년에 비해 크게 감소했다.블룸버그는 "미 정부가 중국의 기술 산업을 옥죄면서 중국에 대한 투자 전망이 불확실한 상황"이라며 "한때 중국 기업은 실리콘밸리의 경쟁자로 칭송받았지만, 현재는 벤처 캐피탈 투자 감소를 겪고 있다"고 설명했다.이지은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.06.09.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>‘MZ 모시기’ 바빴던 인뱅 3사…수익성 낮은 청년 정책엔 뒷짐</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003367368?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>인터넷은행, 청년도약계좌 불참5년간 5000만원 목돈 마련 적금금리 인하기에 역마진 불가피청년 고객 많아 ‘이자 부담’ 우려“비대면·트래픽 감당 곤란” 해명12개 시중은행은 사전금리 공시연 6% 수준… 기업銀 ‘6.5%’ 최고이달 출시를 앞둔 ‘청년도약계좌’의 금리가 베일을 벗은 가운데 이번 정부 정책에 동참하지 않은 인터넷은행 3사를 놓고 뒷말이 무성하다. 비대면을 강점으로 MZ세대 고객을 모아 온 인터넷뱅크가 정작 이들의 자산 형성을 위한 대통령 공약에는 뒷짐을 지고 있기 때문이다.8일 금융권에 따르면 이날 12개 은행(KB국민·신한·하나·우리·NH농협·IBK기업·SC제일·부산·광주·전북·경남·대구은행)은 은행연합회 홈페이지에 청년도약계좌 사전금리를 공시했다. 기업은행이 연 6.5%로 가장 높았다. KB국민·신한·하나·우리·NH농협·경남은행은 연 6% 수준이다. 이 금리는 기본금리와 소득우대금리, 은행별 우대금리를 합해 책정된 것이다. 먼저 기본금리(3년 고정)는 3.5∼4.5% 범위로 나타났다. 소득 조건(연간 총급여 2400만원 이하, 종합소득 1600만원 이하, 사업소득 1600만원 이하)에 따른 우대금리는 0.5%로 은행 간 차이가 없으며, 은행별 우대금리는 1.50~2.00%다. 정부 정책 취지대로 매달 70만원 한도로 5년 동안 납입 시 최대 5000만원을 마련하려면 연 6% 수준의 금리가 책정돼야 한다. 각 은행은 추가적인 금리 조정 과정을 거쳐 오는 12일 최종 금리를 발표한다.정작 청년층을 주요 고객으로 한 카카오뱅크·토스뱅크·케이뱅크 등 인터넷은행 3사는 이날 청년도약계좌 출시에 참여하지 않았다. 실제 지난 1분기 기준 카카오뱅크 고객 중 2030세대 비중은 47%이며, 토스뱅크는 50%, 케이뱅크는 55%로 절반을 차지한다. 청년도약계좌를 취급하기로 한 다른 12개 시중은행의 평균치(약 30%)를 훨씬 웃도는 수준이다.논란이 지속되자 이들 회사는 청년도약계좌 진행 과정 중 가구소득 중위 180% 이하 확인 작업 등을 비대면으로 처리하기 어렵다는 이유를 들었다. 그러나 청년도약계좌보다 신청 과정이 복잡한 주택담보대출 등을 비대면으로 처리하고 있는 인터넷은행이 내세울 이유로는 궁색하다는 지적이다. 당초 금융위원회는 청년도약계좌를 비대면 중심으로 운영하기로 했고, 일부 예외 사례에 대해서만 대면 신청이 가능하다고 설명했다.오히려 청년층 고객이 많다는 점이 인터넷은행의 정책 참여를 주저하게 만든 원인이란 분석도 있다. 시중은행에 비해 비대면 이용이 원활한 인터넷은행으로 가입자가 몰릴 경우 추후 막대한 이자 부담을 떠안을 수 있다는 부담이 작용한 게 아니냐는 것이다. 현재 정기예금 이자는 3%대 중후반 수준으로 연 6% 이상의 3년 만기 적금 상품을 운용할 경우 금리 인하기에 역마진이 불가피하다.인터넷은행 관계자는 “당국에선 비대면으로 상품을 취급한다고 했지만 신청자 규모가 예상보다 많을 경우 트래픽이 감당하지 못할 가능성도 있다”면서 “이 경우 시중은행은 지점을 통해 대면으로 처리하는 대안이 있지만 우리는 사정이 다르다”고 말했다. 그러면서 “인터넷은행은 중저신용자 대상 신용대출 비중을 높여야 한다는 당면 과제도 있어 이번 정책에 대한 부담이 있다”고 했다.인터넷은행은 지난해 출시된 ‘청년희망적금’ 상품도 취급하지 않았었다. 이때도 일반 예적금과 달리 군필자 우대나 퇴직 등에 한해 중도 해지 일부 이자를 제공하는 등의 업무를 비대면으로 처리하기 어렵다는 이유를 들었다.민나리 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>타다, 고강도 구조조정 돌입…희망퇴직자 모집 시작</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000909455?sid=105</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>불법 영업 논란으로 재판에 넘겨진 차량 호출 서비스 '타다' 관련자들에게 최종적으로 무죄가 선고된 1일 서울 중구 서울역 인근에서 타다 차량이 이동하고 있다./ 뉴스1        타다의 운영사 브이씨엔씨(VCNC)가 인력을 절반 수준으로 줄이는 구조조정에 돌입했다.15일 모빌리티 업계에 따르면 VCNC는 전날 회사 전체 직원을 대상으로 희망퇴직자 모집 공지를 안내했다. 업계는 VCNC가 현재 80여명인 인원을 최소 50% 감축할 것으로 내다보고 있다.앞서 타다는 2020년 국회에서 여객자동차운수사업법 개정안이 통과된 이후 택시 면허를 기반으로 사업을 진행하고 있으나, 투자 유치 등에 어려움을 겪고 있다. 타다는 11인승 승합 렌터카와 기사를 빌려주는 방식으로 처음 사업을 시작했으나, 택시업계와의 갈등 및 불법 논란으로 사업을 개편했다.한편 타다의 모회사인 토스는 구조조정과는 별도로 타다를 다른 회사와 합병하는 방안을 추진하고 있는 것으로 알려졌다.VCNC 관계자는 “경영안정화를 위해 전날부터 직원들로부터 희망퇴직 신청을 받고 있다”라며 “권고사직은 아니며, 이번 구조조정은 합병 이슈와는 별개다”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>카드사 대환대출 플랫폼에 '시큰둥'…흥행에도 '거리두기'</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002721839?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>하나·현대·삼성카드 "검토중"중·저신용자 금리 혜택 받아야서울 시내에 시중은행들의 자동화기기가 늘어서 있다. ⓒ연합뉴스[데일리안 = 이세미 기자] 카드사들이 대환대출 플랫폼 흥행 성공에도 여전히 플랫폼 입점을 망설이고 있는 모습을 보이고 있다. 시중은행과 달리 금리 메리트가 낮고 오히려 고객 이탈로 플랫폼 입점 효과를 누릴 수 없다는 판단에서다.다만 대환대출 플랫폼을 찾는 수요가 꾸준히 확대되고 있고, 금융당국도 카드사를 유인할 여러 방안을 강구하고 있는 만큼 카드사들의 적극적인 움직임을 보여야 한다는 지적이 나온다.15일 금융권에 따르면 현대 대환대출 서비스를 제공하는 신한·삼성·KB국민·현대·롯데·우리·하나하드 등 7개 전업 카드사 중 대환대출 플랫폼에 입점한 곳은 신한과 국민카드 두 곳이다.신한카드는 토스와 카카오페이에 입점한 상태며 3분기 이후 네이버페이에 입점할 예정이다. 국민카드는 네이버페이에만 들어가 있고, 토스와 카카오페이 입점도 준비하고 있다. 우리카드의 경우 입점할 플랫폼은 미정이나 3분기를 예상하고 추진하고 있으며, 롯데카드도 3분기 내 플랫폼 입점에 새롭게 합류한다는 계획이다.이밖에 하나·현대·삼성카드는 플랫폼 입점을 검토 중이라는 입장이다.카드사들이 대환대출 플랫폼에 소극적인 이유는 금리 면에서 장점이 적기 때문으로 풀이된다. 1금융권인 시중은행과 비교하면 카드론 금리가 매우 높은 수준이기 때문이다.은행연합회에 따르면 지난 4월 5대 은행과 인터넷전문은행(토스·카카오·케이뱅크)의 가계 일반신용대출 평균 금리는 5.23~7.79%다. 반면 지난달 7개 카드사의 카드론 평균 금리는 12.87~14.56%으로, 현대카드(12.87%)를 제외하면 전부 13%대 중후반과 14%대 중반 사이에 집중됐다.상황이 이렇다 보니 카드사들은 오히려 대환대출을 통한 고객 이탈이 지속될 수 있고, 그 결과 카드사들의 이익을 견인했던 이자 수익 역시 감소할 것이라는 우려를 내비친다.또 같은 2금융권인 저축은행의 고객들이 들어와도 반갑지 않다는 게 업계 중론이다. 저축은행의 고객들이 대부분 중·저신용자고 카드사 고객보다 오히려 신용도가 떨어진다는 이유다.카드사뿐 아니라 저축은행과 보험업계도 대환대출에 소극적인 점을 감안하면 일각에선 당초의 취지였던 경쟁을 통한 금리인하 효과가 반감될 것이란 지적도 제기된다. 실제 대환대출 인프라 가동 첫 날인 지난달 31일 발생한 대출 이동 중 90%는 은행과 은행 간의 이동이었다.이렇듯 2금융권 차주들이 1금융권이나 인터넷은행으로의 대환도 사실상 길이 막히다 보니, 중·저신용자들이 금리 혜택을 보기 위한 대책이 마련돼야 한다는 주장이 나온다.금융권에 따르면 금융위원회는 다음달부터 플랫폼에서도 자신이 받은 카드론 내역을 조회할 수 있도록 시스템을 정비하고, 대환대출 플랫폼 내 취급 대출에 한해 카드사 고객의 소득 인정비율을 상향키로 했다.한편 금융당국은 대환대출 서비스 흥행흐름 이어가기 위해 금융회사별 취급한도에 제한을 두지 않고 운영하겠다는 입장이다. 앞서 금융당국은 대환대출 인프라에 참여하는 53개 금융사와 협의해 약 2년의 시범운영 기간 동안 금융회사별로 연간 신규취급액에 제한을 두기로 한 바 있다. 아울러 올해 말까지 대환대출 인프라에 주택담보대출도 포함키로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>“갓생 한 끼·드림워크 토크 등 MZ세대와 온라인 소통 강화”</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002575169?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>전경련, 인스타그램 계정 오픈전국경제인연합회가 2일 인스타그램 계정을 열고 MZ세대(1980년대 초∼2000년대 초 출생)와의 온라인 소통 강화에 나섰다. 경제단체의 활동, 행사, 소식, 기업인 성공사례, 시시각각 변하는 산업계 동향을 신속, 정확하게 전달하고 의견을 수렴하겠다는 취지에서다. 전경련은 최근 한국판 버핏과의 점심식사 ‘갓생 한 끼’ 행사를 통해 정의선 현대차그룹 회장과 MZ세대의 오찬을 마련하는 등 소통 행보에 탄력을 붙인 상태다.전경련은 이날 인스타그램에 지난 5월 25일 개최한 ‘갓생 한 끼’ 행사의 사진과 영상을 올리는 것을 시작으로 본격 활동에 들어갔다고 밝혔다. 전경련의 인스타그램 계정 오픈은 지난달 대학생, 사회 초년생, 청년사업가 등 10명으로 구성한 ‘청년전자’(청년 전경련 자문단)의 의견을 받아들인 첫 결과물이다. 전경련은 추후 인스타그램 계정을 활용해 행사 홍보는 물론 기업인의 성공 사례, 산업 동향 등 콘텐츠를 선보일 예정이다.전경련은 오는 23일 진행할 ‘드림워크’ 토크콘서트 관련 홍보·이벤트 게시글도 인스타그램에 올릴 예정이다. 드림워크는 이승건 비바리퍼블리카(토스) 대표, 장지호 닥터나우 대표, 방송인 타일러 라쉬가 MZ세대 300명과 꿈을 향한 도전·열정·혁신 등 이야기를 나누는 자리다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>전경련, MZ세대 소통 위해 '이것'까지 만들었다</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011893135?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 전경련은 25일 전경련회관에서 국민 소통 첫 번째 프로젝트인 한국판 버핏과의 점심 '갓생 한 끼'를 개최했다.  MZ세대 30인이 각 분야 최고 리더인 정의선 현대자동차그룹 회장, 박재욱 쏘카 대표, 노홍철 ㈜노홍철천재 대표를 만나 소통했다. (사진=전국경제인연합회) 2023.05.25. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]이현주 기자 = 전국경제인연합회가 MZ세대와의 소통 확대를 위해 인스타그램을 시작한다. 전경련은 2일 인스타그램 계정을 오픈해 MZ세대와의 온라인 소통을 강화한다. 이를 통해 전경련의 활동, 행사, 소식 등을 신속·정확하게 전달할 예정이다. 이는 MZ세대와의 홍보 채널이 부족하다는 '청년전자(청년 전경련 자문단)'의 자문을 받아 진행된 것이다. 인스타그램을 통해 정보를 제공하고 의견수렴을 하는 등 더 활발한 상호작용을 할 예정이다. 새로 오픈한 전경련 인스타그램의 첫 사진 및 영상으로는 지난달 25일 개최됐던 '갓생 한 끼'가 업로드됐다. 갓생 한 끼는 전경련이 추진하는 '한국판 버핏과의 점심 식사'로 정의선 현대차그룹 회장, 박재욱 쏘카 대표, 방송인인 노홍철 ㈜노홍철천재 대표가 참석해 주목을 받았다. 오는 23일 열리는 토크콘서트에 대한 홍보 및 이벤트도 진행한다. MZ세대와 시대 리더가 함께 꿈을 향한 도전과 열정, 혁신의 이야기를 나누는 시간이다.이승건 비바리퍼블리카(토스) 대표, 장지호 닥터나우 대표, 방송인 타일러 라쉬가 멘토로 출격하며 아나운서 장성규가 MC를 맡는다. 인스타그램을 통해 추후 행사 등의 홍보 및 기업인들의 성공 사례, 산업 동향 등 콘텐츠를 선보일 계획이다. 이상윤 전경련 CSR본부장은 "전경련 인스타그램 계정 신설은 청년전자(전경련 청소년 자문단)의 의견을 받아들인 첫 사례"라며 "앞으로도 다양한 소통 채널을 통해 각계각층의 의견을 경청하고 소통하기 위해 최선을 다하겠다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 국내 사업자 대상 페이팔 제공</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002294112?sid=105</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>"다양한 글로벌 결제 솔루션 준비 중"토스페이먼츠는 해외 고객을 대상으로 하는 국내 사업자를 대상으로 글로벌 결제 수단 ‘페이팔’을 제공한다고 1일 밝혔다.페이팔은 글로벌 결제 수단 중 하나로, 해외 소비자가 국내 온라인 쇼핑몰을 이용할 때 세계 각국의 통화로 편리하게 결제할 수 있다.토스페이먼츠를 통해 페이팔을 도입한 사업자는 ▲계약·심사 ▲API 연동 ▲운영·기술 문의 ▲정산 ▲고객 민원 처리 등 모든 서비스를 한국어로 이용할 수 있다. 또 토스페이먼츠 고객센터를 통해 신속한 지원 서비스를 받을 수 있다.(사진=토스페이먼츠)사업자의 효율적인 사업 운영을 위한 서비스도 제공된다. 토스페이먼츠는 사업자가 지정한 날짜에 맞춰, 페이팔 결제에 따른 판매 대금을 원화로 자동 정산한다. 또한 거래 취소와 환불 요청 등 해외 소비자의 민원을 대응 및 관리할 수 있는 차지백 대시보드도 가맹점에 제공된다.김민표 토스페이먼츠 대표는 “국내 사업자가 해외 구매자 대상 판매 시, 언어장벽 등의 한계에 구애받지 않고 비즈니스에만 집중할 수 있도록 다양한 해외 결제 솔루션 출시할 계획”이라며 “가맹점과 소비자 모두에게 편리하고 안전한 결제 경험을 제공하기 위해 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>[굿모닝경제] 전세금 반환대출 규제완화 검토...美 CEO, 잇따라 방중</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001891800?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>■ 진행 : 나경철 앵커, 유다원 앵커■ 출연 : 이정환 한양대학교 경제금융대학 교수* 아래 텍스트는 실제 방송 내용과 차이가 있을 수 있으니 보다 정확한 내용은 방송으로 확인하시기 바랍니다. 인용 시 [YTN 굿모닝 와이티엔] 명시해주시기 바랍니다.[앵커]경제 소식을 빠르고 친절하게 전달해 드립니다. 오늘 굿모닝 경제는 이정환 한양대학교 경제금융대학 교수와 함께합니다. 어서 오세요.지금 역전세 우려가 또 커지고 있는 상황입니다. 그래서 정부가 전세보증반환 대출, 그러니까 임대인들이 임차인들의 전세금을 반환해 주기 위해서 대출을 받는 거죠. 이 부분에 대해서 DSR 규제를 완화하겠다, 이 부분을 검토하겠다고 밝혔는데 효과가 있을 거라고 보십니까? 어떻게 보세요?[이정환]일단 역전세를 이해를 하셔야 되는데 역전세라는 것은 전세계약자가 계약 초기, 처음에 계약금 낸 것보다 지금 전세 가격이 떨어져서 돈을 못 받을 위험이 커진 이런 상황이라고 보시면 될 것 같고요.그 말은 집주인이 그 차액만큼 돈을 제대로 지급을 해야 전세 세입자가 원활하게 새로운 집을 구할 수도 있고 자기 돈을 다 받을 수 있는 이런 상황이다라고 보시면 될 것 같습니다. 그런데 집주인이 이렇게 충분한 돈이 있고 집 가격이 많이 떨어지지 않았다고 그러면, 전세 가격이 많이 떨어지지 않았다 그러면 괜찮은데 그렇지 않고 전세 가격이 많이 떨어졌고 집주인이 충분히 돈이 없다고 그러면 현재 살고 있는 세입자 입장에서는 굉장히 불안하거든요.돈을 못 받을 가능성이 생기지 않느냐, 법정 소송을 해야 되지 않느냐, 이런 리스크가 굉장히 커지기 때문에 불안한 상황이니까 이런 부분에 한해서는 은행의 규제 때문에 돈을 못 주는 게 있다고 하면 규제를 완화해서 일부 한시적으로 올려서 이 부분에 대해서는 대출을 받아서 현재 세입자한테 돈을 주자라는 그런 이야기라고 말씀드릴 수 있겠고요.사실 DSR 때문에 대출이 많이 어렵기는 어렵거든요. 은행권 대출 같은 경우에는 흔히 말해 DSR 규제가 40%인데 원금의 10%, 그리고 그 이자 금액이 합친 것이 총 소득의 40% 아래로 가야 한다는 상당히 타이트한 규제기 때문에 이 DSR 때문에 대출을 못 받는 경우가 많습니다.그렇기 때문에 이런 DSR 규제를 조금 풀어서 역전세에 빠졌을 때 생기는 세입자에 대한 위험을 감소시키자라는 노력으로 보시면 될 것 같고 어느 정도는 실효성이 있을 수 있다고 보시면 될 것 같습니다.[앵커]그런데 규제가 완화되면 그만큼 또 가계대출이 늘어나게 되고 또 부실 위험도 커질 수 있잖아요. 이 부분은 어떻게 봐야 될까요?[이정환]최근 한국은행도 많이 이야기를 했는데 가계부채 수준이 우리나라 GDP 대비해서 너무 높다라는 이야기를 많이 하고 있고요. 특히나 3, 4월에 부동산대출 규제 같은 완화 효과가 있어서 주택담보대출이 좀 늘었습니다.사실은 신용대출은 지속적으로 금리가 인상됨에 따라서 감소하고 있는 추세인데 부동산 대출 규제가 풀리니까 흔히 말하는 주택담보대출이라고 이야기하죠. 주택담보대출이 좀 늘면서 대출이 늘어나는 게 아니냐라는 우려가 있는 게 사실이고요. 그렇기 때문에 이번에 DSR을 약간 푸는 것은 계약성 기반으로 풀어야 되는 게 아니냐라는 이야기를 많이 하고 있습니다.돈을 빌려줄 때 일괄적으로 푸는 게 아니라 지금 전세 계약, 그리고 새로이 맞이하는 전세 계약의 차이만큼만 딱 빌려줄 수 있게끔 이 이외의 용도로는 사용하게 못하게 그런 목적을 명확하게 해서 빌려주는 것이 타당한 것이 아니냐라는 논의가 많이 나오고 있고요.실제로도 아마 금융위원회가 이런 방식으로 가지 않을까. 돈을 빌려서 정확하게 이것을 지금의 세입자를 위한 용도로 써야지 자기만의 다른 용도로 쓰지 못하게 여러 가지 규제책을 만들고 있다라고 보시면 될 것 같습니다.[앵커]용도를 명확히 규정을 해야 된다라는 거죠. 어제부터 시행이 됐습니다. 대출을 갈아탈 수 있는 것. 온라인 대환대출 서비스가 어제부터 시행이 됐는데 좋은 반응을 얻고 있기도 한 것 같은데 또 반면에는 갈아탈 상품이 별로 없다, 이런 반응도 있는 것 같아요.[이정환]예전에 대환대출을 하려 그러면 한 은행에 갔다가 다른 은행에 가서 또 파악을 여러 가지 해야 되는데 이제는 플랫폼상에서, 예를 들면 카카오페이라든지 토스라든지 아니면 일반 은행 플랫폼상에서 다른 은행에 내가 이 비슷한 계약을 하면 어떻게 금리가 되고 우대금리, 흔히 말하면 어떻게 금리를 할인받을 수 있을지에 대한 정보를 제공하겠다는 게 지금 대환대출 서비스거든요.그래서 어제 카카오페이라든지 토스뱅크 중 일부는 서비스가 잘 안 될 수 있을 정도로 사람들이 많이 몰렸다고 이야기합니다. 그래서 수십억, 수백억가량의 돈이 왔다 갔다하는 이야기가 많이 있고요. 그런데 이것을 하는 것은 결국은 소비자들이 같은 부채를 조금 금리를 싸게 할 수 있는 창구를 열어줘야 되는 것이 아니냐라는 큰 틀에서 결국은 나는 B 은행 가면 훨씬 싸게 받을 수 있는데 A 은행에서 비싸게 받고 있으니까 이것을 쉽게 옮겨주자는 그런 취지의 그런 메시지를 드리고 있고요.특히 이것을 해서 은행들도 인센티브를 많이 준다고 이야기하고 있습니다. 우리는 이런 데서 결국은 이런 대환대출을 해서 대출을 갈아타기를 하면 깎아주겠다. 금리를 깎아주겠다라는 이야기를 하고 있어서 고객 모집의 수단으로도 사용되고 있다고 보시면 될 것 같은데 그런데 결국은 자기 조건이 가장 중요하고 얼마나 많은 은행들, 얼마나 다른 은행들과 비교할 수 있느냐가 굉장히 중요한데 아직 카카오페이 외에는 시중 5개 은행이 다 비교되는 사이트가 없다라고 이야기하더라고요.그렇기 때문에 자기가 갈 수 있는 것에 대한 폭이 좁은 부분이 하나 있고요. 그다음에 검색을 해도 비대면 가서 하는 것보다는 약간 금리가 차이가 나는 측면이 발견되고 있다, 그런 측면들이 있어서 아직까지 완벽한 시스템은 아닌데 차차 이런 것을 통합해 가면서 시스템을 개선해 나가야 되는 이런 상황이다라고 보시면 될 것 같습니다.[앵커]다음 주제도 살펴보겠습니다. 미중 갈등이 계속 심화하고 있는 상황에서도 미국의 거물급 CEO들이 중국을 방문하고 있더라고요. 일론 머스크 테슬라 CEO도 중국을 방문했었는데 배터리 분야를 협력하기 위해서 방문한 걸까요?[이정환]이 방문을 이해하려고 그러면 중국의 전기차 시장을 이해해야 되는데 사실 작년에 중국에서 팔린 전기차가 세계 50%를 차지하고 있다고 이야기하고 있습니다. 그리고 올해 중국의 전기차가 900만 대 정도 팔릴 거라고 예측을 하고 있고요.전체 중국의 예상되는 자동차 판매량이 2700만 대인데 3분의 1 이상은 이미 전기차로 가고 있는, 전기차 분야만큼은 미국보다 훨씬 큰 시장이 중국이다라고 이야기할 수 있겠습니다. 그리고 테슬라는 중국에서 2위쯤 차지하고 있는데 비야디라는 중국 원래 브랜드가 있고 테슬라가 있고 그 아래 여러 브랜드들이 있는데 사실 테슬라의 최근 시장 점유율이라고 하죠. 시장 점유율이 2020년에 비해서 21년, 22년 하면서 조금 감소되고 있거든요.이 감소되는 영향은 중국의 저가 자동차 공세라고 보시면 될 것 같습니다. 아무래도 중국의 배터리 기술 같은 것들이 발달하면서 싸지게 되고 그다음에 기본적으로 중국이 2000년대 후반부터 굉장히 전기차를 육성하려고 했기 때문에 모든 브랜드들에서 전기차 보조금을 많이 줬다. 그러니까 금융 지원을 많이 해 줬다라고 이해하시면 될 것 같습니다.소비자들한테 많이 좋은데 10년 동안 40조가량을 보조금을 줬다라고 이야기하고 있거든요. 그러니까 시장을 키우기 위해서 정부가 여러 가지 노력을 했고 이에 따라서 다양한 업체들, 3~4개 업체가 굉장히 유력한 경쟁력을 가지고 있는데 테슬라 입장에서도 이러한 다른 중국 내수시장의 전기차 업체와의 경쟁이 굉장히 부담스럽다라고 이야기할 수 있겠습니다.최근 말로는 어떻게 이야기가 나오냐 하면 중국이 반값 전기차 하겠다는 얘기가 나오면서 테슬라가 중국 시장의 경쟁 격화에 심각한 위기감을 느끼고 있다는 것은 분명한 사실입니다. 워낙 중요한 시장이고 중국 내부의 자동차 업체들이 굉장히 싼 가격을 내걸고 있기 때문에 가격 경쟁력 유지하고 그다음에 판매량을 유지하기 위해서는 방문해서 배터리 같은 것들을 중국 내에서 생산하고 그 생산한 것 가지고 조금 싸게, 그리고 그 가격 경쟁력을 가지고 시장 지분율을 유지해야 결국은 전기차 시장의 미래를 잡을 수 있다라고 이야기하고 있거든요.그러니까 전반적으로 테슬라가 전 세계적으로 보면 가장 큰 전기차 업체이긴 하지만 중국만을 놓고 봤을 때는 경쟁이 굉장히 치열한 상태고 지금 가격 경쟁이라는 큰 위기 상황이기 때문에 가서 적극적으로 중국에 배터리 공장도 짓고 배터리 공장을 지은 것을 바탕으로 해서 싸게 자동차도 만들고 이러한 가격 경쟁력을 바탕으로 해서 중국의 내부 자동차 업체들과 경쟁을 도모하려는 그런 노력이 보이고 있다라고 보시면 될 것 같습니다.[앵커]그러니까 미중 갈등 때문에 지금 중국의 수출을 막고 이런 상황들이 생기고 있는데 미국의 기업들은 결국에는 아까 말씀해 주신 전기차 판매 관련 통계만 봐도 중국을 포기하긴 힘들다, 이렇게 판단을 하고 있는 걸까요?[이정환]사실은 전기차 분야가 에너지 전환의 가장 큰 이야기라고 할 수 있겠고요. 발전소 이런 것도 굉장히 흔히 말하는 신재생에너지 발전 이런 것도 어떻게 보면 향후 가장 중요한 분야라고 할 수 있고, 공급망 관리에서 중요한 분야라고 이야기하는데 많은 원료들이 중국에서 나옵니다.희소 자원이라고 얘기하는데 희소광물, 혹은 희소 자원이라고 많이 이야기하는데 이것은 만들 때 굉장히 오염물질이 많이 나오기 때문에 실제 원산지는 칠레나 호주라고 할지라도 한 번 중국에 가서 나와야 다른 나라로 공급되는 시스템이거든요.채굴을 하더라도 이것이 산업용으로 쓸 수 있게 하려면 중국이 어떻게 보면 오염물질을 감수하고 이것을 생산해내고 있기 때문에 그런 공급망의 핵심을 차지하고 있다. 결국은 모든 희소 광물 공급의 70%, 심하게는 90%까지 중국이 껴있기 때문에. 물론 이게 장기적으로는 중국 안에서 이런 희소광물을 처리할 수 있는 공장을 짓고 공급망 이전하는 게 가능하지만 그런데 미국도 에너지 전환에 굉장히 큰 목표를 세웠거든요.바이든 정부가 나와서 2032년에는 전기차를 60% 수준까지 올리겠다라는 굉장히, 신차 판매 중 전기차 60%까지 올리겠다는 굉장히 강력한 정책을 드라이브하고 있기 때문에 당장 뭘 만들 수 없는 상황에서는 결국은 중국에 의존할 수밖에 없다.전기차 시장 자체가 워낙 중국이 크고 이런 배터리라든지 다양한 중요한 자원들을 만드는 중요한 산업 제품을 만드는 원재료들이 중국에서 많이 나오기 때문에 단기간 2030년, 2040년까지는 결국에는 중국의 의존도를 줄이기는 하겠지만 급격하게 줄일 수는 없고 만약에 급격하게 줄인다면 그 기업의 경쟁력이 떨어진다는 이야기거든요. 다른 데서 비싸게 사서 만든다는 이야기이기 때문에 급격하게 줄일 수는 없는 상황이기 때문에 중국 시장을 포기할 수는 없다.그렇기 때문에 기업들이 방문을 하고 여러 가지 교류를 통해서 자기네 기업의 경쟁력을 높이고 그다음에 시장 점유율을 높이려는 그런 노력들을 보이고 있다라고 보시면 될 것 같습니다.[앵커]끝으로 해외 증시도 살펴보겠습니다. 뉴욕증시, 유럽증시 모두 하락 마감했네요?[이정환]뉴욕증시는 약보합세로 마감했는데 두 가지 요인이 있다고 보통 이야기합니다. 지금 아무래도 바이든하고 메카시 미 의장이 협의를 했고 그다음에 하원 운영위원회 자체는 통과를 해서 미국이 부도가 안 날 거다라고 생각을 하고 있긴 하지만 하원 투표가 남아있거든요.하원 투표가 남아있고 지금 미국 공화당에서 흔히 말하는 강경 의원들이 매카시 하원의장을 사임시켜야 된다는 논의가 나올 정도로 분위기가 그렇게 좋지는 않은 상황이기 때문에 이런 것들에 대한 리스크가 반영됐다라는 부분이 하나가 있겠고요.그다음에 나스닥지수가 워낙 많이 올랐죠. 5월에 6% 이상 올랐는데 특히나 AI 관련 지수에서 많이 올랐는데 이런 것에 대한 부담이 있으면서 다우존스, S&amp;P500, 나스닥 지수가 전반적으로 하락한 상태로 마감했다고 보시면 될 것 같습니다.[앵커]합의안에 일부 반대하는 인사들도 있다고 들었는데 상하원 투표 결과를 주목해 봐야 할 것 같습니다.굿모닝 경제 오늘 이정환 교수와 경제 이야기 나눠봤습니다. 고맙습니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>타다 “경영효율화 구조조정 진행 중”... 날개 꺾인 혁신, 주저앉다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003369022?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>“방법과 규모는 비공개”… 업계 “50% 고강도”‘타다금지법’ 통과로 투자유치·사업확대 어려워 3년 간 다양한 서비스로 차별화 노렸지만 경영난 전동킥보드·스쿠터 플랫폼 스윙과 합병 논의 중모빌리티 플랫폼 ‘타다’가 강도 높은 구조조정에 들어갔다. 이른바 ‘타다 금지법’으로 핵심 서비스를 중단한 지 3년여 간 다른 택시 서비스와 차별화를 시도했지만, 경영 악화를 피하지 못했다. 다른 플랫폼으로 합병도 논의 중이다.타다 측은 15일 “경영 효율화를 위해 구조조정에 들어간 것은 사실”이라며 “다만 방법과 규모에 대해서는 구체적으로 확인할 수 없다”고 밝혔다. 앞서 업계에선 타다 운영사 VCNC가 최소 50% 감축을 목표로 희망퇴직을 진행하고 있으며, 희망퇴직자가 이에 도달하지 못할 경우 권고사직도 진행한다는 소식이 들려 왔다.2018년 서비스를 시작한 ‘타다 베이직’은 11인승 승합차를 기사와 함께 단시간 렌트하는 방법으로 이동수단을 이용할 수 있게 한 서비스였다. 합리적인 가격에 깨끗하고 널찍한 차량을 이용할 수 있으며, 특히 기존 플랫폼이 적용하지 않았던 자동배차 시스템을 도입했다. 당시 ‘승객 골라 태우기’와 승차거부, 불친절한 기사 등 기존 택시 이용에 불편을 겪던 사용자들은 타다 베이직에 빠르게 호응했다. 타다 베이직은 서비스 9개월 만에 이용자 100만명을 돌파했다.대법도 “‘타다’ 불법콜택시 아니다”…이재웅 무죄 확정 - (서울=연합뉴스) 윤동진 기자 = 1일 오후 타다 로고가 붙은 자동차가 서울 세종대로 사거리를 지나고 있다. 대법원 3부는 이날 여객자동차운수사업법 위반 혐의로 기소된 쏘카 이재웅 전 대표와 타다 운영사였던 VCNC 박재욱 전 대표에게 무죄를 선고한 원심을 상고 기각 판결로 확정했다. 함께 기소된 쏘카와 VCNC 법인도 무죄가 확정됐다.     현재 타다는 개정 여객자동차법이 허용하는 운송·가맹·중개사업의 범위 내에서 ‘타다 라이트’, ‘타다 넥스트’ 등 서비스를 제공하고 있다. 2023.6.1     mon@yna.co.kr (끝)하지만 타다 서비스를 ‘무허가 택시’로 규정한 택시업계는 창업자인 이재웅 당시 쏘카 대표와 박재욱 VCNC 대표를 검찰에 고발했다. 2020년 정치권은 타다 베이직 서비스 운영의 법적 기반이었던 여객자동차운수사업법을 개정했다. 법원은 1~3심에서 두 대표에 대해 내리 무죄로 판단했지만, 타다 베이직 같은 서비스는 불법이 돼 재개할 수 없게 됐다.이후 모바일 금융 플랫폼 토스에 인수된 타다는 베이직 없이 여타 택시 플랫폼들처럼 택시 면허를 가진 기사들과 서비스를 운영해 왔다. 다른 서비스와 차별화를 위해 동 앞까지 호출하는 서비스, 공항 이동 전용 호출 서비스, 기업 임원 차량 서비스, 외국인 이용자 위한 영문 서비스 등을 최근까지 도입했다.하지만 타다 금지법 국회 통과 이후 투자 유치와 사업 확대가 어려워졌다. 2021년엔 차량용 반도체 수급 문제로 차량 보급 등에 어려움을 겪으며 고전했다. 최근엔 전동킥보드, 전기 스쿠터 공유 플랫폼 ‘스윙’과 합병 논의가 진행 중이다. 합병이 완료되면 스윙 측에서 경영과 대표를 맡을 것으로 알려졌다.타다에 대한 무리한 기소와 법 개정 강행 등에 관해 반성과 재발 방지 목소리가 나오고 있지만, 여전히 ‘제 2, 제 3의 타다’로 불리는 스타트업과 기존 업계의 갈등 상황이 곳곳에 존재하고 있다. 법률 상담 서비스 ‘로톡’은 대한변호사협회와, 약 배달 서비스 ‘닥터나우’는 대한약사회와 갈등 상황에 있다.■타다 서비스 시작부터 구조조정까지-2018년 10월 : 쏘카 자회사 VCNC, 타다 서비스 시작-2019년 2월 : 서울개인택시조합, 쏘카 이재웅 대표, VCNC 박재욱 대표 검찰 고발.-10월 : 민주당 박홍근 의원, ‘타다 금지법’ 발의. 검찰, 이·박 대표 불구속 기소.-12월 : 공정위, ‘타다 금지법’ 반대 의견 제출-2020년 2월 : 법원, 이·박 대표 무죄 선고-3월 : 타다 금지법 본회의 통과-4월 : ‘타다 베이직’ 서비스 중단-5월 : 타다, 헌법재판소에 타다 금지법 헌법소원 청구-2021년 6월 : 헌재, 타다 금지법 합헌 결정-2022년 9월 : 법원, 이·박 대표 2심도 무죄 선고-2023년 6월 : 대법원, 검찰 항소 기각. 이·박 대표 최종 무죄. 타다 “경영효율화 위해 구조조정”</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>카카오게임즈·CJ ENM도 '월화수목토토일'</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004855120?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>IT·게임·스타트업 주 4일제 확산정유·철강·화학 제조사는 없어SK㈜, CJ ENM, 카카오게임즈 등 주 4일제 도입을 시도하는 기업이 늘고 있다.12일 경제계에 따르면 SK그룹 계열사 가운데 SK SK텔레콤 SK하이닉스 등은 한 달에 한두 번 주 4일 근무제를 운영하고 있다. SK와 SK수펙스추구협의회는 한 달에 두 번 금요일에 쉬는 주 4일제를 시행하고 있다. SK텔레콤은 격주로 금요일에 쉬는 ‘해피 프라이데이’ 제도를 운영하고 있다. SK하이닉스는 창립 10주년을 맞은 지난해 매달 셋째주 금요일에 쉬는 주 4일제를 도입했다.CJ그룹의 콘텐츠 계열사인 CJ ENM은 지난 2월부터 사실상 주 4일제를 도입해 운영 중이다. 월 2회 매주 금요일 출근하지 않고 외부 활동을 할 수 있도록 했다.‘배달의민족’을 운영하는 우아한형제들은 지난해부터 주 32시간으로 근무 시간을 단축했다. 월요일은 오후 1시부터 5시까지 근무하고, 화~금요일에는 오전 9시30분부터 오후 5시30분까지 일한다. 금융 앱 ‘토스’를 운영하는 비바리퍼블리카는 ‘얼리 프라이데이’ 제도를 시행하고 있다. 이 제도는 법정 근로시간인 주 40시간을 근무한 경우 금요일 오후 2시에 퇴근하는 제도다. 숙박 플랫폼인 ‘여기어때’를 운영하는 여기어때컴퍼니는 2017년부터 월요일 오후 1시에 출근하는 주 4.5일제를 운영하고 있다. 카카오게임즈는 2018년 7월부터 격주로 금요일에 쉰다. 정보기술(IT) 업체인 휴넷도 주 4일 근무제를 시행 중이다.하지만 하루 2교대나 3교대로 24시간 공장을 가동하는 정유·철강·화학·자동차업계에서 주 4일제를 도입한 곳은 거의 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>[콘텐츠 핫&amp;뉴] ‘나이트 크로우’ 매일유업과 제휴 프로모션</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005143742?sid=105</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>‘나이트 크로우’는 매일유업과 제휴 프로모션을 진행한다.위메이드(대표 장현국)는 MMORPG ‘나이트 크로우’와 매일유업과의 제휴 프로모션을 진행한다.이번 프로모션을 통해 ‘바리스타룰스 그란데(아메리카노, 라떼 등)’ 컬래버레이션 제품 2종을 선보인다.모든 상품에는 ‘나이트 크로우’에서 사용 가능한 ‘바리스타룰스 상자’ 쿠폰이 들어있다.바리스타룰스 상자를 열면 빠른 성장을 돕는 ‘돌격의 영약’, ‘필승의 영약’ 아이템과 ‘검은 깃털 패키지 I’을 획득할 수 있다.매일유업 공식 온라인몰에서는 아메리카노와 라떼 각 6개로 이뤄진 한정판 ‘스페셜 에디션’도 만나볼 수 있다.◆ ‘상하이 애니팡’ ‘모의 축복’ 신설위메이드플레이(대표 이호대)는 모바일 퍼즐 게임 ‘상하이 애니팡’에 퍼즐 스테이지 연승에 따른 보너스 ‘마오의 축복’을 신설했다고 14일 밝혔다.‘마오의 축복’은 처음 도전하는 퍼즐 스테이지의 연승 횟수에 따라 ‘블록 1쌍 제거’, ‘시간 5초 증가’, ‘블록 2쌍 제거’ 등의 보너스를 주는 신설 규칙으로 격주 단위 이벤트로 진행된다. 5번의 블록 매칭 마다 발동되는 ‘마오의 축복’은 1개 퍼즐 스테이지에서 5회 이상 사용되며 최소한 블록 10개 제거 또는 25초 이상의 추가 시간 등 보너스를 제공하며 재미를 더할 전망이다.한편 ‘상하이 애니팡’의 연승 보너스 규칙은 2018년 첫 선을 보인 ‘마오의 램프’에 이어 확대, 출시된 것이다.‘상하이 애니팡’은 이벤트형 보너스 ‘마오의 축복’ 신설과 함께 ‘낚시왕 마오 리그’를 오는 21일까지 진행한다.◆ ‘월드 플리퍼’ 한정 캐릭터 2종 추가카카오게임즈(대표 조계현)는 14일 모바일 액션 RPG ‘월드 플리퍼’에 한정 캐릭터 2종을 비롯한 신규 콘텐츠를 추가했다고 밝혔다.이번에 추가된 ‘★5 [극수의 무인 셰이롱]’은 강력한 일격으로 주변의 적에게 수속성의 대미지를 입히는 무술가다. 함께 추가된 ‘★5 [하얀 수호자 헬가]’는 견족 전사로 가장 가까운 적에게 곤봉을 이용해 뇌속성 대미지를 가한다.가장 가까운 적에게 풍속성 대미지를 입히는 ‘★4 [수행을 좋아하는 무도승 마카니]’도 함께 추가한다.카카오게임즈는 오는 30일까지 ‘★5 [극수의 무인 셰이롱]’을 포함한 한정 캐릭터 2종과 신규 캐릭터 1종이 대거 등장하는 ‘픽업 이벤트’를 실시한다.◆ ‘블루 아카이브’ 이벤트 스토리 업데이트넥슨(대표 이정헌)은 서브컬처 게임 ‘블루 아카이브’에 이벤트 스토리 ‘성당의 메리 크리스마스 ~구호 기사단의 선물~’을 업데이트했다고 14일 밝혔다.이번 이벤트 스토리에서는 ‘키보토스’에 크리스마스가 찾아온 가운데 자선 활동을 벌이던 ‘구호기사단’ 학생들이 불량배들의 음모에 휘말리게 되며 일어나는 이야기를 감상할 수 있다.이벤트 스토리 진행 중 각종 ‘엘레프’와 성장에 도움이 되는 다양한 장비를 얻을 수 있다.신규 학생 2종을 추가했다. ‘세리나(크리스마스)’는 ‘트리니티 종합학원’ 소속 관통 타입 스트라이커 학생이다.‘EX 스킬: 축복의 울림’ 사용 시 자신을 제외한 원형 범위 내 아군의 치명 대미지를 증가시키고 ‘성야의 축복’을 1개 적립한다.해당 아군은 적립된 ‘성야의 축복’에 비례해 관통 특효가 가산된다. 같은 학원 소속 ‘하나에(크리스마스)’는 신비 타임 스페셜 학생이다.‘EX 스킬: 선물 시간이에요~’ 구사 시 원형 범위 내 아군에게 ‘성야의 축복’을 1개 적립한다.학생들의 또다른 모습을 확인할 수 있는 신규 콘텐츠 ‘미니 스토리’도 선보였다.◆ ‘뮤 오리진2’ 신규 성장 콘텐츠 업데이트웹젠(대표 김태영)은 모바일 MMORPG ‘뮤오리진2’에 신규 어비스 콘텐츠 ‘어비스 광산’과 6종의 성장 콘텐츠를 업데이트한다.이용자들은 보유 캐릭터의 원소 능력치를 다양한 성장 콘텐츠를 통해 강화할 수 있다.어비스 수정 광산이 ‘어비스 광산’으로 리뉴얼 된다. ‘어비스 광산’은 수정 채집과 게임 회원 간 대전을 진행하는 콘텐츠다. 참여시 얻는 명예 포인트로 명예 상점에서 다양한 성장 재료로 교환할 수 있다. ‘랭킹 시스템’도 함께 도입되어 수정 채집과 회원 간 대전 결과에 따라 포인트가 누적되며 상위권 회원들에게는 특별한 보상을 준다.다양한 추가 성장 콘텐츠를 통해 보유 캐릭터를 한 단계 더 성장시킬 수 있다.먼저 ‘오라 초월’ 시스템을 선보인다. ‘오라 초월’시 원소 능력치 증가와 함께 특정 조건에서 발동하는 ‘초월 스킬’을 획득할 수 있다.‘신성 각인’ 시스템을 도입해 각인을 소모해 다양한 원소 능력을 강화할 수 있다.‘소울스피어’에는 ‘재생’ 시스템을 추가한다. ‘소울스피어 재생’시 원소 공격과 수비 능력이 양면으로 증가한다. 또한 고대 유물에도 ‘룬’을 장착할 수 있게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.06.04.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>"금리 0.01%P라도 낮게"…대환대출, 여러 곳서 비교하세요</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004852300?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>대환대출 서비스 비교국민銀, 카카오페이와 모바일 전용상품 출시하나銀, 토스 등 4개 플랫폼과 제휴우리銀, 0.5%P 우대금리신한銀, 대출이자 캐시백네이버페이, 포인트 적립뱅크샐러드, 대출금리 인하사진=게티이미지뱅크급전이 필요했던 A씨는 주로 쓰던 신용카드 회사에서 500만원의 카드론을 받았다. 금리는 연 19.9%였다. 저렴한 금리로 갈아탈 수 있는 대환대출 서비스가 지난달 31일 나왔다고 해서 한번 이용해보기로 했다. 그 결과 스마트폰에서 몇 번 클릭만으로 월 10만원 이상 이자를 낮출 수 있었다.정부 주도의 첫 대환대출 서비스 출시로 대출 갈아타기가 간편해졌다. 지금까지는 대환대출을 받으려면 금융회사 두 곳의 영업점을 방문해 최소 2영업일을 기다려야 했다. 그러나 이젠 스마트폰 앱으로 단 15분 만에 모든 서비스 절차가 완료된다.금융위원회에 따르면 지난달 31일과 이달 1일 이틀 동안 무려 3887건의 대출 이동이 이뤄졌다. 금액 기준으로 1055억원에 달한다. 금리가 대폭 인하된 사례도 나오고 있다. 가령 저축은행에서 신용대출 4800만원을 빌린 B씨는 1금융권인 시중은행으로 대출을 갈아탔다. 금리는 연 14.8%에서 연 6.5%로 뚝 떨어졌다. 이자 부담이 월 33만원 이상 줄어든 것이다.대환대출 서비스는 네이버페이·카카오페이·토스·뱅크샐러드·핀다 등 핀테크 플랫폼은 물론 신한은행·KB국민카드·웰컴저축은행 등 금융회사 앱에서도 가능하다. 업체별로 제휴 금융회사가 다르기 때문에 플랫폼마다 복수로 조회해보는 게 좋다.대환대출 서비스 출시에 맞춰 각 금융회사가 별도로 제공하는 우대금리 등 혜택도 적지 않다. 국민은행은 카카오페이 및 자체 뱅킹 앱 전용 상품을 선보였다. 기존보다 5000만원 늘어난 3억5000만원 한도의 ‘KB 온국민 신용대출’이 그 주인공이다. 하나은행은 신잔액 코픽스를 기준금리로 사용한 ‘하나원큐 신용대출 갈아타기’를 출시했다. 신잔액 코픽스는 일반 금융채나 신규 코픽스보다 변동 폭이 작아 금리 절감 효과를 누릴 수 있다. 하나은행은 네이버파이낸셜·카카오페이·토스·핀다 등 4대 플랫폼과 제휴를 맺기도 했다.  우리은행은 대환대출 서비스 고객에게 0.5%포인트의 우대금리를 적용한다. 자체 앱에서 신용대출을 갈아타면 중도상환수수료와 인지세 등 1인당 대출 거래비용을 최대 10만원까지 지원한다.신한은행은 모바일뱅킹 앱에서 다른 금융회사의 신용대출 보유 여부를 조회한 1만 명에게 추첨을 통해 스타벅스 아메리카노 기프티콘을 증정한다. 또 신한은행으로 신용대출 갈아타기까지 마친 30명에게 추첨을 거쳐 첫 달 대출이자를 마이신한포인트로 돌려준다.핀테크 플랫폼의 혜택도 쏠쏠하다. 네이버페이는 생애 첫 대출 조회 시 네이버페이 포인트 1000원을 적립해준다. 또 대출을 받거나 갈아탄 뒤 이자를 연체하지 않고 2회차까지 정상 납부하면 회차별로 네이버페이 포인트를 1만~5만원씩, 최대 10만원을 주기로 했다.플랫폼 가운데 유일하게 국민·신한·하나·우리·NH농협 등 5대 시중은행이 모두 입점한 카카오페이는 신용평가에 반영되지 못한 개인의 자산 정보를 손쉽게 제출할 수 있는 ‘신용점수 올리기’ 서비스를 내놨다.토스는 일부 저축은행과 캐피털사 상품 수수료를 올해 말까지 최대 40% 인하하기로 했다. 뱅크샐러드는 대환대출 서비스를 통해 대출을 갈아탈 경우 금리를 0.1%포인트 깎아준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.06.08.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>매물 ‘쓱페이’ 매력 없지만, 뒷배는 신세계…강희석 “파트너사 찾는다”</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002150050?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>왼쪽부터 SSG닷컴 이인영 대표, 이마트 강희석 대표, G마켓 전항일 대표[디지털데일리 이안나 기자] 쓱페이와 스마일페이가 매물로 시장에 나왔지만, 난항을 거듭하며 새 주인을 만나지 못하고 있다.이와 관련 8일 강희석 이마트 대표는 서울 강남구 코엑스에서 열린 ‘신세계 유니버스 페스티벌’ 행사장에서 “쓱페이·스마일페이는 매각이라기보다 파트너십을 할 상대를 찾고 있는 과정”이라고 밝혔다.쓱페이·스마일페이 사업부 새 주인을 찾는 과정은 매각 절차로 볼 수 있다. 그럼에도, 강 대표가 굳이 ‘매각’이라고 표현하지 않은 이유는 이후에도 페이 사업을 비롯한 다양한 협업을 신세계그룹과 이어갈 계획이기 때문이다.이날 신세계그룹은 오픈 플랫폼형 멤버십을 출시하며 외부 파트너사들과의 협업을 확대하기로 했다. 신세계그룹 강점인 오프라인 인프라는 할인 혜택을 더해 멤버십 가입을 유도하고, 간편결제 서비스는 실상 매각을 통해 외부 파트너 힘을 빌리겠다는 복안이다. 다양해진 소비자 수요를 모두 충족하기 위해선 신세계그룹이 모든 걸 독자적으로 운영하기에 경쟁력이 없다는 판단에서다.앞서, 업계에선 네이버와 토스 등을 유력한 인수 후보로 꼽았지만 현재까지 가시적 움직임은 파악되지 않는다. 온라인 간편결제 시장에서 쓱페이와 스마일페이 합산 점유율은 한 자릿수에 불과하다. 카카오페이·삼성페이·네이버페이 3곳이 시장점유율 약 90%를 넘게 차지하고 있다.사실상, 쓱페이와 스마일페이는 매력적인 매물이 아니라는 뜻이다. 이에 간편결제 매각에 그치지 않고, 신세계그룹과의 파트너십이라는 당근책을 시장에 제시할 수밖에 없는 상황이다.이날 강희석 대표는 “간편결제 서비스를 잘할 수 있는 파트너를 찾아 고객이 선호하는 파트너사와 금융 관련한 서비스를 제공하고자 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>은행권 1분기 BIS 총자본비율 0.29%p 상승…건전성 개선</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004851386?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>금감원, 국내은행, 3월 말 은행 BIS 기준 자본비율 현황' 발표금감원. 사진=한경DB올 1분기 말 국내은행들의 핵심 건전성 지표인 국제결제은행(BIS) 기준 자본비율이 개선됐다. 1일 금융감독원이 공개한 '2023년 3월 말 은행지주회사 및 은행 BIS 기준 자본비율 현황'에 따르면 BIS 기준 보통주자본비율, 기본자본비율, 총자본비율은 각각 12.88%, 14.24%, 15.58%로 작년 12월 말 대비 각각 0.28%포인트, 0.33%포인트, 0.29%포인트 올랐다. 금융당국의 규제비율은 보통주자본비율 7%, 기본자본비율 8.5%, 총자본비율 10.5%다. 자본비율이 전분기 대비 오른 건 순이익 시현, 증자·신종자본증권 발행 등 자본이 큰 폭으로 늘어난 데다, 대출자산 증가에도 바젤Ⅲ 최종안 적용으로 위험가중자산이 소폭 증가하는 데 그친 결과다.지난 3월 말 현재 모든 국내은행이 규제비율을 웃돌았다. 상대적으로 위험가중자산이 크게 감소하거나 자본 증가폭이 큰 11개 은행(KB·우리·DGB·JB·농협·SC·씨티·기업·수출입·수협·토스)은 전분기 말 대비 자본비율이 상승했다. 반면 위험가중자산 증가율이 자본 증가율을 상회한 5개 은행(신한·하나·케이·카카오·산업)은 자본비율이 하락했다. 금감원은 올 1분기 말 국내은행의 자본비율이 전반적으로 양호한 수준을 유지했다고 평가하면서도 최근 금융시장 내 불안이 지속되는 만큼 향후 부실 확대 가능성에 선제적으로 대비할 필요가 있다고 봤다. 금감원은 "국내은행의 자본비율 현황에 대한 모니터링을 강화하고 자본비율이 취약한 은행에 대해서는 자본적정성 관리를 강화토록 하겠다"며 "경기대응완충자본 적립의무 부과, 스트레스 완충자본 제도 도입 추진 등 강화되는 자본규제에 대비해 은행이 충분한 수준의 자기자본을 유지하도록 유도할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>대법원 무죄 확정 ‘타다’…M&amp;A 논의에 속도 붙나</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005267550?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>4년간의 법정 다툼 끝에 ‘무죄’로 일단락iM택시 운영사 진모빌리티와 합병 논의…1000억 투자 유치 추진도포티투닷·더스윙·우티 등도 잠재 인수 후보로 거론불법 논란이 일었던 차량호출 서비스 '타다' 관련 전 경영진이 4년 만에 대법원에서 무죄를 최종 확정받았다. 이른바 '타다 금지법' 시행으로 예전과 똑같은 서비스를 할 수는 없지만 타다 운영사인 VCNC의 인수·합병(M&amp;A) 논의에 속도가 붙을지 주목된다.대법원 3부(주심 오석준 대법관)는 1일 여객자동차운수사업법 위반 혐의로 기소된 이재웅 전 쏘카 대표와 타다 운영사 VCNC의 박재욱 전 대표에게 무죄를 선고한 원심을 상고 기각 판결로 확정했다. 함께 기소된 쏘카와 VCNC 법인도 무죄가 확정됐다. 이재웅 전 대표는 이날 페이스북에 "혁신은 죄가 없음이 대법원에서 최종 확인됐다"라며 "4년여 사이 혁신이 두려운 기득권의 편에 선 정치인들은 법을 바꿔서 혁신을 주저 앉혔고, 새로운 혁신 생태계를 만들어가던 많은 사람이 일자리를 잃었다"고 안타까워 했다. 이어 "혁신을 만드는 기업가를 저주하고, 기소하고, 법을 바꿔 기득권의 이익을 지켜내는 일은 이번을 마지막으로 없어야 한다"며 "국민의 편익을 증가시키는 혁신을 만들어 내기 위해 뒤에서 힘닿는 데까지 돕겠다"고 덧붙였다.타다금지법이라고 불리는 여객자동차 운수사업법 개정안 실행이 코앞으로 다가온 5일 서울 영등포구의 한 차고지에 '타다' 차량이 주차돼 있다. /문호남 기자 munonam@논란이 됐던 타다 베이직은 스마트폰 애플리케이션으로 운전기사가 딸린 11인승 승합차를 빌려 이용하는 서비스로 타다의 핵심 사업 모델이었다. VCNC가 쏘카에서 빌린 렌터카를 운전자와 함께 다시 고객에게 빌려주는 방식으로 운영했다.2018년 10월 서비스가 시작되자 택시 업계는 '불법 콜택시'라며 반발했다. 대규모 집회와 법 개정 움직임이 이어졌고, 택시기사 1명이 서울광장 부근에서 분신해 사망하기도 했다. 검찰은 타다 베이직이 옛 여객자동차법상 금지되는 '불법 콜택시 영업'이라고 보고 2019년 10월 이 전 대표와 박 전 대표를 불구속기소 했다. 타다 측은 기사 알선을 포함한 자동차 대여로 합법적인 사업이라고 반박하면서 법정 다툼이 시작됐다.‘불법 서비스’ 꼬리표 떼…진모빌리티와 합병 논의 중대법원에서 무죄를 확정받으면서 타다는 불법 서비스라는 꼬리표를 뗄 수 있게 됐다. 현재 VCNC가 주력으로 운영 중인 ‘타다 넥스트’는 고급 택시 면허를 보유한 기사가 7~9인승 승합차로 서비스를 제공한다. 과거 ‘타다 베이직’과는 다른 방식이다. 법정 다툼이 마무리되면서 업계의 관심은 M&amp;A로 향하고 있다. VCNC와 아이엠(i.M) 택시 운영사 진모빌리티는 합병 논의와 더불어 투자유치를 진행하고 있다. 두 회사는 사업 확장 등을 위해 택시 중개 플랫폼 신설 합병법인에 1000억원의 신규 투자금을 유치하는 방안을 추진하고 있다. 투자금 유치는 신생 사모펀드(PEF)인 오션프론트가 담당하는 것으로 알려졌다. 현재 기관투자가(LP)를 모집하는 단계다.i.M택시와 타다는 낮은 시장점유율과 부족한 차량 대수 등으로 독자 생존이 힘들다고 판단하고 힘을 합치기로 결정한 것으로 분석된다. 합병 작업이 계획대로 진행되면 진모빌리티가 신설 합병법인의 최대주주가 되고, 오션프론트는 2대 주주, VCNC의 최대 주주인 비바리퍼블리카(토스)는 3대 주주가 될 전망이다.칼자루 쥔 VCNC의 최대주주 ‘비바리퍼블리카’현재로선 진모빌리티가 우위를 점한 모양새지만, 변수는 남아 있다. 일각에선 공유 킥보드 업체인 ‘더스윙’과 우버와 티맵모빌리티 합작사 ‘우티’가 타다 인수전에 참전할 가능성을 제기한다. 현대차그룹의 자율주행 회사 ‘포티투닷’의 인수 가능성도 나오지만 포티투닷 측은 "사실 무근"이라고 부인했다. 비바리퍼블리카가 누구에게 얼마에 매각할지가 관건이다. 앞서 2021년 10월 비바리퍼블리카는 VCNC 지분 60%를 인수한 바 있다. 토스뱅크를 중심으로 사업을 영위하는 토스 입장에선 결제시스템 확장을 핵심 조건으로 내걸 수밖에 없다. 시너지 효과를 고려해 어떤 판단을 내릴지 주목된다.타다의 현재 자금 사정은 넉넉하지 않다. 현재 유력하게 거론되는 VCNC와 진모빌리티의 딜이 성사된다 해도 자생력을 갖추기 어렵다는 지적이 나온다. 지난해 말 기준 VCNC의 현금성자산(단기금융상품 포함)은 91억원이다. 이는 전년 472억원 대비 5분의 1토막 난 수준이다.VCNC·진모빌리티 자금 여력 부족이 같은 VCNC의 현금성자산 91억원과 진모빌리티의 현금성자산이 77억원가량을 합치면 168억원 정도다. 카카오모빌리티(3906억원), 티맵모빌리티(3798억원), 우티(623억원)와 비교하기 어려운 수준이다. 두 회사가 합병한다 해도 자금 여력이 충분하지 않은 않은 상태다. 사실상 두 회사 모두 투자 유치가 필요해 보인다.이들의 계획대로 신설 합병법인에 1000억원의 신규 투자금을 유치하는 방안을 추진할 경우 VCNC에는 가맹택시(타다 라이트) 사업만 남게 된다. 신설 합병법인에 택시 중개 플랫폼을 떼주기 때문이다. 문제는 타다 라이트를 키울 체력도 부족하다는 점이다. 이 때문에 별도의 자본 확충도 고민해야 하는 상황이다.IB 업계 관계자는 “타다 서비스가 캡티브 마켓(독점 또는 과점 형태 시장)이지만 미래 지향적인 서비스라는 점에서 매력적인 건 사실”이라며 “실탄을 고려하면 현대차 계열 포티투닷 참전 가능성을 배제할 순 없을 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>신보, 중소기업·스타트업 지원 위해 금융사와 협력 적극 추진</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003738803?sid=103</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 신용보증기금이 중소기업·스타트업 지원을 위해 금융사와 협력을 적극 추진하고 있다.12일 금융업계에 따르면 신용보증기금은 이달 토스뱅크, 유진투자증권과 연달아 업무협약을 체결했다.신용보증기금은 12일 토스뱅크와 ‘비대면·디지털 금융 활성화를 위한 업무협약’을 맺었다. 협약에 따라 양 기관은 △비대면 보증·대출 금융상품 공동개발 △상거래 신용지수 활성화 및 교류 확대 △기업 데이터 교류 및 네트워크 구축 등을 위해 적극 협력할 예정이다.플랫폼에서 보증과 대출업무를 원스톱으로 처리하는 시스템을 공동 개발해 ‘은행 연계 이지온 보증’ 서비스를 확대·제공할 예정이다.앞서 신용보증기금은 지난 9일 유진투자증권과 ‘우수 스타트업 투자유치 활성화를 위한 업무협약’을 체결했다.협약에 따라 신용보증기금은 혁신스타트업을 적극 발굴하고 민간투자유치 플랫폼으로 투자유치를 지원한다. 유진투자증권은 투자자 네트워크를 연계하고, 스타트업 활동 중심지인 서울 강남 소재 ‘챔피언스라운지’에서 투자유치를 위한 데모데이 인프라를 지원한다.최원목 신용보증기금 이사장은 “지속적인 디지털 금융 플랫폼 조성으로 기업 금융 접근성과 편의성을 강화하고, 미래가치 중심 완전히 새로운 금융서비스 제공을 위해 노력할 계획”이라며 “우수 스타트업이 글로벌 기업으로 성장하도록 혁신스타트업 도전과 성장을 위한 든든한 지원군이 되겠다”고 말했다.[사진 = 신용보증기금](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>앱테크로 ‘티끌 모아 태산’… 경기 불황에 푼돈 벌이 열풍</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001216584?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>고물가에 자투리 시간 활용 앱테크 주목핸드폰 만보기 기능 활용 리워드 제공보다 간편한 출석체크로 포인트 보상퀴즈 푸는 재미까지 더해진 이벤트도금융앱 토스가 올해 초 출시한 ‘친구와 함께 토스 켜고 포인트 받기’ 서비스가 젊은 직장인들 사이에서 인기를 끈다. 근처 토스 앱을 켠 다른 사용자의 아이콘을 누르면 10원씩 적립해 준다. 부산일보DB고물가와 경기 불황이 겹치면서 금융사 애플리케이션을 통한 푼돈 벌이가 열풍을 불고 있다. 점심시간, 출퇴근 시간 등 자투리 시간을 활용해 ‘앱테크’(애플리케이션과 재테크의 합성어)에 나서는 이들이 늘고 있다.가장 인기를 끄는 것은 별다른 임무 없이 핸드폰만 들고 다니면 되는 만보기다. 토스 앱 내 ‘만보기’는 1000보와 5000보를 걸었을 때 각각 10원을 제공한다. 이어 1만 보를 걸으면 20원을 지급해 하루에 총 40원을 받을 수 있다. KB국민은행 ‘KB스타뱅킹’의 KB매일걷기 서비스는 주 단위로 걸음 수를 측정한다. 한 주에 3만 5000보를 걸으면 50원, 7만 보를 걸으면 100원에 해당하는 포인트를 준다. 삼성금융네트웍스의 금융 통합 앱 ‘모니모’에서도 이용자는 매일 5000보를 걷고 현금화할 수 있는 리워드인 ‘젤리’를 하루에 1개씩 받을 수 있다.이보다 간편한 ‘출석체크’도 있다. 카카오페이의 경우 매일 앱에 접속해 출석체크를 하면 현금처럼 쓸 수 있는 카카오페이포인트 6포인트(6원 상당)씩 제공한다. 일요일에는 20포인트를 추가로 준다. KB국민카드 ‘KB 페이’는 앱에 접속해 출석체크하면 출석 체크 포인트를 무작위로 준다. 모니모도 앱에 접속해 출석버튼을 누르면 1젤리를 준다. 매일 출석체크를 완수해 한 달 개근하면 최소 1000원 이상으로 현금화할 수 있는 ‘스페셜 젤리’ 1개를 받을 수 있다.주변에 같은 앱을 쓰는 사람이 있다면 포인트를 받을 수도 있다. 블루투스 기능을 활용한 토스의 ‘함께 토스 켜고 포인트 받기’인데, 앱을 켠 사용자의 반경 100미터 근처 토스 앱을 켠 다른 이가 있으면 화면에서 해당 사용자 아이콘을 클릭해 포인트를 받을 수 있다.네이버파이낸셜 ‘네이버페이’는 결제할 때마다 포인트를 준다. 오프라인에서 네이버페이 포인트·머니, 카드 간편결제를 사용해 결제할 수 있는 서비스인 ‘네이버페이 현장결제’를 통해 결제하면 포인트 뽑기를 통해 최소 1원~최대 2만 원 상당 포인트를 무작위로 받을 수 있다.간단한 퀴즈를 풀면 매일 소정의 포인트를 주는 곳들도 있다. 신한은행 '신한 SOL', 신한카드 '신한 플레이', KB국민카드 'KB페이' 등이 매일 이용자들에게 퀴즈를 내고 정답자에게 10원 내외의 보상을 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>'알트코인=증권' 美 규제에 휘청... 유동성 악화 겹쳐 코인시장 하락 [위클리 코인 브리핑]</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005025950?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>미국 증권거래위원회 개리 겐슬러 위원장 뉴스1 '매 앞에 장사 없다'라는 옛말이 들어맞는 한 주였다. 규제 리스크가 겹치면서 가상자산 시장은 조정세를 보였다.   12일 업비트에 따르면 지난주(5~11일) 업비트 마켓 인덱스(UBMI)는 전주 대비 7.00% 떨어진 5715.22으로 마감했다. 같은 기간 코스피지수가 0.98%, 나스닥지수는 0.22%로 강보합세를 나타냈으나 가상자산 시장은 낙폭을 키웠다.   비트코인을 제외한 가상자산인 알트코인의 하락세가 더 두드려졌다. 알트코인 시장의 흐름을 확인할 수 있는 UBAI지수는 전주 대비 11.01% 하락한 3563.98으로 마감했다.   미국 증권거래위원회(SEC)가 바이낸스와 코인베이스를 증권법 위반으로 기소하면서 솔라나, 폴리곤, 샌드박스 등 알트코인을 '증권'으로 분류했기 때문이다.   가상자산 시황 중계사이트 코인마켓캡에 따르면 카르다노, 솔라나, 폴리곤, 코스모스는 지난 10일을 기점으로 각각 20~30% 하락했다. 4개 코인은 시가총액 20위권 내에 드는 주요 알트코인으로, SEC가 바이낸스와 코인베이스를 기소하면서 증권으로 판단한 19개 코인에 포함됐다.   SEC 기소장에 포함된 코인뿐만 아니라 이더리움 대항마로 주목받은 앱토스와 수이도 각각 32% 37% 폭락했다.   유동성 약화도 코인시장에 악재로 작용하고 있다. 가상자산거래소 엘뱅크의 벤처캐피털(VC) 엘뱅크랩스의 조니 텡 수석 연구원은 "비트코인 가격이 2만5000달러 부근을 쉽사리 벗어나지 못하는 이유는 유동성 악화가 주요 원인"이라며 "특히 SEC의 업계를 향한 추가 조사를 우려하는 기관 투자자들이 시장을 이탈하면서 유동성이 계속 악화되고 있는 상황"이라고 분석했다.   주간 가격상승률이 가장 높았던 종목은 이날 오전 9시 기준 비트토렌트(BTT)로 일주일 새 14.29% 뛰었다. 테마별로 보면 모든 테마가 하락세를 보인 가운데, 비트코인그룹이(-4.29%)이 가장 낮은 하락세를 보였다.   업비트 공포지수는 주간 평균 44.32을 기록하며 전주에 이어 '중립' 상태를 유지하고 있다. 업비트에 따르면 지난주 가장 탐욕적인 투자가 이뤄진 가상자산은 메탈, 리플, 트론 등이고, 가장 공포에 잠긴 투자가 이뤄진 가상자산은 카바, 폴리매쉬, 1인치네트워크 등이다. 폴리매쉬, 1인치네트워크는 일주일 동안 각각 28.12%, 27.73%의 자산 하락을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.06.06.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>대환대출 성공 사례도 있지만…나만 안 되는 이유는</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011898240?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>이자 낮춘 고객 증가, 동시에 거절이나 고금리 사례도↑DSR 규제비율 초과하는 차주 많아, 은행 부적격 판단도[서울=뉴시스] 김근수 기자 = KB국민·신한·하나·우리은행 2일 기준 신규 취급액 코픽스 주택담보대출 변동금리를 연 3.910∼6.987%로 1년 3개월만에 3%대로 떨어졌다. 사진은 4일 서울시내의 한 은행의 주택담보대출 금리 안내문. 2023.06.04. ks@newsis.com[서울=뉴시스] 이정필 기자 = #. 직장인 A씨는 기존에 저축은행에서 받았던 신용대출 5000만원을 최근 NH농협은행으로 대환하면서 적용 금리를 연 8.2%에서 5.68%로 낮출 수 있었다. 매달 갚는 원리금은 59회 상환 기준 103만2592원에서 97만3283원으로 월 6만원 가량 내렸다.온라인·원스톱 대환대출 플랫폼이 가동되면서 기존보다 낮은 금리로 신용대출을 갈아탔다는 사례가 점차 늘어나고 있다. 한편으로는 대환 부적격 판정을 받거나 기존보다 높은 금리만 뜬다는 사례도 많다.6일 금융권에 따르면 대환대출 인프라가 출시된 이후 카드사 등 2금융권에서 시중은행이나 인터넷전문은행으로 신용대출을 환승하는 사례가 늘고 있다.한 저축은행 고객은 대출원금 7000만원을 11.48% 금리로 이용하고 있었다. 최근 토스뱅크로 대환하면서 6.32%로 금리를 5.16%포인트 낮췄다. 원리금은 월 66만9667원에서 36만8667원으로 매달 부담을 30만원 넘게 내렸다. 한 카드사 고객은 기존 금리 19.90%를 인터넷은행으로 갈아타면서 5.84%로 14.06%포인트 낮추기도 했다.우리은행에서는 캐피탈사에서 12.9% 금리로 사용하던 대출을 5.8%로 갈아타면서 월 이자금액을 19만4000원 아낀 사례가 있다. 저축은행의 7%대 신용대출을 5%대로 갈아타면서 이자를 월 10만4000원 절약한 고객도 있다.반면 총부채원리금상환비율(DSR) 규제 초과나 금융사별 신용대출상품 취급 자격 미달 고객은 대환이 거절되고 있다. 취급 자격 미달 사례를 보면 직장 정보가 없거나 연소득이 일정 기준 미만인 경우 등이 해당된다.대환은 기본적으로 연체나 보증·담보가 없는 것이 조건이다. 대환 불가 사유로는 ▲연체대출 ▲대출 이동 처리 중인 대출 ▲압류나 거래정지 ▲법률 분쟁 신용대출 ▲채권조정이나 특수채권 대출 등이 있다.이 같은 조건에 더해 각 금융사가 리스크관리 차원에서 차주별로 대환을 제한할 수 있다. 은행권은 과도한 다중채무나 대부업권 대출 보유자, 채무조정프로그램 등 대환 대출 보유자, DSR 규제 미충족자 등은 대상에서 제외하고 있다.대출이 거절된 경우는 대환하고자 하는 대출 이외에 보유한 대출이 많아서 한도가 나오지 않거나, 차주가 은행이 정한 신용대출 승인구간 안으로 들어오지 못할 때가 대표적이다.시중은행 관계자는 "일례로 10곳의 다중채무자 등 연체나 미상환 가능성이 높다고 판단되면 부적격으로 나올 수 있다"며 "정책금융 상품이 아니기 때문에 1금융권에서는 리스크 관리 차원에서 대출 기준을 기존과 동일하게 적용하고 있다. 플랫폼 출시 이후 DSR 기준에 걸리는 고객 사례가 많다"고 설명했다.온라인·원스톱 대환대출 서비스는 대출비교 플랫폼과 개별 금융회사 앱이라는 두 가지 방법으로 이용할 수 있다. 갈아탈 수 있는 대출은 대환대출 서비스에 참여한 53개 금융회사에서 받은 10억원 이하의 기존 대출 중에 직장인대출이나 마이너스통장처럼 보증·담보가 없는 신용대출이다.대출비교 플랫폼을 이용하기로 했다면 해당 앱을 스마트폰에 설치한 뒤 대환대출(대출 갈아타기) 메뉴를 선택하면 된다. 이를 위해서는 여러 금융기관에 흩어져 있는 자신의 금융정보를 한 곳에서 조회할 수 있는 '마이데이터'를 해당 플랫폼 내에서 가입해야 한다. 이미 가입한 경우라면 본인이 기존에 받은 대출의 금리, 갚아야 할 금액 등을 바로 확인할 수 있고 미가입자라면 가입 화면으로 안내된다.대환대출 플랫폼을 이용해봤더니 기존 금리보다 더 높은 상품들이 나왔다는 차주들도 있다. 금융위원회는 대출비교 플랫폼에서 대출조건을 조회해도 갈아탈 수 있는 낮은 금리의 상품이 나오지 않는 경우를 크게 3가지로 설명하고 있다.▲고신용자가 기존에 충분히 낮은 대출금리를 적용받고 있는 경우 ▲현재 시점의 DSR 규제비율을 초과하는 대출을 보유해 금융회사로부터 신규 대출을 받을 수 없는 경우 ▲대출비교 플랫폼에 입점한 금융회사가 소비자의 대출조건 조회결과를 전송하는 데 지연이나 오류가 발생한 경우다.시중은행 관계자는 "대환대출 서비스가 출시되고 행원들도 각자 받은 신용대출을 플랫폼에서 비교해봤는데 더 높은 금리의 상품이 뜨는 경우가 있었다"며 "각 고객에게 맞춘 최적의 상품이 선별돼 나오지 않고 대환이 가능한 여러 상품이 나오기 때문에 상황별로 비교해보고 결정해야 할 것"이라고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>제4 이동통신, 정부가 접촉한 유력 후보 3곳</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003767783?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>과기정통부, 쿠팡·KB국민·토스에 참여 요청							제4 이동통신 사업자 후보로 쿠팡과 KB국민은행, 토스 앱 운영사인 비바리퍼블리카가 떠오르고 있다. 정부 고위 관계자는 4일 “이달 말로 예정된 제4 이통 사업자 모집 공고를 앞두고 주무 부서인 과학기술정보통신부가 최근 잠재 후보 기업들과 직접 접촉해 참여 검토를 요청했다”며 “정부 입장에서 제4 이통으로 성공 가능성이 있다고 판단한 기업들”이라고 밝혔다. 본지 취재 결과, 정부가 제4 이통 잠재 후보로 꼽은 주요 기업은 쿠팡과 KB국민은행, 비바리퍼블리카다.올 초부터 현 정부는 통신 3사의 과점 체제를 깨고 경쟁 활성화를 위해 제4 이통 사업자를 발굴·육성하겠다는 목표를 밝혀왔다. 이를 위해 과기정통부는 통신 3사로부터 회수한 28GHz(기가헤르츠) 대역의 5G 주파수를 제4 이통용으로 쓰겠다는 방침을 1월 말 내놓은 데 이어, 이달 말 해당 주파수 할당 공고를 통해 제4 이통 사업자 모집 절차에 들어가기로 한 상태다. 이후 지원 기업들을 대상으로 심사를 실시해 늦어도 12월까지 최종 사업자를 선정한다는 계획이다.그래픽=백형선 그래픽=백형선 그래픽=백형선										◇정부, 쿠팡·KB국민·토스 접촉국내 대표 이커머스 기업인 쿠팡이 유력 후보로 떠오른 이유는 통신 3사 대리점을 거치지 않고도 소비자들이 스마트폰을 쉽게 구매할 수 있는 온라인 유통망을 보유하고 있기 때문이다. 이를 토대로 전국 곳곳에 오프라인 매장을 구축해야 하는 비용을 효과적으로 줄이는 한편, 최소한의 영업 조직으로도 온라인상에서 통신 3사와 가입자 유치 경쟁을 벌일 수 있다는 것이다. 여기에 쿠팡이 OTT(온라인 동영상 서비스) 쿠팡플레이를 운영하는 점도 제4 이통과 시너지를 낼 수 있다는 분석이 나온다. 업계 관계자는 “최근 OTT 이용자들이 계속 늘어나면서 통신 3사 역시 OTT와 제휴를 맺고 OTT 요금와 통신 요금을 합친 팩키지 상품으로 가입자들을 끌어들이고 있다”며 “쿠팡도 쿠팡플레이를 활용해 통신 3사에 뒤지지 않는 OTT-통신 결합 요금제를 출시해 얼마든지 경쟁이 가능할 것”이라고 했다.KB국민은행과 비바리퍼블리카는 이미 알뜰폰 서비스를 하고 있는 만큼 제4 이통 사업자로 선정되더라도 큰 무리 없이 이동통신 시장 연착륙이 가능할 뿐 아니라, 통신·금융 융합 서비스로 통신 3사와 차별화를 시도할 수 있다는 점이 부각되고 있다. 2019년 말 금융권 최초로 알뜰폰 ‘리브엠’을 시작한 KB국민은행은 소비자단체 컨슈머인사이트가 반기별로 실시하는 ‘이통 서비스 만족도 조사’(3만5000여 명 대상)에서 2021년 하반기와 지난해 상·하반기 연속으로 통신 3사를 제치는 등 이미 브랜드 인지도까지 확보한 상태다. 비바리퍼블리카는 알뜰폰 ‘토스모바일’ 론칭 시점이 올 1월 말로 짧지만, 누적 가입자 2200만명에 달하는 토스 앱과의 연계가 강점으로 꼽힌다. 토스 앱으로 알뜰폰 가입 신청부터 스마트폰 개통에 필요한 유심(가입자 전화번호 정보가 담긴 칩) 배송까지 다 진행이 가능하다.◇수익 모델 확보가 관건여권 관계자는 “정부가 제4이통을 반드시 도입하기 위해 모집 공고를 내기 전부터 성공 가능성이 있는 기업들을 대상으로 미리 참여를 요청한 것”이라고 했다. 다만 통신 업계에선 “아무리 정부가 지원을 약속하더라도 기업들 입장에선 이미 확고하게 자리 잡은 통신 3사와 경쟁하며 수익을 내야 하는 것은 물론, 앞으로 망 구축 등 인프라에도 막대한 투자비를 써야 하는 만큼 쉽게 도전 여부를 결정하기 어려울 것”이라는 얘기가 나오고 있다. 실제로 정부로부터 참여 권유를 받은 잠재 후보 기업들 역시 제4 이통 도전 여부를 확정 못 하고 고민 중인 것으로 알려졌다.업계 관계자는 “이번에 정부가 제4 이통을 위해 내놓은 주파수(5G 28GHz 대역)는 아직까지 제대로 수익을 내기 어려운 완전 자율주행 자동차나 고도화된 증강현실(AR) 서비스에 특화된 용도여서 기존 통신 3사도 활용하지 못했던 것”이라며 “이를 토대로 국내 이동통신 시장 점유율이 80%를 휠씬 넘는 통신 3사와 경쟁해야 하는 만큼 고민이 클 수밖에 없을 것”이라고 했다. 여기에다 최근 정부가 통신비 인하 정책을 추진하면서 통신 3사에 이전보다 저렴한 중간요금제와 청년·어르신 요금제를 잇따라 출시토록 유도한 것도 제4 이통 잠재 후보 기업들엔 적지 않은 부담이란 지적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>12월 대환대출 '2라운드' 시작… 1000조 주담대 잡아라</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000927694?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[머니S리포트-막오른 대출전쟁… 10조원 머니무브③] 은행 대출 72% 차지, 4억 주담대 5→4% 갈아타면 이자 1.1억 절감[편집자주]스마트폰 애플리케이션(앱)으로 손쉽게 더 싼 이자의 대출로 갈아탈 수 있는 대환대출 플랫폼이 5월31일 출시된 이후 뜨거운 관심을 얻고 있다. 연간 100조원으로 추산되는 신규 신용대출 가운데 10조원 가량이 대환대출 시장 규모로 추정된다. 금융사간 대출금리 경쟁이 치열해지는 만큼 금융소비자들의 이자 절감 효과는 커질 전망이다. 다만 접속 지연·오류 발생 등 출범 첫날부터 삐걱거린 모습을 보이면서 시스템이 안정화되기까지 시간이 걸릴 것으로 보인다. 일각에선 시작만 거창하게 했다가 보험비교플랫폼 '보험다모아'처럼 유명무실해지는 것 아니냐는 우려의 목소리도 나온다. 올 12월 주택담보대출까지 대환대출이 확대되면 이용자는 더욱 늘어날 전망이다.서울 송파구 롯데월드타워 서울스카이에서 바라본 아파트단지 모습./사진=뉴스1 ◆기사 게재 순서① "너무 기대했나" 베일 벗은 대환대출… '빅테크' 네카토, 오류 투성② 대환대출 플랫폼, 유명무실해진 '보험다모아' 전례 밟나③ 12월 대환대출 '2라운드' 시작… 1000조 주담대 잡아라금융사를 직접 가지 않아도 스마트폰으로 더 싼 이자의 대출로 갈아탈 수 있는 온라인·원스톱 대환대출 서비스가 10억 이하의 보증·담보가 없는 신용대출을 대상으로 출시된 데 이어 올 12월에는 주택담보대출로 확대된다.주담대는 신용대출보다 상대적으로 대출액 자체가 큰 만큼 차주들이 체감하는 금리 인하 효과는 보다 클 것으로 기대된다.━은행 대출 72%가 주담대… 한 달 이자 30만원 절감━가계대출에서 주담대가 차지하는 비중은 꽤 큰 편이다. 한국은행에 따르면 올 3월 말 기준 금융권 가계대출 잔액은 1739조5000억원으로 이중 주택담보대출은 1017조9000억원이다. 주담대가 전체 가계대출의 59%를 차지한다.은행만 놓고 보면 같은 기간 은행 가계대출 890조5000억원 가운데 주담대는 642조원으로 비중이 무려 72%에 이른다.신용대출과 달리 주담대는 주택을 담보로 하는 대출인 만큼 대출 금액 또한 신용대출보다 상대적으로 크다는 점에서 대출자들은 신용대출보다 금리 인하 효과를 크게 볼 것으로 전망된다.예를 들어 4억원의 주담대를 30년 만기, 원리금균등상환 방식에다 연 5%의 금리로 이용해 왔던 대출자는 은행에 매월 내야 하는 원리금이 268만4108원이다.이 주담대를 대환대출 플랫폼을 통해 연 4%의 상품으로 갈아타면 월 원리금이 238만7076원으로 한 달 이자를 29만7032원 아낄 수 있다. 총 대출이자는 4억6628만원에서 3억5935만원으로 이자가 1억693만원 줄어든다. ━인뱅, 주담대 대환대출 플랫폼엔 뛰어드나━은행 입장에서도 가뜩이나 줄고 있는 가계대출을 다시 늘릴 기회도 잡을 수 있다. 고금리 여파로 KB국민·신한·하나·우리·NH농협 등 5대 은행의 가계대출 잔액은 5월 말 기준 677조6122억원으로 가계대출이 감소세로 돌아서기 직전인 2021년 12월 말(709조529억원)과 비교해 1년5개월 만에 31조4407억원 줄었다.타 금융사에 있던 5억원의 주담대를 대환대출 플랫폼으로 1만건 뺏어와도 가계대출 5조원을 늘릴 수 있다는 얘기다.특히 담보대출 비중을 높이고 있는 인터넷전문은행들이 주담대 대환대출 플랫폼에 적극적으로 뛰어들 것으로 전망된다. 현재 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사는 신용대출을 갈아타는 대환대출 플랫폼에 입점하지 않고 있다.금융당국과 약속한 중·저신용자의무 비중을 지켜야 하기 때문이다. 인터넷은행 3사가 대환대출 플랫폼에 입점해 고신용자 신용대출이 대규모 유입되면 이들은 올해 말까지 각각 44%(토뱅), 32%(케뱅), 30%(카뱅) 등 중·저신용자 대출 목표 비중을 달성하기 어려울 것이라는 관측에서다.반면 주담대는 인터넷은행들이 공격적으로 확장하는 영역인 만큼 금리 경쟁이 본격적으로 이뤄질 것이란 기대다. 인터넷은행은 최근 연체율이 급등한 탓에 대출 안정성을 높이기 위해 담보대출을 늘리는 데 매진하고 있다.실제로 인터넷은행 3사의 연체율은 올 3월 말 기준 0.58~1.32%로 전년 동기 대비 0.32~1.28%포인트 올랐다. 이는 같은 기간 5대 은행 연체율 상승폭(0.08~0.13%포인트)과 비교하면 약 4~10배 높은 수준이다.인터넷은행은 연체율 상승에 따른 리스크를 최소화하기 위해 안정성이 높은 주담대를 확대한다는 전략이다. 담보대출은 신용대출과 달리 연체가 발생해도 담보물을 경매로 매각하면 원금 대부분을 회수할 수 있어서다.인터넷은행은 주담대 금리를 시중은행 대비 0.39~0.77%포인트 낮은 수준에 형성하고 있다. 올 4월 신규 취급한 분할상환(만기 10년 이상) 방식 주담대 평균 금리를 보면 카카오뱅크는 연 3.85%, 케이뱅크는 3.93%로 전월과 비교해 각각 0.19%포인트, 0.16%포인트 떨어졌다.4월 5대 은행 주담대 평균금리(4.24~4.70%)와 비교하면 확연히 낮은 수준이다. 특히 3%대 주담대 취급 비중을 보면 카카오뱅크는 82.7%, 케이뱅크는 75.8%에 달해 시중은행(비중 0.2~0.6%)에 비해 월등히 높은 수준을 형성하고 있다.시중은행 주담대 금리 안내 현수막./사진=뉴스1 ━주담대 대환대출 난관은?━금융당국이 구상하는 금리 경쟁이 주담대 대환대출 플랫폼을 통해 활성화될 것으로 기대되지만 이마저 쉽지 않을 것이란 우려가 적지 않다.주담대 특성상 근저당권 설정과 주택 소유권 이전 등기 등 서류 절차를 100% 비대면 온라인 플랫폼에서 구현할 수 있을지 물음표가 붙는다. 기존에 잡혀 있던 근저당권을 말소하고 다시 등기를 설정하는 과정들이 온라인으로 단기간에 구축하기엔 어렵다는 지적이 있다.여기에 주담대 대환 과정에서 중요한 시세 평가 부문에서 아파트와 달리 빌라·단독주택 등은 담보가치를 확인하기 쉽지 않아 온라인 대환대출로 구현하는데 어려움이 있다는 분석이다.신진창 금융위 금융산업국장은 "주담대 대환대출은 플랫폼에서 원스톱으로 구현하기 어려운 점이 있다"면서도 "등기나 표준화 측면에서 가격 확인이 용이한 아파트 대상의 주담대부터 대환대출을 시작하는 것을 생각하고 있다"고 말했다.대환대출을 통해 주담대를 갈아타기 전 중도상환수수료를 얼마나 부담해야 하는지 꼼꼼히 따져봐야 한다고 전문가들은 조언한다. 통상 시중은행은 주담대를 대출일로부터 3년 안에 갚을 경우 대출 잔액의 1.5% 안팎을 중도상환수수료로 부과한다.대환대출로 아낄 수 있는 이자액보다 중도상환수수료가 더 클 경우 대환대출을 하지 않는 것이 바람직하다. 시중은행 관계자는 "주담대 갈아타기를 완전 비대면으로 구축하기란 생각보다 쉽지 않을 것"이라며 "주담대 대환대출은 건당 취급 규모가 크기 때문에 금융사가 플랫폼에 내는 수수료 역시 대출금리에 전가될 가능성이 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>컴투스홀딩스, '웹3 게이밍 위크'서 엑스플라 성과·비전 발표</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000751937?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>폴 킴 리더, '웹3 게임, P2O로의 전환' 주제로 강연웹3 게이밍 위크에서 폴 킴 리더가 세션을 진행하고 있다. [사진=컴투스홀딩스]컴투스홀딩스(대표 이용국)는 글로벌 블록체인 메인넷 엑스플라를 통해 12일부터 17일까지 싱가폴 구글 아시아퍼시픽 본사에서 열리는 ‘웹3 게이밍 위크'에 참여한다.XPLA 팀의 폴 킴 리더는 '웹3 게임, P2O로의 전환'이라는 주제로, 토크노믹스를 발전시켜 신작 게임에 적용하는 사례를 설명했다.또 컴투스홀딩스와 함께 올해 엑스플라 메인넷에 온보딩할 '미니게임천국' '서머너즈워: 크로니클' '낚시의 신'등 라인업을 소개했다. 15일까지는 이 게임들의 데모 버전 시연 행사도 마련한다.웹3 게이밍 위크에는 '앱토스' '애니모카 브랜즈' 등 기업이 초청됐으며 '폴라나 재단'의 '악샤이 비디', 'YGG'의 공동 설립자 '가비 디존' 등 30여 명의 웹3 분야 저명 인사가  연사로 참여한다.XPLA는 NFT 마켓플레이스, 메타버스, 엔터테인먼트 서비스를 아우르는 글로벌 메인넷이다. 컴투스홀딩스 등 컴투스 그룹과 함께 YGG, 코스모스테이션, 제로엑스앤드, 애니모카 브랜즈, 덱스랩 등 웹3 기업들과 파트너십을 맺고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>5대 시중은행, 청년도약계좌 기본금리 4%로 올릴 듯</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001217033?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>까다로운 우대금리 비판 여론에기본금리 0.5%P 인상안 검토청년층 눈높이엔 여전히 미흡지난 12일 서울 은행회관에서 열린 청년도약계좌 협약식. 연합뉴스주요 시중은행이 청년도약계좌의 기본금리를 올리는 방안을 검토하고 있다. 카드 사용 실적 등 까다로운 우대금리 조건을 내건 것에 대한 비판 여론을 의식한 조치로 읽힌다.13일 금융권에 따르면 5대 시중은행(KB·신한·하나·우리·NH농협)은 청년도약계좌의 기본금리를 4.0%로 0.5%포인트(P) 인상하는 방안을 적극적으로 검토하고 있다. 이들은 지난 8일 잠정 금리 공시 당시 공통으로 3.5% 기본금리를 제시한 바 있다.금융당국 요청대로 기본금리 비율은 늘리고(58.3→66.7%), 우대금리 비율은 줄이면서(33.3→25.0%) 지나친 역마진을 고려해 최고 금리가 6%를 넘지 않도록 관리하겠다는 계산으로 분석된다.일부 은행은 특히 기본금리를 0.5%P 올리고 우대금리(2.0%)는 그대로 적용해 최고금리를 6.0%에서 6.5%로 상향 조정하는 안도 검토하고 있다. 반면 기본금리를 0.5%P 높이는 대신 우대금리를 조정해 6.0%를 유지하겠다는 은행도 있다.하지만 주요 은행이 검토안대로 기본금리를 올린다고 해도 금융당국과 청년층의 눈높이에는 여전히 미치지 못할 가능성이 크다. 금융당국 관계자는 “은행은 (기본금리 인상이 어려운 이유로)역마진을 이야기한다. 사회 공헌 측면이 있는 만큼 좀 더 긍정적으로 검토해 줬으면 좋겠다”고 말했다.금융당국 입장에서는 젊은 세대에게 친숙한 인터넷 은행이 청년도약계좌 판매에 동참하지 않은 것도 아쉬운 부분이다. 금융당국은 카카오뱅크·케이뱅크·토스뱅크에도 청년도약계좌 출시를 권유했지만, 이들은 대면 업무를 처리할 오프라인 지점이 없어 현실적으로 불가능하다며 거부한 것으로 전해진다. 다만 당국과 여론을 의식한 인터넷 은행은 관련 계획을 묻자 공통으로 “추후 참여를 검토할 수 있다”고 언급했다.한편 은행권은 역마진을 우려해 개별 은행 가입자가 일정 기준에 이르면 판매를 종료할 수 있는 ‘가입자 수 상한’을 설정해 달라고 금융당국에 요청한 뒤 답을 기다리고 있다. 금리가 조금이라도 높은 경우 해당 은행으로 가입자가 몰리는 이른바 쏠림 현상이 심화될 수 있다는 우려 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>토큰증권, '투자 혁신의 아이콘'으로 자리 잡을까</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016825?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>창간10주년기획[DX인사이트]부동산·미술품·음원 등…유·무형의 다양한 자산 '토큰화' "미래 금융시장 이끌것"…증권사 STO생태계 마련 협업/그래픽=비즈워치#.연예기획사 A는 5인조 걸그룹 '비즈'를 기획하면서 많은 고민을 했다. 연습생 관리부터 교육과 마케팅 등 데뷔 전까지 투자해야 할 자금이 만만치 않아서였다. A사는 비즈의 성공적인 데뷔를 위해 '비즈 토큰(증권)'을 발행했다. 고등학생 B는 이 소식을 듣고 '비즈 토큰'에 투자했다. 적은 금액이지만 평소 응원하던 연습생들의 데뷔를 돕는 기회를 얻게 돼 뿌듯했다. B는 토큰 투자로 데뷔 전 '비즈' 멤버들과의 만남을 포함한 특별한 프로모션 혜택도 누릴 수 있었다. B는 '비즈'의 팬이자 투자자로서, 주위에 비즈를 적극 홍보했고 데뷔 후에는 토큰 가격이 상승해 적잖은 수익도 얻었다.걸그룹, 음원, 미술품 등 '팬덤'을 만들 수 있는 모든 것이 투자상품이 될 수 있다. 새로운 투자의 길이 열린다. 과거에는 기업이나 일부 고액 자산가들에게만 허용됐던 투자 기회가 앞으로는 누구에게나 개방된다. 바로 '토큰증권(ST·Security Token)'을 통해서다.토큰증권은 최근 금융투자업계 디지털 전환의 가장 큰 화두다. 금융투자업의 디지털 전환은 플랫폼의 확장, 투자 편리성과 효율성 증대, 투자자 저변 확대 등 긍정적 변화를 가져왔지만 '혁신'이라고 부르기에는 한계가 있었다. 기존 시장의 구조와 규제 틀을 벗어나지 못했기 때문이다. 하지만 토큰증권은 이런 한계를 극복하고 금융투자업계에 다양한 혁신을 불러올 것으로 기대된다. 우선 기존 방식으로는 유동화가 어려웠던 다양한 유·무형 자산들을 토큰화해 자본시장 영역을 크게 확대할 전망이다. 투자 방법도 달라진다. 기존에는 투자자들이 기업공개(IPO)나 채권을 통해 기업에 투자하면 회사가 알아서 사업에 자금을 분배하는 방식이었다. 하지만 토큰증권을 통해서는 개별 프로젝트를 선택해 원하는 사업에만 투자할 수 있다. 기업으로서도 더 쉽고 빠른 방법으로 자금을 조달할 수 있는 길이 열린다. 스타트업은 물론 다양한 프로젝트와 사업 아이디어를 가진 단체들도 자본시장을 통해 자금을 끌어올 수 있다. 또 자산의 다양화, 금융상품의 혁신, 증권발행 방법, 일반투자자 참여가 제한됐던 자산유동화 등 다양한 분야에서 변화가 기대된다. 토큰증권 시장이 확대되면 중장기적으로 자본시장이 금융업을 이끄는 금융의 지각변동을 가져올 것이란 전망도 나온다. 이는 세계 최대 자산운용사 블랙록의 회장 겸 최고경영자(CEO)인 래리 핑크(Larry Fink)가 지난해 말 "증권의 토큰화가 차세대 증권과 시장을 이끌 것"이라고 언급한 것과도 일맥상통한다.래리 핑크는 미래 금융시장을 주도할 열쇠로 '토큰화'를 지목했다. 증권의 토큰화가 차세대 증권과 시장을 이끌 것이다.(The next generation for markets, the next generation for securities, will be tokenization of securities) - 블랙록 최고경영자(CEO) 래리 핑크(Larry Fink) 토큰증권, 증권·코인과는 무엇이 다를까 토큰증권은 이전에는 없던 새로운 투자자산들이 생겨나며 등장했다. 부동산, 음원, 미술품 조각투자 등이 대표적이다. 조각투자는 고가의 미술품이나 부동산 등 자산을 여러 조각으로 쪼개 다수 투자자가 공동투자하고 공동으로 이익을 배분받는 방식의 투자다.이렇게 등장한 새로운 투자자산들은 대부분 기존 규제 내에서는 합법적 발행이 어려운 상태다. 금융당국은 이를 규제 안으로 끌어오기 위해 토큰증권 제도화에 나섰다. 토큰증권 발행(STO·Security Token Offering)을 허용하고 유통체계 정비와 관련한 법제화를 진행 중이다. 금융당국이 정의한 토큰증권은 '분산원장기술(블록체인)'을 활용해 '디지털 자산 형태'로 발행한 '자본시장법상 증권'이다. 조금 더 쉽게 풀자면 블록체인 방식을 활용해 코인 형태로 발행한 증권을 말한다.토큰증권 발행(STO)의 의미/그래픽=김용민 기자 kym5380@'증권'은 투자대상에 대한 소유권이나 권리를 증명하는 문서로 주식이나 채권, 펀드 등이 이에 속한다. 이 증권들은 현재 종이증권과 전자증권 형태로 발행되고 있다. 조각투자는 증권에는 해당하지만 이제까지 발행된 적이 없는 '투자계약증권'으로 분류된다. 주식, 채권, 펀드 등 증권의 유형을 한식, 중식, 양식과 같은 요리에 빗대본다면 전자증권 등 발행형태는 이것을 담는 그릇으로 볼 수 있다. 투자계약증권은 기존에는 먹어보지 못했던 요리다. 당국은 이 새롭게 등장한 요리를 담기 위해 새로운 그릇인 '토큰증권'을 만들었다. 비트코인, 도지코인 등의 가상자산이 '증권이 아닌 디지털자산'이라면 토큰증권은 증권으로 인정받는 '증권형 디지털자산'이다. 토큰증권 보유자는 소유권을 인정받고 수익 일부를 배당받거나 분배금, 이자 등을 받을 수 있다. 사업에 따라 배당 대신 각종 서비스 혜택도 받는다. 물론 규제도 따른다. 토큰증권은 증권이기에 자본시장법에 따라 발행과 유통을 해야 한다. 다만 기존 증권과는 다르게 발행과 유통을 분리해야 하는 점은 다르다.한 금융투자업계 관계자는 "영화제작 프로젝트를 토큰화 하면 토큰 투자자를 대상으로 별도의 시사회를 제공하는 등의 서비스가 가능하다"면서 "잠재적으로 팬덤을 형성할 수 있는 모든 유·무형자산의 토큰증권화가 가능한 만큼 기존에는 상상하지 못한 다양한 투자상품들이 시장에 나오게 될 것"이라고 말했다.이 관계자는 이어 "시장이 안착하면 유동성이 떨어지는 벤처캐피털(VC)펀드 등 기존의 전통 증권들도 토큰증권으로 발행돼 시장이 더욱 확대될 것"이라고 내다봤다.STO 생태계 구축 나선 증권사들당국이 STO를 허용하면서 증권사들은 시장 선점을 위해 블록체인 기업, 조각투자사업자, 인터넷은행 등과 연합군을 조직해 적극적인 움직임에 나서고 있다. 미래에셋증권은 가장 먼저 전담 조직을 꾸리고 HJ중공업, 한국토지신탁과 STO 사업 활성화 업무협약(MOU)을 맺었다. SK텔레콤과는 '넥스트파이낸스 이니셔티브(NFI)'란 협의체를 만들어 인프라 구축, 기초자산 발굴, 연계서비스 창출 등에서 협력하기로 했다. 한국투자증권은 카카오뱅크, 토스뱅크, 카카오엔터프라이즈와 함께 'ST 프렌즈' 협의체를 구성했다. 발행 플랫폼 인프라 구축에 역량을 집중한다는 계획이다.KB증권은 토큰증권 발행·유통 시스템을 내부에 구축해 테스트를 진행중이다. SK C&amp;C, 블록체인 기술기업 EQBR와 함께 한우, 미술품, 웹툰, 영화 콘텐츠 배급사 등과 'ST 오너스'라는 협의체를 구성했다. 신한투자증권은 다수의 핀테크, 블록체인 기술기업과 MOU를 체결하고 'STO 얼라이언스'라는 이름의 협의체도 구성했다. 올 하반기에는 혁신금융서비스로 지정된 플랫폼 서비스를 선보일 계획이다. NH투자증권 역시 STO 인프라 구축을 위한 'STO 비전그룹'을 구성했다. 각 증권사는 협의체에 속한 조각투자업체, 블록체인 기업들과 협업을 논의하고 토큰증권 플랫폼 개발도 진행한다. 이런 가운데 일부 증권사들은 조각투자업체 투자금 모집에 나서거나 디지털 자산 수탁 협업에 나서고 있다.발행, 유통시장 진출에 있어선 대형 증권사와 중소 증권사들의 전략이 다르다. 일부 대형 증권사들은 발행과 유통시장 진출을 모두 계획하고 있으며 중소 증권사들은 유통보다는 발행시장에 집중해 신규 비즈니스 모델 발굴 등에 착수했다.직접 조각투자업체를 인수하거나 지분 투자를 통해 사업영역을 확대하는 곳도 있다. 대표적인 곳이 대신증권이다. 최근 부동산 조각투자사업자 '카사'를 인수해 직접 운영에 나섰다. 키움증권은 음원저작권 조각투자사업자인 '뮤직카우'의 상환전환우선주(RCPS)에 투자했다. 토큰증권 시행, 해결해야 할 과제는토큰증권 시장의 개막을 위해선 법제화 마련이 우선돼야 한다. 제도적 정비는 이르면 2024년 하반기에서 2025년 상반기 중 마무리될 전망이다. 당국은 정식 제도화 이전에도 금융규제 샌드박스를 통해 토큰증권의 발행과 유통이 가능하도록 길을 열어줄 방침이다. 토큰증권 발행은 일정 수준 이상 요건만 갖추면 조각투자사업자도 참여할 수 있다. 다만 발행과 유통을 분리해야 하고 발행만 하더라도 블록체인 기술이 필요해 계좌관리기관인 증권사와의 제휴는 필수적이다.새롭고 다양한 자산의 토큰증권 발행이 가능해지는 만큼 증권성 여부 판단도 중요하다. 특히 투자계약증권은 다른 증권 유형에 비해 적용범위가 넓어 판단이 쉽지 않을 수 있다. 자본시장법상 투자계약증권 성립 조건은 △공동사업 △금전 등 투자 △주로 타인이 수행 △공동사업의 결과에 따른 손익을 귀속 받는 계약상 권리 △이익 획득 목적 등이다. 또 가상자산 일부도 증권성이 판단될 경우 해당 규제를 따라야 한다. 가상자산 중 증권에 해당하는 STO의 경우 증권 규제를 모두 준수하면서 발행과 유통을 취급해야 하는 것이다.금투업계에선 토큰증권 활성화를 위해 유동성 확대 방안이 필요하다는 목소리도 나온다. 한 금투업계 관계자는 "토큰증권은 하나의 유통사 내에서만 거래할 수 있고 장외매매·상대매매 방식인만큼 거래 시 충분한 유동성 확보가 어려울 수 있다"면서 "거래 활성화가 안되면 투자자 보호에 문제가 생길 수 있어 장기적으로 유동성 확보를 위한 방안을 마련해야 한다"고 지적했다. 또 다른 업계 관계자는 "새롭게 생겨나는 증권형 디지털 자산들은 금투업계에도 새로운 기회를 제공할 것"이라면서 "초기에는 제도적으로 너무 옥죄기보다 시장 형성과 활성화가 가능하도록 기본 토대를 마련하는 방향으로 가야 한다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>‘타다’ 4년 만에 무죄 확정… 타다금지법 시행돼 부활 못 한다</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003365701?sid=102</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>대법 “불법 콜택시 아니다” 판결이재웅 前대표·쏘카·운영사 무죄혁신 가로막는 ‘과도한 규제’ 논란“궁극적인 판단 기준은 국민 편익”차량 호출 서비스 ‘타다’의 무죄가 확정된 1일 서울역 인근에서 한 승객이 타다 차량에서 하차하고 있다. 뉴스1택시업계로부터 ‘불법 콜택시’라는 거센 공격을 받았던 ‘타다’가 4년 만에 무죄를 확정받았다. 하지만 이미 관련법이 개정돼 출범 당시와 같은 형태의 서비스는 다시 시작할 수 없게 됐다.타다로서는 상처뿐인 승리이지만 직능단체와 갈등을 빚는 스타트업들엔 시사하는 바가 적지 않다. 정부에도 혁신을 옥죄는 과도한 규제 해결이 과제로 남게 됐다.대법원 3부(주심 오석준 대법관)는 1일 여객자동차운수사업법 위반 혐의로 기소된 이재웅 전 쏘카 대표와 타다 운영사였던 VCNC 박성욱 대표에 대한 상고심에서 무죄 판결한 원심을 확정했다. 함께 기소된 쏘카와 VCNC 법인도 무죄가 확정됐다.여객자동차법은 여객자동차운송사업을 경영하려는 자는 국토교통부 장관의 면허를 받도록 하고, 자동차대여사업자가 사업용 자동차를 사용해 유상으로 여객을 운송하는 행위를 금지하고 있다. 이 전 대표 등은 VCNC가 개발한 타다 모바일 앱으로 쏘카 소유의 11인승 카니발 승합차의 임대와 운전자 알선을 결합한 서비스를 제공했다.이 전 대표 등은 2018년 10월부터 2019년 7월까지 쏘카 소유 승합차 약 1500대를 이용해 268억원 상당의 매출을 올렸다. 검찰은 이에 여객자동차법 등 위반 혐의로 이 전 대표 등을 재판에 넘겼다.그러나 1심과 2심은 타다 서비스는 기존에 허용되고 있던 운전자 알선을 포함한 렌터카 서비스에 해당한다며 무죄를 선고했다. 특히 노상에서 승차를 요청하는 불특정인의 요구에 즉흥적으로 응하지 못하므로, 불특정 다수의 여객을 자동차로 운송한다고 할 수 없다고 판단했다.2심 재판부는 “타다 서비스의 출시 과정에서 국토부 등 관계 기관과 여러 차례 협의했고, 합법적 운영을 위해 서비스에 대한 계획을 수정하기도 했다”며 고의나 위법성 인식을 인정하지 않았다. 대법원은 이런 원심 판단에 법리 오해 등 잘못이 없다고 보고 검사의 상고를 모두 기각했다.이날 판결에 따라 이 전 대표 등은 무죄로 최종 결론이 났지만 ‘타다 베이직’, 즉 ‘기사 딸린 렌터카’ 서비스는 다시 볼 수 없게 됐다. 해당 사건 1심에서 무죄 판결이 나온 뒤인 2020년 3월 일명 ‘타다 금지법’으로 불리는 해당 법 개정안이 국회를 통과했기 때문이다. 이 전 대표는 물러났고, 타다는 베이직을 제외한 서비스가 토스에 매각됐다.타다는 출범 당시 택시업계로부터 거센 공격을 받았고, 결국 국회는 관련법을 개정하기에 이르렀다. 타다의 사례는 스타트업과 혁신을 가로막는 규제의 대표적인 예가 됐다. 비슷한 사례가 나올 때마다 ‘제2의 타다’라는 말이 나올 정도다.현 정부에서는 과도한 규제가 혁신을 가로막는 일을 없애기 위해 대통령 소속 규제개혁위원회를 만들었다. 위원회 민간위원장을 맡은 김종석 전 국회의원은 이날 서울신문과의 통화에서 “법률 상담 서비스 ‘로톡’, 비대면 진료 서비스 ‘닥터나우’, 부동산 중개 서비스 ‘직방’ 등 기존 업계의 반대에 부딪힌 스타트업이 많다”며 “직능단체와의 인터넷을 이용한 새로운 형태의 서비스 갈등에서 위원회의 궁극적인 판단 기준은 국민 편익”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.06.06.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>제4이통사는 금융권?…KB국민은행·토스도 후보</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011898372?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>알뜰폰 가입자 수 연내 1400만 명을 넘어설 것이란 전망도 나와알뜰폰 사업자 KB국민은행·토스, '이통4사' 후보로도 거론돼[서울=뉴시스] 남정현 기자 = 치솟는 물가에 통신비를 아끼려는 이용자들이 늘어나며 '알뜰폰' 이용자들이 증가하고 있다. 특히 2030세대 사이에서 인기가 급속도로 높아지고 있는 가운데, 업계에선 연내 알뜰폰 가입자 수가 1400만 명을 넘어설 것이란 전망도 나온다. 여기에 KB국민은행이 금융당국으로부터 알뜰폰 사업을 정식 승인받으며 금융사들의 해당 사업 진출이 가속화될 것으로 보인다. 6일 한국통신사업자연합회(KTOA) 이동전화 번호이동자 수 현황에 따르면 지난달 통신3사에서 알뜰폰으로 번호 이동한 가입자 수는 11만7513명이다. 같은 기간 알뜰폰에서 통신3사로 번호 이동한 가입자 수는 4만692명이다. 결국 알뜰폰업계가 통신3사로부터 7만6821명을 넘겨받은 셈이다. 또 시장조사업체 컨슈머인사이트가 지난해 12월 실시한 알뜰폰 이용자 설문조사 결과에 따르면 20대와 30대가 전체 알뜰폰 이용자의 절반가량인 49%를 차지했다. KB국민은행의 알뜰폰 브랜드인 KB국민은행의 알뜰폰 '리브모바일(리브엠)'의 경우 가입자의 과반인 60%가 2030 세대로 알려졌다.금융위원회는 지난달 12일 리브엠을 정식 승인했다. 앞서 금융당국은 2019년 4월 리브엠을 혁신금융서비스로 지정해 은행이 부수업무로 금융-통신 융합서비스를 영위할 수 있도록 특례를 부여해 왔다. 리브엠은 지난 4월 말 기준 42만 회선, 시장점유율 5%가량을 확보했다. 이에 타 은행들도 알뜰폰 사업 진출에 속도를 낼 것으로 보인다. 신한은행과 하나은행은 알뜰폰 통신사와 제휴 요금제를 출시하는 등 통신 시장에 간접적으로 진출한 상태다. 하나은행은 3월 알뜰폰 요금제 비교 플랫폼 '고고팩토리'와 손잡고 금융·통신 서비스 제공을 위한 알뜰폰 요금제를 출시했다. 신한은행은 KT·KT 알뜰폰사업자와 전략적 제휴로 지난해 7월 알뜰폰 요금제를 내놓았다.다만 아직까지 부수업무를 통해 알뜰폰 서비스에 나서겠다고 밝힌 은행은 없는 것으로 전해진다.빅테크 비바리퍼블리카(토스)의 자회사 토스모바일은 올 초 KT와 LG유플러스망을 활용한 요금제를 출시한 데 이어 지난달 SKT망까지 라인업을 확대했다. 가입 가능한 요금제는 ▲100GB 데이터 기본제공에 데이터·통화·문자 무제한 5만9800원 ▲데이터 71GB 기본에 데이터·통화·문자 무제한 5만4800원 ▲데이터 15GB 기본에 통화100분·문자100건 정가 3만5800원) ▲데이터 7GB 기본에 데이터·통화·문자 무제한 2만4800원 등이다.카카오도 계열사인 스테이지파이브를 통해 알뜰폰 사업을 강화하고 있다. 스테이지파이브의 알뜰폰 요금제에 가입하거나 친구 추천을 하는 사용자에게 현금처럼 쓸 수 있는 카카오페이 포인트를 지급하기 시작했다. 최근부터 카카오톡·카카오페이 앱 내에서 스테이지파이브의 요금제를 살펴보고 해당 알뜰폰 서비스에 가입할 수 있다.한편 정부는 올 초 새로운 통신사업자인 '제4이통사'를 유치함으로써 '이통 3사' 과점 구조를 개편하겠다고 밝혔다. 알뜰폰 사업을 영위하는 KB국민은행·토스, 플랫폼 사업자 네이버·카카오·쿠팡, 초대형 유통기업 롯데·신세계 등이 잠재적 후보군으로 꼽히고 있다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>제주항공 예약하면 국내선 최저 1.7만원, 국제선 4만원</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000928017?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>제주항공이 오는 20일 오전 10시부터 27일 오후 5시까지 항공권 할인 행사인 '찜(JJIM) 특가'를 진행한다. /사진=제주항공 제주항공이 항공권 할인 행사인 '찜(JJIM) 특가'를 오는 20일 오전 10시부터 27일 오후 5시까지 진행한다.15일 제주항공에 따르면 '찜(JJIM) 특가' 예매는 오는 10월29일부터 내년 3월30일까지 탑승할 수 있는 항공권을 대상으로 20일 국내선, 21일은 국제선 항공권 할인 판매를 시작한다. 유류할증료와 공항이용료 등을 모두 포함한 편도 총액을 기준 국내선은 1만6800원부터, 국제선의 경우 ▲일본 3만9400원 ▲대만 5만1800원 ▲동남아 6만7600원 ▲대양주 9만4300원부터 판매한다. '찜(JJiM) 특가 항공권'은 무료로 맡기는 수하물 없이 비행기 안으로 1개의 휴대품(3면 합계 115㎝ 이내, 무게 10㎏ 이하)만 들고 가는 조건이기 때문에 자신의 여행계획에 맞춰 예매를 해야 한다. 수하물을 맡겨야 한다면 특가 항공권'을 예매한 뒤 '사전 수하물 구매 서비스'를 이용하면 된다제주항공은 항공여행을 계획하고 있는 고객들의 경비부담을 덜어주기 위한 다양한 추가 혜택도 제공한다. 모바일 애플리케이션(앱)으로 항공권을 구매할 경우 회원 등급에 따라 국제선 왕복 최대 10만원, 최대 10%의 할인코드를 준다.  신규 회원 가입자의 경우 국내선 7%, 국제선 5%의 중복 할인도 받을 수 있다. 카카오페이나 토스로 결제할 경우 결제 금액에 따라 최대 2만원의 중복 할인을 제공하는 결제 혜택도 제공한다.이밖에 고객들이 직접 참여할 수 있는 온라인 이벤트도 진행한다. 제주항공 홈페이지의 이벤트 페이지를 친구, 가족에게 공유하면 1회당 100포인트를 1인 최대 7회까지 준다. 제주항공 공식인스타그램에 게시된 찜특가 관련 포스트에 댓글을 달고 응모한 고객들을 대상으로 추첨을 통해 국제선 왕복항공권, 잔망루피 기획상품 등도 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.06.04.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>신용대출 대이동…어디가 대환 유리할까[11조 대출전쟁②]</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011895336?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>금융사와 핀테크 업체들 간 환승고객 유치 경쟁대환대출 전용상품과 우대금리, 수수료 혜택 등 제공[서울=뉴시스] 김명년 기자 = 2일 금융감독원 등에 따르면 국내 은행들이 고금리 대출에 따른 이자 장사로 올해 1분기에 7조원에 육박하는 순이익을 거둔 것으로 추산됐다. 2일 오전 서울 한 시중은행 ATM기 앞으로 시민이 지나가고 있다.  2023.06.02. kmn@newsis.com[서울=뉴시스] 이정필 한재혁 기자 = 은행 영업점을 방문하지 않고 기존보다 낮은 금리로 신용대출을 갈아탈 수 있는 온라인·원스톱 대환대출 인프라가 가동되면서 금융사와 핀테크 업체들 간 경쟁이 가속화하고 있다. 대출비교 플랫폼과 자사 앱에서 대환대출 전용상품과 우대금리, 수수료 혜택 등을 제공하며 환승고객 유치에 주력하는 모습이다.4일 금융업계와 각사에 따르면 국민은행은 KB스타뱅킹에서 비대면 전용 신용대출 상품인 '온국민 신용대출'을 출시했다. 대상은 개인신용평가시스템(CSS)에 의해 대출적격자로 판정된 고객으로, 재직기간이 1년 이상이면서 연소득 2400만원 이상 소득증빙이 가능한 근로소득자다.한도는 최대 3억5000만원 이내로 신용평가결과에 따라 차등 적용된다. 고객별 가산금리는 신용등급, 직군, 대출기간 등에 따라 차등 적용된다. 국민은행은 현재 대환대출 플랫폼 중 카카오페이에 입점해 있다.국민은행 관계자는 "은행별로 대출이동시스템을 통한 연, 월 대환환도가 제한이 있기 때문에 한도관리의 용이성 차원에서도 소비자들의 선호도가 높은 플랫폼에 우선 집중하고 있다"며 "타 플랫폼 추가 입점 여부 등은 현재까지 계획된 바 없다"고 설명했다.신한은행은 카카오페이에 입점했고, 향후 토스에도 들어갈 예정이다. 특화상품보다는 기존 비대면 전용상품을 활용해 대환대출 플랫폼에 입점했다는 설명이다.신한은행은 지난 4월부터 신용대출 금리 0.4%포인트, 서민금융 상품 1.5%포인트를 각각 인하해 전체적인 신용대출 상품 경쟁력을 강화해왔다. 대환대출 인프라와 함께 대출비교 서비스를 이달 중 오픈해 이용 고객이 다양한 금융정보를 확인할 수 있도록 할 예정이다.우리은행은 카카오페이와 네이버파이낸셜에 입점해 있다. 채널별 상품을 보면 원(WON)뱅킹에 우량협약기업 임직원신용대출(PPL), 우리 WON하는 직장인 대출, 우리 WON플러스 직장인 대출, 우리 첫급여 신용대출, 우리 스페셜론, 우리 씨티대환 신용대출, 우리 새희망홀씨2 등 7개가 있다. 플랫폼사에는 WON하는직장인, 새희망홀씨2가 있다.자체 앱에서 신용대출을 갈아탈 경우 중도상환해약금과 인지세 등 1인당 소요되는 대출 거래비용을 최대 10만원까지 지원한다. 대출이동서비스를 이용해 타 금융기관의 대출을 우리은행 대출로 신규 대환하는 경우 당행 신용평가사(CB) 1~2구간 이내 고객에 한해 최초 약정기간 동안 0.5%포인트를 추가 우대한다.토스·카카오페이·핀다·네이버페이 등 핀테크 업체들은 점유율 선점을 목표로 제휴 금융사들을 늘리기 위한 경쟁을 벌이고 있다. 플랫폼 사업 특성상 제휴사를 많이 보유할수록 이용 고객도 비례해 증가하는 구조이기 때문이다.대환대출 플랫폼이 가동하기 전부터 대출비교 서비스 시장에서 높은 점유율을 보유한 토스, 카카오페이, 핀다가 3강 구도를 펼치고 있다. 이들 업체들은 대출비교 시장의 89.1%가량을 차지하고 있다. 대환대출 시장 역시 해당 업체들을 중심으로 판도가 기울 것으로 전망된다.토스는 기존에도 대출비교 시장에서 51.2%의 높은 점유율을 가졌던 만큼, 이를 이용해 대환대출 시장에서도 우위를 점하겠다는 계획이다. 토스는 농협은행과 하나은행을 비롯한 1금융권 6개사, 신한카드, KB캐피탈 등 2금융권 11개사를 포함해 총 17개사와 제휴를 맺고 대환대출 서비스를 제공하고 있다. 이달 중순 전으로 약 22개 금융사가 제휴처로 편입된다. 연말까지 캐피탈사 등 일부 2금융권 상품의 중개 수수료를 최대 40% 인하하겠다는 방안도 덧붙였다.시장 점유율 2위의 카카오페이는 플랫폼 업체 중 유일하게 5대 시중은행과 제휴를 맺었다는 점을 내세우고 있다. 현재 입점된 제휴사는 KB국민은행·신한은행 등 1금융권 8개사, 신한카드·JT저축은행 2금융권 8개사 등 총 16개사다. 이후 이달 초까지 총 24개로 제휴사를 늘릴 예정이다.창업 당시부터 대출비교 플랫폼으로 출발한 핀다는 노하우를 앞세웠다. 지난해 핀다 전체 대출 건수 중 대출 목적으로 '대환대출'을 선택한 사용자는 24.4%다. 대환대출 플랫폼의 가동 이전부터 이미 대환대출과 관련된 데이터 등을 축적한 것으로 나타났다. 핀다는 당시 축적된 경험을 바탕으로 '장바구니'나 '대출 추천' 기능을 추가해 편의성을 이용한 소비자 유입 확대를 시도하고 있다.이 외에도 후발주자로 합류한 네이버파이낸셜(네이버페이)은 대환대출 중개수수료 인하로 저축은행의 입점을 유도하는 중이다. 중계수수료를 낮춘 만큼 저축은행이 대출금리를 인하하는 구조다. 저축은행 18곳이 입점 의사를 밝혀 네이버페이의 대환대출 플랫폼에 참여한다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>시중銀 여론 뭇매에 청년도약계좌 기본금리 올린다</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002155486?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>기본금리 3.5%→4.0%로 상향우대금리 2.0%→1.5%로 낮춰최고금리 6.0%수준 유지 계획청년도약계좌 협약식 및 간담회가 12일 서울 중구 명동 은행회관에서 열린 가운데 참석자들이 기념촬영을 하고 있다. 청년도약계좌는 연봉 7500만원 이하 중 가구소득이 중위 180% 이하, 만 19~34세 청년을 대상으로 공급하는 상품으로 오는 15일 출시된다. 임세준 기자‘눈 가리고 아웅하기’식 금리산정으로 뭇매를 맞았던 은행들이 청년도약계좌의 기본금리를 올리고 우대금리 조건을 완화하는 방안을 검토하고 있다. 일부 은행은 최고 금리 자체를 6.5%로 조정할 방침이다. 기업은행 등 최고금리를 6.5%로 설정한 은행들은 청년도약계좌가 너무 한 곳에 쏠리면 대규모 손실이 우려되는 만큼 가입자 상한을 금융당국에 요구하고 있다.▶“월급통장 바꾸고 카드 실적 채워야” 우대금리 낮추고 조건 완화=13일 금융권에 따르면 5대 시중은행(KB·신한·하나·우리·NH농협)은 현재 청년도약계좌의 기본금리를 지난 8일 잠정 공시한 3.5%에서 4.0%로 조정하는 방안을 적극 검토하고 있다. 동시에 다수 은행은 여러 조건을 달아 책정한 최대 우대금리를 지난주 공시 당시 2.00%에서 1.50%로 낮춰, 소득 조건별 최대 우대금리 0.50%포인트까지 더한 최고 금리 수준을 6.00%로 유지할 계획이다.당국 등의 요청대로 기본금리 비중은 늘리고(58.3→66.7%), 우대금리 비중은 줄이면서도(33.3→25.0%) 지나친 역마진을 고려해 최고 금리가 6%를 넘지 않도록 관리하겠다는 계산이다.아울러 과도한 카드 결제 실적 등을 우대금리 조건으로 내걸었던 은행들의 경우 조건을 완화하는 방안도 검토 중이다.아직 소수지만 일부 은행은 우대금리 2.00%포인트를 그대로 둔 채 기본금리만 0.50%포인트 올려 최고 금리를 6.00%에서 6.50%(4.00+0.50+ 2.00%)로 상향 조정하는 안도 준비하고 있다. 지난주 이미 기본금리와 소득·은행별 우대금리를 더해 6.50%(4.50+0.50+1.50%)를 제시한 기업은행과 같은 수준이다.만약 현재 검토 중인 안대로 오는 14일 확정 금리가 공시되면, 청년도약계좌 시장은 최고 6.5%를 보장하는 소수 은행과 최고 6.0%를 고수한 다수 은행으로 나뉘게 된다.이 경우 앞서 지난해 비슷한 성격의 청년희망적금 판매 당시 확인된 것처럼, 불과 0.1∼0.2%포인트라도 더 주는 은행으로 가입자가 몰려 결국 해당 은행은 최대 수천억원 규모의 손해를 볼 가능성이 있다. 따라서 은행권은 개별 은행의 가입자가 일정 기준에 이르면 판매를 종료할 수 있는 ‘가입자 수 상한’을 설정해달라고 금융당국에 요청한 뒤 답을 기다리고 있다.▶“금리 제일 높은 기업은행에 맞췄으면” 당국 내심 기대=하지만 주요 은행들이 현재 검토하는 안대로 기본금리를 다소 올려도, 당국의 눈높이에는 여전히 미치지 못할 가능성이 크다.금융 당국 측은 기업은행이 기본금리를 4.5%로 제시했고, 한 곳만 너무 높으면 쏠림 문제가 발생할 수 있는 만큼 다른 은행들도 기본금리를 그 정도 수준으로 조정하길 내심 바라는 모습이다. 역마진 우려 등이 있을 수 있지만 사회 공헌 측면을 더 고려해달라는 것이다.당국 입장에서는 젊은 세대에게 가장 친숙한 인터넷은행들이 이번 청년도약계좌 판매에 동참하지 않은 것도 아쉬운 부분이다.애초 금융당국은 카카오뱅크·토스뱅크 등 인터넷은행들에도 청년도약계좌 출시를 권유했지만, 한목소리로 대면 업무를 처리할 오프라인 지점이 없어 현실적으로 불가능하다며 거부한 것으로 전해진다.다만 당국과 여론을 의식한 인터넷은행들은 관련 계획을 묻자 공통으로 “추후 참여를 검토할 수 있다”고 언급했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>김학도 중진공 이사장, 청년 창업가들과 현장소통 간담회</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006866924?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>경기북부 청년창업사관학교 입교기업 10개사 대표들과 소통김학도 이사장 "정책 역량 모아 성공적인 사업화 이끌 것"김학도 중소벤처기업진흥공단 이사장 (뉴스1DB) ⓒ News1 장수영 기자(서울=뉴스1) 김민석 기자 = 중소벤처기업진흥공단은 김학도 이사장이 15일 경기도 파주시 경기북부 청년창업사관학교를 방문해 청년 창업가들과 간담회를 열었다고 밝혔다.중진공은 청년 창업기업에 대한 지원 방안을 모색하기 위해 간담회를 마련했다. 입교기업 10개사 대표들이 참석했다.김진욱 더감 대표이사는 "전기차 전비 개선을 통해 국내 ESG 분야 대표 청년창업기업으로 성장하기 위해 노력하고 있다"며 "청년창업사관학교가 축적한 지원 노하우를 바탕으로 청년창업기업이 유니콘기업으로 성장할 수 있도록 중진공이 지원해 주길 바란다"고 말했다.김학도 이사장은 "스타트업이 겪고 있는 현장의 어려움과 창업에 대한 열정을 체감했다"며 "정책자금, 마케팅, R&amp;D, 투자 등 정책 역량을 모아 청년창업가의 성공적인 사업화를 이끌겠다"고 전했다.중진공은 청년창업사관학교를 통해 혁신 아이디어 청년 창업가를 발굴하고 창업 전 단계를 패키지 방식으로 지원하고 있다. 토스, 직방 등 유니콘 기업과 뱅크샐러드, 글루가 등 예비유니콘 기업을 다수 배출했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>센스톤, 단방향 다이내믹 인증보안 솔루션 '국제 CC인증' 획득해</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003818992?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>공신력 높은 국제 표준 인증 힘입어 OTAC 글로벌 경쟁력 상승    센스톤 국제 CC인증 획득    차세대 인증 보안 선두주자인 센스톤(대표 유창훈)은 세계 최초의 단방향 다이내믹 인증 기술(OTAC) 기반의 간편인증 솔루션 'OTAC Token V1.0'이 국제 공통평가기준(CC) 인증을 획득했다고 밝혔다.     이미 국내 금융권 및 공공기관은 물론, 해외 정부기관 등에 사용자 및 기기인증 솔루션을 공급해 온 센스톤은 이번 국제 CC인증 획득을 계기로 글로벌 인증 보안 시장에서 경쟁력을 더욱 확고히 할 수 있을 것으로 기대된다.     CC인증은 ISO 15408 제품의 보안을 평가하도록 설계된 사양 및 지침의 국제표준으로, 우리나라를 비롯해 미국, 영국, 독일 등 전세계 주요 국가에서 IT 제품의 보안성, 안정성, 신뢰성 검증을 위한 기준으로 널리 사용된다. 매우 엄격하고 객관적인 심사과정을 거치는 만큼 정부 및 공공분야는 물론, 민간 분야에서도 전 세계적으로 가장 공신력 있는 IT 제품 보안 인증으로 꼽힌다.     'OTAC Token V1.0'은 센스톤이 자체 개발한 OTAC(One-Time Authentication Code) 기술을 바탕으로 일회성 다이내믹 고유식별 인증코드를 통해 사용자 및 기기를 인증하는 단방향 다이내믹 토큰 인증 솔루션이다. 양방향 통신을 사용할 수 없는 환경, 통신환경이 열악하거나 인증 대상인 기기가 초경량화 되어 있는 환경, ID/패스워드를 사용하면서 수동으로 매번 패스워드를 바꾸기 어려운 IT/OT 환경에서 기존 PKI/FIDO 등의 기술이 극복하지 못하는 영역에서 그 활용도가 매우 높다.     CC인증 엠블럼    센스톤의 독보적인 인증보안 기술력은 국내외 다양한 산업에서 이미 충분히 검증된 바 있다. 토스뱅크, 카카오뱅크, 밀리패스, 인도네시아 조폐공사 전자수입인지 서비스 등 가장 민감한 인증 과정을 요구하는 금융, 국방, 공공 분야에 적용돼 사용 중이다. 최근에는 LS일렉트릭과 프로그래밍 제어장치(PLC)의 외부 위협 사전 차단을 위한 1차 개념검증(PoC)을 성공적으로 마치고, 글로벌 공통 취약점 해결을 위해 계속 협력해 나갈 방침이라고 밝힌 바 있다.     유창훈 센스톤 대표이사는 “글로벌 시장에서 OTAC 기술의 알고리즘 검증 선행과 이후 시장에서의 검증을 거친 후에 국제CC인증을 진행할 수 있었기에 오랜 인내가 필요했고, 이번 국제 CC인증 획득으로 OTAC 기술의 보안성과 공신력을 동시에 확보한 만큼 글로벌 시장에서 진행 중인 사업화 논의에 큰 진전이 있을 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>토스, 우즈베키스탄 경제정책부처 대표단 기업방문 세미나 개최</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002149626?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>우즈베키스탄 경제정책부처 대표단 및 KDI 관계자들이 역삼동 토스 본사에서 윤기열 토스 커뮤니케이션 헤드 및 최락현 토스 대출비교 서비스 사업 총괄(사진 가운데)과 함께 기념 사진을 촬영하고 있다.[디지털데일리 이상일기자] 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)가 강남구 역삼동에 위치한 토스 본사에 우즈베키스탄 경제재정부, 중앙은행, 디지털기술부 등 경제정책부처 책임자 및 관련 전문가 15인을 초청했다고 1일 밝혔다.해당 행사는 기획재정부와 한국개발연구원(KDI)이 주관하는 ‘경제발전경험 공유사업(Knowledge Sharing Program, 이하 KSP)’의 일환으로 열렸다. 2004년부터 실시하고 있는 KSP는 한국의 경험을 바탕으로 경제협력 전략국가의 경제·사회 발전을 지원하기 위한 프로그램이다. 우즈베키스탄은 KSP 초기부터 협력해 온 주요 국가 중 하나로, 올해는 우즈베키스탄 경제재정부의 사업 수요에 근거해 핀테크 규제 샌드박스에 대한 정책 자문이 진행되고 있다.우즈베키스탄 대표단은 금융규제 샌드박스 제도를 설계하고 운영하는 경제정책부처의 책임자 및 전문가로 구성됐다. 대표단은 특히 한국의 금융 샌드박스 성공 사례에 대한 관심이 높았으며, 토스는 2019년 시작한 대출비교 서비스 도입의 과정과 현황에 대해 공유했다.토스는 우즈베키스탄 대표단에 대출비교 서비스 모델과 그에 따른 사회적 효익, 비즈니스 노하우 등을 전달했으며 대표단은 금융규제 샌드박스를 통해 이룬 대출비교 서비스의 혁신과 성장에 놀라움을 표했다. 아울러 대표단은 토스의 ‘원 앱(One App)’ 전략과 훌륭한 보안 시스템 및 기술력에도 큰 관심을 보였다.우즈베키스탄측 관계자는 “KSP 프로그램을 통해 우즈베키스탄 핀테크 기업들에도 혁신을 적용해 거시적으로 금융 산업을 발전시킬 정책을 만들고자 한다"라며 “한국 핀테크 기업들의 경험이 우즈베키스탄 정부의 전략에 큰 영향을 주고 있으며, 특히 토스가 대표적인 모범 사례로 기여할 것"이라고 전했다.토스 관계자는 “우즈베키스탄 경제정책부처 관계자 및 전문가분들께 한국 핀테크 산업의 발전 과정 및 토스의 서비스 노하우를 전할 수 있어 영광이다"라며 “앞으로도 토스는 모범이 될 만한 핀테크 혁신 사례를 지속적으로 선보이겠다"라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>신한은행 1일 해외 송금 등 외화 서비스 중단 사고</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003279377?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>1일 오전 9시30분부터 낮 12시까지 중단 사고로 불편신한은행의 서울 지점 모습. 연합뉴스신한은행의 외환 관련 서비스 중단 사고로 고객들이 불편함을 겪었다. 신한은행에 따르면 1일 오전 9시 30분께부터 전산시스템 가운데 환율 시스템에 오류가 발생, 해외 송금이나 일부 법원 공탁금 납부 등의 서비스가 낮 12시까지 3시간 가량 중단됐다. 신한은행 관계자는 "해당 서비스는 낮 12시를 기해 복구가 됐다"며 "중단 시간 동안 환율 변동에 따른 고객 피해가 없도록 원하는 고객에게는 현재 시각 기준으로 환율을 확정한 뒤 시스템 복구 후 거래할 수 있도록 안내했다"고 밝혔다.오전 내내 서비스가 중단된 탓에 급하게 돈을 보내야 하는 금융소비자들은 이미 적지 않은 불편을 겪었다. 금융감독원은 지난해 15개 은행 부행장들과 간담회를 열고 IT 내부통제 강화 방안을 논의한 바 있다. 이 자리에는 신한은행을 비롯해 국민은행, 하나은행, 우리은행, 카카오뱅크, 케이뱅크, 토스뱅크 등이 참석했다.금감원은 은행의 전산사고에 대한 대책을 주문했다. 금감원은 "디지털 기반의 전자금융서비스가 경쟁적으로 출시되고 비대면 거래가 급증하고 있어 전자금융거래 시스템의 안정성이 무엇보다 중요해졌다"며 "사고를 미연에 방지하기 위해 더 정교한 IT 내부통제 체계가 구축돼야 한다"고 말했다.당시 금감원은 전산 사고로 대고객 서비스가 3시간 이상 중단될 경우 즉각적으로 현장 점검에 착수할 계획이라고 밝힌 바 있다. 사고를 조기에 수습함과 동시에 피해 소비자에 대한 안내 및 보상이 제대로 이뤄지는지 살피기 위한 조치라고 설명했다. 김두용 기자 k2young@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 국내 사업자 대상 '페이팔' 서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000338050?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[토스의 페이테크 계열사 토스페이먼츠가 국내 사업자들의 해외진출을 돕기 위해 글로벌 결제 수단 '페이팔' 통합 서비스를 출시했다. (자료=토스페이먼츠)]토스페이먼츠가 국내 사업자를 대상으로 글로벌 결제수단 '페이팔'을 제공한다고 1일 밝혔습니다. 토스페이먼츠 관계자는 "국내 역직구 시장이 빠르게 성장함에 따라 해외 고객을 대상으로 하는 사업자에게 쉽고 편리한 글로벌 결제 서비스를 제공하기 위해 페이팔을 선보이게 됐다"고 설명했습니다. 페이팔(Paypal)은 글로벌 결제 수단 중 하나로 해외 소비자가 국내 온라인 쇼핑몰을 이용할 때 세계 각국의 통화로 편리하게 결제할 수 있습니다.토스페이먼츠를 통해 페이팔을 도입한 사업자는 ▲계약 ·심사 ▲API(Application Programming Interface) 연동 ▲운영·기술 문의 ▲정산 ▲고객 민원처리 등 모든 서비스를 한국어로 이용할 수 있으며, 토스페이먼츠 고객센터를 통해 신속한 지원 서비스를 받을 수 있습니다.토스페이먼츠는 사업자의 효율적인 사업 운영을 위해 사업자가 지정한 날짜에 맞춰 페이팔 결제에 따른 판매대금을 원화로 자동 정산할 예정입니다. 사업자들이 거래 취소나 환불 요청 등 해외 소비자 민원에 대응·관리할 수 있도록 차지백 대시보드도 제공합니다.페이팔 이용 신청은 토스페이먼츠 웹사이트에서 가능하며, 토스페이먼츠의 기존 가맹점은 간단한 계약과정을 거쳐 자사몰 전자결제 서비스에 연동해 사용할 수 있습니다. 김민표 토스페이먼츠 대표는 "국내 사업자가 해외 구매자 대상 판매 시 언어장벽 등 한계에 구애받지 않고 비즈니스에만 집중할 수 있도록 다양한 해외 결제 솔루션을 출시할 계획"이라며 "가맹점과 소비자 모두에게 편리하고 안전한 결제 경험을 제공하기 위해 최선을 다하겠다"고 말했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>센스톤, 단방향 인증보안 솔루션으로 '국제 CC인증' 획득</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004851911?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>일회성 다이내믹 고유식별 인증코드로 간편 인증 제공그래픽=센스톤차세대 인증 보안 전문기업 센스톤은 단방향 다이내믹 인증 기술(OTAC) 기반의 간편인증 솔루션 'OTAC Token V1.0'이 국제 공통평가기준(CC) 인증을 획득했다고 2일 밝혔다.이미 국내 금융권 및 공공기관은 물론, 해외 정부기관 등에 사용자 및 기기인증 솔루션을 공급해 온 센스톤은 이번 국제 CC인증 획득을 계기로 글로벌 인증 보안 시장에서 경쟁력을 더욱 확고히 할 수 있을 것으로 기대된다.CC인증은 ISO 15408 제품의 보안을 평가하도록 설계된 사양 및 지침의 국제표준으로, 국내를 비롯해 미국, 영국, 독일 등 전세계 주요 국가에서 정보기술(IT) 제품의 보안성, 안정성, 신뢰성 검증을 위한 기준으로 널리 사용된다. 매우 엄격하고 객관적인 심사과정을 거치는 만큼 정부 및 공공분야는 물론, 민간 분야에서도 전 세계적으로 가장 공신력 있는 IT 제품 보안 인증으로 꼽힌다.'OTAC Token V1.0'은 센스톤이 자체 개발한 OTAC(One-Time Authentication Code) 기술을 바탕으로 일회성 다이내믹 고유식별 인증코드를 통해 사용자 및 기기를 인증하는 단방향 다이내믹 토큰 인증 솔루션이다. 양방향 통신을 사용할 수 없는 환경, 통신환경이 열악하거나 인증 대상인 기기가 초경량화 돼 있는 환경, 아이디(ID)·패스워드를 사용하면서 수동으로 매번 비밀번호를 바꾸기 어려운 환경에서 활용도가 높다.센스톤의 인증보안 기술은 국내외 다양한 산업에서 적용되고 있다. 토스뱅크, 카카오뱅크, 밀리패스, 인도네시아 조폐공사 전자수입인지 서비스 등 가장 민감한 인증 과정을 요구하는 금융, 국방, 공공 분야에서 사용 중이다. 최근에는 LS일렉트릭과 프로그래밍 제어장치(PLC)의 외부 위협 사전 차단을 위한 1차 개념 검증(PoC)을 성공적으로 마치고, 글로벌 공통 취약점 해결을 위해 계속 협력해 나갈 방침이다.유창훈 센스톤 대표이사는 “글로벌 시장에서 OTAC 기술의 알고리즘 검증 선행과 이후 시장에서의 검증을 거친 후에 국제CC인증을 진행할 수 있었기에 오랜 인내가 필요했고, 이번 국제 CC인증 획득으로 OTAC 기술의 보안성과 공신력을 동시에 확보한 만큼 글로벌 시장에서 진행 중인 사업화 논의에 큰 진전이 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>은행 가계 신용대출자 10명중 7명이 850점 이상 `고신용자`</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002806064?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>한 시중은행의 대출 창구.  연합뉴스    은행권의 가계 신용대출자 중 10명중 7명이 신용평점이 850점을 넘는 고신용자로 나타났다. 중신용자 이하는 사실상 신용대출이 어렵다보니 저축은행 등 제2금융권을 찾고 있다. 은행이 고소득자와 자산가 등 최고 신용등급 위주로 손쉬운 장사를 하고 있다는 지적이 나온다. 12일 금융감독원이 국민의힘 윤창현 의원실에 제출한 자료에 따르면 지난해 말 가계 신용대출자 615만1000명으로 집계됐다. 이중 448만1000명이 신용평점 850점 이상 고신용자였다.  가계 신용대출 잔액 145조6467억원 가운데 117조1535억원이 이들이 빌린 돈이었다.신용점수는 신용평가회사마다 차이가 있지만 1000점 만점이면 850점이면 신용상태가 우수한 것으로 평가된다. 지난해 말 은행별 가계 신용대출자는 KB국민은행이 129만6000명으로 가장 많았다.이어 카카오뱅크(93만7000명), NH농협은행(80만3000명), 신한은행(79만6000명), 하나은행(78만5000명), 우리은행(67만3000명), 케이뱅크(48만3000명), 토스뱅크(27만8000명) 등의 순이었다.윤창현 의원은 "최근 시중은행들의 달라지는 영업 관행에 대해서는 긍정적으로 평가하지만, 고소득자와 자산가 등 최고 신용등급 위주의 영업에서 벗어나 중신용자에 대한 문턱을 낮추는 등 국민경제에 대한 의무를 다하는 노력이 필요하다"고 주장했다. 지난해 말 5대 시중은행과 인터넷은행의 가계 신용대출자 수는 615만1000명으로 2018년 말의 510만명에 비해 105만1000명이 늘었다.특히 사회 초년생인 20대와 씀씀이가 큰  40대가 가장 많이 증가했다. 20대는 2018년 말 34만3000명에서 지난해 말 59만2000명으로 24만9000명 늘었다. 40대는 158만9000명에서 189만4000명으로 30만5000이 증가했다. 30대는 이기간 16만8000명 증가했으며 50대와 60대 이상도 각각 19만1000명과 13만7000명이 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>토스뱅크, 소상공인 금융 지원 강화</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002295082?sid=105</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>신용보증기금과 업무협약 체결토스뱅크가 개인사업자나 소상공인의 금융 지원을 강화한다.토스뱅크는 12일 서울 마포 프론트원에서 신용보증기금과 개인사업자 및 소상공인을 위한 '비대면·디지털 금융 활성화를 위한 업무 협약’을 체결했다고 밝혔다.이번 협약에 따라 토스뱅크와 신용보증기금은 ‘상거래 신용지수 연계보증’, ‘이커머스 사업자 보증’, ‘이지원(Easy-One) 보증’ 등 비대면 보증대출 상품 개발할 예정이다.홍민택 토스뱅크 대표(사진 오른쪽)와 최원목 신용보증기금 이사장이 12일 서울 마포 프론트원에서 열린 ‘비대면.디지털 금융 활성화 위한 업무협약’에서 기념촬영을 하고 있다.또 개인사업자, 소상공인을 위한 데이터 및 디지털 기반 보증서비스를 위한 협조 체제를 구축할 계획이다.양사는 비대면 보증 시스템과 비대면 채널을 연계해 개인사업자 및 소상공인 고객들이 모바일로 보증 및 대출을 한 번에 신청할 수 있도록 시스템 개발을 위해 적극 노력하는 등 디지털 금융 부문 교류를 확대해 나갈 방침이다.앞서 토스뱅크는 지난달 인터넷전문은행 최초로 ‘노란우산공제’ 가입 서비스를 제공하고 있다. 향후 경기신용보증재단과도 연계하여 개인사업자.소상공인 고객들을 위한 서비스를 선보인다는 것이 토스뱅크 측 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>타다, 경영안정 위해 희망퇴직 실시…합병 대상은 미정</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002150451?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>VCNC “타사 합병 추진은 사실, 후보가 더스윙은 아냐”[사진=VCNC][디지털데일리 이나연 기자] 타다 운영사 브이씨엔씨(VCNC)가 구조조정을 시작했다.15일 VCNC는 “경영안전상 이유로 희망퇴직을 진행 중”이라고 말했다. 회사는 전날 사내 공지사항을 통해 구성원들에 이러한 소식을 발표했다. 희망퇴직은 현재 80∼90명가량 인원의 최소 50%를 감축하는 것을 목표로 일주일간 진행하며, 희망퇴직자에게는 2개월치 월급을 지급하는 것으로 알려졌다. 만약 희망퇴직자가 현재 인원의 50% 미만에 그칠 경우, 직원들을 상대로 별도 권고사직이 진행될 것이라는 관측도 나온다.타다가 고강도 인력 구조조정을 단행하는 이유는 지난 2020년 국회를 통과한 ‘타다 금지법(여객자동차운수사업법 개정안)’ 이후 불안한 경영 상황을 해소하지 못했기 때문으로 풀이된다.앞서 타다는 타다 금지법이 국회를 통과한 이후 투자 유치와 사업 확대가 어려워지면서 같은 해 희망퇴직을 받기도 했다. 타다 핵심 사업 모델인 ‘타다 베이직’ 서비스를 철수하고 택시 면허가 필요한 제도권 서비스에 집중할 수밖에 없는 상황이 큰 영향을 미쳤다.타다 베이직은 스마트폰 앱으로 운전기사가 딸린 11인승 승합차를 빌려 이용하는 서비스다. VCNC가 쏘카로부터 빌린 렌터카를 운전자와 함께 고객에 빌려주는 방식으로 운영됐다. 하지만 택시업계가 ‘불법 콜택시’라고 반발하며 서비스는 좌초된 바 있다.한편, 타다 모회사인 토스는 이번 구조조정과는 별도로 타다를 다른 회사와 합병하는 방안을 추진하고 있다.업계에서는 퍼스널·마이크로 모빌리티 공유 서비스로 잘 알려진 더스윙과 타다 합병이 유력한 것으로 전해졌으나, VCNC와 더스윙 양사 모두 합병설이 “사실무근”이라고 선을 그었다.VCNC 관계자는 “경영 안정을 위해 구조조정에 돌입한 것은 맞지만, 더스윙과 합병을 검토하고 있는 것은 아니다”라고 말했다.더스윙 관계자도 “한 때 타다와 합병을 검토했으나 현재는 전혀 관련 논의를 진행하고 있지 않다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.06.04.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>0원 요금제 이어 평생요금제도 부활.. 알뜰폰 유치 과열경쟁</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005022185?sid=105</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>토스모바일이 지난 1일부터 선보였던 '통신비 0원 요금제'. 토스 앱 캡처 최근 알뜰폰 이용자들이 늘면서 가입자 확보를 위해 토스모바일 등이 ‘0원 요금제’ 경쟁에 합류한데 이어, 사실상 '평생요금제'까지 부활하는 등 경쟁이 과열 양상을 보이고 있다.     토스모바일도 0원 요금제  4일 업계에 따르면 비바리퍼블리카의 통신 자회사 토스모바일은 지난 1일부터 ‘통신비 0원 요금제’를 판매했다. 저가 경쟁은 벌이지 않는다는 입장이었던 토스모바일은 이동통신 3사가 알뜰폰 사업자에 제공하는 지원금을 늘리면서 점유율 확보 차원에서 파격적인 ‘0원 요금제’를 선보였다.   기본 데이터 11기가바이트(GB)에 가입한 다음달부터 25개월간 매달 150GB를 추가 제공하는 조건이다. 이마저 다 사용할 경우 매일 2GB+3Mbps를 더 주기 때문에 매달 최대 221GB의 데이터를 지급하는 셈이다. 음성 통화, 문자는 무제한이며 5개월간 요금은 0원이다.   게다가 데이터를 적게 쓰는 달에는 요금을 돌려받는 ‘데이터 캐시백’도 제공한다. △10GB 미만 1만원 △10GB~20GB 5000원 △20GB~40GB 2000원을 고객에게 되돌려준다. 고객 입장에선 5개월간 오히려 돈을 벌 수도 있는 상황이다. 파격적인 조건에 가입자가 몰려들자 토스모바일은 당초 15일까지 판매 예정이었던 요금제를 조기 종료했다.    '평생요금제'로 알려진 LG헬로모바일 '데이터 속도 걱정없는 유심 7GB' 요금제. LG헬로모바일 홈페이지 캡처  평생요금제도 2년 만에 부활  평생 통화 500분, 문자 500건에 데이터 7GB 이상을 1만원대에 쓸 수 있는 일명 ‘평생요금제’도 2년 만에 다시 등장했다.   LG헬로모바일은 이 같은 조건의 ‘데이터 속도 걱정없는 유심 7GB’ 요금제를 1만6910원에 내놨다. 매달 데이터 7GB 소진시 3Mbps 속도로 데이터를 무제한으로 제공한다. 이 같은 조건은 2년여 전 세븐모바일 등이 한시적으로 내놨던 평생요금제와 동일한 조건이다. 게다가 다음달 8일 이전에 개통한 고객을 상대로 2만원 상당의 상품권도 증정한다.   ‘0원 요금제’ 경쟁을 지켜만 보고 있던 LG헬로모바일은 가입자 이탈이 잇따르자 평생요금제 카드를 꺼내든 것으로 분석된다. 데이터를 많이 쓰면서 저렴한 요금제를 선호하는 MZ 세대를 겨냥한다는 전략도 있다.   업계 관계자는 “알뜰폰 사용자 중에 조금 저렴한 요금제만 나와도 수시로 갈아타는 ‘체리피커’가 많다”며 “평생 고객이란 개념은 없다는 걸 알면서도 알뜰폰 업체간 경쟁이 치열해지면서 고객 유치 차원에서 평생요금제를 선보이게 된 것으로 보인다”고 말했다. 이어 “최근 이동통신 3사가 알뜰폰 사업자들에 대한 지원금을 줄이는 추세”라며 “알뜰폰 업계에서는 치열한 경쟁이 짧으면 이달 중순, 길어야 이달 하순까지만 지속될 것이라는 얘기도 나온다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>“15분만에 폰으로 원스톱 대출 환승”</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0001054735?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>온라인 대환대출 서비스 개시…막오른 금리 전쟁 10억 이하 무보증·담보 대출 대상플랫폼서 기존 대출과 금리 비교 후더 저렴한 금융사로 갈아탈 수 있어주택담보대출은 연말 가능할 전망금리 추가 인하 등 고객 유치 나서대환대출 서비스 상황별 이용 방법‘온라인 원스톱 대환대출 서비스’가 5월 31일 출범했다. 금융 소비자가 영업점 방문 없이 온라인에서 원스톱으로 대출을 갈아탈 수 있다. 스마트폰으로 금리가 저렴한 대출상품을 쉽게 비교하고, 기존 대출을 더 나은 조건의 타 금융사 대출로 한번에 옮기는 게 핵심이다. 이를 통해 대환대출에 필요한 시간이 최소 2영업일에서 15분 이내로 줄었다는 게 금융위원회의 설명이다. 은행 19개, 저축은행 18개, 카드 7개, 캐피탈 9개 등 총 53개 금융사가 참여했다. 대출비교 플랫폼에서 기존 대출을 확인하고 여러 금융사의 대출 조건을 비교한 후, 선택한 금융사 앱으로 이동해 대출을 갈아타는 방식이다.  대출비교 플랫폼은 네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다, KB국민카드, 웰컴저축은행 등에서 운영하며, 마이데이터 서비스에 가입해야 이용 가능하다. 대출비교 플랫폼의 영향력이 큰 만큼, 입점 금융사 확대 및 금리 추가 인하 등으로 소비자 유치 경쟁에 나선 모습이다.  대상은 53개 금융사에서 받은 10억 원 이하 직장인대출 및 마이너스통장 등 보증과 담보가 없는 신용대출이다. 대환 불가 사유로는 연체대출, 대출 이동 처리 중인 대출, 압류나 거래정지, 법률 분쟁 신용대출, 채권조정 및 특수채권 대출 등이 있다.  또 일부 카드사에서 받은 카드론(장기카드대출)의 경우, 당장은 대출비교 플랫폼에서 기존 대출로 조회가 되지 않아 갈아타려는 금융사 앱을 곧바로 이용해야 한다. 7월 1일부터는 대출비교 플랫폼에서도 모든 카드론을 조회해 다른 대출로 갈아탈 수 있다. 서비스 이용 시간은 평일 오전 9시부터 오후 4시까지다. 이용 횟수는 제한이 없지만 중도상환수수료를 면제해 주는 대출은 실행 후 6개월이 지나야 다시 타 상품을 이용할 수 있다. 금융 소비자의 이용 규모가 큰 주택담보대출의 대환대출 서비스는 연말에 가능할 전망이다. 신진창 금융위원회 금융산업국장은 “주택담보대출을 대상으로 한 대환대출은 12월 시작을 목표로 하고 있다. 주택담보대출의 경우 앱에서 처음부터 끝까지 원스톱으로 구현하기 어려운 점이 있다”며 “대환대출의 경험과 인프라가 쌓이는 만큼, 주택담보대출에 어떻게 활용하고, 어떤 부분을 보강해야 할지를 지속 점검할 것”이라고 했다.●경쟁 통한 금리 인하 효과 기대 금융사 간 금리 경쟁을 촉발해 중·저신용자를 포용하는 게 주요 취지다. 온라인으로 쉽게 대환대출이 가능해지면서 금융사별 금리 경쟁이 치열해지는 만큼, 금리 인하 효과를 기대하고 있다. 특히 저축은행 등 2금융권에서는 우량 차주를 1금융권에 뺏길 수 있다는 우려가 나온다. 예대금리차로만 자금을 조달하는 2금융권은 저금리로 대출을 내주는 1금융권과 금리 경쟁에 나서기 어렵기 때문이다. 또 1금융권의 평가기준에서 부적격 판정을 받는 2금융권 이용 저신용자 및 다중채무자의 이용이 늘 것으로 보인다.  은행 4000억 원, 저축은행 3000억 원, 캐피탈 500억 원 등 금융사별 연간 대환대출 한도도 정했다. 카드사의 경우 전년도 신규매출의 10%로 제한했다. 이는 대출 쏠림 현상을 막기 위한 조치라는 게 금융위원회의 설명이다. 김소영 금융위원회 부위원장은 “정부는 비상경제민생회의를 통해 고금리 시대에 국민이 실질적으로 체감할 수 있는 생활공감형 정책 마련에 주력해 왔다”며 “이번 서비스의 경우, 개시 초반 기존 고금리 대출을 받은 대출자가 상대적으로 낮아진 금리로 이동하고 2금융권 고신용자가 1금융권 중금리 상품으로 이동하는 등 이자경감 혜택이 있을 것”이라고 했다.정정욱 기자 jjay@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>와디즈, 우즈벡 경제정책부처 대표단에 韓 크라우드펀딩 혁신 사례 소개</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002294411?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>사업 구조와 비즈니스 노하우 공유크라우드펀딩 플랫폼을 운영하는 와디즈(대표 신혜성)는 판교에 위치한 와디즈 본사에 우즈베키스탄 경제재정부, 중앙은행, 디지털기술부 등 경제정책부처 책임자 및 관련 전문가 15인을 초청했다고 5일 밝혔다.이번 방문은 기획재정부와 한국개발연구원(KDI)이 주관하는 '경제발전경험 공유사업(Knowledge Sharing Program, 이하 KSP)'의 일환이다. 우즈베키스탄 금융 서비스 시장 활성화를 위한 한국의 핀테크 혁신 사례 및 전략을 공유하고자 마련됐다. 우즈베키스탄은 KSP 원년 협력국 중 하나로, 올해는 기획재정부의 사업 수요에 근거해 핀테크 규제 샌드박스에 대한 정책 자문이 진행되고 있다.우즈베키스탄 대표단은 금융규제 샌드박스 제도를 설계하고 운영하는 경제정책부처의 책임자 및 전문가로 구성됐다. 5월31일부터 6월1일까지 양일간 와디즈, 토스, 카카오페이 등 주요 핀테크 기업을 방문한 것으로 알려졌다.우즈베키스탄 경제정책부처 대표단 및 KDI 관계자들이 판교 와디즈 본사에서 장정은 와디즈 COO(최고운영책임자(가운데)와 기념촬영하고 있다.와디즈는 우즈베키스탄 대표단에 한국의 크라우드펀딩 혁신 사례로서 서비스 도입과 성장, 사업 구조 및 비즈니스 노하우 등을 전달했다. 대표단은 와디즈 플랫폼 서비스의 다양한 펀딩 성공 사례와 고도화된 리스크관리 체계에 대해 높은 관심을 보였으며, 서비스 이용자 중 2030 젊은 세대가 큰 비중을 차지하는 점에 흥미를 보였다.우즈베키스탄 관계자는 "우즈베키스탄 핀테크 기업 투자와 정책 설계에는 크라우드펀딩과 같이 새롭고 혁신적인 사례가 필요했다"며 "한국의 여러 핀테크 기업과 더불어 와디즈가 만들어 낸 크라우드펀딩 산업이 우즈베키스탄 금융 발전에 큰 도움이 될 것으로 기대한다"고 말했다.와디즈 관계자는 "우즈베키스탄 경제부처 관계자 및 전문가에게 크라우드펀딩을 한국의 혁신 핀테크 산업 성공 사례로 소개할 수 있어 영광"이라면서 "앞으로도 와디즈는 핀테크 산업에 혁신을 불어넣을 수 있는 노하우와 경험을 쌓아가겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>"15분만에 대출 갈아타기? 인증하다 12분…" 휴대폰 대환대출 첫날 혼선</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000817525?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>메일 화면 항목 찾기 어려워…서비스 인증·대출 조회 지연담보 없는 신용대출로 한정…'갈아탈 상품 없다' 문구 실망금융권의 온라인·원스톱 대환대출 플랫폼이 시행된 지난달 31일 오후 서울 시내에 설치된 시중은행들의 ATM기와 카카오페이 대출 비교 서비스 '대출 갈아타기' 화면 모습. 이날부터 소비자는 대출 비교 플랫폼, 주요 금융회사 등의 스마트폰 앱을 통해 기존에 받은 신용대출을 더 유리한 조건으로 한 번에 갈아탈 수 있다. 연합뉴스지난달 31일부터 금융사를 방문하지 않고도 스마트폰으로 대출을 갈아탈 수 있는 서비스가 시작됐다. 하지만 '15분 원스톱'을 슬로건처럼 내세우던 것과 달리 이용절차가 다소 복잡해 금융 시장에서 어느 정도 파괴력을 보여줄지 미지수다.금융위원회에 따르면 대환대출 서비스에는 은행 19곳, 저축은행 18곳, 카드사 7곳, 캐피탈사 9곳 등 총 53개사가 참여했다. 이용시간은 오전 9시부터 오후 4시까지다. 기자도 이날 오전 9시 KB국민·신한·우리·하나·NH농협은행 등 5대 은행이 모두 입점한 플랫폼인 카카오페이부터 대환대출을 시도했다. '대출 갈아타기' 항목을 찾는 것부터 난관이었다. 메인 화면에서 보이지 않아 화면을 스와이프 해보기도 했지만, 어디에도 없었다. 전체 메뉴를 띄웠더니 그제야 나타났다.이후 서비스 진행은 '인증'의 연속이었다. 우선 카카오 인증서를 통해 마이데이터 서비스에 가입하는 데 첫번째 인증을 진행했다. 이어 대환대출 서비스를 위해서도 본인인증과 인증서를 통한 인증 등 두 번째 인증을 했다. 보유 자산을 확인하고 대출 조회를 앞두는 데까지만 이미 12분이 걸렸다. 온라인 플랫폼 사용이 미숙한 고령층 등의 이용 어려움이 예상되는 부분이었다. 대신 보유 자산을 자동으로 끌어와서 보여주는 편리함은 인정할 만했다.'이제 더 낮은 금리로 대출을 갈아타기만 하면 되겠구나' 싶었지만, '갈아탈 수 있는 상품이 없다'는 문구가 떴다. 아뿔싸. 1일 현재 대환이 가능한 상품은 담보가 없는 신용대출로 한정돼 있음을 깜빡했다. 금융당국은 올 12월에야 주택담보대출로 서비스 범위를 넓힐 계획이다.다른 이들의 경험담도 들어봤다. 은행원 A씨는 "우선 플랫폼 간의 제휴사 수가 달라 정확한 대환대출이 어렵다고 느꼈다. 게다가 막상 괜찮다 싶은 상품을 터치해 플랫폼에서 해당 금융사로 연결되더라도 실제 심사 결과 금리 등이 달라져 갈아타기를 취소했다"고 말했다.직장인 B씨는 "플랫폼 한 곳에서는 대출이 거절됐다. 더 싼 금리 상품이 없는건지, 이미 대출한도가 차서 그런건지 이유를 알 수 없어서 답답함을 느꼈다"면서 "또 다른 플랫폼에서는 갈아탈 수 있는 상품을 알려줬지만 현재 이용하는 상품보다 매달 내는 이자가 오히려 더 비쌌다"고 했다.이용 편의와 별개로 이번 서비스 도입에 따른 금리 인하 경쟁이 벌어지기는 쉽지 않을 것이라는 전망도 나온다.또 다른 은행 관계자는 "대환대출을 지원하지 않았을 뿐 기존에도 토스·핀다·네이버파이낸셜·카카오페이·뱅크샐러드 같은 대출비교 플랫폼은 있었고, 여기서 다양한 금융사의 대출 금리를 비교해 볼 수 있었다. 그렇다고 은행권이 서로 눈치 보며 금리를 낮추진 않았다"면서 "일단 추이를 눈여겨보겠지만, 금리라는 건 기준금리에 은행이 돈을 조달하는 데 들어가는 금리까지 더해져서 산출되는 만큼 시장 경쟁에 따라 낮추기는 어려운 구조"라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.06.09.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>10원, 100원 모아 만원… 바야흐로 '푼돈의 시대'</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005141836?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>'자린고비 놀이' 금융사 앱테크 인기블루투스 기능을 활용한 토스의 '함께 토스 켜고 포인트 받기'를 구동한 모습. 연합뉴스바야흐로 '푼돈의 시대'다. '거지방(거지 카카오톡 단체방)'이라는 신조어가 생겼고 '앱테크(앱으로 용돈 벌기)'가 유행어로 부상했다. 각국 중앙은행이 기준금리를 가파르게 올리면서 '돈값'이 귀해지고 경기 둔화로 한 푼 한 푼이 새로워지면서 나타난 현상이다.'푼돈벌이'에도 열심이다. 점심시간, 출퇴근 시간 등 자투리 시간들을 활용해 '앱테크'에 나선다. 휴대폰을 켜서 출석체크를 하고, 만보기 기록을 달성하고, 퀴즈를 풀며 적게는 한 번에 수십 원, 많게는 수백 원씩도 받는다. 한 달 동안 꾸준히 한 사람들 중에는 만원 넘게 버는 경우도 있다. 현실에서 폐지를 줍는 것에 빗대어 혹자는 '디지털 폐지 줍기'라 부르기도 한다.대표적 앱테크는 '만보기'다. 별도 행동 없이 휴대폰을 들고 다니면 되는 데다가 건강에도 도움이 되기 때문이다. 토스, KB국민은행 'KB스타뱅킹', 삼성금융네트웍스 통합 앱 '모니모' 등이 관련 서비스를 제공한다.토스 앱 내 '만보기'는 1000보, 5000보 달성 시 각각 10원을 준다. 1만보를 걸으면 20원을 지급해 하루에 총 40원을 받을 수 있다. 토스에서 정해주는 장소를 방문하면 장소 한 곳당 20원을 추가로 받을 수 있다. 최대 5곳을 방문해 100원을 적립할 수 있다. 삼성금융 통합 앱 '모니모'에서도 많이 걸으면 돈을 벌 수 있다. 모니모 이용자는 매일 5000보를 걷고 현금화할 수 있는 리워드인 '젤리'를 하루에 1개씩 받을 수 있다.KB국민은행 'KB스타뱅킹'의 KB매일걷기 서비스는 주 단위로 걸음 수를 측정한다. 한 주에 3만5000보를 걸으면 100원, 7만보를 걸으면 500원에 해당하는 포인트를 준다. 월간 미션도 있다. 월간 걸음 수 15만보를 달성한 고객들은 '럭키박스'를 열 수 있다. 럭키박스에는 치킨쿠폰, 커피쿠폰, 10~1000원 상당의 포인트 등이 있다.KB국민은행은 많이 걸으면 금융상품 우대금리도 준다. KB국민은행 '온국민 건강적금'은 걸음 수에 따라 금리가 달라진다. 매월 10만 걸음을 걷고, KB스타뱅킹 '금리확인' 화면에서 걸음 수를 확인하면 달마다 0.5%포인트씩, 최고 3%포인트까지 우대금리를 받을 수 있다. 가입일 기준 만 60세 이상 고객은 5만걸음만 걸어도 된다. 이 밖에 KB스타뱅킹 앱 내 '금리확인' 화면에서 발자국 스탬프 찍기를 눌러 받을 수 있는 '발자국 찍기 우대 이율' 등을 합하면 온국민 건강적금 금리는 최고 연 8%(6개월 가입 기준)에 달한다.우리은행, 웰컴저축은행에서도 비슷한 금융상품을 제공한다. 우리은행 '데일리 워킹 적금'은 입금일에 1만보 이상 걷고 우리WON뱅킹 상품 전용 페이지에서 '성공' 버튼을 누르면 최대 연 11%(6개월 가입 기준)의 금리를 받을 수 있다. 단 우리은행 상품·서비스 마케팅 동의(전화, SMS)가 수반돼야 한다.웰컴저축은행 '웰뱅 워킹 적금'은 연간 걸음 수 달성 여부에 따라 최대 8%포인트 우대 금리가 붙어 연 10%의 금리를 제공한다. 웰컴저축은행 모바일 뱅킹 애플리케이션에서 제공하는 걸음 수 산정 서비스 '웰뱅 워킹 서비스'에 가입하고 걸으면 된다. 연간 100만보 이상~200만보 미만은 1%포인트, 200만보 이상~300만보 미만은 3%포인트, 300만보 이상~400만보 미만은 4%포인트, 400만보 이상~500만보 미만은 6%포인트, 500만보 이상은 8%포인트 우대금리를 받을 수 있다.'출석체크'도 앱테크 수단으로 각광받는다. 금융사 입장에서는 앱 방문자 수를 늘릴 수 있어서 이득이고, 소비자들도 하루에 한 번씩 손쉽게 체크만 하면 돼서 유용하게 쓰인다. 카카오페이는 매일 앱에 접속해 '출석 체크'를 하면 현금처럼 쓸 수 있는 카카오페이포인트를 6포인트(6원 상당)씩 준다. 일요일에 출석하면 20포인트를 추가로 줘 26포인트를 받을 수 있다. KB국민카드 'KB 페이'는 앱에 접속해 출석 체크하면 출석 체크 포인트를 무작위로 준다. 적게는 한 자릿수 포인트부터 많게는 100포인트를 받았다는 사람도 나온다. 1포인트는 1원에 해당한다. 삼성금융 '모니모'도 앱에 접속해 출석 버튼을 누르면 1젤리를 준다. 매일 출석 체크를 완수해 한 달 개근하면 최소 1000원 이상으로 현금화할 수 있는 '스페셜 젤리' 1개를 받을 수 있다. 출석 체크를 놓친 경우에도 최대 4회까지, 1일 1회 젤리로 출석을 채울 수 있다.삼성금융 '모니모'는 출석체크, 걷기 챌린지 외에도 '기상 챌린지' '투자 공부왕 챌린지'를 통해 현금화할 수 있는 포인트를 준다. 기상 챌린지는 출석 체크와 비슷한 구조이지만 체크할 수 있는 시간대가 한정돼 있다. 월 단위로 진행되는 기상 챌린지는 통상 15일 전부터 다음달 기상 챌린지를 신청할 수 있다. 신청한 다음 매일 아침 6시~7시 30분 사이에 일어나 모니모에서 기상인증 버튼을 누르면 젤리를 하나씩 받을 수 있다. 각각 1~10일, 11~20일, 21~30일 연속으로 기상인증을 하면 보너스젤리 1젤리를 받을 수 있고, 한 달 내내 기상인증을 하면 스페셜젤리 1젤리도 받을 수 있다. 투자 공부왕 챌린지는 매일 '모니모'에서 삼성증권으로 이동해 투자와 관련된 동영상 강의를 시청한 후 수강 인증하면 1젤리씩 받을 수 있는 이벤트다. 동영상 강의를 3분 이상 신청하면 수강으로 인정된다. 투자 공부왕 챌린지 역시 목표치를 100% 달성하면 스페셜젤리를 준다.1젤리는 수십~수백 원 금액 중 무작위로 현금화할 수 있다. 최소 10원 이상이다. 삼성생명, 삼성화재, 삼성카드, 삼성증권 등 삼성금융 계열사 회원이라면 더 높은 비율로 현금화가 가능하다. 삼성생명·삼성화재·삼성카드·삼성증권 중 1곳의 회원이면 1.1배, 2곳이면 1.2배, 3곳 1.3배, 4곳 1.5배의 우대가 적용된다. 어느 곳의 회원도 아니면 1배다. 예컨대 1젤리가 100원으로 정해졌을 때 삼성금융 계열사 어느 곳의 회원도 아니라면 100원 그대로 받지만, 삼성금융 계열사 4곳 모두 회원이라면 1.5배를 곱한 150원을 받을 수 있다.주변에 같은 앱을 쓰는 사람이 있다면 포인트를 받을 수 있는 서비스도 있다. 블루투스 기능을 활용한 토스의 '함께 토스 켜고 포인트 받기'다. 토스 앱을 켠 사용자의 반경 100m 근처에 토스 앱을 켠 다른 사용자가 있을 때 화면상에서 해당 사용자의 아이콘을 클릭하면 토스 포인트를 받을 수 있다. 하루에 20번 클릭할 때까지는 10원을 주고, 21번째 클릭부터는 포인트가 1원씩 감소한다. 21번째 클릭 시 9원, 22번째 클릭 시 8원과 같은 식이다. 29번째 클릭부터 50번째 클릭까지는 매번 클릭할 때마다 1원을 받을 수 있다. 51번째 클릭부터는 사용자의 아이콘을 클릭해도 포인트를 받을 수 없다. 하루에 최대 266원을 받을 수 있는 것이다. 클릭 횟수는 매일 0시에 초기화된다. 특히 서울 중구 서울시립미술관 앞 공터는 '함께 토스 켜고 포인트 받기'의 성지로 불린다. 점심시간에 이 서비스를 이용하는 사람들이 모인다는 입소문이 직장인들 사이에서 퍼지면서 사람들이 더 많이 몰려서다.간단한 퀴즈를 풀면 매일 소정의 포인트를 주는 곳들도 있다. 신한은행 '신한 SOL', 신한카드 '신한 플레이', KB국민카드 'KB페이' 등이 매일 이용자들에게 퀴즈를 내고 정답자에게 10원 내외의 보상을 준다.  [서정원 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.06.08.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>[단독] 토스 내달부터 車 카드할부 비교 서비스</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005141439?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>카카오페이도 곧 출시 앞둬비바리퍼블리카(토스)와 카카오페이가 신차 카드 할부 결제 비교 서비스를 출시하며 연 40조원 규모로 추정되는 자동차 할부금융 시장 공략에 첫발을 내딛는다. 케이뱅크, 핀다, 핀크, 뱅크몰 등 핀테크도 진출하며 오프라인 위주 자동차금융 혁신에 나섰다.8일 관련 업계에 따르면 토스가 다음달 중하순 출시를 목표로 신차 카드 할부 결제 비교 서비스를 준비하고 있는 것으로 확인됐다. 토스는 "카드사별 할부 금리와 한도를 한눈에 비교해 오프라인 중심 자동차금융 시장에서 소비자 선택권을 강화하겠다"고 밝혔다. 카카오페이는 카드 일시불 캐시백 비교 서비스를 출시한 데 이어 조만간 카드 할부 결제 비교 서비스를 내놓을 예정이다.이로써 토스와 카카오페이는 자동차보험 중개, 자동차 리스·할부 중개로 이어지는 자동차금융 분야에서 첫 단추를 끼울 수 있게 됐다. 토스는 올해 말 온라인 플랫폼을 통한 보험 비교·추천 서비스 출시를 앞두고 최근 '자동차보험 갱신 알림 받기' 서비스를 애플리케이션(앱)에 추가했다. 또 최근 금융상품판매대리중개인(리스·할부중개인) 라이선스를 취득해 향후 라인업 확장 가능성을 열어뒀다. 계열사인 토스뱅크와 협업할 가능성도 있다. 토스뱅크 경쟁사인 케이뱅크는 이달 중 자동차대출 대환 상품을 출시하고, 연내 자동차 구입 자금 대출을 내놓을 계획이다.자동차금융은 크게 '오토론'과 '오토 할부' '카드 할부'로 나뉜다. 대출 상품인 오토론이나 오토 할부와 달리 카드 할부는 대출 상품이 아니고 상대적으로 고신용자를 대상으로 한다. 지금 같은 경기 침체기에도 손익비가 나쁘지 않아 우선 진출 대상이 됐다. 카카오페이는 앞서 지난 4월 신차를 구매할 때 카드 일시불 캐시백을 비교할 수 있는 '자동차 카드 결제 비교' 서비스를 내놓으며 카드 할부 결제 시장 진입을 위한 기초를 다졌다. 자동차 카드 할부는 통상 일정 금액(선수금)을 미리 내면 캐시백(오토 캐시백)을 제공하고, 나머지 금액에 대해 할부를 이용하는 식으로 이뤄지는데, 앞쪽을 먼저 구현한 것이다.이 밖에도 최근 자동차금융 시장에 핀크, 뱅크몰 등 핀테크가 잇달아 진출하고 있다. 꾸준히 성장하는 데다 그간 자동차 딜러 영향력이 컸던 비효율적 시장이라 핀테크가 파고들 여지가 있다는 판단에서다. 2013년 1조원 수준에 불과했던 카드업계 자동차 할부 금융 규모는 지난해 10조원을 넘어섰다. 캐피털, 은행, 보험, 핀테크까지 전 업권에 걸친 자동차금융 규모는 약 40조원에 이르는 것으로 알려졌다.[서정원 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.06.09.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>‘거지방’ 찾는 사람들...“티끌 모으는게 어때서? 푼돈벌이 짭짤해요”</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005141975?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>‘푼돈의 시대’ 금융사 앱테크 인기5000~1만보 걸으면 하루에 약 100원우대금리 받아 연 10% 넘는 적금도카카오페이, 국민카드 등 출석에 혜택금융사는 앱 방문자 수 늘리는 기회소비자들은 별다른 노력 없이 공돈바야흐로 ‘푼돈의 시대’다. ‘거지방’(거지 카카오톡 단체방)이라는 신조어가 생겼고 ‘앱테크’(앱으로 용돈 벌기)가 유행어로 부상했다. 각국 중앙은행이 기준금리를 가파르게 올리면서 ‘돈값’이 귀해지고 경기둔화로 한 푼 한 푼이 새로워지면서 나타난 현상이다.예전 같았으면 거들떠보지도 않았을 푼돈마저 아끼고, 카카오톡 단체방을 만들어 자신의 절약 백태를 공유한다. 생수 대신 수돗물 먹기, 샴푸 안 쓰고 비누로 머리 감기, 외식 대신 구내식당 이용하기 등이 일종의 밈이자 놀이처럼 공유되고 있다. 한끼 식사비용이 5000원이 넘을 경우 “사치”라면서 비난하는 식이다.‘푼돈벌이’에도 열심이다. 점심시간, 출퇴근 시간 등 자투리 시간들을 활용해 ‘앱테크’에 나선다. 휴대폰을 켜서 출석체크를 하고, 만보기 기록을 달성하고, 퀴즈를 풀며 적게는 한 번에 수십 원, 많게는 수백원 씩도 받는다. 한 달 동안 꾸준히 한 사람들 중에는 만원 넘게 버는 경우도 있다. 현실에서 폐지를 줍는 것에 빗대어 혹자는 ‘디지털 폐지 줍기’라 부르기도 한다.대표적 앱테크는 ‘만보기’다. 별도 행동 없이 핸드폰을 들고 다니면 되는 데다가 건강에도 도움이 되기 때문이다. 토스, KB국민은행 ‘KB스타뱅킹’, 삼성금융 통합 앱 ‘모니모’ 등이 관련 서비스를 제공한다.토스 앱 내 ‘만보기’는 1000보를 걸었을 때 10원, 5000보를 걸었을 때 10원을 준다. 1만보를 걸으면 20원을 지급해 하루에 총 40원을 받을 수 있다. 토스에서 정해주는 장소를 방문하면 장소 한 곳당 20원을 추가로 받을 수 있다. 최대 5곳을 방문해 100원을 적립할 수 있다. 삼성금융네트웍스의 금융 통합 앱 ‘모니모’에서도 많이 걸으면 돈을 벌 수 있다. 모니모 이용자는 매일 5000보를 걷고 현금화할 수 있는 리워드인 ‘젤리’를 하루에 1개씩 받을 수 있다.KB국민은행 ‘KB스타뱅킹’의 KB매일걷기 서비스는 주단위로 걸음 수를 측정한다. 한 주에 3만 5000보를 걸으면 100원, 7만보를 걸으면 500원에 해당하는 포인트를 준다. 월간 미션도 있다. 월간 걸음 수 15만보를 달성한 고객들은 럭키박스를 열 수 있다. 럭키박스는 치킨쿠폰, 커피쿠폰, 10~1000원 상당의 포인트를 준다.KB국민은행은 많이 걸으면 금융상품 우대금리도 준다. KB국민은행 ‘온국민 건강적금’은 걸음 수에 따라 금리가 달라진다. 매월 10만 걸음을 걷고, KB스타뱅킹 ‘금리확인’ 화면에서 걸음수를 확인하면 달마다 0.5%포인트씩, 최고 3%포인트까지 우대금리를 받을 수 있다. 가입일 기준 만 60세 이상 고객은 5만 걸음만 걸어도 된다. 이밖에 KB스타뱅킹 앱 내 ‘금리확인’ 화면에서 발자국 스탬프 찍기를 눌러 받을 수 있는 ‘발자국 찍기 우대 이율’ 등을 합하면 온국민 건강적금 금리는 최고 연 8%(6개월 가입 기준)에 달한다.우리은행, 웰컴저축은행에서도 비슷한 금융상품을 제공한다. 우리은행 ‘데일리 워킹 적금’은 입금일에 1만보 이상 걷고 우리WON뱅킹 상품 전용 페이지에서 ‘성공’ 버튼을 누르면 최대 연 11%(6개월 가입 기준)의 금리를 받을 수 있다. 단 우리은행 상품·서비스 마케팅 동의(전화, SMS)가 수반돼야 한다.웰컴저축은행 ‘웰뱅 워킹 적금’은 연간 걸음수 달성 여부에 따라 최대 8%포인트 우대 금리가 붙어 연 10%의 금리를 제공한다. 웰컴저축은행 모바일 뱅킹 어플레이케이션에서 제공하는 걸음수 산정 서비스 ‘웰뱅 워킹 서비스’에 가입하고 걸으면 된다. 연간 100만보 이상 200만보 미만은 1%포인트, 200만보 이상 300만보 미만은 3%포인트, 300만보 이상 400만보 미만은 4%포인트, 400만보 이상 500만보 미만은 6%포인트, 500만보 이상은 8%포인트 우대금리를 받을 수 있다.‘출석체크’도 앱테크 수단으로 각광 받는다. 금융사 입장에서는 앱 방문자 수를 늘릴 수 있어서 이득이고, 소비자들도 하루에 한번씩 손쉽게 체크만 하면 돼서 유용하게 쓰인다. 카카오페이는 매일 앱에 접속해 ‘출석 체크’를 하면 현금처럼 쓸 수 있는 카카오페이포인트를 6포인트(6원 상당)씩 준다. 일요일에 출석하면 20포인트를 추가로 줘 26포인트를 받을 수 있다.KB국민카드 ‘KB 페이’는 앱에 접속해 출석체크하면 출석 체크 포인트를 무작위로 준다. 적게는 한 자릿수 포인트부터 많게는 100포인트도 받았다는 사람도 나온다. 1포인트는 1원에 해당한다. 삼성금융 ‘모니모’도 앱에 접속해 출석버튼을 누르면 1젤리를 준다. 매일 출석체크를 완수해 한 달 개근하면 최소 1000원 이상으로 현금화할 수 있는 ‘스페셜 젤리’ 1개를 받을 수 있다. 출석 체크를 놓친 경우에도 최대 4회까지, 1일 1회 젤리로 출석을 채울 수 있다.삼성금융 ‘모니모’는 출석체크, 걷기 챌린지 외에도 ‘기상 챌린지’, ‘투자 공부왕 챌린지’를 통해 현금화할 수 있는 포인트를 준다. 기상 챌린지는 출석체크와 비슷한 구조이지만 체크할 수 있는 시간대가 한정돼 있다. 월 단위로 진행되는 기상 챌린지는 통상 15일 전부터 다음달 기상 챌린지를 신청할 수 있다. 신청한 다음 매일 아침 6시에서 7시 30분 사이에 일어나 모니모에서 기상인증 버튼을 누르면 젤리를 하나씩 받을 수 있다. 각각 1~10일, 11~20일, 21~30일 연속으로 기상 인증하면 보너스 젤리 1젤리를 받을 수 있고, 한달 내내 기상인증을 하면 스페셜 젤리 1젤리도 받을 수 있다. 투자 공부왕 챌린지는 매일 하루씩 ‘모니모’에서 삼성증권으로 이동해 투자와 관련된 동영상 강의를 시청 후 수강인증하면 1젤리씩 받을 수 있는 이벤트다. 동영상 강의를 3분 이상 신청하면 수강으로 인정된다. 투자 공부왕 챌린지 역시 목표치를 100% 달성하면 스페셜 젤리를 준다.1젤리는 수십~수백원 금액 중 무작위로 현금화할 수 있다. 최소 10원 이상이다. 삼성생명, 삼성화재, 삼성카드, 삼성증권 등 삼성 금융 계열사 회원이라면 더 높은 비율로 현금화가 가능하다. 삼성생명·삼성화재·삼성카드·삼성증권 중 1곳의 회원이면 1.1배, 2곳이면 1.2배, 3곳 1.3배, 4곳 1.5배의 우대가 적용된다. 어느 곳의 회원도 아니면 1배다. 예컨대 1젤리가 100원으로 정해졌을 때 삼성 금융 계열사 어느 곳의 회원도 아니라면 100원 그대로 받지만, 삼성금융 계열사 4곳 모두 회원이라면 1.5배를 곱한 150원을 받을 수 있다.주변에 같은 앱을 쓰는 사람이 있다면 포인트를 받을 수 있는 서비스도 있다. 블루투스 기능을 활용한 토스의 ‘함께 토스 켜고 포인트 받기’다. 토스 앱을 켠 사용자의 반경 100미터 근처에 토스 앱을 켠 다른 사용자가 있을 때 화면 상에서 해당 사용자의 아이콘을 클릭하면 토스 포인트를 받을 수 있다. 하루에 20번 클릭할 때까지는 10원을 주고, 21번째 클릭부터는 포인트가 1원씩 감소한다. 21번째 클릭시 9원, 22번째 클릭시 8원과 같은 식이다. 29번째 클릭부터 50번째 클릭까지는 매번 클릭할 때마다 1원을 받을 수 있다. 51번째 클릭부터는 사용자의 아이콘을 클릭해도 포인트를 받을 수 없다. 하루에 최대 266원을 받을 수 있는 것이다. 클릭 횟수는 매일 0시에 초기화된다. 특히 서울 중구 서울시립미술관 앞 공터는 ‘함께 토스 켜고 포인트 받기’의 성지로 불린다. 점심시간에 이 서비스를 이용하는 사람들이 모인다는 입소문이 직장인들 사이에서 퍼지면서 사람들이 더 많이 몰리면서다.네이버파이낸셜 ‘네이버페이’는 결제할 때마다 포인트를 준다. 오프라인에서 네이버페이 포인트·머니, 카드 간편결제를 사용해 결제할 수 있는 서비스인 ‘네이버페이 현장결제’를 통해 결제하면 포인트 뽑기를 통해 최소 1원~최대 2만원 상당 포인트를 무작위로 받을 수 있다. 원래 네이버페이 현장결제는 QR코드만 가능했지만, 네이버페이와 삼성페이와 제휴를 통해 삼성페이처럼 결제할 수 있게 되면서 카드를 쓸 수 있는 모든 가맹점에서 네이버페이 현장결제를 쓸 수 있게 됐다. 네이버페이 현장결제는 네이버 앱과 네이버페이 앱을 이용해 결제할 수 있는데, 네이버페이 앱을 이용해 결제하면 뽑기 기회를 두 번 준다.네이버의 서비스들을 이용하고 있다면 포인트를 최대 4배까지 적립 받을 수 있다. ‘네이버플러스 멤버십’, ‘네이버페이 머니 하나통장’, ‘미래에셋증권CMA-RP 네이버통장’ 중 1개만 가입 상태인 경우 뽑기를 통해 정해진 포인트의 2배를 적립받을 수 있다. ‘네이버플러스 멤버십과 네이버페이 머니 하나통장’ 혹은 ‘네이버플러스 멤버십과 미래에셋증권CMA-RP 네이버통장’ 가입 상태인 경우에는 정해진 포인트의 4배를 적립받을 수 있다. 포인트 뽑기 기회의 유효기한은 2개월이다. 결제 후 다음달 말일 24시까지 뽑기 버튼을 누럴야 혜택을 받을 수 있다. 포인트 뽑기 기회는 5월 31일까지 결제 건은 월 최대 30회, 이후부터는 월 최대 50회 제공된다.간단한 퀴즈를 풀면 매일 소정의 포인트를 주는 곳들도 있다. 신한은행 ‘신한 SOL’, 신한카드 ‘신한 플레이’, KB국민카드 ‘KB페이’ 등이 매일 이용자들에게 퀴즈를 내고 정답자에게 10원 내외의 보상을 준다. 사람들은 매일 카카오톡 방이나 블로그를 통해 매일 정답을 공유하곤 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>‘엄카’ 말고 ‘내카’ 긁는 10대 늘었다</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002155484?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>청소년도 카드없인 생활 힘들어토스 틴즈·카뱅 mini 가입 급증시중銀도 선불지급 서비스 확대#. 초·중생 자녀를 키우고 있는 40대 직장인 S씨는 아이들에게 카드를 발급해줘야 할지 고민이다. 늘 현금으로 용돈을 지급해왔는데 매장 내 키오스크부터 ‘현금 없는 버스’까지, 점점 카드 없이는 청소년들의 경제활동이 힘들어지고 있기 때문이다. 딸 아이는 “친구와 햄버거 프랜차이즈 점에 가서도 키오스크에서 현금 결제가 어려워 친구가 대신 결제해줬다”며 “금융 애플리케이션(앱)을 통해 친구에게 송금해줘야 한다”고 말했다고 한다.▶200만명 넘은 토스 틴즈 가입자...카카오뱅크 mini도 급증=금융 소비자의 연령대가 점점 더 어려지고 있다. 청소년들이 부모 명의의 카드를 사용하는 걸 떠나 금융 결제 수단을 직접 보유함으로써 더 활발한 경제활동을 벌이고 있다는 분석이다. 국내 금융사도 이같은 변화에 대응하기 위해 다양한 청소년 서비스를 출시하고 있다.13일 금융권에 따르면 토스 틴즈 가입자는 전날 기준 200만명을 돌파했다. 2021년 7월 출시한 지 2년도 되지 않아 달성한 성과다. 타사 청소년 서비스와 비교해도 가입자 증가세가 가파르다.토스 틴즈는 만 7세부터 만 18세 이하의 사용자를 의미한다. 틴즈는 2021년 7월 ‘어린이·청소년의 주체적인 금융 생활’을 목표로 만들어졌다. 송금, 선불카드는 물론이고 급식·시간표를 볼 수 있으며 모의주식투자·CU편의점 충전하기·저금통 등의 기능이 있다.특히 어린이·청소년용 선불 카드인 ‘유스(USS)카드’의 발급량이 빠르게 늘어나고 있다. 지난 4월 100만장을 넘어선데 이어 두 달만에 16만장이 더 발급됐다. 유스카드는 만 7세부터 16세의 어린이·청소년이 자신의 이름으로 만들어 사용할 수 있는 카드다. 카드가 연결된 가상계좌에 부모가 돈을 이체하거나, CU편의점에서 현금을 충전해 사용할 수 있다.단, 청소년 제한업종, 자동 결제 및 해외 결제에는 사용이 제한된다. 사용자가 직접 토스 앱을 통해 소비 내역을 확인하고, 결제 알림, 카드 일시 정지 등의 관리도 쉽게 할 수 있어 학생들 사이에서 인기다. 카드 발급이 빠르게 늘고 있는 이유다.카카오뱅크의 청소년 고객도 빠르게 늘고 있다. 5월 말 기준 ‘카카오뱅크 mini(미니)’ 누적 가입자 수는 약 177만명. 2020년 59만명에서 2021년 115만명, 2022년 161만명을 기록하는 등 지속적으로 증가하고 있다. 미니카드 역시 온·오프라인 결제 수단을 제공하고 전국 자동이체기기(ATM)에서 수수료 없이 입출금이 가능하다. 카카오뱅크 앱에서 잔액, 이용내역 조회가 가능하다.카카오뱅크 미니가 토스 틴즈와 다른 점은 연령대가 만 14~18세를 대상으로 한다는 점이다. 이에 3분기 내 연령 확대를 목표로 하고 있다.▶‘학부모 고객들 빠져나갈라’ 시중은행도 가세=인터넷전문은행이 청소년 고객을 모으는 건 이들이 잠재적 고객이 될 수 있다는 점 때문이다. 국내 금융사는 전자기기 등 플랫폼 활용에 능한 알파세대(2010년 이후에 태어난 이들)를 플랫폼 유저로 유인하면 선제적인 고객을 확보할 수 있다는 기대감을 품고 있다.한 은행권 관계자는 “청소년이 금융앱을 활용하는 빈도수나 금액을 보고 적잖게 놀랐다”며 “알파세대가 모바일 네이티브(토착민)인 만큼 은행권도 선불전자지급 서비스를 늘려나갈 것으로 보인다”고 말했다.시중은행도 이같이 알파세대를 유인하는 경쟁에 동참하고 있다. 우리은행은 11일 청소년 전용 선불서비스 ‘우리 틴틴’을 출시했다. 자녀에게 카드 등 지급수단을 제공하기 위해 주거래 은행을 떠나 인터넷전문은행으로 이탈하는 고객들을 묶어두기 위한 것으로 해석된다.앞서 KB국민은행은 Z세대(1990년대 중반~2000년대 초반 출생자)에 특화한 ‘리브 넥스트(Liiv Next)’를, 신한은행과 하나은행은 10대 청소년층을 겨냥해 각각 ‘신한 밈(Meme)’, ‘아이부자’를 출시했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>다 벗고 일광욕…매년 130만명 찾는 세계 최고 '누드비치' 나도 가볼까</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006865398?sid=104</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>미국 플로리다주 마이애미 홀오버해변공원. (구글맵 리뷰)(서울=뉴스1) 김송이 기자 = 나체로 일광욕을 즐길 수 있는 세계 최고의 '누드비치' 순위가 공개됐다.지난 8일(현지시간) 영국 데일리스타 등 외신은 수영복 브랜드 '푸어무아'가 전 세계 구글 리뷰(논평)를 분석해 최고의 누드 비치 순위를 매겼다고 보도했다. 푸어무아는 리뷰 점수의 평균과 리뷰 개수를 기준으로 해변을 평가했다. 1위는 100점 만점에 97점을 받은 미국 플로리다주 마이애미의 '홀오버해변원'(Haulover Beach Park)이다. 지난 1991년부터 합법적으로 누드비치 제도가 시행된 이곳은 매년 130만명 이상의 방문객이 찾는 것으로 알려졌다.브라질 북동쪽에 위치한 '프라이아 데 탐바바'. (구글맵 리뷰)2위는 브라질 북동쪽에 위치한 '프라이아 데 탐바바'(Praia de Tambaba)로 76점을 받았다. 이곳은 홀오버해변보다는 훨씬 조용한 분위기로, 누드가 허용된 구역에는 출입증이 있어야 들어갈 수 있다. 다음으로는 붉은 화산암 절벽의 아름다운 전망을 자랑하는 그리스 산토리니섬 '레드비치'(Red Beach)가 70점을 받아 3위를 차지했다. 4위와 5위로는 각각 69점, 67점을 받은 튀르키예의 '파타라 해변'(Patara Beach)과 스페인의 '플라야 데 로스 무에르토스'(Playa de los Muertos)가 꼽혔다. 이 외에도 멕시코의 '플라야 시폴리테'(Playa Zipolite)와 브라질의 '프라이아 두 아브리코'(Praia do Abricó) 등의 해변이 상위 10위 안에 들었다. 상위 20개 해변 중 절반 이상인 13곳의 해변은 유럽이었다.한편 한국에서도 지난 2009년 제주도가 중문해수욕장에 '누드비치'를 조성하는 방안을 검토해 관심을 끌었으나 무산된 바 있다.그리스 산토리니섬 '레드비치'. (구글맵 리뷰)</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>토스, 우즈벡 경제정책 대표단과 기업방문 세미나</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011892018?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]우즈베키스탄 경제정책부처 대표단 , KDI 관계자들이 역삼동 토스 본사에서 윤기열 토스 커뮤니케이션 헤드와 최락현 토스 대출비교 서비스 사업 총괄(가운데)과 함께기념 사진을 촬영하고 있다.(사진=비바리퍼블리카(토스) 제공)2023.06.01 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 한재혁 기자 = 비바리퍼블리카(토스)가 우즈베키스탄 경제재정부, 중앙은행, 디지털기술부 등 경제정책부처 책임자와 관련 전문가를 초청했다고 1일 밝혔다.이번 행사는 기획재정부와 한국개발연구원(KDI)이 주관하는 '경제발전경험 공유사업(KSP)'의 일환으로 개최됐다. 이 프로그램은 2004년부터 실시됐으며 한국의 경험을 바탕으로 경제협력 전략국가의 경제·사회 발전을 지원하는 것을 목적으로 한다. 올해는 우즈베키스탄 경제재정부의 사업 수요에 근거해 핀테크 규제 샌드박스에 대한 정책 자문이 진행되고 있다.우즈베키스탄 대표단은 금융규제 샌드박스 제도를 설계하고 운영하는 경제정책부처의 책임자 및 전문가로 구성됐다. 토스는 이들에게 2019년 시작한 대출비교 서비스 도입의 과정과 현황에 대해 공유했다. 앞서 금융규제 샌드박스 제도를 통해 운영을 실시한 토스의 대출비교 서비스는 샌드박스 지정 후 약 2년 간 시범 운영을 진행한 후 현재는 금융소비자보호법 제정으로 제도권에 안착했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>‘미래 먹거리’ 토큰증권 잡기 합종연횡 가속</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003818850?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>은행·기업들 생태계 구축 박차하나금융·미래에셋증권·SKT컨소시엄 맞손… 서비스 발굴 나서내년 본격적인 토큰증권(ST) 출시를 앞두고 증권사, 은행, 정보통신기술(ICT), 조각투자 플랫폼 등이 합종연횡하고 있다. 블록체인 기술을 활용해 다양한 실물자산에 조각 투자하는 토큰증권이 금융사의 미래 먹거리로 주목받는 만큼 생태계를 미리 구축해 시장을 선점하겠다는 전략이다.     함영주 하나금융그룹 회장(왼쪽)과 최현만 미래에셋증권 회장이 지난달 31일 하나금융그룹 명동사옥에서 토큰증권 및 웹3.0 사업 협력을 위한 업무협약을 체결하고 기념 촬영을 하고 있다. 하나금융그룹 제공    하나금융그룹은 1일 미래에셋증권, SK텔레콤과 손잡고 토큰증권 컨소시엄인 ‘넥스트 파이낸스 이니셔티브(NFI)’를 구축했다고 밝혔다. 이들은 토큰증권 사업에 필요한 분산원장(블록체인 네트워크) 체계를 함께 구축하고 양질의 토큰증권 발행, 혁신 서비스 발굴, 투자자 보호 체계와 제도 등을 함께 마련할 계획이다. 토큰증권 사업을 시작으로 금융 혁신, 웹3.0 사업까지 협력을 이어 나가기로 했다.  함영주 하나금융 회장은 “견고한 파트너십을 통해 변화의 기회를 적극 활용하고 미래 디지털 금융 혁신을 주도함으로써 고객에게 새로운 가치와 참신한 경험을 제공할 것”이라고 밝혔다. 미래에셋증권 관계자는 “토큰증권은 은행, 증권사 등 여러 주체가 역할을 할 수 있다”며 “SK텔레콤은 웹3.0 환경 등 기술력에서, 하나은행은 신탁과 자산 발굴 등 다양한 역할을 할 수 있을 것”이라고 설명했다.  토큰증권 시장을 준비하는 금융사들은 발행·유통 분담, 기술 개발, 신탁 등 전반적인 인프라 협업을 위해 기업들과 동맹을 맺는 동시에 상품 판매를 위한 조각투자 플랫폼과 협업하는 얼라이언스를 별도로 구축하고 있다.  NH투자증권과 NH농협은행은 SH수협은행, 전북은행 등과 ‘STO 비전그룹’을 만들었고, 한국투자증권은 인터넷전문은행인 카카오뱅크, 토스뱅크와 협력해 ‘한국투자 ST프렌즈’를 만들었다. 신한투자증권도 이지스자산운용, 두나무 자회사인 람다256, 에이판다파트너스 등과 함께 토큰증권 플랫폼을 구축했고 KB증권도 ‘ST오너스’를 만들어 SK C&amp;C 등 기업들과 조각투자 플랫폼을 끌어모았다.  토큰증권 시장은 내년 관련 법제도가 완비된 뒤 본격화할 예정이지만 신한투자증권은 금융규제 샌드박스를 통해 올해 하반기 출시를 앞두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>김천시 쓰레기종량제 봉투 운영체계 개선</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004201142?sid=102</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[서울경제] 경북 김천시시설관리공단은 고객 편의를 증진시키고 투명행정 실현을 위해 종량제봉투 운영체계를 개선했다고 13일 밝혔다.공단은 기존의 운영체계에서 봉투배송과 주문방법을 우선 봉투배송의 범위를 기존 동 단위에서 읍·면 지역으로 넓혔다. 이에 따라 읍·면사무소에 직접 방문해 종량제봉투를 수령해야 하는 불편함을 없앴다. 또 간편한 신청과 수입금에 대한 회계투명성 확보를 위해 기존의 전화 주문 방식에서 인터넷을 이용한 선불결제 방식으로 바꿨다. 주문은 24시간 이용 가능한 주문사이트를 통해 편리하게 주문할 수 있으며 요일별 배송 지역은 사이트 접속 시 팝업창을 통해 확인할 수 있다. 결제는 주문 후 사이트에서 토스를 이용해 계좌이체하거나 앱카드·일반카드로 결재 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>中 텐센트, 카카오뱅크 이어 토스 지분 인수 추진</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000058987?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>최대 1000억원 투입…기존 주주들에게 지분 인수 제안중국 텐센트가 인터넷은행 토스에 대한 투자를 추진 중인 것으로 확인됐다. ⓒ연합뉴스중국 최대 정보통신기술(ICT) 기업 텐센트가 인터넷은행 토스를 운영하는 비바리퍼블리카에 대한 투자를 추진 중인 것으로 확인됐다.7일 업계에 따르면, 텐센트는 최대 1000억원을 투입해 토스 기존 주주들로부터 지분을 인수하는 작업을 벌이고 있다. 기존 주주는 알토스벤처스와 굿워터캐피탈, 우리벤처파트너스, 새한창업투자, 미래에셋증권, 광주은행, KDB산업은행, 한국투자증권 등이다.텐센트는 이들에게 주당 3만원 수준의 인수 단가를 제시한 것으로 알려졌다. 텐센트는 최근 토스의 기업가치가 하락하자 투자에 나선 것으로 전해졌다.텐센트는 앞서 카카오뱅크에 대한 투자로 막대한 수익을 올린 바 있다. 텐센트는 특수목적법인(SPC)인 '스카이블루럭셔리투자'를 통해 2016년 카카오뱅크 설립 당시 공동 발기인으로 참여하며 40억원을 투자했다.이후 유상증자 등에 참여해 총 917억원을 투입해 카카오뱅크 지분 3.72%를 확보했다. 텐센트는 지난 5일 종가(2만6750원) 기준 3159억원 규모의 시세 차익을 올릴 수 있는 것으로 추산된다.한편, 텐센트는 최근 세계 인터넷은행에 대한 투자를 확대하고 있다. 앞서 영국의 몬조와 싱가포르의 타임, 이스라엘의 원제로 등에 대규모 투자를 단행한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>보험도 온라인서 비교하고 가입한다… 대응책 마련 분주해진 보험사</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000908969?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>보험 비교·추천 서비스 연말 시범 시행 “보험사 참여 불가피…어떤 상품 올릴지 고민”일러스트=정다운        네이버, 카카오, 토스 같은 플랫폼에서 여러 보험사의 보험 상품을 비교하고 가입할 수 있는 보험 비교·추천 서비스가 이르면 올해 말 출시된다. 보험사 입장에선 기존 보험 시장에 없었던 새로운 판매 창구가 생기는 것이다 보니 기회가 될 수 있다. 이 때문에 보험사별로 보험 비교·추천 서비스 대응책을 짜느라 분주하다.14일 보험업계에 따르면 주요 보험사들이 ‘보험상품 비교·추천플랫폼’ 참여로 전략을 선회하고, 보험 상품을 다각화하며 포트폴리오를 강화하는 등 대응 전략에 나섰다.보험상품 비교‧추천 서비스는 자동차‧실손‧단기‧저축성 보험을 비교할 수 있는 플랫폼 서비스다. 앞서 네이버‧카카오‧토스 등 30여곳은 해당 서비스 운영을 위해 금융위원회에 금융규제 샌드박스(혁신금융서비스)를 신청했다.한 보험사 관계자는 “보험 비교 추천 서비스에 대한 논의 흐름이 바뀌었다”면서 “플랫폼 채널 참여 자체에 대한 반발이 컸던 초기 단계의 논의는 지나갔고, 이제는 결국 너도나도 참여하게 될 것이란 시각이 우세해졌다”고 말했다.한 대형 손해보험사 관계자는 “경쟁 회사가 어떤 상품군을 보험 비교 플랫폼에 올릴지에 대한 견제가 큰 상황이다”라면서 “가령 B사와 C사는 실손보험 상품을 올렸는데 우리 회사(A사)의 해당 사업부는 왜 참여하지 않느냐는 식의 압박이 생길 수 있다 보니 타사 동향을 예민하게 살피는 분위기가 있다”고 말했다.앞서 보험업계는 규제 샌드박스 추진 과정에서 보험상품의 특성상 통일된 기준으로 가격을 단순 비교하는 게 어렵고, 플랫폼 사용에 따름 수수료로 인해 보험료가 더 비싸질 수도 있다는 등의 이유로 보험 비교·추천 플랫폼 자체를 반대하는 목소리가 컸다. 하지만 보험사 간 경쟁이 치열해진 상황에서 새 플랫폼을 활용해 브랜드 영향력을 키우고 판매 실적을 높이는 게 중요해질 것이란 판단이 작용하기 시작한 것이다.삼성화재도 보험 비교·추천 서비스 참여 가능성을 열어두고 논의를 진행 중인 것으로 파악됐다. 규제샌드박스 도입 논의 초기 대형 보험사들의 플랫폼 채널 불참 가능성이 점쳐졌던 것을 고려하면 분위기가 바뀐 셈이다. 삼성화재 관계자는 “플랫폼 참여 여부와 함께 어떤 상품 종류를 올릴지 등에 대해 논의하고 있으나, 아직 최종적으로 결정된 것은 아니다”라고 말했다.최근 카카페이손해보험이 여행자보험 상품을 출시했는데, 비교·추천 서비스 시행을 앞두고 상품 포트폴리오 확대와 영업을 본격화하고 있다는 해석도 있다. 카카오페이손보가 내놓은 여행자보험은 카카오톡 친구 목록을 통해 같이 여행하는 일행과 보험 상품을 함께 가입할 수 있고, 보험가입자가 사고 없이 돌아오면 보험료의 10%를 돌려주는 ‘안전 귀국 환급금’을 제공하는 게 특징이다.한 보험업계 관계자는 “삼성화재, 현대해상, DB손해보험, KB손해보험 등 대형 4대 보험사가 쥐고 있는 자동차보험 시장 진출이 사실 쉽지 않았는데, 보험 비교·추천 플랫폼을 통해 자동차보험 시장 진입을 노리고 전략을 짜고 있는 보험사도 일부 있다”고 말했다. 그는 “보험 비교 플랫폼이 얼마나 활성화할지 앞으로 지켜봐야겠지만, 새 판매 채널에서 소비자 호응을 얻으려는 상품 개발 및 브랜드 경쟁이 한층 뜨거워질 것”이라고 전망했다.보험 비교 추천 서비스 플랫폼. /금융위원회        지난해 8월 금융위원회는 ‘플랫폼 금융서비스 활성화 방안’을 통과시키며 빅테크‧핀테크 기업의 금융상품을 비교‧추천하는 서비스를 시범 운영할 수 있도록 허용했다. 애초 계획은 그해 11월 말 제도화할 예정이었으나 업계의 의견 차이로 일정이 지연됐다. 올해 4월 금융위는 ‘플랫폼의 보험상품 취급 시범운영 방안’을 마련했다. 반발과 우려의 목소리를 반영해 보험사들이 내는 플랫폼 수수료가 소비자의 보험료에 전가되는 것을 최소화하기 위해 수수료 한도를 설정하고, 플랫폼 과실로 불완전판매 등이 발생하면 플랫폼이 즉각적으로 배상할 수 있도록 계약 실적에 비례한 영업보증금 최저한도를 설정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>은행권, 마이데이터 파이프라인 전 서비스로 확장</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003106686?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>출처 : 게티이미지뱅크마이데이터 서비스가 시행된 지 약 1년 반이 지난 가운데, 은행권이 하반기 개인 맞춤형 서비스를  줄줄이 선보인다. 자산관리·투자·소비 등 전 영역에 걸쳐 마이데이터를 적용한 차별화 서비스로 마이데이터 고객 확보에 나선다.마이데이터 분야에서 네이버파이낸셜, 카카오페이, 토스(비바리퍼블리카) 등 빅테크로 더 많은 소비자가 몰리고 있는 만큼 은행권은 전통적인 강점인 자산, 소비 영역 등에서 차별화된 서비스를 선보이기 위해 준비 중이다.KB국민은행은 이용자가 현금흐름을 스스로 파악할 수 있는 서비스를 선보일 계획이다. 앞선 1년의 씀씀이를 분석해 향후 1년간 수익 및 지출을 월 단위로 보여준다. 현금 등이 부족할 수 있는 상황을 미리 예측해 고객이 대응하고, 지출을 줄일 수 있다. 특히 돈을 계획적으로 써야만 하는 사회 초년생 등 MZ 고객을 마이데이터 서비스로 끌어들일 수 있는 유인책이 될 전망이다.우리은행은 마이데이터 기반 금융캘린더 서비스를 선보일 계획이다. 부동산 청약일정, 공모주청약일정, 배당일정 등을 달력에 표시해 미리 준비할 수 있도록 돕는다. 관련 일정을 선택하면 해당 은행 업무와 직접 연동도 가능하다. 일정확인부터 업무까지 원스톱으로 처리할 수 있어 이용자 편의가 대폭 제고될 것으로 관측된다.신한은행은 이달부터 은행권 중 유일하게 선보이는 온라인 상품 중개 서비스에 마이데이터를 연계한다. 마이데이터를 활용해 예금 및 대출을 중개하고, 우대금리 요건 충족 확인 등으로 고객을 관리한다. 마이데이터를 활용해 중개서비스 내에서 이용자 맞춤형 상품 추천 등도 제공할 예정이다.하나은행은 자산관리 특화 서비스를 선보일 계획이다. 전통적으로 강한 프라이빗뱅킹(PB) 서비스에 마이데이터를 적용해 금융의 본질인 자산관리를 강화한다는 방침이다. 인공지능(AI) 등과 융합한 초개인화 서비스를 선보일 것으로 분석된다농협은행은 건강보험료 납입 내역 등을 비롯한 공공데이터와 금융거래 데이터를 기반으로 신용평가사(CB)와 연계한 신용점수 관리 서비스를 선보일 예정이다. 소비 관련 서비스도 지속 고도화 한다.기존 금융회사, 빅테크 외에도 수많은 고객과 통신데이터를 보유한 이동통신사도 마이데이터 사업 경쟁자로 뛰어든 가운데 은행권은 본연의 강점과 혁신기술을 융합한 마이데이터 서비스를 본격 확대할 것으로 분석된다.은행권 관계자는 “마이데이터에 대한 첫 기대와 달리 실제 고객들은 마이데이터를 가입했는데도 별로 달라진 게 없다는 반응이 많다”며 “은행뿐만 아니라 모든 마이데이터 사업자들이 이를 어떻게 타개할 수 있을지 고민하는 만큼 은행의 특색을 살린 서비스로 고객을 유입시키겠다”고 말했다.은행별 마이데이터 서비스 출시 계획</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.06.10.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>"금리 떨어지니 더 받으세요" 신용대출 한도 토뱅 3000만·국민 5000만↑</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000926907?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>서울시내 한 은행 대출창구에서 시민들이 상담을 받는 모습./사진=뉴스1  은행권이 신용대출 확보 경쟁에 열을 올리고 있다. 최근 대출금리가 떨어지면서 가계대출이 2개월 연속 늘자 은행들은 한도를 늘리며 적극적으로 신용대출을 유치하고 있다.10일 금융권에 따르면 토스뱅크는 지난 5월30일부터 신용대출 한도를 종전 2억7000만원에서 3억원으로 3000만원 확대했다.인터넷전문은행인 케이뱅크와 카카오뱅크가 이미 신용대출 한도를 3억원으로 확보함에 따라 토스뱅크 역시 치열해지는 대출 시장에서 고객을 확보하기 위해 경쟁사와 같은 수준으로 신용대출 한도를 늘린 것으로 보인다.토스뱅크 여신잔액은 지난해 1분기 말 2조6000억원에서 올 1분기 말 9조3000억원으로 약 4배 뛰며 10조원대를 눈앞에 둔 상황이다.같은 기간 카카오뱅크의 여신 잔액은 29조3000억원으로 12.7% 증가했으며 케이뱅크의 여신잔액은 11조9400억원으로 52.9% 늘었다.인터넷은행뿐만 아니라 대형 시중은행들도 신용대출 확대에 공격적으로 나서고 있다.KB국민은행은 지난달 'KB 온국민 신용대출'을 출시했다. KB 온국민 신용대출 최대 한도는 일반 직장인들을 대상으로 한 'KB 직장인든든 신용대출'에 비해 5000만원 늘어난 3억5000만원으로 증빙소득이 발생하는 직장인 누구나 신청할 수 있는 비대면 전용 신용대출이다.재직기간이 1년 이상이면서 연소득 2400만원 이상인 근로소득자가 대상이다. 다만 재직기간이 2년 미만인 경우는 한도가 2억5000만원 이내다.우리은행은 대환대출 서비스 고객에게 0.5%포인트 우대금리를 준다. 또 자체 앱에서 신용대출을 갈아타면 중도상환수수료와 인지세 등 1인당 대출 거래비용을 최대 10만원까지 지원하고 있다.신용대출 금리는 올해 들어 하락세를 지속해 은행권 신용대출 잔액 역시 감소폭이 둔화하고 있다.5대 은행의 신용대출 금리는 올해 초 까지만 해도 연 7~8%대였다가 지난 9일 기준 4.37~6.37%로 최저금리가 4%대로 떨어졌다.한국은행에 따르면 5월 말 기준 은행 가계대출 잔액은 1056조4000억원으로 전월 말 대비 4조2000억원 늘었다. 이는 2개월 연속 증가세인 동시에 2021년 10월(5조2000억원) 이후 19개월만에 월별 기준 최대 증가폭이다.신용대출을 포함한 기타대출 잔액은 247조3000억원으로 200억원 감소하는 데 그쳤다. 올 3월(3조원)과 4월(5000억원)에 비해 감소폭이 계속 줄고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>'뱅크런' 터져도 별문제 없는데…은행, 자금 끌어모으는 이유</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005506132?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>1분기 15개 은행 LCR 평균 219%, 현 기준 모두 충족불안정예금 1년새 10% 증가, 일부 은행 비중 90% 넘어은행채 등 자금 소요 증가, 금융당국 “LCR 정상화 조율”(사진=게티이미지뱅크)[이데일리 이명철 기자] 은행권의 유동성 규제인 유동성커버리지비율(LCR) 완화 종료를 앞두고 은행들의 자금 조달이 늘어날 것이라는 관측이다. 현재 모든 은행의 LCR은 이미 규제 수준을 충족한 상태다. 다만 단기간에 빠질 가능성이 상대적으로 높은 불안정예금의 비중이 커지면서 안정적인 자금 소요가 더 필요할 것으로 예상된다.예금 5~10%는 유출 가능 금액으로 규정이데일리가 11일 시중·특수·지방·인터넷은행 15곳의 LCR을 집계한 결과 평균 219.17%로 전년동기(201.17%)보다 18%포인트 가량 개선됐다. 인터넷은행(3개)이 642.22%로 가장 높고 지방은행(6개)123.59%, 특수은행(2개) 106.83%, 4대 시중은행(101.44%) 순이다.LCR은 고유동성자산을 향후 1개월간 순현금유출액으로 나눈 비율이다. 뱅크런(대규모 자금 인출) 같은 유동성 위기가 있을 때 정부 지원 없이도 한 달 동안 버틸 수 있는지를 가늠하는 지표다.은행 LCR은 100%를 지켜야 한다. 다만 금융당국은 코로나19 사태 때 은행의 자산 활용을 늘리기 위해 LCR 규제를 92.5%로 낮췄다. 이러한 규제 완화 조치는 이달말 종료되고 이후 95%, 100%까로 순차 정상화될 예정이다.현재 기준으로 봐도 은행들의 LCR은 규제를 상회하는 수준이다. 15개 은행 중 대부분은 LCR이 100%를 넘고 가장 낮은 KB국민은행(99.73%), 신한은행(99.61%)도 99% 이상이다. LCR을 구성하는 자산 중 불안정한 성격의 예금 비중이 높아지는 점은 고민거리로 꼽힌다. 은행의 현금유출액은 보유한 예금 등에서 빠져나갈 수 있다고 예상되는 가중치를 적용해 계산한다. 예를 들어 예금이 1조원 있고 가중치가 10%라면 유동성 위기 시 빠져나갈 돈이 1000억원이라고 가정하는 것이다.은행의 소매·중소기업 예금은 급여자동예치계좌 등 유출 가능성이 낮은 안정적 예금과 그 외 불안정 예금으로 나뉜다. 안정적 예금은 5%를 현금유출액으로 규정하고 유출 가능성이 더 높은 불안정 예금은 10%의 가중치를 적용한다.은행 수신자금 증가하니 불안정예금 ‘쑥’지난 1년간 은행들의 LCR은 개선됐지만 불안정 예금은 상대적으로 더 늘었다. 15개 은행의 1분기 불안정 예금은 599조9700억원으로 전년동기(543조8600억원)대비 10.3% 증가했다. 같은기간 안정적 예금은 276조7000억원에서 287조9700억원으로 4.1% 늘어나는데 그쳤다.케이뱅크는 1분기 불안정 예금이 11조5200억원으로 전년동기대비 141.1%나 증가했다. 이어 경남은행(51.9%), 전북은행(46.7%), 토스뱅크(36.4%) 등 순으로 증가폭이 컸다. 4대 은행 중에선 우리은행(18.4%), 하나은행(10.9%), 신한은행(9.4%), 국민은행(4.7%) 순으로 많이 늘었다.15개 은행 예금에서 불안정 예금이 차지하는 비중도 지난해 1분기 69.3%에서 올해 1분기 70.3%로 늘었다. 케이뱅크(98.4%), 수협은행(90.7%), 토스뱅크(90.6%)는 90%가 넘었고 광주은행(76.3%), 우리은행(71.0%)도 평균을 웃돌았다.불안정 예금이 늘어나는 건 자연스러운 현상이라는 게 은행권 전언이다. 한 시중은행 관계자는 “안정적 자금으로 분류하는 기준이 까다로워 예금이 들어오면 상대적으로 불안정 자금 비중이 더 커지게 된다”며 “최근 수신금액이 커지면서 불안정 자금이 더 크게 증가한 것”이라고 설명했다. 다른 인터넷은행 관계자는 “예금을 모두 불안정 자금으로 분류하기 때문에 예금과 비례해 증가하는 구조”라고 전했다.그럼에도 은행들의 자금 조달은 계속되고 있다. 금융투자협회 채권정보센터에 따르면 지난달 은행채 순발행액(발행액-상환액)은 1조7000억원으로 올해 처음 플러스(+)를 기록했다. 3월 실리콘밸리은행(SVB)으로 불거진 은행의 부실 우려와 대형 은행들의 뱅크런 우려 및 코로나19 금융 지원 만료와 함께 유동성 규제 등의 정상화로 자금을 확충해야 한다는 분위기가 형성되기 때문으로 풀이된다.금융당국은 앞으로 상황을 봐가며 LCR을 정상화해나갈 방침이다. 금융감독원 관계자는 “현재 은행들의 LCR 가장 낮은 수준이 99% 정도로 이번에 95%로 올려도 문제없는 상황”이라며 “100%로 원상 복귀까지 시기는 조율이 필요할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.06.08.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>"하반기 토큰증권 발행…디지털 자산시장 판 커진다"</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004853905?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>금융위, 규제 특례 허용하나證, 금속 원자재 ST 준비 중한투는 카카오·토스와 '토큰동맹'토큰증권(ST) 시장이 올 하반기부터 활발해질 전망이다. 주요 증권사들은 시장 개화를 앞두고 다양한 실험을 하고 있다.전략적 제휴 등 합종연횡도 활발하다. ST는 블록체인 기술을 이용해 토큰 형태로 발행한 증권이다. 이론적으로는 상업용 빌딩, 예술품, 명품 잡화, 지식재산권(IP) 등 모든 비정형자산에 대한 권리를 토큰으로 만들어 거래할 수 있다. 이르면 올 하반기부터 금융규제 샌드박스(혁신금융서비스)를 통해 관련 서비스가 나올 전망이다.8일 ‘한경·INF컨설팅 산업플랫폼 혁신포럼’에서 주요 증권사들은 ST 사업을 테스트 중이라고 입을 모았다. ST를 활용하면 거의 동일한 금융투자상품을 가지고 수수료 경쟁을 하는 구도에서 벗어날 수 있다고 판단한 것이다.하나증권은 올 하반기에 디지털 전환(DX) 서비스 기업 아이티센과 함께 ST 플랫폼을 내놓는 게 목표다. 금, 은, 백금, 팔라듐 등 실물 금속 원자재를 기반으로 ST를 발행해 유통한다. 최원영 하나증권 디지털본부장은 “1000원 단위로 금속 조각투자를 할 수 있게 될 것”이라며 “부동산, 원자재 등 실물을 기초자산으로 하는 안정형 ST 상품을 우선 출시한 뒤 콘텐츠·IP 관련 ST를 내놓을 것”이라고 말했다. 그는 “최근 MZ세대(밀레니얼+Z세대)는 주식, 채권 등 전통적 투자 수단 이외에 가상자산 등 새로운 비금융 투자처를 찾고 있는 경향이 뚜렷하다”며 “ST는 이 같은 신규 투자 수요를 잡기에 가장 좋은 수단”이라고 했다.한국투자증권도 ST 사업을 키우고 있다. 지난 3월 카카오뱅크, 토스뱅크, 카카오엔터프라이즈와 손잡고 ST 협의체인 ‘한국투자 ST 프렌즈’를 출범했다. 이 협의체에서 ST 분산원장 메인넷을 마련한 뒤 파트너 기업을 추가할 계획이다.안혁 한국투자증권 수석팀장은 “한투는 투자은행(IB), 프로젝트파이낸싱(PF) 역량이 뛰어난 기업”이라며 “이를 바탕으로 ST 투자 저변을 넓힐 수 있는 다양한 투자상품을 공급할 것”이라고 말했다.SK증권도 지난해 블록체인 기반 부동산 조각투자 플랫폼 사업을 시작했다. 서울 잠실 롯데월드타워에 조성된 고급주거시설 시그니엘 레지던스의 1개실을 공모상품 1호로 출시했다.전우종 SK증권 대표는 “ST는 부동산을 비롯해 주식이나 브랜드 등 각종 무형자산까지 금융상품으로 만들 수 있다”며 “ST 도입이 확산되면 디지털 기업금융 시대가 열릴 것”이라고 내다봤다.증권사들은 상품 폭을 넓히기 위해 제휴에도 힘쓰고 있다. SK증권은 신재생에너지 플랫폼 개발사 파이브노드 등과 ST 업무협약(MOU)을 맺었다. 한국투자증권은 문화 콘텐츠 투자 플랫폼 펀더풀과 제휴했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.06.06.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>“빚 더 내세요”…신용대출 전쟁, 서막이 열렸다[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002152616?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>토스뱅크, 2.7억→3억원으로KB국민은행도 3.5억까지 비대면 신용대출 내놔[출처 게티이미지뱅크][헤럴드경제=서정은 기자] 신용대출 전쟁의 서막이 열렸다. 앱에서 클릭 몇번으로 15분만에 대출을 갈아탈 수 있는 ‘온라인·원스톱 대환대출 서비스’ 출시를 계기로 금융사들의 대출확보 경쟁이 치열해지고 있는 것. 최근 대출 금리 인하와 맞물리며 고객확보에 나선 금융사들은 대출한도를 늘린 상태다.5일 금융권에 따르면 토스뱅크는 지난달 말부터 신용대출 한도를 2억7000만원에서 3억원으로 늘렸다. 시중은행들이 전문직론의 경우 3억~5억원 안팎으로 대출 한도를 보유 중인 상황에서 대출 시장 경쟁력 확보를 위해서는 한도를 추가로 늘려야한다는 판단에서다. 인터넷전문은행인 케이뱅크, 카카오뱅크 또한 이미 신용대출 한도를 3억원으로 확보한 상태다.토스뱅크 관계자는 “최근 다른 은행들이 한도를 증액한 상품을 내놓는 등 여신 시장 경쟁이 치열해지면서 고객 확보를 위해 이에 따른 대응을 한 것”이라고 말했다. 지난 1분기 기준 토스뱅크 고객수는 607만명으로 전년 동기 251만명에 비해 약 2.5배가 늘었다. 여신잔액 또한 9조3000억원으로 10조원대를 목전에 뒀다.대출 영업에 공격적으로 나선건 비단 토스뱅크 뿐만이 아니다. KB국민은행은 기존보다 한도를 5000만원 늘린 ‘KB 온국민 신용대출’을 최근 출시했다. KB 온국민 신용대출은 최대 한도가 3억5000만원으로 증빙소득이 발생하는 직장인 누구나 신청할 수 있는 비대면 전용 신용대출로 일반 직장인들을 대상으로 한 ‘KB 직장인든든 신용대출’ 등에 비하면 한도가 5000만원 많다.이밖에 우리은행은 대환대출 서비스 고객에게 0.5%포인트 우대금리를 주고, 자체 앱에서 신용대출을 갈아타면 중도상환수수료와 인지세 등 1인당 대출 거래비용을 최대 10만원까지 지원한다. 신한은행 또한 ‘신용대출 갈아타기’를 통해 다른 금융사의 신용대출 보유 여부를 조회한 고객들에게 경품 외에 갈아타기를 마친 고객들 일부를 추첨해 첫달 대출이자를 포인트로 돌려준다.최근 은행들이 공격적으로 대출영업 확대에 나선건 대출이동이 보다 간편해진데다 대출금리가 낮아지면서 관련 수요가 늘어날 것으로 보고 있기 때문이다. 지난해 6%대까지 솟구쳤던 신용대출 금리는 현재 5%대로 내려온 상태다.여기에 정부는 신용대출을 비대면으로 갈아탈 수 있는 ‘온라인·원스톱 대환대출 인프라’ 서비스를 지난달 내놨다. 집계 결과 시스템 개통 후 사흘간 1541억 원, 하루 평균 500억원 이상 대출이 옮겨간 것으로 분석됐다. 은행들이 대출한도 확대 외에도 대환대출 서비스 고객들에게 각종 우대금리와 혜택을 제공하는 것도 이 연장선상에 있다.대환대출 시장 규모가 연 10조원 안팍으로 추산되는 만큼 발빠르게 고객확보를 나서려는 것으로 풀이된다. 6월부터 자체 앱을 통해 대환대출 서비스를 제공하는 금융사가 늘어나고, 12월에는 주택담보대출시장까지 대환대출 플랫폼이 열릴 전망이다.은행권 관계자는 “최근 부동산 시장 반등 뿐 아니라 금리가 고점을 찍고 낮아지면서 대출 시장이 늘어날 것으로 본다”며 “대환대출 플랫폼 출시를 계기로 기업대출에 방점이 찍혀있던 여신 확대 전략도 개인쪽으로 옮겨갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>“대출 갈아타기로 연이자 900만 원 절감”</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000032587?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>온라인 대환대출 서비스 첫날 474억 원 이동… 시장 선점 경쟁도 뜨거워 한 저축은행에서 8000만 원 신용대출을 받은 A 씨는 연 15.2% 금리를 적용받고 있었다. 온라인·원스톱 대환대출 서비스가 시작된 첫날 대출비교 플랫폼 애플리케이션(앱)에서 여러 대환대출 상품을 비교한 A 씨는 연 4.7% 은행 대출로 갈아탔다. 터치 몇 번으로 연간 이자 부담이 1216만 원에서 376만 원으로 줄어들었다.온라인·원스톱 대출 갈아타기 시스템인 ‘대환대출 인프라’ 서비스가 5월 31일부터 시작됐다. 이에 금융소비자는 은행, 카드·캐피털사 등 53개 금융회사에서 받은 기존 신용대출을 금리가 낮거나 한도가 더 높은 신용대출로 온라인을 통해 바로 갈아탈 수 있게 됐다(표 참조). 과거 소비자가 금융회사 2곳의 영업점을 방문하고 최소 2영업일을 기다려야 했던 불편이 15분 정도로 크게 개선된 것이다.금융위원회는 5월 31일 개시한 대환대출 인프라 이용 현황을 확인한 결과 금융회사 간 총 1819건의 대출 이동을 통해 대출 자산 약 474억 원이 이동했다고 발표했다. 앞서 소개한 A 씨 외에도 대환대출 인프라를 통해 금리를 낮춘 사례가 다수 확인됐다고 한다. 저축은행에서 연 19.9% 이자로 1500만 원 신용대출을 받았던 B 씨는 연 8.7% 은행 대출로 갈아탔다. 캐피털사에서 연 16.9% 금리로 1800만 원 신용대출을 받았던 C 씨는 연 11.9% 카드사 대출로 이동했다. 카드론의 경우 각각 2.9%p, 3%p 금리를 낮춰 다른 카드사로 이동한 사례도 있었다.53개 금융사 신용대출 15분이면 갈아타대환대출 인프라는 온라인에서 금리를 비교한 뒤 온라인을 통해 더 낮은 대출로 갈아탈 수 있도록 돕는 시스템이다. 한마디로 ‘온라인 비교’와 ‘온라인 갈아타기’가 핵심이다. 기존 토스, 카카오페이, 핀다 등 민간 ‘대출비교 플랫폼’이나 은행 등 주요 금융회사 앱에 대출 갈아타기 과정을 편리하게 만든 금융결제원의 ‘대출 이동 시스템’을 결합한 것이다.대환대출 서비스 이용이 가능한 앱은 네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다, KB국민카드, 웰컴저축은행 등 대출비교 플랫폼이다. 플랫폼 앱에서는 마이데이터를 통해 기존 대출을 확인하고, 여러 상품의 대출 조건을 비교한 후 낮은 대출금리를 취급하는 금융회사로 갈아타면 된다. 앱에서는 연계된 타사 신용대출과의 대출 비교까지 가능하다. 5대 시중은행과 저축은행 등 제2금융권 주요 금용회사 1개 이상이 대출비교 플랫폼과 제휴한 상태다. 금융위원회는 6월 이후 플랫폼별 제휴 금융회사가 더 늘어날 것으로 전망하고 있다.개별 금융회사 앱에서도 대출을 갈아탈 수 있다. KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행과 케이·카카오·토스뱅크 등 3대 인터넷전문은행 등 19개 은행 앱, JT·KB·다올·모아·신한·페퍼·한국투자 등 7개 저축은행, KB국민·롯데·우리·삼성·신한·하나·현대 등 7개 카드사, BNK·DGB·JB우리·NH농협 등 4개 캐피털사에서다. 다만 개별 금융회사 앱을 통해서는 다른 회사 신용대출 상품을 비교할 수 없다.대환대출 서비스 대상은 53개 금융사에서 받은 10억 이하 직장인대출, 마이너스통장 등 보증이나 담보가 없는 신용대출이다. 기존 대출을 새희망홀씨대출, 징검다리론, 새희망드림대출, 사잇돌중금리대출, 햇살론 등 서민·중저신용자 대상 정책대출로 갈아타는 경우는 보증 여부와 관계없이 가능하다. 다만, 일부 카드론(장기카드대출)의 경우 대출비교 플랫폼에서 기존 대출로 조회되지 않아 갈아타려는 금융회사 앱에서 이용해야 하는데, 7월 1일부터는 대출비교 플랫폼에서도 모든 카드론을 조회해 다른 대출로 갈아탈 수 있을 전망이다.대환대출 인프라 이용 시간은 은행 영업시간인 매 영업일 오전 9시부터 오후 4시까지다. 서비스 이용 횟수는 중도상환수수료 여부에 따라 달라진다. 중도상환수수료가 있는 일반신용대출은 갈아타는 횟수에 제한이 없는 반면, 마이너스통장과 카드론 등 중도상환수수료가 없는 대출은 대출계약 실행 후 6개월이 경과한 후에 갈아탈 수 있다. 한편 스마트폰 이용에 익숙지 않은 고령자의 경우 주요 은행 등 영업점을 방문해 대출 갈아타기를 신청할 수 있다. 금융회사 간 상환 처리를 전산화한 대출이동시스템을 통해 새 금융회사 한 곳만 방문해도 본인의 기존 대출을 확인하고 상환할 수 있기 때문이다.대환대출을 희망할 때는 대출비교 플랫폼 또는 금융회사 앱 내 대환대출 서비스를 선택해 기존에 받은 대출금리, 갚아야 할 금액 등을 먼저 확인한다. 그다음 자신의 소득과 직장, 받을 수 있는 우대금리를 확인하고, 대출 갈아타기로 아낄 수 있는 이자와 중도상환수수료를 비교한다. 모든 정보를 감안해 새 대출을 최종 선택하면 해당 금융회사 앱에서 대출 계약을 진행한다. 계약이 완료되면 기존 대출금은 대출이동시스템을 통해 자동으로 상환된다. 소비자가 기존 대출 상환과 새 대출 실행을 확인하면 절차가 끝난다.대출비교 플랫폼을 이용할 때는 플랫폼별로 공급하는 대출 상품이 다를 수 있다는 점을 알아야 한다. 각 플랫폼이 대출을 공급하는 금융사와 각각 제휴를 맺고 서비스를 제공하기 때문이다. 은행권 대출 상품을 기준으로 카카오페이가 은행 7곳, 토스가 은행 6곳, 네이버페이가 은행 4곳과 제휴를 맺고 있다.신규 고객엔 우대금리, 기존 고객엔 금융쿠폰한편 금융당국은 서비스 개시에 맞춰 발생할 수 있는 보이스피싱 등 금융범죄에 대해 수사당국과 협조해 집중 대응할 예정이다. 소비자 또한 서비스와 관련해 전화 통화, 문자메시지 등을 통해 플랫폼이나 금융회사 앱 이외에 특정 앱 설치, 특정 계좌 입금 등을 요구하는 경우는 없다는 점을 유념해야 한다. 대출심사에 필요한 정보를 제공하지 않았음에도 과도하게 낮은 금리 등을 제시하며 특정 금융회사로 갈아탈 것을 유도하는 경우에도 의심을 늦추지 말아야 한다.11조 원 규모의 온라인 대환대출 시장을 선점하기 위한 금융사 간 경쟁도 뜨겁다. 먼저 우리은행은 자사 대출로 갈아탄 고객에게 연 0.5%p 우대금리를 제공한다. 또한 6월 말까지 대출을 갈아타느라 발생한 중도상환수수료 등 부수비용을 인당 최대 10만 원까지 지원한다. 하나은행은 금리인상 속도가 더딘 ‘신잔액 기준 코픽스’를 기준으로 하는 대환대출 특화상품을 선보였는데 5월 31일 기준 금융채를 제공하는 일반 모바일 대출금리(연 5.354%)에 비해 낮은 연 4.634%였다. 신한은행은 첫 달 대출이자를 지원하는 방안을 준비하고 있으며, KB국민은행은 기존 대출 고객을 지키기 위해 이탈이 예상되는 대출 고객에게 2만 원 상당의 금융쿠폰을 제공했다.금융위원회는 대환대출이 활성화되면 금융사들이 금리인하 경쟁을 벌일 것으로 기대한다. 또 표준화가 쉬운 아파트 담보대출을 우선으로 12월 주택담보대출도 대환대출 인프라에서 갈아타기를 목표로 준비하고 있다.*유튜브와 포털에서 각각 ‘매거진동아’와 ‘투벤저스’를 검색해 팔로잉하시면 기사 외에도 동영상 등 다채로운 투자 정보를 만나보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>신용대출 2명 중 1명 '사회 초년생, 40대' 55만 명 늘어.. ‘빚 폭탄’ 떠안을라</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/661/0000026751?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>은행 신용대출 615만 명·145조.. 5년간 35조↑대부분 고신용자.. 20대, 40대 가장 등 많아중저신용자 외면.. 손쉬운 ‘이자장사’ 등 편중취약차주 등 저축은행 비롯 2금융권 떠밀려대출 연체 등→금융리스크·부채 급증 우려도이른바 ‘경제 뇌관’으로 꼽히는 가계 부채가 급증세를 보이는 가운데, 지난 5년간 은행권 가계 신용대출자가 105만 명이상 크게 늘어난 것으로 나타났습니다.대부분 은행권의 가계 신용대출자는 신용평점이 높은 고신용자로, 중저신용자는 저축은행 등 제2금융권으로 떠밀리는 실정입니다.더구나 은행마다 고소득자나 자산가 등 고신용자 등에만 대출 문을 활짝 여는 등 손쉬운 영업에만 집중했다는 분석이 나오고 있습니다.특히나 사회초년생인 20대, 그리고 가정 내 중심 역할을 하는 40대가 증가 폭 절반 수준을 차지했습니다.당장은 몰라도 취약계층까지, 앞으로 ‘빚 폭탄’만 남는게 아닌지 우려의 목소리도 꺼지고 있습니다.■ 5년새 은행 신용대출자 105만 명↑.. “20대, 40대 가장 등”오늘(12일) 금융감독원이 국민의힘 윤창현 의원에게 제출한 자료에 따르면 국민·신한·하나·우리·농협 등 5대 시중은행과 케이뱅크·카카오뱅크·토스뱅크 등 3개 인터넷은행의 지난해 말 가계 신용대출자 수는 615만 1,000명으로 집계됐습니다.이는 2018년 말(510만 명)과 비교해 5년 동안 105만 1,000명이 증가한 수준입니다.모든 연령층에서 가계 신용대출이 늘었습니다.특히 사회 초년생으로 분류되는 20대와 자녀 부양이나 가계 유지에 수입이 필요한 40대 비중이 크게 증가했습니다.40대만 해도 2018년 158만 9,000명에서 지난해 말 189만 4,000명으로 30만 5,000명 그리고  20대는 34만 3,000명에서 59만 2,000명으로 24만 9,000명 증가했습니다.이어 50대(19만 1,000명)와 30대(16만 8,000명), 60대 이상(13만 7,000명) 순으로 증가세를 보였습니다.잔액 기준으로는 지난해 말 전체 가계 신용대출이 145조 6,467억 원으로 2018년 말(110조  6,087억 원)보다 35조 380억 원 늘어난 것으로 집계됐습니다.잔액 증가폭도 40대가 가장 큰 것으로 나타났습니다.40대의 가계 신용대출 잔액은 지난해 말 52조 8,064억 원으로 2018년 말(39조 1,481억 원)보다 13조 6,583억 원 증가했고, 50대가 9조 9,832억 원, 30대 6조 8,340억 원, 60대 2조 8,557억 원, 20대 1조 7,069억 원 등 증가 폭을 기록했습니다.은행별로 국민은행의 가계 신용대출자와 신용대출 잔액이 가장 많았습니다. 지난해 말 국민은행 신용대출자는 129만 6,000명, 잔액 32조 9,210억 원으로 나타났습니다.다음 신용대출자는 카카오뱅크(93만 7,000명), 농협은행(80만 3,000명) 등 순으로 잔액은 신한은행(26조 6,049억 원), 우리은행(19조 8,425억원) 등으로 많은 것으로 파악됐습니다.■ 가계 신용대출.. ‘고신용자’ 등 집중 문제특히 은행권 가계 신용대출이 고신용자에게 집중되는게 가장 문제로 꼽혔습니다.실제 지난해 말 가계 신용대출자 615만 1,000명 가운데 448만 1,000명, 73%가 신용평가사(CB) 신용점수 850점 이상의 고신용자로, 지난해 말 가계 신용대출 잔액 145조 6,467억 원 중 80.4%인 117조 1,535억 원이 이들이 빌린 돈으로 나타났습니다.지난해 시중은행의 경우 고신용자 중심의 이자 장사로 역대급 실적을 올리면서 고액의 ‘성과급 잔치’를 벌여 논란을 빚기도 했습니다.관련해 한 금융권 관계자는 “고신용자에 대해 상대적으로 손쉬운 영업으로 은행권 수익은 늘겠지만, 저축은행 등은 저신용자 위주 영업이 이뤄지면서 연체율 등이 늘어나는 부작용이 생길수 있다”면서 “은행들의 연체율은 양호해 중저신용자에게 대출할 수 있는 여건은 충분하다”고 지적했습니다.윤창현 의원은 “기존 은행권들이 고소득자와 자산가 등 최고 신용등급 위주의 영업에서 벗어날 필요가 있다”면서 “중신용자에 대한 문턱을 낮추는 등 국민경제에 대한 의무를 다하는 노력이 뒤따라야할 것”이라고 지적했습니다.■ “이미 많은 빚”.. 가계대출 증가폭 확대 ‘변수’더구나 문제는, 늘어나는 대출폭이 이미 우리나라 GDP(국내총생산)를 넘어섰다는 점입니다.국제금융협회(IIF)의 세계 부채 보고서에 따르면 올 1분기 기준 세계 34개국(유로 지역은 단일 통계)의 GDP 대비 가계 부채 비율에서, 한국이 가장 높은 102.2%를 기록했을 정도입니다.조사 대상국 중 유일하게 가계부채가 경제 규모(GDP)를 넘어선 것은 한국이 유일합니다.더구나 가계와 기업 등 민간 부문 부채가 줄지 않고 다시 늘어난다면 앞으로 경제 성장에 걸림돌이 될 것이란 우려도 커지고 있습니다.최근 정부의 대출 규제 완화 영향으로 감소하던 가계대출 역시 재차 늘어나는 양상이기도 합니다.한국은행의 5월 금융시장 동향 자료에 따르면 지난달 은행권 가계대출은 4조 2,000억 원 늘어, 지난달 말 현재 총액 1,056조 4,000억 원으로 2021년 10월(5조 2,000억 원 증가) 이후 월별 기준 19개월 만에 가장 큰 증가 폭을 기록하기도 했습니다.관련해 한은 측은 “주택시장의 부진이 완화 조짐을 보이고 있지만 부동산 대출 연체율이 상승하는 등 금융부문 리스크에 유의할 필요가 높아졌다”면서 “취약 차주 중심의 가계대출 연체율이 상승하고, 또 부동산시장 부진이 여타 부문으로 확대될 가능성에 유의해야 한다”고 밝혔습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>은행권도 토큰증권 주도권 경쟁 본격 참전</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000752258?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>국내 시장 오는 2030년까지 367조원 전망국내 은행들 관련 업계와 동맹 구축·사업 추진토큰 증권(ST) 시장을 주도하기 위한 금융권 경쟁이 뜨겁다. 은행권도 다른 은행이나 증권사 등과 손을 잡고, 차세대 먹거리로 주목받는 토큰 증권 시장 선점 경쟁에 본격적으로 뛰어들었다.NH농협은행은 15일 '은행권 토큰 증권 발행(STO) 컨소시엄'에 신한·우리·기업은행이 추가로 참여한다고 밝혔다. 농협은행은 지난 4월 토큰 증권 생태계 구축을 위해 SH수협·전북은행, 조각 투자기업 6개 사가 참여하는 컨소시엄을 결성했다.국내 토큰시장 전망. [사진=하나금융경영연구소]컨소시엄은 중장기적으로 독일 지멘스처럼 기업의 채권을 직접 토큰 증권으로 발행하거나 유통시장을 구축하는 등 토큰 증권 생태계 활성화 방안을 마련할 계획이다. 지멘스는 올해 초 6천만 유로의 1년 만기 채권을 블록체인 기반으로 발행했다.토큰 증권은 블록체인의 핵심기술인 분산 원장 기술로 자본시장법상 증권을 디지털화한 것이다. 금융상품, 부동산 등 여러 자산을 증권 형태로 발행할 수 있어 금융권의 미래 먹거리로 주목받는다.보스턴컨설팅그룹(BCG)은 오는 2030년까지 전 세계 관련 시장 규모가 16조 달러에 이를 것으로 본다. 하나금융연구소는 BCG 분석을 기반으로 국내 토큰 증권 시장이 2024년에는 34조원, 2030년에는 367조원을 넘어설 것으로 전망했다.앞서 정부가 토큰 증권 시장 가이드라인을 발표하고, 이르면 오는 하반기부터 규제 특례(샌드박스) 적용 방침을 밝히자 시장 선점을 위한 합종연횡이 활발해졌다. 카카오뱅크와 토스뱅크는 한국투자증권이 지난 3월 결성한 '한국투자 ST프렌즈'에 참여했다.하나금융그룹은 미래에셋증권이 주도하는 컨소시엄인 '넥스트 파이낸스 이니셔티브(NFI)'에 참여하기로 했다. 하나은행은 블록체인 활용 서비스 상용화 방안을 모색하고 하나증권은 토큰 증권의 발행, 유통, 조달, 인프라 구축 등을 직접적으로 협력할 방침이다.신석영 하나금융경영연구소 연구원은 "토큰 증권 서비스는 다양한 투자처 제공, 자산간 연결 확대 등 개인 투자환경에 상당한 영향을 미칠 전망"이라며 "인프라와 생태계 구축을 위한 기업의 움직임이 빨라지고 있어 발행 역량을 갖춘 곳들이 단기적으로 떠오를 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>"콜택시 아니다" 멍에 벗었지만…4년새 타다는 콜택시 됐다</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003284271?sid=102</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>1일 오후 타다 로고가 붙은 자동차가 서울 세종대로 사거리를 지나고 있다. 연합뉴스    “혁신은 죄가 없습니다.” (이재웅 전 쏘카 대표)       승합차 호출 서비스 타다가 ‘불법 콜택시’라며 기소된 지 4년여 만에 불법 멍에를 벗었다. 대법원 3부(주심 오석준 대법관)는 1일 이재웅 전 쏘카 대표와 박재욱 전 VCNC 대표, 쏘카와 VCNC 법인의 여객자동차운수사업법 위반 혐의에 대한 상고를 기각하고 무죄를 확정했다. VCNC는 타다의 운영사, 쏘카는 타다의 모회사다.      혁신 서비스로 주목받던 타다는 택시업계의 반발로 사회적 갈등의 중심에 내몰렸다. 이번 무죄 확정 판결로‘불법’ 딱지는 뗐지만, 법정 다툼이 진행되는 동안 표 계산에 몰두한 정치권이 ‘타다 금지법’을 통과시키며 혁신 동력을 잃었다.      타다 베이직 서비스는 2018년 출시됐다. 스마트폰 앱으로 탑승을 원하는 장소와 이용 시간을 지정하면 11인승 승합차와 운전기사를 배정해 보내주는 서비스였다. 택시 호출 앱과 비슷하지만 렌터카 업체인 쏘카에서 차를 빌리면서 일반 운전기사를 함께 호출하는 개념이다. 출시 직후 타다는 호평을 받으며 약 8개월 만에 268억원의 매출을 기록했다.      하지만 타다의 흥행은 택시업계의 반발을 불렀다. 서울개인택시조합 등은 “쏘카가 불법 콜택시 영업을 했다”며 이재웅 전 대표 등을 2019년 검찰에 고발했다. 여객자동차운수사업법상 면허 없이 영업을 하면 2년 이하의 징역 또는 2000만원 이하의 벌금에 처해진다는 조항을 들었다. 검찰 역시 “타다는 콜택시 서비스”라고 보고, 같은 해 10월 이 전 대표 등을 불구속 기소했다.       ━   1·2심 “타다는 초단기 승합차 임대 서비스”      1일 서울 중구 서울역 인근에서 타다 차량이 운행되고 있다.   뉴스1           하지만 1심 재판부는 약관 등을 근거로 “타다는 모바일 앱 기반 렌터카 서비스이고, 타다 이용자와 쏘카 사이엔 초단기 승합차 임대차 계약이 성립되었다고 보는 것이 타당하다”며 이 전 대표 등에게 무죄를 선고했다. 쏘카는 승합차 렌트 계약의 연장선상으로 이용자 편의를 위해 운전기사를 알선해 차량을 제공하는 것일 뿐, 택시와 같이 운송계약을 맺고 승객의 요구에 응한 것으로 볼 수 없다는 것이었다.       2심도 무죄였다. 재판부는 “약관 문구에 따르면 타다 서비스는 기사 알선을 포함한 자동차 대여에 해당한다고 볼 수 있고, 유상으로 여객을 운송한 것으로 볼 수 없다”고 판결했다.        2심 재판부는 그러면서 “타다는 택시와 달리 노상에서 이뤄지는 승차 요구에 즉흥적으로 응하지 못한다”며 “기존에 허용된 ‘기사 포함 렌터카 서비스’에 IT와 발전된 통신기술을 결합한 것만으로 사업의 본질적인 내용이 달라진다고 평가할 수 없다”고 밝혔다. 또 쏘카가 타다 서비스 출시 전부터 국토교통부 등 관계기관과 수차례 협의를 한 점 등을 들어 법을 어기려는 의도도 없었다고 덧붙였다.     ━   ‘타다 금지법’에 서비스 종료…콜택시 된 타다      그래픽=차준홍 기자 cha.junhong@joongang.co.kr           법정에선 콜택시가 아니라는 확정 판결을 받았지만, 정작 타다는 법정 다툼 동안 콜택시 서비스를 시작했다. ‘타다 금지법(여객자동차운수사업법 개정안)’으로 기존 영업 방식이 불법이 됐기 때문이다. 2020년 3월 21대 총선을 앞두고 택시업계 여론을 의식한 국회는 렌터카 사업자의 운전자 알선을 원칙적으로 제한하는 타다 금지법을 통과시켰다.       결국 타다는 한달 뒤 타다 베이직을 비롯한 모든 서비스를 종료했다. 타다 관계자는 “타다 금지법으로 택시 면허가 없는 운전기사가 영업을 하려면 기여금을 내야 하고, 증차할 때마다 허가를 받아야 했다”며 “영업이 가능하긴 하지만 사업성이 없다고 봤다”고 설명했다.      타다가 빠진 모빌리티 시장에서 점유율을 높인 건 대기업인 카카오였다. 공정거래위원회에 따르면 카카오T 블루 가맹택시 수는 2019년 말 1507대에서 2021년 말 3만6253대로 증가했다.      2021년 토스에 인수된 뒤 타다는 택시 면허를 보유한 택시 기사들과 계약을 하는 방식으로 고급·대형 택시 사업에 진출했다. 현재 타다는 대형 승합차 택시인 ‘타다 넥스트’, 블랙 세단 택시 ‘타다 플러스’, 가맹택시 ‘타다 라이트’ 3개 서비스를 운영 중이다. 타다 관계자는 “기존 타다 베이직 모델로는 사업을 지속할 수 없었기 때문에 제도권 안에서 사업을 일으키는 시도를 한 것”이라고 말했다.     ━   업계 “모빌리티 혁신의 흑역사”      이재웅 전 쏘카 대표가 지난해 9월 서울 서초구 중앙지방법원에서 '타다 불법 논란' 관련 여객자동차운수사업위반 혐의 항소심에서 무죄를 선고 받은 뒤 법정을 나서고 있다.  뉴스1           이재웅 전 대표는 이날 소셜미디어에 “혁신은 죄가 없음이 대법원에서 최종 확인됐다”면서도 “그 사이 혁신이 두려운 기득권의 편에 선 정치인들은 법을 바꿔서 혁신을 주저앉혔다”고 비판했다. 2000여개 스타트업이 회원사로 있는 코리아스타트업포럼은 “당연한 결과이지만, 타다는 불법이라는 수사기관의 낙인과 타다 금지법의 시행으로 이미 시장에서 사라졌다”며 “같은 사례가 반복되지 않도록 정부와 국회의 적극적인 관심과 지원을 촉구한다”고 밝혔다.      모빌리티업계 안팎에선 정치권에 대한 비판의 목소리가 이어졌다. 한 업계 관계자는 “타다 사태는 10년간 일궈 낸 모빌리티 혁신의 흑역사”라며 “정부와 국회가 신생 기업이 무엇을 할 수 있고 없는지 디테일까지 규제하는 사이, 한국의 기업가들은 이 땅에서 사업하기 얼마나 힘든지를 재차 확인해야 했다”고 지적했다.       이성엽 고려대 기술경영대학원 교수는 “정치권이 구(舊)산업 이해관계자들의 목소리를 대변하면서 소비자 이익도, 혁신도 놓친 나쁜 본보기”라며 “지금도 변호사 플랫폼, 원격의료, 미용의료, 세무회계 등 여러 분야에서 기득권의 강고한 반대로 소비자 편익은 한 발짝도 나아가지 못하는 일이 반복되고 있다”고 말했다. 이어 “타다를 반면교사 삼아 기술혁신을 대하는 법조계와 정치권의 자세를 고민할 필요가 있다”고 덧붙였다.       김도현 국민대 경영학과 교수도 “타다 사태는 스타트업 업계에 ‘당위만으로는 아무것도 이뤄지지 않는다’는 상처와 교훈을 동시에 남겼다”며 “현실적으로 조직화된 힘 없이는, 정계의 문법을 모르는 채로는, 혁신을 이룰 수 없다는 걸 업계가 깨닫게 된 것”이라고 말했다.      쏘카는 타다 금지법에 대해 헌법소원심판도 청구했지만 헌법재판소는 2021년 합헌 결정을 내렸다. 쏘카가 타다 운전기사를 근로자로 인정한 중앙노동위원회를 상대로 “부당해고 구제 재심 판정을 취소하라”며 제기한 행정소송은 지난해 7월 서울행정법원에서 원고(쏘카) 승소 판결이 나왔다. 서울고법에서 2심이 진행되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>센스톤, 단방향 다이내믹 인증보안 솔루션 '국제 CC인증' 획득</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002149620?sid=004</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 센스톤(대표 유창훈)은 세계 최초의 단방향 다이내믹 인증 기술(OTAC) 기반의 간편인증솔루션 'OTAC Token V1.0'이 국제 공통평가기준(CC) 인증을 획득했다고 밝혔다. 이미 국내 금융권 및 공공기관은 물론, 해외 정부기관 등에 사용자 및 기기인증 솔루션을 공급해 온 센스톤은 이번 국제 CC인증 획득을 계기로 글로벌 인증 보안 시장에서 경쟁력을 더욱 확고히 할 수 있을 것으로 기대된다.CC인증은 ISO 15408 제품의 보안을 평가하도록 설계된 사양 및 지침의 국제표준으로, 우리나라를 비롯해 미국, 영국, 독일 등 전세계 주요 국가에서 IT 제품의 보안성, 안정성, 신뢰성 검증을 위한 기준으로 널리 사용된다. 매우 엄격하고 객관적인 심사과정을 거치는 만큼, 정부 및 공공분야는 물론, 민간 분야에서도 전 세계적으로 가장 공신력 있는 IT 제품 보안 인증으로 꼽힌다.'OTAC Token V1.0'은 센스톤이 자체 개발한 OTAC(One-Time Authentication Code) 기술을 바탕으로 일회성 다이내믹 고유식별 인증코드를 통해 사용자 및 기기를 인증하는 단방향 다이내믹 토큰 인증 솔루션이다. 양방향 통신을 사용할 수 없는 환경, 통신환경이 열악하거나 인증대상인 기기가 초경량화 되어 있는 환경, ID/패스워드를 사용하면서 수동으로 매번 패스워드를 바꾸기 어려운 IT/OT 환경에서 기존 PKI/FIDO 등의 기술이 극복하지 못하는 영역에서 그 활용도가 매우 높다.센스톤의 인증보안 기술력은 국내외 다양한 산업에서 이미 충분히 검증된 바 있다. 토스뱅크, 카카오뱅크, 밀리패스, 인도네시아 조폐공사 전자수입인지 서비스 등 가장 민감한 인증 과정을 요구하는 금융, 국방, 공공 분야에 적용돼 사용 중이다. 최근에는 LS일렉트릭과 프로그래밍 제어장치(PLC)의 외부 위협 사전 차단을 위한 1차 개념검증(PoC)을 성공적으로 마치고, 글로벌 공통 취약점 해결을 위해 계속 협력해 나갈 방침이라고 밝힌 바 있다.유창훈 센스톤 대표이사는 “글로벌 시장에서 OTAC 기술의 알고리즘 검증 선행과 이후 시장에서의 검증을 거친 후에 국제CC인증을 진행을 할 수 있었기에 오랜 인내가 필요했고, 이번 국제 CC인증 획득으로 OTAC 기술의 보안성과 공신력을 동시에 확보한 만큼, 글로벌 시장에서 진행 중인 사업화 논의에 큰 진전이 있을 것"이라며 기대감을 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>이틀 만에 1055억원 환승…‘온라인·원스톱 대환대출 인프라’ Q&amp;A</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/662/0000021439?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>금융위원회. ‘온라인·원스톱 대환대출 인프라 서비스(이하 대환대출 서비스)’가 개시한 지 이틀 만에 1055억원 규모의 대출 환승이 일어났다.금융위원회에 따르면 1일 오후 4시까지 금융회사 간 대출 이동 건수를 집계한 결과 모두 3887건의 대환이 발생했다. 서비스 시작 첫날인 5월31일에는 전체 대출 이동 가운데 은행에서 은행으로의 이동은 90% 이상인 것으로 나타났다. 대환대출 서비스란 스마트폰 애플리케이션(앱)을 통해 소비자가 과거에 받은 대출을 더 나은 조건의 다른 금융회사 대출로 쉽게 옮겨갈 수 있는 서비스다. 금융당국 주도로 구축된 이 서비스는 53개 금융사와 23개 대출 비교 플랫폼 업체가 참여했다.31일에는 9.9% 금리를 적용받던 한도대출 1500만원을 5.7% 금리의 새 대출로 갈아탄 사례가 확인됐다. 저축은행에서 받은 15.2% 금리의 일반 신용대출 8000만원이 4.7%의 은행 대출로 환승한 사례도 있었다. 1일에는 18.5%의 금리로 받은 카드론 300만원을 8.72%의 은행 새 대출로 대환한 사례도 있었다.출시 초반부터 관심이 뜨거운 대환대출 서비스에 대한 주요 소비자 질의를 문답으로 풀어본다.Q. 갈아탈 수 있는 대출은 어떤 것들이 있나.A. 기존 대출과 새 대출 모두 53개 금융사에서 받은 10억원 이하 기존 대출 가운데 보증·담보가 없는 신용대출이다. 직장인대출·마이너스통장 등이 될 수 있다.다만 기존 대출을 서민·중저신용자 대상 정책대출로 갈아탈 때는 보증 여부와 관계없이 가능하다. 정책대출에는 새희망홀씨대출·징검다리론·새희망드림대출·사잇돌중금리대출·햇살론 등이 있다.카드론(장기카드대출)은 7월1일부터 모든 앱에서 조회와 갈아타기를 전망이다. 현재는 금융사 앱에서만 카드론 조회와 대환이 가능하다.  Q. 갈아탈 수 없는 대출이 있나.A. 연체 대출 또는 법률 분쟁, 압류 및 거래정지 상태 대출은 갈아탈 수 없다. 서비스 내에도 ‘갈아탈 수 없음’이 표시된다. Q. 서비스 이용 시간과 이용 가능 횟수는.A. 은행 영업시간과 동일한 매 영업일 오전 9시부터 오후 4시다. 서비스 이용 횟수에는 제한이 없다. 하지만 중도상환 수수료가 없는 대출은 대출 계약을 실행한지 6개월이 지난 이후에만 시스템을 통해 갈아탈 수 있다.  Q. 서비스 어떻게 이용하나.A. 서비스는 ▲대출 비교 플랫폼 ▲금융사 앱 두가지 방법으로 이용할 수 있다.플랫폼을 이용한다면 여러 금융회사의 대출 조건을 한 앱에서 비교할 수 있다. 우선 스마트폰에서 대환대출 서비스를 제공하는 플랫폼 앱을 설치한다. 플랫폼 앱에서는 마이데이터를 통해야만 기존에 받은 대출 내역을 확인할 수 있다. 기존에 가입하지 않았다면 마이데이터 가입 화면이 먼저 안내된다.마이데이터 조회 후 갈아타고 싶은 기존 대출을 선택했다면 본인의 직업·자산·소득 등의 정보를 최대한 정확히 입력해야 한다. 내 조건에 따라 제시되는 1개 이상의 새로운 대출 조건을 확인하고 중도상환수수료·우대금리 등을 따져 가장 적합한 대출상품을 고른다. 갈아탈 새 대출을 선택하면 해당 상품의 금융사 앱으로 이동해 대출계약을 실행된다. 기존 대출이 완전히 갚아진 사실과 새 대출을 받은 사실을 모두 확인하면 대환이 완료된다.이미 옮겨가고 싶은 금융사가 있다면 플랫폼 앱이 아닌 해당 금융사 앱에 바로 접속해도 된다. 금융사 앱에서는 마이데이터를 이용하지 않아도 된다. 금융사에서 새롭게 제시하는 대출 조건에 따라 유리한지 따져본 후 대출 계약을 실행하면 된다.  Q. 플랫폼과 금융사 앱 가운데 어느 쪽을 이용해야 하나. 대출 조건을 몇번씩 조회해도 신용점수에 영향이 없나.A. 이미 옮겨가고 싶은 금융사가 명확하다면 해당 금융사 앱에 바로 접속하면 된다. 다만 플랫폼을 이용하면 여러 금융사를 한번에 비교해 더 나은 조건의 대출을 발견할 수도 있다. 대출조건을 조회하는 것만으로는 신용점수에 어떠한 영향도 없다. 다만 짧은 시간 안에 과도하게 많이 한다면 일부 시중은행 등의 비대면 대출에 일시적 제한이 생길 수 있다.  Q. 대출비교 플랫폼은 어떤 것이 있고, 어떤 금융사의 대출상품이 제시되나.A. 네이버페이·뱅크샐러드·카아오페이·토스·핀다 등 핀테크 플랫폼과 웰컴저축은행·KB국민카드 등 금융사가 운영하는 플랫폼이 있다.플랫폼별로 제휴를 맺은 금융회사 상품이 노출된다. 각 플랫폼들은 지속적으로 금융사 추가 입점을 추진할 계획이다.  Q. 여러 개의 기존 대출을 하나의 새로운 대출로 합칠 수 있나.A. 불가능하다. 시스템 운영 초기 안정성 확보를 위해 한번에 하나의 대출만을 갈아탈 수 있다. 여러개 대출을 하나로 합칠 수는 없다. Q. 기존에 받은 대출 때문에 총부채원리금상환비율(DSR) 한도가 소진된 상태다. 이때도 갈아탈 수 있나.A. 기존 대출은 새 금융사가 모두 갚아 없어지므로 갈아탄다는 이유로 DSR 한도를 초과하지 않는다. 금융사 간 대출이동시스템을 통해 기존 대출이 모두 갚아졌는지 실시간으로 확인할 수 있다.  Q. 갈아타기 전 한번 더 확인해야 할 것은. A. 기존 대출을 새로운 대출로 갈아타는 것이 자신에게 얼마나 유리한지 정확히 따져봐야 한다. 특히 기존 대출에 대한 중도상환수수료, 새 대출에서 받을 수 있는 우대금리 등을 확인해야 한다. 이 정보들은 대환대출 서비스에서 모두 확인할 수 있다. Q. 앱을 사용하기 어려운 고령자가 서비스를 편리하게 이용하려면.A. 스마트폰에 익숙하지 않은 고령자는 주요 은행 등의 영업점에 방문해 대출 갈아타기를 신청할 수 있다. 대환대출 인프라 서비스의 핵심은 금융회사 간 상환 처리를 전산화한 대출이동시스템이다. 따라서 갈아타고 싶은 대출의 금융사 영업점에서 기존 대출을 확인하고 상환하는 절차가 간편해졌다.즉 새로 대출받을 금융사 영업점에 한번만 방문하면 그 자리에서 다른 금융사에서 받은 기존 대출을 확인한 후 갈아타기를 진행할 수 있다는 얘기다. 이전에는 대면 방식의 대환대출을 받으려면 금융사 두곳을 모두 방문해야 했고, 대환 완료까지 1~2영업일이 걸렸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.06.03.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>“고금리에 이자장사” 은행 때린 尹, 원스톱 대환대출이 해법될까 [김도형의 돈의 뒷면]</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003501473?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>돈, 오카네, 머니. 세상 그 누가 돈에서 자유로울까요. 동전도 지폐도. 돈은 뒤집어서 봐도 돈일 뿐입니다. 그래도 돈 뒤에 숨겨진 이야기는 있습니다. 은행, 보험사, 카드사. 그리고 이들을 감독하는 금융당국을 출입하는 기자가 돈의 행간을 한번 풀어보겠습니다.돈의 뒷면, 오늘은 최근 시작된 온라인·원스톱 대환대출 플랫폼을 한번 들여다보려고 합니다.대환 혹은 대환대출이라는 말은 기존의 대출을 조건이 더 좋은 다른 대출로 갈아타는 것을 말하는데요.지난달 31일부터 국내에서는 10억 원 이하 신용대출은 금융사 지점을 직접 찾을 필요 없이 스마트폰으로 간단하게 대환할 수 있는 시스템이 마련됐습니다.사실 이 시스템은 금융 소비자의 편의성 확대에 방점을 찍고 준비돼 왔는데요.올해 초 윤석열 대통령이 은행들의 고금리 이자장사 문제를 지적하면서 금융당국은 은행들 간의 금리 경쟁을 강화하는 좋은 방법으로 주목하면서 인프라 마련에 속력을 내왔습니다.시스템 개통 이후 사흘 동안 총 1541억 원, 하루 평균 500억 원 이상의 대환이 순조롭게 이뤄진 상황인데요.금융권에서는 손쉬운 저금리 대환 사례가 쌓이면, 은행들 간의 금리 경쟁을 상당히 가속화할 수 있을 것이라는 관측이 나옵니다.실제로 윤 대통령도 은행들 간의 경쟁 강화 방안 가운데서 이번 시스템 구축을 상당히 긍정적으로 평가했다는 후문인데요.금융에 정보기술(IT) 서비스를 결합한 이런 시스템은 장기적으로 금융권의 영업 관행 전반에 큰 변화를 불러올 수 있다는 측면에도 주목됩니다.● 53개 금융사의 대출, 스마트폰으로 15분 만에 갈아타지난달 31일 운영이 시작된 ‘온라인·원스톱 대환대출 인프라’는 스마트폰 앱을 통해 은행, 저축은행, 카드·캐피털사에서 받은 기존 신용대출 정보를 조회하고 유리한 조건으로 한 번에 갈아탈 수 있는 시스템입니다.기존에도 대출 상품을 비교하는 플랫폼이 여럿 존재했지만 이번에는 신규 대출로 이동할 때 기존 대출이 자동 상환되는 시스템을 마련했다는 것이 큰 특징인데요.금융당국에서는 금융사 지점을 직접 방문할 필요 없이 스마트폰 앱으로 15분이면 대환이 가능하다고 설명하고 있습니다.이 시스템을 통해 옮길 수 있는 기존 대출은 시중은행 등 53개 금융사에서 받은 10억 원 이하의 신용대출로 직장인 대출과 마이너스 통장 등 보증 및 담보가 없는 상품인데요.이 53개 금융사에는 개인 신용대출을 취급하고 있는 국내의 은행 19곳이 모두 포함됩니다.또 주요 저축은행과 카드·캐피탈사들이 들어와 있기 때문에 대부분의 개인 신용대출이 포함된다고 볼 수 있습니다.다만, 보험사와 대부업체의 대출은 빠져있습니다.● 대출 비교 플랫폼과 기존 금융사 앱에서 대환 가능갈아타기를 할 수 있는 앱은 크게 두 종류입니다.네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다, KB국민카드, 웰컴저축은행 등이 이미 구축한 대출 비교 플랫폼 앱과 NH농협은행, 신한은행, 우리은행, 하나은행, KB국민은행, 카카오뱅크, 케이뱅크, 신한카드, 삼성카드 등 개별 금융사 앱인데요.대출 비교 플랫폼 앱에서는 여러 금융사의 대출 조건을 비교하고 선택한 금융사 앱으로 이동해 대출을 갈아탈 수 있습니다.개별 금융사 앱에서는 다른 금융사에서 받은 기존 대출을 확인한 뒤 해당 금융사 상품으로 갈아탈 수 있는데요.갈아타기를 위해서는 우선 이들 앱에서 대환대출 서비스를 선택한 뒤에 기존 대출의 금리와 잔액 등을 먼저 확인하고 소득·직장·자산 정보 등을 입력해 새로 받을 수 있는 대출 조건을 조회해야 합니다.기존 대출을 갚을 때 발생하는 중도상환 수수료와 대환으로 아낄 수 있는 이자를 비교해 대환 여부와 갈아탈 상품을 살펴보는 것인데요.실제로 더 유리한 대출을 찾았다면 이 대출을 선택한 뒤에 해당 금융사 앱에서 실제 대출 계약을 진행하면 됩니다.계약이 완료되면 기존 대출금은 대출 이동 시스템을 통해 자동으로 상환됩니다.● 연 14.8%→6.5%, 19.9% → 14.4%… 사흘 동안 1541억 원 대환대환대출 인프라는 은행 영업시간인 매 영업일 오전 9시부터 오후 4시까지, 이용회수 제한 없이 이용할 수 있는데요.상당한 관심 속에서 시작된 이번 서비스를 통해 사흘 동안 총 1792건, 1541억 원의 대출에 대한 대환이 실제로 이뤄졌습니다.금융당국이 소개하는 사례를 보면 저축은행에서 받은 연 14.8% 금리의 일반 신용대출 4800만 원을 6.5%의 은행 대출 상품으로 갈아탄 경우, 저축은행의 19.9% 금리 일반 신용대출을 카드사의 14.4% 신용대출로 대환한 경우 등을 볼 수 있습니다.다만, 첫날 이뤄진 약 474억 원의 대출을 기준으로 보면 은행에서 은행으로 이동한 경우가 90% 이상(이용건수 기준 95.7%, 이동금액 기준 90.5%)인 것으로 집계됐습니다.은행 신용대출의 경우 아무래도 고신용자에 대한 저금리 대출의 비중이 크기 때문에 금융당국이 제시하는 것처럼 큰 폭의 금리 인하 비중은 크지 않을 수 있는 셈입니다.● 윤 대통령 호통에 탄력 붙은 대환대출 인프라앞서 말씀드린 것처럼 대환대출 인프라 구축은 금융 소비자의 편의성 증진 측면에서 금융당국이 이미 준비하고 있던 사안이었습니다.그런데 준비 속도와 금융사 참여 폭 등에서는 올해 초 윤석열 대통령의 호통이 큰 영향을 미친 것으로 보이는데요.윤 대통령이 1월 말 금융위원회 업무보고에서 은행의 공공재적 성격을 강조한 데 이어 은행의 고금리로 인해 국민들의 고통이 크다는 점까지 지적하면서 은행 간의 경쟁을 강화해 금리 부담을 낮추는 문제가 중요한 이슈로 떠오른 것입니다.윤석열 대통령이 1월 30일 서울 청와대 영빈관에서 열린 금융위원회 2023년 정부 업무보고에서 모두 발언하는 모습. 대통령실사진기자단이후 금융당국에서는 ‘은행권 경영·영업 관행·제도개선 TF’를 꾸려서 다양한 대책을 논의해 왔는데 대환대출 인프라는 이 방안들 중에서도 핵심으로 꼽힙니다.이달 말쯤 논의 결과를 공개한 계획인 이 TF에서는 새로운 은행업 허가를 내줘서 경쟁을 강화하는 방안을 포함해 다양한 방안을 논의하고 있는데요.사실 국내에는 이미 20곳의 은행이 영업 중입니다.개인 영업을 기준으로 보자면 수출입은행 같은 특수은행은 제외하더라도 KB국민 신한 하나 우리 NH농협 등의 5대 시중은행은 물론 지방은행과 외국계 은행에 3곳의 인터넷전문은행까지 경쟁을 하고 있는 구도인데요.이미 숫자가 많은 은행을 더 늘리는 논의가 아니라 이들 은행들 간의 실질적인 경쟁을 얼마나 더 키울 수 있느냐는 관점에서 대환대출 인프라와 같은 방안이 실효적일 수도 있어 보입니다.● IT발 금융 지각변동 가능할까물론, IT 기술로 대출 상품의 치열한 금리 경쟁을 유도하는 대환대출 인프라가 IT발 금융 지각변동까지 불러올 수 있을지는 앞으로의 상황을 지켜봐야 하겠는데요.금융사들의 이해관계가 복잡하기 때문에 이런 인프라가 등장한다고 해서 대출 시장이 한순간에 완전 경쟁 시장이 될 수는 없기 때문입니다.사실, 기존의 대환대출 플랫폼에서도 주요 시중은행들은 자신들의 대출 상품을 플랫폼에 태우는 데 그리 적극적이지 않았던 상황이었습니다.서비스가 시작된 첫날, 저도 한 대출비교 플랫폼 앱에서 신용대출 갈아타기를 시도해봤습니다만…역시나 연 5.72%인 시중은행의 신용대출을 15% 안팎의 저축은행, 캐피탈사 대출로 갈아타라는 결과가 나왔습니다.대출비교 플랫폼들이 아직 주요 금융사의 저금리 대출을 다수 확보하지는 못했음을 보여주는 셈인데요.그리고 그 이후에 개별 금융사 앱에서 대환을 시도하려고 했을 때는 이미 당일 대환 한도가 끝난 경우도 있었습니다.‘대출비교 플랫폼에서 대출조건을 조회한 결과, 낮은 금리의 상품이 뜨지 않거나, 오히려 더 높은 금리의 상품이 추천된다’는 지적에 대해 금융당국은△고신용자가 기존에 충분히 낮은 대출금리를 적용받고 있는 경우 △현재 시점의 총부채원리금상환비율(DSR) 규제비율을 초과하는 대출을 보유해 금융회사로부터 신규 대출을 받을 수 없는 경우 △대출비교 플랫폼에 입점한 금융회사가 소비자의 대출조건 조회결과를 전송하는 데 지연 또는 오류가 발생한 경우 등으로 설명하고 있는데요.사실, 장기적으로 보면 주요 금융사들이 이 대환대출 시장에 얼마나 낮은 금리로 얼마나 많은 한도를 공급할 것이냐는 문제가 중요하겠습니다.● 올 12월에는 아파트 담보대출까지 확대그럼에도 불구하고, 이런 인프라는 은행들의 경쟁 압력을 높일 수 밖에 없습니다.낮은 조달금리와 탄탄한 영업망을 갖추고 있어서 대환대출 플랫폼에 굳이 주요 상품을 태울 이유가 없었던 주요 시중은행들에서도 이런 대열을 이탈하는 은행이 하나, 둘 등장하면 상황이 달라질 수 있겠습니다.신용대출에서 시작하는 대환대출 인프라는 올 12월 아파트 담보대출까지 확대됩니다.신용대출보다 훨씬 규모가 큰 주택담보대출(국내 가계대출은 3월 말 기준으로 주택담보대출이 1017조9000억 원, 기타대출이 721조6000억 원 규모)의 가세까지 미리 예고한 대환대출 인프라가 앞으로 금융권에 어떤 변화를 불러올 수 있을지, 계속 살펴보면서 또 전해드리겠습니다.‘온라인·원스톱 대환대출 인프라’ 이용에 대한 자세한 안내는 금융위원회 보도자료(https://www.fsc.go.kr/no010101/80064?srchCtgry=&amp;curPage=2&amp;srchKey=&amp;srchText=&amp;srchBeginDt=&amp;srchEndDt=)를 통해 확인해 보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>'맞춤형 금융플랫폼' 증권사 MTS 변신은 어디까지</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016988?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>창간10주년기획[DX인사이트]토스증권이 포문 연 '쉽고 간편함'…대세로 우뚝PB 상담 신청하고 구미 맞춰 AI 투자…초개인화↑코로나19 팬데믹(대유행)을 계기로 분 비대면 투자 바람으로 국내 주식투자 인구가 1500만명에 육박한 가운데 모바일트레이딩시스템(MTS)은 대표 거래 수단으로 확고히 자리 잡았다. 불과 10여 년 전만 해도 10명 중 1명 정도에 불과했던 MTS 거래비중은 이제 전체의 절반에 육박한다.사용자가 급증하면서 MTS도 하루가 다르게 진화 중이다. 주식을 사고파는 도구에서 나아가 투자자가 원하는 정보를 맞춤형으로 제공하고 이해시키며 인공지능(AI)과 접목해 투자 전문가로서의 컨설팅도 서슴지 않는다. 단순 투자플랫폼에서 종합 금융플랫폼으로의 '대변신'이다. /그래픽=비즈워치무조건 '투자자' 중심…대형사도 사활최근 증권사 MTS의 트렌드는 '쉽고 간편함'이다. 코로나19 이후 주식시장에 들어온 신규 투자자 대부분이 주린이(주식+어린이)인 만큼 이들을 위한 맞춤형 변화다. 이들 초보 투자자들은 기존 홈트레이딩시스템(HTS)과 MTS가 탑재한 숱한 정보 가운데 원하는 것을 찾고, 이를 이해하는데 어려움을 느낀다. 단적으로 당장 '매수'와 '매도'라는 용어조차 어색한 주린이들에게 난해한 차트나 수급 데이터 등은 쉽게 접근할 수 있는 정보가 아니다. 쉽고 간편함을 모토로 한 MTS 혁신에 물꼬를 튼 건 지난 2021년 12년 만에 새내기 증권사로 등장한 토스증권이다. 토스증권은 극도로 단순화한 사용자인터페이스(UI)와 사용자경험(UX)을 MTS에 구현해 시장에 충격파를 안겼다. 토스증권 MTS에는 두 종류의 차트가 있다. 양봉, 음봉 등으로 이뤄진 '캔들차트', 그리고 '실시간 차트'다.1분마다 갱신되는 실시간 차트는 △거래량 △인기 △급상승 △급하락 △관심 등 5가지 카테고리에 따라 톱100 종목을 보여준다. 토스 앱의 하단 탭에서 '주식'을 클릭하면 맨 처음 나오는 화면으로 접근성이 높다. 한국거래소가 지정한 위험 주식은 차트에서 아예 제외하는 세심함 또한 엿보인다. 접속과 동시에 수십개의 메뉴로 구성된 화면을 보여주는 타사 MTS들과는 큰 차별점이다. 토스증권 MTS 내 실시간 차트와 검색 화면 / 사진=토스증권 MTS?검색창에 '이차전지'를 입력하면 관련 주식뿐만 아니라 언론에서 같이 언급한 주식까지 보여주는 직관성은 자체 산업분류기준을 기반으로 실현 가능했다. 다시 '빵'을 입력하면 이 분야 전 세계 시가총액 1위인 '랭커스터 콜로니'가 맨 위에 뜬다. 우유 매출 1위 기업을 얘기한 기사와 함께다. MTS를 주식거래 체결 플랫폼으로서가 아니라 '지식 포털'로 확장한 셈이다. 토스증권이 MTS 출시 2년여 만에 가입자 500만명 이상을 확보하고 시장점유율을 20%대(해외주식 기준)로 끌어올리는 등 매섭게 성장하면서 신생 증권사의 등장을 처음엔 대수롭지 않게 여겼던 기존 증권사들도 앞다퉈 MTS 업그레이드에 나섰다. 대형 증권사뿐만 아니라 리테일 비중이 크지 않은 중형사까지 '쉬운 구성'에 사활을 거는 모양새다.미래에셋증권과 한국투자증권이 지난해 6월 MTS를 전면 개편한 데 이어 두 달 뒤에는 키움증권이 MTS를 리뉴얼했다. 올해 들어서는 신한투자증권이 기존 MTS '신한알파 2.0'을 1년여 만에 새 단장해 '신한알파 3.0'으로 업그레이드했다. 중형사 중에서는 현대차증권과 하이투자증권이 새 MTS로 각각 '내일'과 'iM하이'를 지난달 출시했다. 이들 증권사는 저마다 투자자 중심의 UI·UX 구현이나 개인 맞춤 기능 강화, 직관적인 이해와 사용 등을 강조하고 있지만 이는 모두 하나의 키워드로 향한다. 결국 쉽고 간편함이다. '맞춤형 PB' 초개인화…앞으로는 투자 필수품개인화된 자산관리 서비스 또한 최근 빠르게 변신 중인 MTS의 다른 한 축이다. 주식투자의 대중화로 증권사들은 고액 자산가에게만 제공했던 초개인화 서비스의 빗장을 풀고 있다. 투자자들의 궁극적인 목적이 보유 자산을 불리는 것인 만큼, MTS를 통해 이를 전문적으로 관리함으로써 로열티를 끌어올리겠다는 복안이다. KB증권의 프라임클럽은 이를 잘 구현한 모델로 꼽힌다. 오프라인 지점에서 고액 자산가를 대상으로 해오던 전문 프라이빗뱅커(PB)의 자산관리 컨설팅을 MTS에서 제공하는 일종의 '구독형 서비스'다. 월 1만원인 이 클럽에 가입하면 소액투자자라도 MTS '마블(M-able)'을 통해 전담 PB와 개인 자산상담 신청이 가능하고, 이들 회원만을 대상으로 한 고급 투자정보도 볼 수 있다. 삼성증권의 MTS인 '엠팝(mPOP)'도 개인화에 주력하고 있다. 일정 수준의 거래가 있는 에스라운지(S.Lounge) 투자자는 '엠팝'에서 디지털PB 상담 신청을 할 수 있고 '리서치톡'으로 관련 리포트를 발간 즉시 확인할 수 있다. 지난해 4월 오픈해 MTS에 탑재된 '굴링'은 AI를 이용해 투자자 성향에 맞는 포트폴리오를 짜주고, 원치 않는 종목은 삭제해 조정하는 맞춤형 서비스로 처음부터 초개인화 자산관리에 방점을 찍었다.KB증권 MTS '마블(M-able)' 내 PB 상담 신청 화면(왼쪽) 및 삼성증권 MTS '엠팝(mPOP)' 내 자산관리 소개 화면 / 사진=각 사 MTS이처럼 빠르게 진화 중인 MTS는 앞으로 시장지배력을 더욱 강화할 것으로 보인다. 이제까지가 쉽고 편한 투자를 위한 '보조수단'이었다면, 향후에는 투자에 없어서는 안 될 '필수품'으로 자리매김할 가능성이다. 그런 점에서 앞선 MTS를 통한 PB 상담 신청이나 맞춤형 자산관리는 이를 위한 포석으로 볼 수 있다.  증권사들이 투자자들의 MTS 체류 시간 확대에 사활을 걸고 있는 것도 이와 무관하지 않다. 투자자가 머무르는 시간이 늘어날수록 금융투자상품이나 연계 서비스에 대한 노출도가 커지기 때문이다. 실제 투자자의 MTS 체류 시간은 최근 증권사의 주요한 플랫폼 성과 지표로 꼽힌다. 키움증권 등 국내 주요 증권사들은 이미 MTS에서 토큰증권(ST)을 거래할 수 있는 서비스 준비에 한창이다. 금융투자업계의 새로운 수익원이 될 토큰증권 거래를 MTS에서 먼저 매매할 수 있게 함으로써 결국 모든 투자를 MTS 하나로 가능하게 한다는 복안이다.윤유동 NH투자증권 연구원은 "MTS는 이제 편리성을 높이는 것에 그치지 않고 소수점 거래나 마이데이터, 토큰증권 거래 등 다방면으로 서비스를 제공하며 투자자들의 활용 범위를 더욱 넓힐 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>토스뱅크, 임직원 48명에게 입사 1주년 ‘스톡옵션’ 48만주 지급</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003735266?sid=103</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 토스뱅크가 입사한 지 1년이 지난 임직원 48명에게 스톡옵션(주식매수선택권)을 지급한다. 지난 2021년 출범 후 8번째 스톡옵션 부여다.스톡옵션이란 기업이 임직원에게 일정수량 회사 주식을 일정한 가격으로 매수할 수 있는 권리를 부여하는 제도다. 기업 주가가 상승할 경우 차익을 얻을 수 있다.1일 금융권에 따르면 토스뱅크는 지난달 31일 임시 주주총회를 열고 임직원 48명에게 스톡옵션 총 48만5000주(기명식 보통주)를 지급하기로 했다. 스톡옵션 지급은 신주 발행 형태로 이뤄지며, 행사가는 주당 5000원이다. 대상 임직원은 2025년 5월 31일부터 5년간 이를 행사할 수 있다.토스뱅크는 입사 4년차까지 매년 스톡옵션을 분할지급하고 있다. 임직원에게 부여한 스톡옵션 주식 수는 총 427만4000주, 행사가 기준 214억원 규모다.아직 행사할 수 있는 물량은 없다. 오는 7월 9일부로 68만주가량 스톡옵션을 행사할 수 있지만, 토스뱅크가 상장 전인 만큼 장외시장에서 실제로 거래가 이뤄질지는 미지수다. 토스뱅크 관계자는 “관련 내용이 입사 당시 계약에 포함돼 있어 입사 1년이 지난 직원을 대상으로 주주총회에서 스톡옵션을 부여했다”며 “스톡옵션 부여시 경영진과 직원 사이 차이를 크게 두지 않는다”고 말했다. [사진 = 토스뱅크](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>대법원 “타다 무죄 확정”… 이재웅 “혁신은 죄가 없다”</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003818777?sid=102</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>이재웅 전 대표 “정치인들은 법을 바꿔서 혁신을 주저 앉혔다”    쏘카 이재웅 전 대표. 연합뉴스       불법 콜택시 논란이 일었던 차량 이동 스타트업 ‘타다’ 전직 경영진이 대법원에서 최종 무죄를 선고받았다.     1일 대법원 3부(주심 오석준 대법관)는 여객자동차운수사업법 위반 혐의로 기소된 쏘카 이재웅 전 대표와 타다 운영사였던 VCNC 박재욱 전 대표에게 무죄를 선고한 원심을 상고 기각 판결로 확정했다. 아울러 함께 기소된 쏘카와 VCNC 법인도 무죄가 확정됐다.     앞서 2018년 승합차 카니발을 앞세워 차량 이동 서비스를  시작한 타다는 기존 택시업계와 다른 시장을 구축하면서 이용객들로부터 상당한 관심을 받았다.      하지만 기존 시장 참여자였던 택시기사들의 극렬한 반발을 받았고 급기야 택시기사 1명이 서울 광장에서 분신을 해 숨지는 사건이 발생하기도 했다.     정치권에서는 타다 영업에 제동을 걸었는데  당시 더불어민주당 박홍근·민주평화당 김경진 의원 등 정치권은 2019년 ‘타다 금지법’으로 불리는 여객자동차법 개정안을 발의했고 2020년 3월 국회를 통과, 타다 측에서는 타다 서비스 운영을 중단했다.     이미 전세계적으로 운송업 시장은 동남아 쪽은 ‘그랩’, 미국·일본·중국 등은 ‘우버’로 변해가고 있는 시점이었다.     이후 급격히 이용자들이 급감한 타다는 2021년 토스에 인수됐고 다소 제한된 운송 서비스만을 운영 중이다.      이재웅 전 대표는 “혁신은 죄가 없음이 대법원에서 최종 확인되었다”며 “4년 가까운  긴 시간동안의 싸움끝에 혁신은 무죄임을 지속적으로, 최종적으로 확인 받았지만, 그 사이 혁신이 두려운 기득권의 편에 선 정치인들은 법을 바꿔서 혁신을 주저 앉혔다”고 안타까워했다.     그러면서 “함께 새로운 혁신 생태계를 만들어가던 많은 사람들이 일자리를 잃었고, 새로운 이동의 선택을 반겼던 많은 사람들은 다시 이동의 약자가 되었다”며 “혁신을 이해하지 못하고 주저 앉힌 사람들은 여전히 기득권의 자리를 지키고 있다”고 짚었다.     아울러 “혁신을 만들어내는 기업가를 저주하고, 기소하고, 법을 바꾸어 혁신을 막고 기득권의 이익을 지켜내는 일은 이번을 마지막으로 더 이상 없어야 한다”며 “그것이 이번 판결을 통해 우리 사회가 얻을 수 있는 유일한 교훈이 아닐까”라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>토스뱅크 적자 탈출 '초읽기'…여유로운 예대율 '태풍의 눈'</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002719197?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>1년 새 손실폭 절반 넘게 줄여남다른 대출 성장 여력 '눈길'서울 강남구 토스뱅크 사무실 전경. ⓒ토스뱅크[데일리안 = 부광우 기자] 토스뱅크의 적자 탈출이 초읽기에 들어갔다. 손실 폭을 1년 만에 절반 넘게 줄이며 흑자 전환에 한 걸음 더 다가서는 모양새다.특히 향후 대출 성장 여력을 가늠할 수 있는 예금 대비 대출금 잔액 비율(이하 예대율)이 여전히 경쟁사들에 비해 훨씬 여유롭다는 점에서, 앞으로 은행권의 태풍의 눈이 될 수 있을 것이란 기대도 나온다.7일 금융권에 따르면 토스뱅크는 올해 1분기 당기순손실은 280억원으로 전년 동기 대비 적자 폭이 57.2% 급감했다. 이는 지난해 분기별 평균 손실인 661억원과 비교해도 절반 이상 축소된 규모로, 출범 이래 가장 적은 분기 손실이다.호실적의 배경은 역시 이자 마진이었다. 토스뱅크의 올해 1분기 순이자이익은 1120억원으로 한 분기 만에 지난해 연간 순이자이익인 2174억원의 절반 이상을 달성했다. 이에 따른 명목순이자마진은 올해 1분기 1.76%으로 전년 동기 대비 2%포인트(p) 가까이 올랐고, 충당금적립전이익도 같은 기간 대비 893억원 늘며 492억원 흑자로 돌아섰다.비이자수익도 성적을 뒷받침했다. 올해 1분기에만 125억원으로 1년 새 5배나 증가하며 출범 이래 최고치를 달성했다. 금융권에서 가장 경쟁력 있는 금융상품을 소개하는 목돈 굴리기 서비스와 즉시 캐시백을 제공하는 토스뱅크 체크카드의 흥행 덕이란 설명이다.특히 눈길을 끄는 대목은 여전히 50%를 밑도는 토스뱅크의 예대율이다. 예대율이 낮은 은행일수록 향후 대출을 확대할 여지가 크다고 볼 수 있어서다. 예대율은 보유한 예금과 비교해 대출의 규모가 얼마나 되는지를 보여주는 수치로, 100%를 넘으면 규제 대상이 될 수 있다.실제로 토스뱅크의 예대율은 올해 1분기 말에도 44.5%에 그쳤다. 여신이 10조원에 육박하면서 예대율이 1년 만에 3배 넘게 오르긴 했지만 여전히 은행권에서 최저치다. 같은 시점 4대 시중은행의 평균 예대율인 95.3%와 비교하면 절반도 안 되는 수준이다. 다른 인터넷전문은행들인 카카오뱅크와 케이뱅크 예대율도 80%대로 토스뱅크에 비해 훨씬 높은 편이다.이런 현실만 놓고 보면 향후 토스뱅크는 누구보다 적극적으로 대출 확장에 나설 것으로 예상된다. 빠르게 성장하고 있는 이자 마진은 물론, 전체 순이익 흑자 전환에도 한층 탄력을 받을 것이란 관측이 나오는 이유다.가뜩이나 은행권의 대출 경쟁에는 점점 더 불이 붙을 것으로 보이는 상황이다. 지난해부터 금리가 치솟으면서 대출은 위축되고 예·적금에만 돈이 몰리고 있어서다. 은행들로서는 대출의 활로 찾기에 더욱 골몰할 수밖에 없는 실정이다.한은은 지난해 4월부터 올해 1월까지 사상 처음으로 일곱 차례 연속 기준금리를 인상했다. 이중 7월과 10월은 기준금리를 한 번에 0.5%p 올리는 빅스텝을 단행했다. 이에 따른 현재 한은 기준금리는 3.50%로, 2008년 11월의 4.00% 이후 최고치다.이렇게 되자 은행들은 대출 문턱을 낮추겠다는 입장으로 돌아서고 있다. 한은이 조사한 대출 행태 서베이 결과, 올해 2분기 국내 은행들의 대출 태도 지수는 8로, 1분기에 이어 플러스를 나타냈다. 이 수치가 0을 넘으면 대출 심사를 완화해 보겠다는 의미다.금융권 관계자는 "기준금리가 정점에 다다랐다는 인식이 확산되면서 예대 마진을 방어하기 위한 은행 간 대출 경쟁이 다시 활발해질 수 있다"며 "예대율에 여유가 있는 곳이 상대적으로 보다 편하게 영업에 나설 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>"나갈 돈에 허리 휜다" 5년간 20·40대 신용대출자 급증</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000927211?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>서울 시내의 한 시중은행 대출창구 모습./사진=뉴스1 지난 5년간 은행의 가계 신용대출자가 105만여명 늘어난 가운데 연령별로는 20대와 40대의 증가 폭이 가장 두드러졌다.12일 윤창현(국민의힘·비례대표) 의원이 금융감독원에게 받은 자료에 따르면 지난해 말 국민·신한·하나·우리·농협은행 등 5대 시중은행과 카카오·케이·토스뱅크 등 3개 인터넷은행의 가계 신용대출자 수는 615만1000명으로 집계됐다.이는 5년 전인 2018년 말(510만명)과 비교해 105만1000명이 늘어난 수치다. 지난해 말 전체 가계 신용대출 잔액은 145조6467억원으로 2018년 말의 110조6087억원보다 35조380억원 늘었다.이 기간 20대, 40대 차주가 급증했다. 40대 신용대출자는 2018년 158만9000명에서 지난해 말 189만4000명으로 30만5000명 늘었다. 20대는 34만3000명에서 지난해 말 59만2000명으로 24만9000명 증가했다. 뒤를 이어 50대(19만1000명), 30대(16만8000명), 60대 이상(13만7000명) 순으로 나타났다.가계 신용대출 잔액 증가 폭 역시 40대가 가장 눈에 띄었다. 40대의 가계 신용대출 잔액은 지난해 말 52조8064억원으로 2018년 말(39조1481억원)보다 13조6583억원 늘었다. 50대 가계 신용대출 잔액은 9조9832억원, 30대 6조8340억원, 60대 2조8557억원, 20대는 1조7069억원 각각 늘었다.지난해 말 기준 은행별 가계 신용대출자는 국민은행이 129만6000명으로 가장 많았다. 이어 카카오뱅크(93만7000명), 농협은행(80만3000명), 신한은행(79만6000명), 하나은행(78만5000명), 우리은행(67만3000명), 케이뱅크(48만3000명), 토스뱅크(27만8000명) 순이었다.신용대출 잔액은 국민은행이 32조9210억원으로 최다였다. 이어 신한은행(26조6049억원), 우리은행(19조8425억원), 농협은행(19조3180억원), 하나은행(18조7634억원), 카카오뱅크(12조7627억원), 케이뱅크(8조2718억원), 토스뱅크(7조1624억원) 순이었다.한편 은행들의 가계 신용대출 취급은 고신용자에 집중된 것으로 나타났다. 지난해 말 가계 신용대출자 615만1000명 중 448만1000명은 신용평가사(CB) 신용점수 850점 이상의 고신용자로 파악됐다. 지난해 말 가계 신용대출 잔액 145조6467억원 중 80.4%에 달하는 117조1535억원은 고신용자들이 빌린 돈이다.윤창현 의원은 "고소득자와 자산가 등 최고 신용등급 위주의 영업에서 벗어나 중신용자에 대한 문턱을 낮추는 등 국민경제에 대한 의무를 다하는 노력이 필요하다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>토스뱅크, 창구 방문 어려운 사회취약계층에 ‘비대면 비과세종합저축’ 출시…1만명 고객 이용</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002150867?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>인터넷은행 최초 전면 비대면·자동화 한 비과세종합저축[토스뱅크 제공][헤럴드경제=홍승희 기자] 토스뱅크는 지난 2월 출시한 ‘비대면 비과세종합저축’ 서비스를 3개월 간 1만 명의 고객이 이용했다고 1일 밝혔다.비과세종합저축에 가입할 수 있는 고객은 대부분 금융 사각지대에 내몰릴 가능성이 높은, 장애인·기초생활수급자 등 사회취약계층이 대상이다. 토스뱅크는 인터넷전문은행 가운데 처음으로 해당 서비스를 전면 비대면·자동화했다.토스뱅크에 따르면 지난달 말 기준 ‘비과세종합저축’ 서비스를 이용 중인 고객은 총 1만 명에 달하며 장애인, 기초생활수급자 등 사회취약계층이 약 70% 수준을 차지했다. 해당 서비스는 올 2월 도입 이후, 꾸준한 증가세를 이어오고 있다.비과세종합저축은 조세특례제한법에 따라 은행이 취급한 저축 상품에 대해 최대 5000만 원의 범위 내에서 발생하는 이자 등 소득에 대해 만기까지 비과세 혜택(일반 과세의 경우 15.4% 부여)을 부여하는 상품이다. 연간 금융소득 2000만 원 이하인 고객이 대상이다. 이들 가운데 장애인, 기초생활수급자, 고령자(만 65세 이상) 등 사회취약계층이나 국가유공자, 독립유공자와 그 유가족 등 사회를 위해 헌신한 분들이 포함된다.그동안 비과세종합저축의 경우 대부분 금융사의 영업점 창구 등 대면 채널을 통해 개설이 이루어져왔다. 장애인 고객들의 경우 직접 장애인증명서를 발급, 은행 영업점에 방문해야 했고, 기초생활수급자인 차상위 계층에 속한 고객들도 창구 가입 과정에서 원치않게 신분을 밝혀야 하는 등 어려움이 있었다. 하지만 토스뱅크는 이들 사회적 배려가 필요한 고객들이 비과세종합저축에 가입하는 과정에서 발생하는 어려움에 착안, 이를 해소하기 위해 인터넷은행 최초로 서비스를 기획했다.토스뱅크 관계자는 “인터넷전문은행의 적극적인 사회적 책무 중 하나가 포용이라는 생각으로 고객들이 느낄 수 있는 불편함의 작은 부분 하나까지 세밀하게 들여다 보고 이 같은 서비스를 기획하게 됐다”며 “대면 증빙이 필요했던 영역을 IT기술을 통해 전면 비대면으로 구현해내고 있으며, 고객 개개인이 최적화 된 금융 혜택을 누릴 수 있도록 사각지대를 줄여나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>중진공, '죽음의 계곡'서 청년 창업가 구할까</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004856524?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>중진공 김학도 이사장, 전국 청년창업사관학교서 현장 소통15일 오후 경기 파주시 금촌동 경기북부 청년창업사관학교에서 열린 현장 소통간담회 진행 모습. /사진=중소벤처기업진흥공단중소벤처기업진흥공단은 15일 오후 김학도 이사장이 경기 파주시 금촌동에 위치한 경기북부 청년창업사관학교를 방문해 청년 창업가들의 애로사항과 정책 건의사항을 청취했다고 밝혔다. 이날 현장 간담회는 청년창업기업의 지원방안을 모색하기 위해 마련됐다. 주요 논의 주제는 청년창업기업의 사업화 성공과 데스밸리(Death Valley) 극복 등에 관련한 내용이었다. 스타트업계에서는 초기 자금 조달이나 시장 진입 과정에서 어려움을 겪는 현상을 두고 '데스밸리에 빠졌다'라고 표현한다.간담회에는 주식회사 더감 등 입교기업 10개사 대표가 참석했다. 전기차 에너지 리사이클 시스템을 사업화 중인 김진욱 더감 대표이사는 “전기차 전비를 개선해 국내 ESG 분야 대표 청년창업기업으로 성장하기 위한 노력 중이다”라며 “청년창업사관학교가 축적한 지원 노하우를 바탕으로 청년창업기업이 유니콘기업으로 성장하길 바란다”고 말했다. 김학도 이사장은 “스타트업이 겪고 있는 현장의 어려움과 창업에 대한 열정을 체감했다”며 “정책자금, 마케팅, R&amp;D, 투자 등을 통해 청년창업가의 성공적인 사업화와 지속 성장을 이끌겠다”고 강조했다.중진공은 청년창업사관학교를 통해 혁신적인 아이디어를 지닌 청년 창업자를 발굴하고, 창업공간, 교육·코칭, 사업화 자금, 제품개발 등 창업 전 단계를 패키지 방식으로 지원하고 있다. 청년창업사관학교를 거쳐 창업지원을 받은 기업으로는 토스, 직방과 같은 유니콘 기업과 뱅크샐러드, 글루가 등 예비유니콘 기업이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>토스플레이스, 전 운영체계에서 사용할 수 있는 포스 공개</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000906403?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>토스플레이스 제공        토스플레이스는 자사 결제 단말기와 결합하면 키오스크로도 사용할 수 있는 포스(POS)를 공개했다고 2일 밝혔다.‘토스 포스(POS)’는 오프라인 매장에서 결제와 주문, 매장 관리를 위해 사용하는 토스플레이스의 판매 관리 시스템이다. 지난 3월 윈도우(Windows) 버전을 내놓은 지 2개월 만에 안드로이드(Android)와 아이오에스 (iOS), 맥(Mac) PC 버전을 선보이며 모든 운영체제에서 사용할 수 있게 됐다.토스 포스 쉽고 간편한 사용자 경험(UX)을 제공하도록 설계됐다. 기존 판매 관리 시스템의 경우, 별도의 사용 교육이 필요했던데 비해 토스 포스는 직관적인 화면 구성과 설계로 간단한 사용 가이드만 참고해 바로 이용할 수 있게 만들었다. 또한 매장 점주는 매출 리포트를 통해 매장 매출, 상품별 판매 추이를 한눈에 볼 수 있고, 토스 앱과 연동해 외부에서도 실시간으로 매출 현황을 확인할 수 있다.토스플레이스 관계자는 “정식 서비스를 시작한 지 3개월여만에 모든 운영체제와 다양한 디바이스 환경에 맞는 포스를 제공할 수 있게 됐다”며 “활용도 높은 결제 단말기와 혁신적인 판매 관리 시스템을 제공하며 오프라인 결제 환경의 변화를 이끌고 나갈 것”이라 밝혔다.이번에 공개된 ‘토스 포스(POS)’는 토스플레이스 홈페이지에서 무료로 내려받을 수 있다. 자세한 사용법과 이벤트 내용도 홈페이지를 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>투자자의 꺼지지 않는 삼성전자 사랑…5월 주식 선물하기 1위</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013994072?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>"한국 대표주·배당·안전성·반도체 업황 전망 등 반영"삼성전자[삼성전자 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 이민영 기자 = 지난달 국내 투자자들이 증권사의 주식 선물하기 서비스로 가장 많이 선물한 종목은 삼성전자인 것으로 나타났다.     11일 국내 7개 증권사(NH투자·삼성·하나·KB·신한투자·대신·토스)의 5월 주식 선물하기 서비스를 분석한 결과에 따르면 삼성전자가 거래 건수 1위를 차지했다.     이들 증권사는 홈트레이딩시스템(HTS)이나 모바일트레이딩시스템(MTS)을 통해 주식을 선물할 수 있는 서비스를 제공하고 있다.     증권사별로 가장 많이 선물한 종목 2위와 3위는 다양했지만, 7개사 모두 1위는 삼성전자로 동일했다. 또한 NH투자증권과 삼성증권, 토스증권 등에서는 삼성전자 우선주가 3위에 올랐다.    2위의 경우 4개 증권사(KB·신한·대신·토스)에서 에코프로와 에코프로비엠 등 이차전지 관련주가 차지했다.     아울러 NH투자증권과 하나증권, 토스증권 등에서는 올해 들어 5개월 연속 삼성전자가 1위를 차지했다.     이차전지 열풍에 에코프로비엠, 에코프로 등에 대한 매수가 급증했던 4월에도 삼성전자는 1위 자리를 지켰다.    이런 결과 삼성전자의 대표성과 안전성 등에 따른 것으로 풀이된다. 선물할 종목을 고르는 것은 단기 수익을 노리는 투자와는 달리 해당 종목에 대한 우호적 인식이 반영되는 경향이 있기 때문이다.    김지산 키움증권 리서치센터장은 "한국을 대표하는 기업이라는 인식에 국내 투자자들이 삼성전자를 선호하는 경향이 있다"며 "배당 등 적극적인 주주 환원 정책을 펼치고 있는 점도 개인투자자들의 애정이 남다른 이유"라고 설명했다.    그는 또 "시가 총액이 커서 안전한 주식이라는 인식도 영향을 미친 것으로 보인다"며 "반도체 업황 바닥이라는 기대감 때문에 주가에 대한 방향성이 좋아 보이는 점도 선호 이유"라고 덧붙였다.[표] 5월 국내 증권사별 주식 선물하기 상위 종목※ 자료 : 각사     mylux@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>대출 이동서비스, 오류·지연 언제까지?</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002294577?sid=105</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>제휴 금융사·상품 선택 제한적핀테크 플랫폼을 통한 대출 갈아타기 조회 오류가 첫 출시일인 지난달 31일에 비해 줄어들었지만, 여전한 것으로 확인됐다.7일 카카오페이와 토스를 통해 대출 갈아타기를 신청하면 핀테크 업체가 제휴한 금융사보다 적은 수의 결과만을 확인할 수 있는 상태다.예를 들어 핀테크사가 20곳과 40개 상품을 제휴했다면, 지연과 오류로 10곳 20개 상품만 볼 수 있는 것이다.대출 갈아타기 서비스의 오류 화면.대출 갈아타기를 신청한 금융소비자의 대출 심사 서류가 금융사에 전달이 돼야 하는데 이 과정이 원활하지 않은 탓이다. 첫 출시일이었던 5월 31일에 비해 오류와 지연 금융사 수는 줄어들었지만 오류로 대출 갈아타기 서비스를 100% 누릴 수 없는 상태다.핀테크 업체들은 ▲대출 심사 후 대출 갈아타기를 신청한 고객이 이용할 수 없는 상품 ▲점검 ▲오류 및 지연으로 나눠 대출 갈아타기 조회 결과를 제공하고 있다. 이중 오류 및 지연은 금융사의 문제라고 입을 모았다.핀테크 업체들은 "첫 출시일 접속자가 폭증하면서 금융사가 대출 한도를 산출하는데 평소보다 오랜 시간이 소요됐으며, 금융사의 트래픽이 늘어나면서 금융소비자의 대출 심사를 못하거나 안한 부분"이라고 설명했다.매일 금융소비자의 금융 조건이 달라지기 때문에 유리한 조건으로 대출을 갈아타기 위해서 오류 문제가 시급히 해결돼야 할 것으로 보인다. 오류로 뜬 금융사의 상품을 선택할 경우 금리나 한도 면이 유리할 수 있기 때문이다.금융당국 측은 "플랫폼을 통한 대출 조건 조회에 대한 응답이 지연되고 있으며 시스템이 점차 안정화되면 오류나 지연 경우가 줄어들 것"이라고 말했다.이와 관련해 은행권 관계자는 "핀테크 플랫폼과 대환 대출 서비스를 시작해 시스템 연결을 한 은행 중심으로 오류가 발생했다"며 "서버가 불안정한 것이었으며 제휴 핀테크를 통해 개선을 이어나가고 있다"고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>15년 만에 치과 의사로 돌아간 이승건 토스 대표, 장애인 진료 봉사</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000908471?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>이승건 토스 대표가 12일 자신의 소셜미디어(SNS) 페이스북 계정에 올린 사진. /페이스북 캡처        치과 의사인 이승건 비바리퍼블리카(토스) 대표가 15년 만에 장애인 치과 진료 봉사를 다녀왔다. 이 대표는 2011년 토스 설립 전인 2007년 서울대 치의학과를 졸업하고 삼성의료원, 푸르메치과재단에서 일했다.이 대표는 12일 자신의 소셜미디어(SNS) 페이스북 계정을 통해 “15년만에 다시 장애인 치과진료 봉사를 다녀왔다”며 이같이 밝혔다. 이 대표가 방문한 곳은 경기 김포시에 위치한 중증장애인 생활시설 ‘해맑은마음터’다.이 대표는 “2008년 장애인을 위한 민간 최초의 ‘푸르메치과’에서 치과 진료를 시작했는데, 그때도 미소원정대라는 이름으로 병원 방문이 어려운 장애인들을 직접 방문해 치료했었다”면서 “푸르메재단에서 아직도 원격 진료를 이어가고 계신다는 이야기를 듣고 이번 주말에 참여하게 됐다”고 했다.“푸르메치과에서 ‘세상을 바꾸고 싶다’는 꿈을 처음 꾸게 됐고, 그 꿈이 훗날 토스 설립에 나서게 된 동기가 됐다”는 게 이 대표의 설명이다. 그는 “앞으로도 어려운 곳에 계신 분들을 힘닿는대로 도울 생각”이라고 덧붙였다.토스 관계자는 “이승건 대표는 과거부터 꾸준히 푸르메재단을 후원해왔다”면서 “이번 코로나19 비상사태 해제 등에 치과 봉사활동에 참여하게 됐고, 앞으로도 꾸준히 할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>"인성이 안됐네" "하자 있어" 직원에 막말한 경찰 벌금형</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/666/0000013123?sid=102</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>(해당기사와 직접적인 관련 없음)이미지투데이      인천지법 형사16단독 김태환 판사는 같은 지구대 소속 부하 직원을 모욕한 혐의로 재판에 넘겨진 경찰관 A씨(51)에게 벌금 100만원을 선고했다고 7일 밝혔다.   김 판사는 “피고인은 피해자의 인성에 직접적인 평가를 하고 있고, 이는 인격적 가치에 대한 사회적 평가를 저하시킬 수 있는 표현임을 충분히 인정한다”고 판시했다. 이어 “피고인과 피해자의 관계가 지휘관계에 있다는 점은 모욕 여부를 판단하는데 중요하게 고려해야 할 부분”이라고 양형 이유를 밝혔다.   한편, A씨는 지난 2021년 9월 인천 서구의 한 지구대에서 피해자에게 “기본적인 인성이 안 됐다”, “하자가 있어 우리팀으로 토스한 것이다”라고 말하는 등 모욕한 혐의를 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>“우리는 돈 잔치 못 해요”… 시중은행과 달리 인뱅 실적 ‘주춤’</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001613098?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>부실 대비 대손충당금 크게 늘린 탓당국은 중저신용자 대출 확대 압박“담보대출 증가땐 실적 개선” 기대올해 1분기 역대급 실적 잔치를 벌인 시중은행들과 달리 인터넷전문은행은 뚜렷한 실적 성장세를 보이지 못하고 있다. 신용대출 비중이 높은 인터넷은행이 금리인상기 대출 부실화 위험에 대비해 대손충당금을 크게 늘린 영향이다. 중저신용자 대출 비중을 늘리라는 금융당국의 압박을 받는 상황에서 실적 개선은 쉽지 않을 전망이다.1일 금융권에 따르면 토스뱅크는 올 1분기 280억원의 당기순손실을 기록했다. 출범 이래 분기 기준 최저 손실을 기록해 수익성이 개선됐지만 대손충당금을 전년 동기 대비 3배 이상인 772억원 적립한 영향으로 적자를 벗어나지 못했다. 부실에 대비하기 위한 충당금은 회계상 손실로 인식된다.케이뱅크의 1분기 당기순이익은 104억원으로 전년 동기 대비 57.5% 감소했다. 이자이익과 비이자이익이 성장했지만 토스뱅크처럼 충당금 적립액이 늘면서 순익이 대폭 줄었다. 케이뱅크가 1분기에 쌓은 충당금은 602억원으로 지난해 같은 기간(196억원) 대비 3배 이상이다.인터넷은행이 거액의 충당금을 적립할 수 밖에 없는 것은 건전성 지표가 눈에 띄게 악화하고 있는 탓이다. 토스뱅크의 지난 3월 말 기준 연체율은 1.32%, 고정이하여신비율은 1.04%였다. 출범 초기였던 전년 동기 연체율과 고정이하여신비율은 모두 0.04%에 그쳤지만 1년 만에 1%를 넘어섰다. 같은 기간 케이뱅크는 연체율이 0.48%에서 0.82%로, 카카오뱅크는 0.26%에서 0.58%로 증가했다. 중저신용대출 비중이 높은 구조에서 기준금리가 3.50%까지 급등하자 차주들의 상환 능력이 악화해 부실채권이 늘어난 것이다. 중저신용대출은 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%에 대한 대출을 의미한다.특히 담보대출 비중이 50%에 육박하는 시중은행과 달리 주요 인터넷은행들은 신용대출 비중이 압도적으로 높다. 신용대출은 담보가 없다는 점에서 상대적으로 차주의 신용리스크 영향을 많이 받는다. 지난해 말 기준 케이뱅크의 신용대출 규모는 8조3073억원으로 전체 대출의 77%를 차지했다. 토스뱅크의 지난해 기준 담보·보증 규모는 2115억원으로 전체 대출 금액의 2.45%에 불과했다. 카카오뱅크만 유일하게 담보·보증 규모가 50%를 웃돌았다.인터넷은행들은 건전성 악화 우려가 커지자 당국에 꾸준히 중저신용대출 비중을 완화해달라고 건의해왔지만 여의치 않은 상황이다. 올해 1분기 말 기준 중저신용자 대상 잔액 기준 신용대출 비중은 카카오뱅크 25.7%, 케이뱅크 23.9%, 토스뱅크 42.06%로 집계됐다. 이들 은행은 올해 말까지 이 비중을 각각 30%, 32%, 44%로 확대해야 한다.인터넷은행 한 관계자는 “신용대출 비중이 높아 시중은행 대비 충당금을 많이 쌓을 수밖에 없다”면서도 “이자이익과 비이자이익이 성장세를 보이는 데다 담보대출 비중이 점차 늘어나면 실적도 개선될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.06.06.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>[스프] "연봉 10억 원에도 의사들이 안 간다?"에서 짚어볼 지점들</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001063340?sid=102</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[밤의해바라기] '쁘띠 성형'은 되고 '심장 전문의'는 안 되나한 신문사가 단독이라며 《"심장 전문의 없나요" 연봉 10억에도 의사가 안 옵니다》라는 기사를 보도했다. 청주의 한 병원이 연봉 10억 원에 심장내과 전문의를 모집했지만 아무도 응하지 않았다는 것이다. 하지만 왜 이런 일이 벌어졌는지 진상을 파악하기는 어려웠다. 현재 심장내과 전문의의 연봉은 얼마나 되는지, 왜 해당 병원장은 시세보다 훨씬 높은 연봉을 제시했는지, 왜 현직 심장내과 전문의들이 지원하지 않았는지 등의 핵심 요소들이 빠져 있기 때문이다.기사에 전공의, 예방의학과 교수, 공공병원장 등의 인터뷰가 녹아 있지만 이 사안의 당사자들은 아니었다. 해당 기사는 '10억 원을 줘도 움직이지 않는 의사들의 현실에 정부가 수가를 높여 심장내과 등 필수 진료과 의사들에게 돈을 더 줘야 인력난이 해소된다'는 대한의사협회·대한의학회 등의 주장은 설득력이 떨어진다고 결론 내렸다.진정한 해결책은 '의대 정원을 늘리고', '간호사가 의사 역할(PA·진료 보조)을 하도록 합법화'하며, '외국에서 의사를 수입'하는 것이라고 주장했다. 대안으로 제시한 사안들은 건설적으로 충분히 논의해 볼 만하지만, 그래도 이 사안의 진상부터 파악하는 것이 우선일 것이다. 이번 사안의 진상은 뭘까심장 전문의의 공식 명칭은 '순환기내과 분과 전문의'인데, 내과 전문의 자격을 취득한 후 1년 이상 심장 내과에서 전임의를 하면 인정받는다. 2년 차 이상의 심장내과 전임의와 교수와 '심장 내과 혹은 순환기 내과' 타이틀을 달고 있는 전문의는 모두 심장 전문의이다.수도권 대학병원장에게 이들의 연봉이 얼마인지 물었다. 전임의는 1억 원 안팎이고, 교수는 1억 원~3억 원 사이라고 한다. 15년 이상의 경력이 있어도 연봉 2억 원을 못 받는 심장 전문의 교수들이 적지 않았다. 심장 전문의들 사이에서 메이저리그로 불리는 국내 유일 심장전문병원에도 같은 질문을 던졌다. 매우 껄끄럽지만 사안이 사안인 지라 밝힌다면서 연봉 3억 원~4억 원 사이라고 알려 주었다. 높은 연봉을 받는 대신 수준 높은 진료를 스스로 끊임없이 증명해야 하고 그렇지 못할 경우 자리를 내놓아야 하는 압박감이 있다고 한다.청주의 한 병원이 제시한 연봉 10억 원은 '심장계의 메이저리거' 연봉보다 2배 넘고, 서울의 15년 이상 경력 심장내과 교수보다 5배 높으며, 대학병원 2년 차 전임의보다는 무려 10배나 높다. 해당 병원은 특별한 경력이 없어도 된다고 공지했는데, 이 사안을 돈의 문제로만 몰아가는 것이 합당한 지 이해하기 어려운 대목이다."연봉 10억 원을 주고도 적자를 면할 수 있습니까?""당연히 적자이겠지요."해당 병원장에게 단도직입적으로 물었더니, 심장 전문의에게 연봉 10억을 주면 당연히 적자라고 답한다. 적자를 각오하고서 모집했다는 것인데, 해당 병원이 뇌혈관 전문병원이라는 특징이 있기 때문이다. 뇌혈관센터와 심장센터가 병원의 양대 주축인데 1년 전 1명 있던 심장 전문의가 그만둔 이후 그 상태로 심장 센터를 1년 넘게 유지하고 있었다.병원 홈페이지를 보면 지금도 '관상동맥질환, 협심증의 진료를 오전 8시 30분~오후 6시까지 하고, 공휴일에도 진료한다'는 공지가 그대로 있다. 심장 전문의가 없이 심장센터를 열고 있는 병원장의 일반화하기 어려운 절박함이 이 사안에 있었던 것이다."1년만 해도 10억 원인데 왜 안 가십니까?""저희가 바보입니까?"심장 전문의 몇 명에게 물었더니 바보 취급하지 말라며 성을 낸다. 연봉 10억 원의 근무 조건을 정확하게 간파하고도 간다면 바보라는 것이다. 해당 기사에 언급된 근무 조건은 '평일은 오전 8시 30분부터 오후 6시, 토요일은 오전 8시 30분부터 오후 1시, 일요일과 다른 공휴일은 쉬는 것'이다. 그러면서도 '야간·주말 당직이 있다'는 조건이 덧붙여 있다.기사는 이 부분을 언급 없이 넘어갔지만, 직접 근무할 심장 전문의는 꼼꼼하게 따져보기 마련이다. 의사의 진료는 외래와 응급실 근무로 나뉜다. 평일부터 토요일까지 시간을 정해놓고 하는 것은 외래 진료이고, 야간과 주말 당직은 응급실 근무를 말하는 것이다. 심장 전문의가 1명만 뽑힌다면 365일 24시간 동안 일하는 게 연봉 10억 원의 근무 조건이다. 이런 이유로 해당 병원은 3명을 모집한다고 했다. 그래도 심장 전문의들의 선택은 달라지기 어렵다고 말한다."심정지 환자가 오면 심폐 소생술을 한 후, 심장 초음파와 심장 혈관 검사를 하고 나서 스탠트를 삽입하는 것까지 연속해서 진행해야 환자를 살릴 수 있어요. 환자 1명에 네다섯 시간을 매달려야 하죠. 이런 환자가 밤에 오면 잠을 설치는 것에 그치지만 (이것도 나이 먹고는 힘들지만) 낮에 오면 외래 대기 환자는 누가 봅니까?외래 진료가 환자들의 불만으로 아수라장이 되고 이것은 고스란히 의사의 스트레스로 이어집니다. 게다가 심장 전문의 3명이라도 365일 24시간 당직 체계를 감당하는 것은 무리입니다. 중증 환자를 다른 병원으로 토스(일명 응급실 뺑뺑이)하지 않으려면 2명이 당직을 서는 게 안전합니다. 그렇게 되면 365일 중 2/3, 243일이 당직입니다. 혼자서 무리하게 응급 환자를 진료하면 의료 사고 위험성이 커지겠죠. 단 1건이라도 의료사고가 발생하면 연봉 10억 원의 실제 소득액 6억 원이 모두 소송 비용으로 쓰일 겁니다." 연봉 10억 원, '쁘띠 성형 의사'는 되고, 심장 전문의는 안된다고?암을 치료하는 전문의를 취득한 후 전임의 2년까지 완료한 후 교수 채용이 확정됐던 한 의사가 돌연 사표를 제출했다. 레이저, 보톡스, 필라 등으로 비교적 가벼운 피부미용을 진료하는 일명 '쁘띠 성형'으로 진출하기 위해서였다. 당시 그는 쁘띠 성형을 한 번도 배운 적 없었지만 사표를 제출한 후 6개월 만에 '쁘띠 성형 의원'을 단독으로 개원했다. 국내에서 쁘티 성형 사관학교의 원조 대형 성형외과 병원장에게 물었다."6개월 배우면, 쁘띠 성형 단독 개원도 가능합니까?""몇 개월 배우고 개원하는 경우도 있습니다. 쁘띠 성형 개원은 따로 자격 조건이 없잖아요."쁘띠 성형 의사의 연봉은 천차만별이다. 얕보고 개원했다가 수억 원을 손해 보고 문을 닫는 사례도 많지만 해마다 10억 원을 넘게 버는 쁘띠 성형 의사도 적지 않다. 내과 계열 전문의를 취득하고 쁘띠로 전향한 한 후배 의사는 페이 닥터로 있을 때 연봉이 10억 원이었고, 단독 개원한 후에는 그 두 배를 벌고 있다. 연예인과 함께 방송에 자주 등장하는 쁘띠 성형 의사들이 돈 자랑 하는 것은 방송계에서 유명하다.이처럼 '쁘띠 성형' 의사들이 연봉 10억 원을 돌파한 지는 오래됐지만 누구도 토를 달지 않았다. 그런데 왜 심장 전문의 10억 원 모집 공고에 이토록 소란스러운 것일까? 연봉 10억 원, 쁘띠 성형 의사는 되고, 심장 전문의는 안 된다는 것일까? 의학적 난도가 높고 사회적 가치가 더 큰 곳에 더 많은 비용을 지불하는 게 지극히 당연한 상식 아니던가? 이 기사를 접하며 여러 의문이 머리를 스쳐갔다. 생명을 살리는 의술일수록 오히려 싼 값이 매겨지는 역설적인 현실이 국내 필수 의료 붕괴의 시발점이기 때문이다. 그럼에도 시세보다 터무니없이 높은 연봉 제시가 가뜩이나 허덕이고 있는 심장병 응급 체계에 타격을 줄 수 있다는 것은 별도로 짚어볼 것이다.(남은 이야기는 스프에서) 🎧 아래 주소로 접속하시면 음성으로 기사를 들을 수 있습니다.[ https://news.sbs.co.kr/n/?id=N1007217816 ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스, 동남아 사업총괄 법인 폐업...국내 사업 집중</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003104179?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>토스가 싱가포르에 설립한 글로벌 헤드쿼터 문을 닫고 해외 사업을 정리한다.토스가 싱가포르에 설립한 글로벌 헤드쿼터 문을 닫고 해외 사업을 정리한다. 해외 추가 자원 투입은 줄이고 국내 사업에 집중한다.토스는 ‘토스 사우스이스트아시아’ 폐업을 결정했다고 공시했다. 토스 사우스이스트아시아는 동남아 사업본부 격으로, 글로벌 헤드쿼터 역할을 수행하기 위해 설치한 해외 거점이다. 아시아 금융 중심지인 싱가포르에서 해외 법인을 직접 관리하고 글로벌 사업을 확장하기 위해 지난해 4월 설립했다. 토스는 1년여 만에 해당 법인을 폐쇄, 사실상 해외 사업에서 손을 떼게 됐다.토스는 지난해 12월 베트남 법인을 오피스로 전환하며 해외 사업 중단 절차를 밟아왔다. 2019년 베트남에 진출한 토스는 만보기형 리워드 서비스로 시작해 비금융서비스로 이용자를 확보, 초창기 300만명 넘는 활성 사용자를 확보했으나 금융 플랫폼으로 전환 장벽을 넘지 못했다. 베트남에서 만보기(리워드성), 은행계좌개설 등 서비스를 전개했지만 현재는 영위하지 않지 않고 있다. 기타 동남아 5개국에도 문을 두드렸지만 모두 정리 단계에 들어갔다.토스는 국내 사업 성장으로 전략을 선회하며 토스 사우스이스트아시아도 정리하게 됐다. 해외 사업 등 추가 자원을 투입하기보다, 국내 시장에 집중해 사업 확장 전략을 펼친다는 계획이다.토스 관계자는 “글로벌헤드쿼터를 목표로 설립했지만 국내 사업에 집중하겠다는 기조 변화를 이유로 토스 사우스이스트아시아를 정리하게 됐다”며 “국내 사업에 집중해 성장 기조를 이어갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>‘타다’는 무죄, 그러나…환영 못 받는 新사업들 [스페셜리포트]</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000082637?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>“혁신은 죄가 없다.”타다가 대법원에서 무죄를 확정하자 이재웅 전 쏘카 대표는 “혁신은 죄가 없음이 대법원에서 최종 확인됐다”고 소셜미디어에 적었다. 이 전 대표는 “혁신을 만들어내는 기업가를 저주하고, 기소하고, 법을 바꿔 혁신을 막고 기득권 이익을 지켜내는 일은 이번을 마지막으로 더 이상 없어야 한다”고 지적했다.‘디지털 전환’이라는 메가 트렌드와 함께 IT 기반의 신사업이 기존 사업을 침투했다. 그간 소비자 불만이 누적된 ‘페인 포인트(Pain Point)’를 뚫고 들어갔다.하지만 야생의 경쟁에서 ‘신생 기업의 불리함(The Liability of Newness)’은 어제오늘 얘기가 아니다. 새로 탄생한 기업은 태생적으로 자원과 역량이 부족하기도 하거니와 기존 산업의 저항에 맞서기가 쉽지 않다. 특히 정부가 앞장서 기존 산업을 보호하려 나서면 스타트업은 더욱 버거울 수밖에 없다. ‘타다’의 무죄 판결을 계기로 기존 사업과 신사업이 공존하는 방안을 고민해야 할 때다.타다 사태, 등장부터 무죄까지‘정치 논리’ 뒤죽박죽…경쟁 소멸2018년 10월. 커플 앱 비트윈을 만들었던 브이씨앤씨(VCNC)가 새로운 도전에 나섰다. 기존 사업과 전혀 다른 ‘모빌리티’ 분야에 뛰어든 것. 그렇게 탄생한 게 ‘타다’ 서비스다. 이용자가 스마트폰 앱으로 출발지와 목적지를 입력하면 운전기사가 11인승 승합차를 몰고 와 목적지까지 데려다주는 방식이다. 쉽게 말해 차량 렌트와 기사 용역 계약을 이중으로 맺는 형태다. 얼핏 보면 단순한 서비스다. 하지만 파급력은 컸다. ‘승차 거부’와 ‘불친절’에 지친 승객들은 ‘편안한 이동’을 외치는 타다에 푹 빠져들었다.타다가 쏘아 올린 모빌리티 혁신은 1년이 채 안 돼 장애물을 마주했다. 타다 흥행은 택시업계 반발을 불렀다. 택시업계는 타다를 ‘불법 콜택시’라고 비난했다. 여객자동차 운수사업법 제4조에 따르면 여객자동차 운송 사업을 경영하려면 국토교통부(국토부) 장관 면허를 받아야 하는데, 타다가 이를 어겼다는 주장이었다. 택시업계는 이 과정에서 대규모 집회를 수차례 진행했다. 2019년 5월. 택시 기사 한 명이 분신해 숨지는 사건까지 벌어지며 정치권까지 뛰어들었다. 정치권 역시 택시업계 손을 들어줬다. 타다를 향한 시민들의 눈초리도 매서워졌다.결국 서울중앙지검 형사5부는 2019년 10월 여객자동차 운수사업법 위반 혐의로 타다를 운영한 VCNC 대표와 모회사 쏘카 대표를 불구속 기소했다. 타다는 억울함을 호소했다. 타다는 여객자동차 운수사업법 시행령에 있는 예외조항에 따라 11~15인승 승합차를 활용, 렌터카와 기사를 알선한 합법 서비스라는 것. 이재웅 전 대표는 개인 소셜미디어(SNS) 등을 통해 “타다는 만들 때부터 국토부와 논의해가며 만들었는데, 검찰은 불법이라고 한다”며 아쉬움을 토로했다.정치권도 타다를 옥죄었다. 당시 여당이던 더불어민주당이 전면에 나서 ‘여객자동차 운수사업법 개정안’을 발의했다. 11인승 승합차를 임차해 운행하는 타다 방식 영업을 금지한다는 게 골자였다. 이 때문에 스타트업업계는 박홍근 더불어민주당이 발의한 개정안을 ‘타다 금지법’이라고 비판했다. 발의 5개월 뒤인 2020년 3월, 타다 금지법은 결국 국회 법제사법위원회를 통과했다. 법사위 통과 이틀 뒤 국회 본회의 문턱도 넘어섰다.결국 타다는 서비스를 중단했다. 동시에 헌법소원심판을 청구했다. 시민의 이동 수단 선택 권리를 침해한다는 주장이었다. 하지만 헌법재판소는 이를 받아들이지 않았다.타다 운영사 VCNC는 경영난에 직면했다. 이를 돕던 모회사 쏘카도 상황은 비슷했다. 결국 2021년 10월, VCNC는 주인이 바뀐다. 타다를 인수한 비바리퍼블리카(토스)는 타다의 기존 서비스 방식을 포기했다. 대신 대형 택시 형태를 취했다. 그렇게 세상에 나온 게 타다 넥스트다. 타다가 생존을 위해 몸부림치는 동안에도 재판은 계속됐다.2023년 6월, 대법원 3부는 여객자동차 운수사업법 위반 혐의로 재판에 넘겨진 이재웅 전 대표와 박재욱 전 VCNC 대표에게 무죄 판결을 한 원심을 확정했다. 타다를 불법 콜택시가 아닌 운전사를 포함한 합법적 렌터카로 판단한 것. 타다를 둘러싼 재판이 4년 만에 마침표를 찍었다. 하지만 기존 타다 서비스는 다시 만나볼 수 없다. 이미 타다 금지법으로 인해 서비스 재개가 불가하기 때문이다. 대법원 3부는 여객자동차 운수사업법 위반 혐의로 기소된 이재웅 전 쏘카 대표와 타다 운영사였던 VCNC의 박재욱 전 대표에게 무죄를 선고한 원심을 상고 기각 판결로 확정했다. (이충우 기자)‘타다 사태’는 현재 진행형변호사·의사 집단과 플랫폼 갈등  타다 사태는 어떤 의미에서 현재 진행형이다. 기존 산업과 신산업이 부딪히는 현장이 도처에 널려 있다. 스타트업업계에서는 ‘타다’ 판결이 향후 스타트업이 사업을 전개하는 데 유리하게 작용할 여지가 있다고 긍정적으로 해석한다. 다만 무죄 판결을 받았음에도 금지법 등 제도 규제로 타다가 더 운영할 수 없게 된 현실을 고려하면, ‘제2의 희생양’이 나오지 말라는 법도 없다.변호사 프로필과 소개 문구를 비교하고 마음에 드는 변호사를 선택할 수 있게 한 법률 서비스 플랫폼 ‘로톡’이 대표 사례다. 대한변호사협회와 8년간 갈등 중인 로톡은 중대한 갈림길에 서 있다.변협 등 변호사 단체는 로톡을 운영하는 로앤컴퍼니를 변호사법 위반 혐의로 세 차례 고발했다. 하지만 검찰과 경찰은 ‘혐의 없음’ 처분을 내렸다.이번에는 로앤컴퍼니가 공격했다. 변협은 2021년 소속 변호사들이 로톡을 비롯한 법률 서비스 플랫폼에 가입할 경우 징계할 수 있도록 변호사 광고에 관한 규정, 변호사 윤리장전 등을 개정해 로톡 가입 변호사들을 징계했다. 로앤컴퍼니는 이를 문제 삼아 헌법소원을 냈고 헌법재판소는 지난해 일부 위헌 결정을 내렸다. 공정위는 올해 2월 변협과 서울지방변호사회에 각각 과징금 10억원을 부과하고 시정명령을 내리며 로앤컴퍼니 손을 들어주는 듯했다. 하지만 지난 5월 30일 법원이 변협과 서울변회가 공정위를 상대로 낸 집행정지 신청을 인용하며 ‘애매모호한’ 상황에 놓였다.남은 건 법무부 판단이다. 법무부는 로톡 가입 변호사들에 대한 징계 적절성 여부 판단을 계속 연기 중이다. 법무부가 서둘러 결론을 내고 논란을 끝내야 한다는 목소리가 높지만, 구체적인 심의 시기를 밝히지 않고 있다. 양측 충돌이 이어지는 가운데 로톡은 경영 악화로 고전하고 있다.코로나19 기간 비대면 의료 앱을 운영했던 닥터나우는 약사 단체와 마찰을 빚고 있다. 대한약사회는 “닥터나우 앱은 마치 특정 의약품을 무조건 처방받을 수 있는 것처럼 표기해 약사법을 위반했고, 환자가 약국을 선택할 수 있는 기능이 없다”고 주장했다.정부는 6월 1일부터 비대면 진료 시범 사업을 시작했다. 역시 닥터나우의 손을 들어준 것처럼 보인다. 그러나 곳곳에서 혼선이 나타난다. 정부가 ‘재진 중심’ ‘약 배송 제한’ 등 원칙 외에는 구체적인 가이드라인을 제시하지 않아서다. 정부 안에 따르면 플랫폼은 재진 여부와 예외적 초진 대상자 개인정보를 확인해 비대면 진료 대상자를 가려내야 한다. 여기에 동일 병원에서 동일 의사에게 30일 이내 진료받는다 하더라도 질병 코드가 동일해야만 재진이다. 소비자 이용률은 줄지 않았지만, ‘불법’을 우려한 의사의 진료 취소 사례가 속출하는 배경이다. 전신영 닥터나우 홍보이사는 “이대로라면 플랫폼이 죽을 수밖에 없고 비대면 진료 역시 자연 소멸할 것”이라고 했다. 일례로, 남성 전문 건강관리 플랫폼인 ‘썰즈’는 지난 5월 30일부로 사업을 종료했다. 비대면 진료·약 배송 서비스 제공이 더 이상 불가능해졌기 때문이다.성형 정보 플랫폼 ‘강남언니’를 운영하는 힐링페이퍼는 대한의사협회와 대치 중이다. 강남언니는 성형외과들이 수술 종류별 가격을 공개할 수 있는 기능을 도입했다. 예컨대 병원마다 쌍꺼풀 수술비용이 공개되고 소비자는 가장 저렴한 병원을 찾을 수 있도록 설계했다. 정부도 가격 공개는 문제가 없다고 판단했다. 하지만 의협은 “박리다매식으로 가격만이 의료 서비스 기준이 되며 의료 발전에 역행하게 될 것”이라고 반발하며 해당 기능 삭제를 요구 중이다.세금 환급 서비스 ‘삼쩜삼’을 운영하는 자비스앤빌런즈와 한국세무사회의 갈등도 끝나지 않았다. 세무사회는 2020년 삼쩜삼과 업무 제휴를 맺은 파트너 세무사 7명에 대해 징계 처분을 내렸다. 또 삼쩜삼이 현행법에 어긋나는 서비스라며 세무사회가 이 회사를 상대로 고소·고발을 진행하는 등 분쟁이 한창이다. 다만 자비스앤빌런즈가 법률 분쟁에서 유리해졌다는 해석이 나온다. 2021년 한국세무사회와 한국세무사고시회로부터 불법 세무 대리와 알선 혐의로 경찰에 고발당했지만 지난해 모두 무혐의 처분이 났다. 이용자 스스로 개인정보를 입력해 삼쩜삼 AI 서비스를 제공받는 ‘셀프 환급’을 세무 대리로 보기 어렵다는 이유에서다. 세무 단체들이 수사 결과에 이의를 제기해 조사는 검찰로 넘어갔지만 결과가 뒤집힐 가능성은 낮다는 게 대체적인 관측이다.이 밖에 부동산 중개 서비스 플랫폼 ‘직방’은 한국공인중개사협회와 다투고 있다. 직방은 “부동산 중개비용이 너무 높다”는 소비자 불만을 파고들었다. 협회는 프롭테크 업체와 공인중개사의 상생을 강조하며 플랫폼의 직접 중개업 진출을 강하게 반대해왔다. 그러나 이후 협회는 말을 뒤집고 직방과 유사한 서비스인 ‘한방’을 내놓고 대응에 나섰다. 게다가 협회는 ‘한방’의 이용 활성화를 위해 회원인 공인중개사들이 직방 등 경쟁 플랫폼을 사용하지 못하게 하거나 탈퇴를 요구한 것으로 알려져 물의를 빚고 있다. 부동산 중개 서비스 플랫폼은 향후 SK디앤디와 야놀자클라우드가 참전을 시사하며 경쟁이 더욱 치열해질 전망이다. 2019년 10월 23일, 서울 여의도 국회 앞에서 서울개인택시운송사업조합(개인택시조합) 조합원들이 ‘타다’의 영업금지를 요구하는 집회에서 구호를 외치고 있다. (김호영 기자)해외 사례로 본 해법핵심은 정부 중재…국내선 규제 일변전 세계적으로 IT 발전과 함께 새로운 갈등이 생겨났다. 온라인을 기반으로 한 플랫폼과 전통 산업의 충돌이다. 국내에서도 마찬가지다. 새로운 갈등을 마주한 정치권과 정부는 한쪽 편들기로 일관했다. 양쪽 의견을 중재하기보다 한쪽에 힘을 실어 문제를 해결했다. 법원 판결이 나오기도 전 타다 금지법을 통해 타다를 막아선 게 대표 사례다. 전문가들은 이대로는 안 된다고 입을 모은다. 정부와 정치권이 적극적 중재에 나서야 한다고 강조한다. 양쪽을 중재해 플랫폼 혁신을 지원하고, 전통 산업과 상생할 수 있는 갈등 해결 구조를 모색해야 한다는 주장이다.일단 기존 ‘규제 만능주의’부터 떨쳐내야 한다고 강조한다. 이성엽 고려대 기술경영대학원 교수는 “타다 금지법은 입법부가 목소리 큰 기존 산업 이해관계자들만 대변하면서 혁신을 놓치고 소비자 권익을 무시한 사례라고 생각한다”며 “지금도 변호사 플랫폼, 원격 의료, 세무 회계, 미용 의료 등 다양한 분야에서 기득권 반대로 소비자 권익을 챙기지 않는 경우가 많다”고 덧붙였다. 이어 “플랫폼과 전통 산업 충돌을 정치적 성격의 문제로만 보려는 시각이 있는데, 기술 혁신을 대하는 정치권의 자세를 고민할 필요가 있다”고 강조했다. 2000여개 스타트업이 회원사로 있는 코리아스타트업포럼도 “타다는 불법이라는 수사기관의 낙인과 타다 금지법 시행으로 이미 시장에서 사라졌다”며 “같은 사례가 반복되지 않도록 정부와 국회의 적극적인 관심과 지원을 촉구한다”고 밝혔다.해외에서도 플랫폼과 전통 산업 간 갈등은 비일비재하다. 미국과 핀란드, 호주 등 플랫폼 선진국으로 불리는 국가도 마찬가지다. 갈등 양상은 국내와 비슷하다. 하지만 정부와 정치권이 내놓은 해법은 사뭇 다르다. 전문가와 스타트업업계 관계자들은 해외 사례처럼 정부 개입을 통해 얼마든지 양쪽 의견을 중재하고, 갈등을 봉합할 수 있다고 주장한다.차량 공유 서비스 우버를 둘러싼 갈등이 대표 사례다. 우버의 사업 모델은 택시와 닮았다. 다만 개인 소유 차량을 이용해 서비스를 제공한다는 점이 다를 뿐이다. 이 때문에 우버의 미국 도입도 순조롭지 않았다. 택시업계가 “면허 없이 사실상 택시 서비스를 제공한다”고 비판했기 때문이다. 우버는 “우리는 택시 업체가 아닌 기술 기업”이라며 물러서지 않았다. 갈등은 커졌고, 결국 주 정부들까지 뛰어들었다.미국 펜실베이니아주 공공시설위원회(PUC)는 택시업계 주장을 받아들여 우버에 1000만달러(약 130억원) 이상 벌금을 부과했다. 그러면서도 우버의 필요성을 인지, 우버가 법적 테두리 안에서 활동할 수 있는 방안을 고민했다. 결국 PUC는 우버 등 차량 공유 서비스를 ‘네트워크형 운송 회사’라는 새로운 범주의 서비스업으로 인정했다. 신규 자격을 부여하고 이들이 합법적으로 영업할 수 있도록 했다. 동시에 책임보험 가입, 운전자 신원 확인 등 추가 조건을 요구해 서비스 안전성을 높였다.기여금을 활용하는 경우도 많다. 미국 매사추세츠주가 대표적이다. 매사추세츠주는 우버를 조건부 허용했다. 운행 횟수당 0.2달러(260원)를 모빌리티 업체에 ‘기여금’ 명목으로 부과한다. 쌓인 기여금 중 일부는 택시 산업 지원에 쓰인다. 플랫폼 혁신을 방해하지 않으면서도 전통 산업이 경쟁력을 잃지 않을 수 있게 제도화한 것. 이를 반영해 타다 금지법에도 기여금 제도가 포함됐다. 다만 플랫폼 업체가 부담해야 하는 비용이 상당하다. 매출의 5% 혹은 운행 횟수당 800원을 내야 한다. 이에 타다는 이를 거부, 서비스를 중단했다.호주의 뉴사우스웨일스주도 기여금 정책을 쓰고 있다. 차이점은 기여금을 소비자에게 징수한다는 것. 뉴사우스웨일스주는 우버 호출 승객이 1.1호주달러를 부담하는 제도를 운용한다. 확보한 자금을 택시 면허 소유자 위로금, 면허 매입 등 기존 택시업계를 위해 사용하고 있다. 차량 공유 서비스를 합법화한 대신 과도기 동안 택시업계 손실을 보상하는 기금을 마련하고 지원에 나선 것이다.이와 별개로 현행 플랫폼 정책 메커니즘도 뜯어고쳐야 한다는 의견도 존재한다. 이성엽 고려대 기술경영대학원 교수는 “행정부와 입법부는 혁신을 도모하기 위한 정책과 제도를 설계하고, 분쟁이 발생할 때 사법부가 해결하는 메커니즘이 돼야 한다. 현재는 입법부와 행정부가 플랫폼과 전통 산업 간 갈등이 생길 때마다 책임을 법원에 넘기는 꼴”이라며 “문제는 사법부 판결은 시간이 오래 걸린다는 것이다. 타다 역시 4~5년에 가까운 기간 동안 혁신을 도모할 기회를 놓치게 됐다. 소비자 권익을 생각해서라도 메커니즘이 바뀌어야 한다”고 강조했다.국내 플랫폼 규제는 ‘자율 규제’ 외쳤지만 강화 흐름국내에서도 규제가 아닌 ‘중재’가 해법이라는 주장들이 나오자 정부가 변화 의지를 보였다. 윤석열 대통령은 당선인 시절부터 민간 중심 플랫폼 자율 규제를 강조했다. 플랫폼에 대한 간섭을 최소화해 플랫폼 산업 성장동력을 확보하겠다는 취지였다. 하지만 지난해 10월 카카오 서비스 먹통 사태를 기점으로 분위기 변화가 감지된다. 자율 규제를 강조하던 윤석열정부도 최근 ‘법률 규제’를 강화하는 방향으로 태도를 바꾸고 있다.특히 공정거래위원회가 플랫폼에 칼날을 겨눈다. 국회 발의 법안과 별도로 온라인 플랫폼 독과점 금지법 제정을 추진 중이다. IT업계와 재계 관계자들에 따르면, 공정위는 지난 5월 비공개 당정 협의에서 매출 기준 국내외 상위 5~6개 대형 플랫폼 대상 별도 독과점 법률을 만드는 방안 등을 보고했다고 알려졌다. 또 ‘온라인 플랫폼 분야 심사 지침에 따른 경제 분석 연구’ 용역 등도 발주한 상태다.정치권까지 합류했다. 야당을 중심으로 입법 논의가 활발하다. 더불어민주당은 플랫폼 기업에 대한 대대적인 실태 조사에 나섰다. 민주당 을지로위원회와 민주연구원은 네이버·카카오·쿠팡·배달의민족 등 플랫폼들의 부당거래 행위를 파악하고 있다. 오는 8월 중간보고서를 발표하고, 이를 발판 삼아 9월 정기 국회에서 온라인플랫폼법(온플법) 제정을 밀어붙이겠다는 계획이다.전문가들은 국내 플랫폼 산업 정책이 글로벌 트렌드에 역행한다고 지적한다. 특히 자국 이익 관점에서 보면, 현재의 플랫폼 규제 방식은 후퇴한 정책이라고 강조한다.정윤혁 고려대 미디어학부 교수는 “미국은 플랫폼 규제 법안을 폐기하고 있다. 규제를 하더라도 자국의 이익에 기반해 규제한다. 우리나라의 접근 방식과 다르다”고 했다.이황 고려대 법학전문대학원 교수는 “미국은 자국 플랫폼 기업들이 엄청나게 성장해 전 세계 시장을 장악한 상황에서 규제를 검토했던 건데, 빅테크 성장 추세가 꺾이면서 미국 내 규제 입법 추진도 지지부진한 상태가 됐다”고 설명했다.플랫폼 스타트업업계는 연이은 규제에 생존 위기를 느낀다고 토로한다. 업황도 좋지 않은데, 정부에서는 늘 규제로 모든 걸 해결한다는 불만이다. 익명을 요구한 플랫폼 스타트업 대표는 “해외에서는 자국 플랫폼을 지켜내기 위한 규제를 펼치는데, 국내에서는 온갖 규제를 마주해야 한다”고 비판했다.[본 기사는 매경이코노미 제2213호 (2023.06.14~2023.06.20일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>'일하고 싶은 금융기업' 1위 카뱅, 2위 KB국민</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000043907?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>인크루트, 금융권 취업희망자 조사HR테크 기업 인크루트는 ‘2023 대학생이 뽑은 일하고 싶은 금융기업’ 조사 결과를 15일 공개했다.올해 대학생이 뽑은 일하고 싶은 금융기업 순위표. 인크루트 제공이번 조사는 온라인 설문 방식으로 진행했다. 올해 5월 11일부터 5월 29일까지 금융권 취업에 관심이 있는 전국 대학생 838명 대상이었다. 조사대상 기업은 시중은행과 국책은행, 인터넷전문은행, 증권사, 핀테크 기업 등 44곳이다. 설문에 참여한 이들에게 가장 일하고 싶은 금융기업 1곳을 고르게 하고 그 이유를 받았다. 금융권 취업을 원하는 이들은 카카오뱅크(13.6%)를 가장 선호했다. 카카오뱅크는 2020년 1위, 2021년 2위, 2022년 1위에서 올해 다시 1위에 등극했다. 카카오뱅크를 선택한 이유 가운데 비즈니스 가치와 높은 성장 가능성(21.1%)이 가장 많았다. 카카오뱅크에 따르면 올해 1분기 기준 월간활성이용자수(MAU)는 1630만 명으로 역대 최대치를 경신했다. 국내 인터넷전문은행 중 유일한 상장사라는 점도 응답자 선택에 영향을 끼쳤을 것이라는 게 인크루트 설명이다. KB국민은행(12.6%)은 지난해에 이어 올해도 2위였다. 동종업계와 지역사회에서 선도하는 기업 이미지(31.1%)가 가장 많았다. 이어 만족스러운 급여와 보상제도(17.0%)를 이유로 꼽은 이들도 있었다. 토스(10.1%)는 지난해 조사에 이어 올해도 3위를 기록했다. 토스를 꼽은 이유 중에는 비즈니스 가치와 높은 성장 가능성 기대(24.7%)라는 답이 가장 많았다. 4위는 NH농협은행(7.8%)으로 선택한 이유 가운데 동종업계와 지역사회에서 선도기업 이미지(29.2%)가 가장 많았다. 이어서 만족스러운 급여와 보상제도(12.3%)가 꼽혔다.다음 신한은행(7.5%)과 카카오페이(7.5%)가 나란히 5위를 차지했다. 신한은행을 선택한 이유로 동종업계와 지역사회에서 선도하는 기업 이미지와 만족스러운 급여와 보상제도(22.2%)가 가장 많이 꼽혔다. 카카오페이의 선택 이유 역시 만족스러운 급여와 보상제도(20.6%)가 가장 많았다. 7위는 우리은행(4.3%), 8위는 국책은행인 IBK기업은행(3.7%), 9위와 10위는 각각 한국투자증권(3.3%)과 삼성증권(3.1%)이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>3월말 은행 총자본비율 15.58%... 전분기比 0.29%p↑</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004894448?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>자료=금융감독올 3월말 국내은행의 국제결제은행(BIS)기준 자본비율이 지난해말보다 높아진 것으로 나타났다. 당기순이익 시현과 함께 자본확충 노력으로 자본이 크게 늘어난 영향이다. 금융감독원이 1일 발표한 '2023년 3월말 은행 및 은행지주회사 BIS기준 자본비율 현황'에 따르면 국내은행의 3월말 BIS기준 총 자본비율은 15.58%로 지난해말보다 0.29%포인트(p) 상승했다. 보통주자본비율과 기본자본비율은 각각 12.88%, 14.24%로 지난해말보다 각각 0.28%p, 0.33%p 상승했다.순이익 시현과 증자, 신종자본증권 발행 등 자본확충으로 자본이 큰 폭으로 증가한 영향이다. 총자본은 지난해말보다 15조원(4.6%) 늘었다. 순이익 시현과 증자로 보통주자본이 13조원 늘었고, 신종자본증권 발행에 따른 기타기본자본이 1조7000억원 가량 증가했다. 위험가중자산 역시 45조5000억원(2.7%) 늘었지만 증가 속도가 자본 증가율만큼 빠르진 않았다. 특히 올해부터 SC·씨티은행·케이·카카오뱅크도 바젤Ⅲ 최종안을 적용 받아 금리·외환 자산의 시장위험가중자산이 1조4000억원 감소했다.BIS기준 자본비율은 총자산(위험자산 가중평가) 대비 자기자본의 비율로, 은행의 재무구조 건전성을 가늠하는 핵심 지표로 꼽힌다. 3월말 기준 모든 국내은행이 규제비율(보통주자본비율 7%, 기본자본비율 8.5%, 총자본비율 10.5%, 단순기본자본비율 3%)을 상회했으나 은행별로 비율의 변화 양상은 달랐다. 상대적으로 위험가중자산이 크게 감소하거나 자본 증가폭이 컸던 KB·우리·DGB·JB·농협·SC·씨티·기업·수출입·수협은행·토스뱅크 등 11개 은행은 자본비율이 상승했다. 반면, 위험가중자산 증가율이 자본 증가율을 상회한 신한·하나·산업은행·케이·카카오뱅크는 자본비율이 하락했다. 금감원 관계자는 "국내은행의 자본비율 현황에 모니터링을 강화하고 자본비율이 취약한 은행은 자본적정성 관리를 강화토록 할 것"이라며 "경기대응완충자본 적립의무 부과, 스트레스 완충자본 제도 도입 추진 등 강화되는 자본규제에 대비해 은행이 충분한 수준의 자기자본을 유지하도록 유지할 게획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>5대 은행 ‘눈치 싸움’...청년도약계좌 기본금리 0.5%포인트 올리고 우대조건 완화</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000082632?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>청년도약계좌, 6월 15일 출시당국과 여론 뭇매에 금리 조정 방침 (출처=연합뉴스)윤석열 대통령의 주요 대선 공약 중 하나인 ‘청년도약계좌’가 오는 15일 출시를 앞두고 시중은행들이 눈치 싸움을 벌이고 있다. 지난 8일 잠정 금리를 공시한 뒤 당국과 여론으로부터 ‘은행별 우대금리 조건이 너무 까다롭다’ ‘기본금리보다 우대금리 비중이 너무 크다’ 등의 지적이 잇따랐기 때문이다. 결국 5대 은행은 모두 기본금리를 0.5%포인트 올리는 대신 우대금리를 0.5%포인트 깎아 가입자들이 높은 금리를 좀 더 쉽게 받을 수 있도록 조정할 방침이다.기본금리 높이고...3.5%→4%우대금리 낮추고...2%→1.5%13일 금융권에 따르면, 5대 시중은행(KB·신한·하나·우리·NH농협)은 현재 청년도약계좌의 기본금리를 4%로 높이는 방안을 적극적으로 검토하고 있다. 지난 8일 잠정 금리 공시 당시 이들 은행이 공통으로 내놓은 기본금리(3.5%)와 비교해 0.5%포인트 높은 수준이다.하지만 동시에 다수 은행은 여러 조건을 달아 책정한 최대 우대금리를 지난주 공시 당시 2%에서 1.5%로 낮춰, 소득 조건별 최대 우대금리 0.5%포인트까지 더한 최고 금리 수준을 6%로 유지할 계획이다. 당국 등의 요청대로 기본금리 비중은 늘리고, 우대금리 비중은 줄이면서도 지나친 역마진을 고려해 최고 금리가 6%를 넘지 않도록 관리하겠다는 뜻이다.아울러 과도한 카드 결제 실적 등을 우대금리 조건으로 내걸었던 은행들의 경우 조건을 완화하는 방안도 검토 중이다.만약 현재 검토 중인 안대로 오는 14일 확정 금리가 공시될 경우, 청년도약계좌 시장은 최고 6.5%를 보장하는 소수 은행과 최고 6%를 고수한 다수 은행으로 나뉘게 된다. 이 경우 청년희망적금처럼, 조금이라도 더 주는 은행으로 가입자가 몰려 해당 은행은 최대 수천억원 규모의 손해를 볼 가능성이 있다. 때문에 은행권은 개별 은행의 가입자가 일정 기준에 이르면 판매를 종료할 수 있는 ‘가입자 수 상한’을 설정해달라고 금융당국에 요청했다.금융당국 속내는 금리 추가 인상인터넷은행은 참여 안 해하지만 주요 은행들이 현재 검토하는 안대로 기본금리를 다소 올려도, 당국의 눈높이에는 여전히 미치지 못할 가능성이 크다. 기업은행이 기본금리를 4.5%로 제시했고, 한 곳만 너무 높으면 쏠림 문제도 있으니 다른 은행들도 기본금리를 그 정도 수준으로 조정하길 바라는 눈치다.당국 입장에서는 젊은 세대에게 가장 친숙한 인터넷은행들이 이번 청년도약계좌 판매에 동참하지 않은 것도 아쉬운 부분이다. 당초 금융당국은 카카오뱅크·케이뱅크·토스뱅크에도 청년도약계좌 출시를 권유했지만, 한목소리로 대면 업무를 처리할 오프라인 지점이 없어 현실적으로 불가능하다고 거부한 것으로 알려졌다. 다만 당국과 여론을 의식한 인터넷은행들은 관련 계획을 묻자 공통으로 “추후 참여를 검토할 수 있다”고 여지를 뒀다.한편 청년도약계좌는 청년들에게 5년간 5000만원가량의 목돈을 마련하도록 하는 정책 상품이다. 가입 후 3년은 고정금리로 금리가 변하지 않는다. 가입자가 매월 70만원 한도 내에서 자유롭게 납입하면 정부가 월 최대 2만4000원을 더해주고, 이자 소득에 비과세 혜택을 부여한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>“쏠(SOL)에서 예·적금 금리 한 번에 비교하자” 신한은행, 온라인 예금 중개 서비스 선점</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005025169?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>신한은행, 21일 '예금 중개 서비스' 출시쏠(SOL)에서 지방, 저축은행 예·적금 비교·추천다른 금융사들은 빨라야 오는 3·4분기 중 출시대출비교 플랫폼도 함께 출격 "여·수신 확장 동시에" [파이낸셜뉴스] 여러 은행의 예·적금 상품의 금리를 비교하고 가입한 뒤 만기 알림, 갈아타기 추천까지 받을 수 있는 ‘온라인 예금중개 서비스’에 신한은행이 선봉장으로 나선다. 이르면 3·4분기 중에 예금 중개 서비스를 출시하는 다른 금융사들에 비해 3개월가량 앞서 뛰어들며 선점 효과를 누리겠다는 전략이다.    11일 금융권에 따르면 신한은행은 이달 21일 모바일뱅킹 앱 '쏠(SOL)' 내 마이데이터 서비스 ‘머니버스’에 예금 중개 서비스를 도입한다. 현재 지방, 저축은행 등 1·2금융권 은행들과 수신 상품 제휴 협의에 나서고 있다.   온라인 예금상품 중개서비스란 소비자가 직접 여러 은행의 예·적금 상품을 탐색하고 비교한 뒤 가입한 기존 방식과 달리 은행 앱을 통해 플랫폼이 비교 추천하는 예·적금 상품을 원스톱으로 가입하는 서비스다. 올해 금융위원회는 지난 3월 신한은행을 비롯한 △뱅크샐러드 △NHN페이코 △줌인터넷 △깃플 △핀크 △비바리퍼블리카(토스) △네이버파이낸셜 △씨비파이낸셜 등 9개 업체를 온라인 예금상품 중개서비스를 위한 혁신금융서비스 사업자로 지정한 바 있다.   신한은행을 제외한 대부분의 금융사는 오는 3·4분기 중에 온라인 예금상품 중개서비스를 출시하거나 예정 시기를 아직 확정 짓지 못했다. 예·적금 상품을 제공하는 은행들의 응용프로그램인터페이스(API) 개발에 많은 시간이 소요되고 중소 금융사의 경우 은행권과의 제휴 과정에서 난항을 겪고 있기 때문이다.   온라인 예금중개 서비스를 제공할 예정인 금융사 관계자는 “은행권들의 개발 일정이 대환대출 인프라에 집중된 상황”이라며 “금융당국이 이달부터 출시를 허용했으나 일정이 빠듯하고 아직까지 제휴처를 미확보한 사업자들도 있어 신한은행을 제외하고는 3·4분기에 예금중개 서비스를 선보일 수 있을 것”이라고 말했다.   신한은행은 온라인 예금중개 서비스와 함께 대환대출 인프라 활용을 위한 대출 비교 플랫폼도 선보일 예정이다. 대출비교 플랫폼에서는 마이데이터를 통해 제휴를 맺은 금융회사의 대출을 한눈에 확인해 타행으로 갈아탈 수 있지만 주요 금융사 앱에서는 해당 은행의 신규 대출 상품으로만 대환할 수 있다. 5대 시중은행 중 대출비교 플랫폼에 뛰어든 곳은 신한은행이 처음이다.   이처럼 신한은행이 예·적금 중개와 대출 비교 플랫폼을 동시에 출시하며 여·수신 확장을 본격화하면서 자체 앱인 ‘쏠’의 월간활성이용자수(MAU)는 하반기에 1000만명을 넘어설 가능성이 커졌다. 쏠의 MAU는 지난해 말 884만명에서 지난 3월 말 940만명으로 올 1분기에만 50만명이 넘게 확대됐다. 다만 지난 4월 말, 5월 말에 각각 925만명, 929만명을 기록하며 소폭 하락한 만큼 이번 예금 중개 플랫폼 및 대출 비교 플랫폼 도입으로 고객 유입 확장에 더욱 공격적으로 나서겠다는 방침이다.   한편 금융당국은 신한은행이 이달 온라인 예금상품 중개서비스를 출시하면 소비자 편익, 금융시장 안정 등을 종합적으로 점검해 내년 정식 제도화를 검토할 예정이다. 플랫폼을 통한 과도한 수신경쟁 문제가 발생하지 않는지, 불완전 판매가 발생하지 않는지 등을 중점적으로 점검한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>투자자 가장 많이 선물한 종목 1위 삼성전자, 2위는 어디?</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003280997?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>5월 국내 7개 증권사 주식 선물하기 서비스 분석 결과 삼성전자 1위서울 서초구 삼성전자 서초사옥의 모습. 연합뉴스5월 투자자들이 가장 많이 선물한 종목은 삼성전자인 것으로 나타났다.11일 국내 7개 증권사(NH투자·삼성·하나·KB·신한투자·대신·토스)의 5월 주식 선물하기 서비스를 분석한 결과에 따르면 삼성전자가 거래 건수 1위를 차지했다. 이들 증권사는 홈트레이딩시스템(HTS)이나 모바일트레이딩시스템(MTS)을 통해 주식을 선물할 수 있는 서비스를 제공하고 있다.증권사별로 가장 많이 선물한 종목 2위와 3위는 다양했다. 하지만 7개사 모두 1위는 삼성전자로 동일했다. 또 NH투자증권과 삼성증권, 토스증권 등에서는 삼성전자 우선주가 3위에 올랐다.2위의 경우 4개 증권사(KB·신한·대신·토스)에서 에코프로와 에코프로비엠 등 이차전지 관련주가 차지했다. 이차전지 대장주로 꼽히는 에코프로는 50만원대로 떨어졌다가 지난 9일 67만원까지 치솟으며 식지 않은 인기를 나타내고 있다.  아울러 NH투자증권과 하나증권, 토스증권 등에서는 올해 들어 5개월 연속 삼성전자가 1위를 차지했다. 이차전지 열풍에 에코프로비엠, 에코프로 등에 대한 매수가 급증했던 4월에도 삼성전자는 1위 자리를 지켰다.이런 결과 삼성전자의 대표성과 안전성 등에 따른 것으로 풀이된다. 선물할 종목을 고르는 것은 단기 수익을 노리는 투자와는 달리 해당 종목에 대한 우호적 인식이 반영되는 경향이 있기 때문이다.삼성전자는 지난 5월 6만5500원으로 출발했던 주가가 5월 31일 7만1400원까지 상승했다. 그리고 지난 9일에는 1.55% 오른 7만2000원으로 장을 마감하는 등 상승세를 기록하고 있다. 반도체 업황이 하반기부터 살아날 거라는 기대감에 주가가 우상향하고 있다. 또 6월 들어 ‘8만 전자’를 회복 여부에 투자자들의 기대감이 증폭되고 있다. 김지산 키움증권 리서치센터장은 "한국을 대표하는 기업이라는 인식에 국내 투자자들이 삼성전자를 선호하는 경향이 있다"며 "배당 등 적극적인 주주 환원 정책을 펼치고 있는 점도 개인투자자들의 애정이 남다른 이유"라고 설명했다. 김두용 기자 k2young@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 글로벌 결제수단 '페이팔' 국내 사업자에 제공</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011891290?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]토스의 페이테크 계열사 토스페이먼츠는 국내 사업자를 대상으로 글로벌 결제 수단 '페이팔(Paypal)'을 제공한다고 1일 밝혔다.(사진=토스 제공)2023.06.01 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 한재혁 기자 = 토스의 페이테크 계열사 토스페이먼츠는 국내 사업자를 대상으로 글로벌 결제 수단 '페이팔(Paypal)'을 제공한다고 1일 밝혔다.페이팔은 글로벌 결제 수단 중 하나로 해외 소비자가 국내 온라인 쇼핑몰을 이용할 때 세계 각국의 통화로 결제할 수 있다. 토스페이먼츠를 통해 페이팔을 도입한 사업자는 ▲계약·심사 ▲API(Application Programming Interface) 연동 ▲운영·기술 문의 ▲정산 ▲고객 민원 처리 등 모든 서비스를 한국어로 이용할 수 있으며 토스페이먼츠 고객센터를 통해 지원 서비스를 받을 수 있다.이 외에도 토스페이먼츠는 사업자가 지정한 날짜에 맞춰 페이팔 결제에 따른 판매 대금을 원화로 자동 정산하거나 거래 취소, 환불 요청 등 해외 소비자의 민원을 대응 및 관리할 수 있는 차지백 대시보드도 가맹점에 제공한다.페이팔 이용 신청은 토스페이먼츠 웹사이트를 통해 가능하며 토스페이먼츠의 기존 가맹점은 간단한 계약 과정을 거쳐 자사몰 전자결제 서비스에 연동해 사용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>카드사는 단 2곳…‘은행천하’ 대환대출 플랫폼[대환대출 개시]</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000045719?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>② 7개 카드사 중 플랫폼 입점사는 신한·국민뿐카드업계 “제휴 플랫폼 확대하겠지만 상황 지켜볼 것”플랫폼 업계 “중저신용자 위해 카드사도 적극 참여해야”금융권의 온라인·원스톱 대환대출 플랫폼이 시행된 지난 5월 31일 오후 서울 시내에 설치된 시중은행들의 ATM기 모습. [사진 연합뉴스][이코노미스트 윤형준 기자] 은행들과 플랫폼 업체들이 금리 인하, 포인트 증정 등 공격적인 마케팅을 펼치며 대환대출 서비스 고객 유치에 힘쓰고 있다. 그러나 카드사들은 은행권으로의 고객 이탈을 경계하며 해당 서비스를 관망하는 분위기다.1일 금융권에 따르면 대환대출 서비스는 은행 19개, 저축은행 18개, 카드 7개, 캐피탈 9개 등 총 53개 금융사가 참여해 지난 5월 31일부터 시작됐다. 네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다, KB국민카드, 웰컴저축은행 등 7개 대출비교 플랫폼 앱에서 기존 대출을 확인하고 여러 금융회사의 금리 조건을 비교할 수 있다. 갈아타고 싶은 상품이 정해진 경우에는 직접 해당 금융회사 앱을 통해 바로 대환을 진행해도 된다.은행들과 플랫폼 사업자들은 금리 우대나 포인트 증정 등 이벤트를 열어 적극적인 고객 유치에 나서고 있다. 우리은행은 다른 금융사에서 옮겨오는 고객에게 최대 연 0.5%p 금리를 우대해준다. 신한은행도 추첨을 통해 첫 달 대출 이자를 포인트로 돌려주는 이벤트를 열었다. 플랫폼인 네이버페이의 경우 조회만 해도 포인트를 지급한다.개시 첫날인 5월 31일의 대환대출 인프라 이용현황을 보면 은행 간 대출이동(은행⇆은행)의 비중이 전체의 90% 이상으로 나타났다. 실제 소비자들의 대환 수요가 은행에 쏠려 있음을 알 수 있다.하지만 카드업계는 대환대출 서비스에 적극적으로 나서고 있지 않은 모양새다. 카드사의 경우 은행권보다 금리가 높고 대출 종류도 제한적인 등 대출 상품은 비교적 경쟁력이 떨어진다. 이 때문에 고객 유입 노력보다는 이미 갖고 있는 대출자들의 1금융권으로 이탈이 더 신경 쓰일 수밖에 없는 형국이다.[제공 KB국민카드]실제 대출비교 플랫폼에 입점한 카드사는 현재 KB국민카드(네이버페이)와 신한카드(카카오페이) 2곳뿐이다. 대환대출 전용 상품을 출시한다고 밝힌 카드사 또한 KB국민카드와 롯데카드 정도에 그친다. 나머지 카드사들은 아직 대출비교 플랫폼에서는 찾아볼 수 없고, 각 사 앱에서 직접 조회해 갈아타는 것만 가능한 상황이다.카드업계 관계자는 “카드라는 실물 상품을 만들어야 한다는 특수성이 있기 때문에 대환대출을 위해 신규 발급의 수고를 들이지 않으려는 소비자들도 많을 것”이라며 “제휴 플랫폼을 확대하고 전용 상품 개발을 위해 노력하겠지만, 적극적인 마케팅은 인프라 이용 상황을 지켜보며 판단할 문제”라고 말했다.반면 플랫폼 업계에서는 카드사들의 적극적인 참가를 바라는 모양새다. 카드사의 주고객인 중저신용자 고객을 확보하면 더욱 다양한 사례의 축적과 분석이 가능하기 때문이다. 고객의 선택권이라는 측면에서도 다양한 입점이 필요하다는 설명이다.대출비교 플랫폼 업체 관계자는 “중저신용 고객 입장에선 5대 시중은행이 아무리 많이 들어와 있다 해도 추천받을 상품이 없다”며 “오히려 대환대출 서비스 이용의 문턱만 높일 수 있다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>"매 앞에 장사 없다"...코인시장 규제에 '휘청' [위클리 코인브리핑]</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005025848?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>미국 증권거래위원회(SEC) 개리 겐슬러 위원장. 뉴스1 제공  [파이낸셜뉴스] '매 앞에 장사 없다'라는 옛말이 들어맞는 한 주였다. 규제 리스크가 겹치면서 가상자산 시장은 조정세를 보였다.   12일 업비트에 따르면 지난주(5~11일) 업비트 마켓 인덱스(UBMI)는 전주 대비 7.00% 떨어진 5715.22으로 마감했다. 같은 기간 코스피지수가 0.98%, 나스닥지수는 0.22%로 강보합세를 나타냈으나 가상자산 시장은 낙폭을 키웠다.   비트코인을 제외한 가상자산인 알트코인의 하락세가 더 두드려졌다. 알트코인 시장의 흐름을 확인할 수 있는 UBAI지수는 전주 대비 11.01% 하락한 3563.98으로 마감했다.   미국 증권거래위원회(SEC)가 바이낸스와 코인베이스를 증권법 위반으로 기소하면서 솔라나, 폴리곤, 샌드박스 등 알트코인을 ‘증권’으로 분류했기 때문이다.   가상자산 시황 중계사이트 코인마켓캡에 따르면 카르다노, 솔라나, 폴리곤, 코스모스는 지난 10일을 기점으로 각각 20~30% 하락했다. 4개 코인은 시가총액 20위권 내에 드는 주요 알트코인으로, SEC가 바이낸스와 코인베이스를 기소하면서 증권으로 판단한 19개 코인에 포함됐다.   SEC 기소장에 포함된 코인뿐만 아니라 이더리움 대항마로 주목받은 앱토스와 수이도 각각 32% 37% 폭락했다.   유동성 약화도 코인시장에 악재로 작용하고 있다. 가상자산거래소 엘뱅크의 벤처캐피털(VC) 엘뱅크랩스의 조니 텡 수석 연구원은 "비트코인 가격이 2만5000달러 부근을 쉽사리 벗어나지 못하는 이유는 유동성 악화가 주요 원인"이라며 "특히 SEC의 업계를 향한 추가 조사를 우려하는 기관 투자자들이 시장을 이탈하면서 유동성이 계속 악화되고 있는 상황"이라고 분석했다.   주간 가격상승률이 가장 높았던 종목은 이날 오전 9시 기준 비트토렌트(BTT)로 일주일 새 14.29% 뛰었다. 테마별로 보면 모든 테마가 하락세를 보인 가운데, 비트코인그룹이(-4.29%)이 가장 낮은 하락세를 보였다.   업비트 공포지수는 주간 평균 44.32을 기록하며 전주에 이어 '중립' 상태를 유지하고 있다. 업비트에 따르면 지난주 가장 탐욕적인 투자가 이뤄진 가상자산은 메탈, 리플, 트론 등이고, 가장 공포에 잠긴 투자가 이뤄진 가상자산은 카바, 폴리매쉬, 1인치네트워크 등이다. 폴리매쉬, 1인치네트워크는 일주일 동안 각각 28.12%, 27.73%의 자산 하락을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>남은 건 카카오 94% 독식…타다 합법까지 4년, 혁신 망가졌다 [팩플]</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003284373?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>2020년 서울 서초구의 한 차고지에 주차돼 있던 타다 차량들. 사진 뉴스1           “혁신이 두려운 기득권의 편에 선 정치인들은 법을 바꿔서 혁신을 주저 앉혔다.”기사 포함 렌터카 ‘타다 베이직’이 불법 논란에 종지부를 찍은 1일, 이재웅 전 쏘카 대표는 페이스북에 이런 글을 남겼다. 이날 대법원은 이재웅 전 쏘카 대표와 박재욱 전 VCNC 대표, 쏘카와 VCNC 법인의 여객자동차운수사업법 위반 혐의에 대해 검찰의 상고를 기각하고, 무죄를 확정했다. 서울개인택시조합 등 택시업계가 “타다베이직은 불법 콜택시”라며 검찰에 고발, 2019년 10월 기소 이후 3년 8개월 만이다.      이 전 대표는 같은 글에서 혁신 동력을 가로막은 기득권을 성토했다. 그는 “혁신을 만들어내는 기업가를 저주하고, 기소하고, 법을 바꾸어 혁신을 막고 기득권의 이익을 지켜내는 일은 이번을 마지막으로 더 이상 없어야 한다”며 “그게 이번 판결을 통해 우리 사회가 얻을 수 있는 유일한 교훈”이라고 했다. 당시 타다 대표였던 박재욱 현 쏘카 대표도 페이스북을 통해 “무죄가 됐다고 해서 새로운 시장을 개척하고 혁신했던 그때의 타다가 돌아오진 못 한다”며 “지금도 사회 곳곳에서 제2의 타다 사건들이 계속 발생하고 있다. 새로운 산업과 방식을 만들고자 했던 기업가의 노력이 좌절되지 않는 사회가 됐으면 한다”고 말했다.     이재웅(左), 박재욱(右). [연합뉴스]      ━   스타트업계, “환영하지만…더 이상은 안 된다”      대법원 판결이 알려지자 벤처·스타트업계는 일제히 환영 입장을 발표했다. 벤처기업협회는 “이번 판결은 기술 발달로 앞서가는 서비스를 법이 쫓아가지 못해 기득권과 충돌할 때, 전통적 사고방식에 기반해 판단하는 게 혁신 산업에 얼마나 큰 악영향을 주는지 보여주는 대표 사례로 남을 것”이라고 꼬집었다. 2070개 스타트업이 가입한 코리아스타트업포럼도 성명서를 통해 “타다는 ‘불법’이란 수사기관의 낙인과 ‘타다금지법’ 시행으로 이미 시장에서 사라졌다”면서 ““타다 사례가 반복되지 않도록 정부와 국회의 적극적인 지원과 관심을 촉구한다”고 당부했다.     ━   무죄인데…이미 멈춘 모빌리티 시계      타다 경영진은 2020년 2월 1심에서 무죄 판결을 받았지만, 그로부터 한 달 뒤 국회는 ‘타다 금지법’(여객자동차운수사업법 개정안)을 통과시켜 타다를 사실상 퇴출 시켰다. 이 법은 플랫폼 운송·가맹·중개 사업을 제도화하는 게 골자로, 국토교통부는 ‘택시 이외의 탈 것’에도 문을 열어주는 법이라고 주장했다. 그러나 타다 금지법 이후 시장은 택시 면허권 중심으로 회귀했다는 평가를 받는다.       기부금 납부, 장소·시간, 운영대수 제한 등 독소 조항으로 인해 택시 이외의 모빌리티 서비스는 시장에서 거의 사라지다시피 했다. 타다 역시 급격히 위축됐다. 택시 호출 시장으로 방향을 틀었지만 적자에 시달렸다. 모회사인 쏘카는 2021년 10월 타다 지분과 경영권을 금융 플랫폼 토스 운영사(비바리퍼블리카)에 매각했다. 업계에선 토스가 타다의 재매각을 검토 중이라는 설이 돌고 있다.      모빌리티 업계 관계자는 “혁신 사업이 꽃을 피워보기도 전에 정치권이 싹을 뽑아버렸다”며 “승객도 택시기사도 나아진 게 없고, 특정 사업자 독과점만 심해진 상황”이라고 비판했다. 한때 ‘가맹택시’ 업계서 카카오모빌리티의 경쟁자로 꼽힌 마카롱택시는 경영난 끝에 파산 절차를 밟고 있다. 우버·티맵모빌리티 합작사가 만든 우티택시는 한 자릿수 점유율을 유지 중이다.       반면 카카오 자회사인 카카오모빌리티는 2021년 기준 택시 호출 시장의 94.5%, 가맹택시 시장 73.7%를 독식하고 있다. 법인택시 회사를 운영 중인 김재욱 태평운수 대표는 “현재 택시 서비스로는 차별화가 어려워 이대로면 카카오모빌리티가 쭉 독점하게 될 것”이라고 말했다.     ━   방관하는 정부, 제2의 타다 또 나오나       스타트업계는 여전히 ‘타다 트라우마’에 시달리고 있다. 창업가들의 새로운 시도가 기존 구 산업의 직역 단체 이해와 충돌할 때마다 타다 베이직처럼 갈등 끝에 소멸 수순을 밟을까 걱정하는 것. 현재 비대면 의료(닥터나우)·변호사 광고(로톡)·세무 중개(삼쩜삼) 등의 각종 분야에서 스타트업과 기존 사업자들의 갈등이 끊이지 않지만, 정부는 방관하고 있다. 익명을 요구한 한 스타트업 관계자는 “스타트업이 말하는 혁신은 기존 시장의 문제를 해결하려는 것이라 갈등이 있을 수 밖에 없다”며 “그 과정에서 기득권에 찍히고 갈등하다 결국 ‘제2의 타다’가 될 거란 트라우마가 넓게 퍼져있다”며 “건강한 스타트업 생태계를 위해, 산업의 역동성을 위해 국회나 정부의 적극적인 관심이 필요하다”고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>토스뱅크 "비대면 '비과세종합저축' 석달간 1만명이 이용"</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000338061?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>[토스뱅크가 인터넷은행 최초로 전면 비대면·자동화한 '비과세종합저축'에 3개월간 1만명이 몰렸다.(자료 : 토스뱅크)]지난 2월 토스뱅크가 도입한 '비대면 비과세종합저축'을 석달간 1만명이 이용한 것으로 나타났습니다.오늘(1일) 토스뱅크에 따르면 지난달 말 기준 '비과세종합저축' 서비스를 이용 중인 고객이 1만명에 달했으며, 이 중 기초생활수급자 등 사회취약계층이 약 70% 수준을 차지했습니다.비과세종합저축은 조세특례제한법에 따라 은행이 취급한 저축 상품에 대해 최대 5천만원 내에서 발생하는 이자 등 소득에 대해 만기까지 비과세 혜택(일반 과세는 15.4%)을 부여하는 상품입니다.연간 금융소득 2천만원 이하인 고객이 대상으로, 장애인, 기초생활수급자, 고령자(만 65세 이상) 등 사회취약계층이나 국가유공자, 독립유공자와 그 유가족 등 사회를 위해 헌신한 분들이 포함됩니다.그동안 비과세종합저축의 경우 대부분 금융사 영업점 창구 등 대면채널에서 개설이 가능했지만, 토스뱅크는 지난 2월 인터넷전문은행 가운데 처음으로 비과세종합저축을 전면 비대면·자동화한 바 있습니다.이를 통해 직접 장애인증명서를 발급받아 영업점을 방문해야 했던 장애인 고객들이나 원치않게 신분을 공개해야 했던 기초생활수급자 등의 어려움이 해소됐다는 설명입니다.토스뱅크 관계자는 “인터넷전문은행의 적극적인 사회적 책무 중 하나가 포용이라는 생각으로 고객들이 느낄 수 있는 불편함의 작은 부분 하나까지 세밀하게 들여다 보고 이 같은 서비스를 기획하게 됐다"며 "대면 증빙이 필요했던 영역을 IT기술을 통해 전면 비대면으로 구현해내고 있으며, 고객 개개인이 최적화 된 금융 혜택을 누릴 수 있도록 사각지대를 줄여나갈 것"이라고 말했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>앱 신청이 대세인데...인뱅이 빠져 2% 부족한 청년도약계좌</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002807047?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>연합뉴스    '청년도약계좌'(청년계좌)가 출시 첫날인 15일부터 청년층이 높은 관심을 보이고 있다. 청년계좌는 매달 70만원씩 5년간 적금을 하면 최대 5000만원의 목돈을 마련할 수 있는 일종의 특례상품이다. 15일 금융권에 따르면 국민·신한·우리·하나·농협·기업·부산·광주·전북·경남·대구은행 등 11개 은행은 이날 오전 9시부터 청년계좌 신청을 받고 있다. 출시 첫날이지만 별다른 혼란은 보이지 않는다. 금융당국에 따르면 각 은행 영업점은 평소와 비슷한 분위기다. 지난해 청년희망적금(청년적금) 신청 당시에 비해 '질서'가 제대로 작동하기 때문이다. 청년적금 신청 때는 고객이 한꺼번에 몰리면서 은행들의 앱 접속이 지연되기도 했다.청년층을 겨냥한 상품인만큼 모바일 앱을 통해 신청이 이어지고 있다. 국민은행 관계자는 "청년계좌는 5부제로 신청을 받고 있다. 현재 전산이나 서버 시스템이 원활하게 돌아가고 있다"고 전했다.청년계좌는 우선 이번달에는 오는 23일까지 가입 신청이 가능하다. 첫 5영업일(15일~21일)에는 출생연도를 기준으로 5부제에 따라 접수가 진행된다. 오는 22일과 23일에는 출생연도와 관계없이 접수할 수 있다.다음 달부터는 매월 2주간 가입 신청 기간을 운영하며, 관련 세부일정은 서민금융진흥원을 통해 안내된다.청년계좌의 경우 청년적금과 중복 가입을 할 수 없다. 따라서 청년적금 가입자들이 이번에 신청하지 않은 영향도 있다. 하나은행 관계자는 "청년적금을 넣고 있는 고객들은 이 적금이 만기가 끝난 후에 가입할 수 있다"며 "이것 때문에 상대적으로 가입 대상이 많지 않은 것으로 보인다"고 말했다. 영업점에는 최근 청년계좌 자격 조건, 신청 방법에 대한 문의가 이어졌다.  특히 부모가 대신 영업점을 찾아 청년계좌 신청 방법 등을 문의하는 모습도 자주 목격됐다. 청년계좌에는 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행들은 참여하지 않았다. 젊은층에게는 인터넷은행이 친숙하다. 금융당국도 이에 인터넷은행의 동참도 권유했다. 그러나 대면 업무를 처리할 오프라인 영업점이 없어 현실적으로 어렵다는 입장을 전달 받은 것으로 알려졌다. 인터넷은행들은 "추후 검토할 수 있다"며 참여 가능성을 남겨둔 상태다. .청년계좌는 윤석열 대통령의 대선 공약이다. 젊은 세대에 목돈 마련의 기회를 주자는 취지로 도입된 정책형 금융상품이다. 5년간 매달 70만원 한도로 적금하면 지원금(월 최대 2만4000원) 등을 더해 5000만원가량의 목돈을 만들 수 있도록 설계됐다. 총급여 6000만원 이하·가구 중위소득 180% 이하 조건을 충족하는 만 19∼34세면 가입할 수 있다.  가입을 원하는 청년은 은행별 앱을 통해 영업일 오전 9시∼오후 6시 30분에 비대면으로 신청하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>카드사들, '대환대출'에 소극적인 이유는</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011897564?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>전업 카드사 플랫폼 입점, 신한·KB국민 2곳뿐[성남=뉴시스] 고승민 기자 = 김소영 금융위원회 부위원장이 30일 대환대출 인프라 관련 현장방문을 위해 경기 성남 금융결제원 분당센터를 찾아 통합관제실을 살펴보며 관계자의 설명을 듣고 있다. 금융위원회는 31일 오전9시부터 온라인, 원스톱 대출 갈아타기 서비스를 개시한다고 밝혔다. 대출 갈아타기가 가능한 앱은 크게 대출 비교 플랫폼 앱(네이버페이, 뱅크샐러드, 카카오페이, 토스 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등) 등이다. 2023.05.30. kkssmm99@newsis.com[서울=뉴시스] 한재혁 기자 = 지난달 말 가동을 시작한 대환대출 플랫폼 이동금액이 이틀만에 1000억원 이상을 웃돌았지만, 카드사들이 장기카드대출(카드론)의 대환대출에선 미온적인 태도를 보이고 있다. 시중은행 등 1금융권에 비해 높은 금리가 책정돼 고객들이 이탈할 것으로 우려한 것이 원인이다.5일 금융권에 따르면 지난달 말 가동을 시작한 대환대출 서비스 내 이동금액은 개시 이틀만인 지난 1일 기준 1055억원으로 나타났다. 이 플랫폼에는  53개 금융사들과 23개 대출비교 플랫폼 업체가 참여해 다. 당국은 이들 업체들 간의 경쟁을 유도해 실질적인 금리 인하 효과를 낸다는 복안이다. 소비자들이 한 눈에 금리수준을 비교할 수 있게 되면 금융사들이 고객 유출을 막기 위해 대출금리를 내리고, 신규 대출 금융회사는 차주 유치를 위해 대출금리를 인하할 수밖에 없게 된다는 이유에서다.이날 기준 토스·카카오페이·핀다 등의 대출비교 플랫폼 내에 입점한 카드사는 신한·KB국민카드로 한정됐다. 이마저도 각각 카카오페이, 네이버파이낸셜(네이버페이) 1곳에 입점하는 것으로 그쳤다. 이 외의 카드사들은 자사 애플리케이션(앱) 내에서 타 금융사의 대출확인과 각사 대출 조건을 비교하는 서비스를 제공한다. 대환대출 전용 상품 역시 KB국민카드의 'KB국민 이지대환대출'과 롯데카드가 '로카머니 대환대출' 외에는 타 카드사들이 공개한 것은 없는 상태다.카드사들이 대환대출 경쟁에 미온적인 태도를 보이는 것은 타 업권에 비해 '금리 메리트'가 낮은 것이 배경으로 풀이된다. 카드론은 시중은행 등 1금융권의 대출보다 높은 금리가 책정돼 있어 대환대출 시장에서 경쟁력이 저조하다는 이유다. 여신금융협회 공시에 따르면 지난달 말 기준 7개 전업카드사들의 카드론 평균 금리는 12.87%~14.56%이다. 하단에 위치한 현대카드(12.87%)의 카드론 금리를 제외하면 전부 13%대 중후반과 14%대 중반 사이에 집중됐다. 업체별로는 롯데카드가 14.56%로 가장 높고, 그 뒤를 삼성카드와 하나카드가 14.27%, 14.21%로 잇고 있다.특히 앞서 하나카드 등 업계 하위사들은 당기순익 방어를 위해 카드론 취급 규모를 크게 늘렸다. 이 때문에 대환대출을 통한 고객 이탈이 지속될 경우 카드사들의 이익을 견인했던 이자 수익 역시 감소할 것으로 보인다. 일례로 하나카드의 카드론 잔액은 29조5445억원으로 지난 2월말 28조5923억원보다 두 달 새 1조원가량 늘었다. 업계 관계자는 "이동할 수 있는 금액의 한도와 차주간 DSR(총부채원리금상환비율)의 차이로 인해 급격한 업권 간 급격한 쏠림현상은 없을 것"이라면서도 "대량의 자금 유출 등은 모니터링을 해야 한다"고 말했다.이어 "금리 경쟁력도 한 요인이겠지만 그에 앞서 마이데이터와 관련된 정보 제공 절차가 다음달 1일부터 가능한 것도 원인"이라며 "마이데이터 API는 다음달 1일부터 제공되는 될 예정이며 현재도 각 카드사 앱을 통해 카드론 보유 정보 조회나 대환이 가능하다"고 설명했다.일각에선 업권 간 대출이동이 저조해져 당초의 취지였던 '경쟁을 통한 금리인하 효과'의 영향이 반감될 것이란 우려도 나온다. 금융당국에 따르면 대환대출 인프라 가동 첫 날인 지난달 31일 발생한 대출 이동 중 90%는 은행과 은행간의 이동이었다. 강경훈 동국대 경영학부 교수는 "현재 카드사들 입장에서는 지급결제가 마이너스(-)여서 카드론에서 발생한 이익을 통해 적자를 메꾸고 있다보니 참여가 꺼려질 것"이라며 "또 대형사들이 대환대출 플랫폼 입점을 하게 되면 자칫 카드사들간의 과열 경쟁으로 이어지는 것을 우려하는 모양"이라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>타다, 결국 구조조정 착수</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001616335?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>모빌리티 플랫폼 ‘타다’가 결국 강도 높은 구조조정에 착수했다. 대법원으로부터 ‘불법 콜택시’가 아니라는 최종 판결을 받은 지 보름 만이다. 다른 회사와의 합병을 검토 중이지만 이 역시 난항인 것으로 알려졌다.15일 스타트업 업계에 따르면 타다의 운영사 VCNC는 전날 전체 직원을 대상으로 희망퇴직 모집을 받는다는 내용의 공지를 전달했다. 현재 80여명의 직원 가운데 최소 50%를 감축할 계획이다. 희망퇴직 신청자가 이에 못 미치면 직원들에게 별도로 권고사직을 진행할 방침인 것으로 알려졌다. 희망퇴직자에게는 2개월치 월급이 지급된다. 희망퇴직을 신청하면 곧바로 회사에 출근하지 않아도 된다. 오는 30일자로 퇴직 처리된다.타다는 소비자가 스마트폰 애플리케이션(앱)으로 신청하면 11인승 승합차를 운전자와 함께 빌려주는 서비스다. VCNC의 모회사인 쏘카의 렌터카를 이용해 서비스를 제공했다. 승객 골라 태우기, 승차거부 등 기존 택시 서비스에 불편을 겪던 이들이 타다로 넘어오면서 출시 9개월 만에 이용자가 100만명을 돌파했다. 그러나 택시업계는 ‘불법 콜택시’라고 반발했고 검찰에 타다를 고발했다. 타다는 1심에서 무죄 판결을 받았지만 국회에선 타다 서비스의 법적 기반이었던 여객자동차운수사업법을 개정했다. 타다는 결국 사업을 접었고 이후 모바일 금융 플랫폼 토스에 인수돼 다른 서비스를 내놨다. 업계 관계자는 “오랫동안 공들인 핵심 서비스가 무너진 순간 타다의 혁신은 꺾였다. 이후 타다가 내놓은 서비스들은 기존에 세상에 존재하는 서비스에서 크게 다르지 않다”고 말했다. 타다 금지법이 국회를 통과한 이후 투자 유치도 막혔다. 지난해 VCNC의 영업손실은 약 262억원에 달한다. 2020년 112억원, 2021년 177억원에서 적자 폭이 커졌다.타다는 지난 1일 대법원으로부터 불법 콜택시 사업을 한 혐의에 대해 최종 무죄를 확정받았다. 하지만 타다가 과거 영업 방식을 다시 시작할 수는 없다. 토스는 타다를 다시 시장에 내놓았다. 최근까지 타다의 새 주인 후보로는 진모빌리티(IM택시), 더스윙 등이 거론됐다. 더스윙은 모빌리티 업계에서는 드물게 최근 3년 연속 흑자를 기록하며 금전적 여유를 갖고 있어 가장 유력한 인수후보로 지목됐었다. 하지만 업계 관계자는 “더스윙이 한 때 타다와의 합병을 검토했지만 현재는 관련 논의를 진행하지 않고 있는 것으로 안다”고 말했다. 진모빌리티도 계속되는 적자와 VCNC의 높은 부채 등에 부담을 느껴 합병에 회의적인 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>러 본토 접경지 피습 속출…"국경이냐 점령지냐 딜레마"</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013979964?sid=104</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>영국 국방부 정보…우크라 공격대응 위해 본토 화력증강 러시아 본토에 쏟아진 우크라이나 공격 (로이터 연합뉴스) = 러시아 벨고로드주 셰베키노시에서 우크라이나군의 포격으로 차량이 파괴된 모습. 2023.05.31(서울=연합뉴스) 송진원 기자 = 최근 러시아 본토를 향한 공격이 계속되면서 러시아군이 화력을 어디에 집중할지 고민에 빠졌다고 영국 군 정보기관이 전했다.    영국 군 정보기관인 국방정보국(DI)은 2일(현지시간) 러시아 국방부 자료를 인용해 러시아가 공격 헬기와 열기압 탄을 발사할 수 있는 다연장 로켓 발사대 TOS-1A(토스원 알파) 등 모든 종류의 군사력을 본토에 배치하기로 결정했다고 밝혔다.    이러한 결정은 최근 우크라이나와 국경을 맞댄 러시아 서부 벨고로드주에 우크라이나 공격이 이어지는 것과 맞물려 있다.    벨고로드주는 러시아의 주요 보급 기지 역할을 하는 곳으로, 최근 들어 우크라이나나 친우크라이나 러시아 민병대가 공격을 퍼붓고 있다.    러시아 당국은 전날 우크라이나 측이 벨고로드주 셰베키노시에 드론(무인기) 공격을 가하고, 수십명의 전투원들이 장갑차량 등으로 무장한 채 침입을 시도했다고 전했다. 이 때문에 수명의 민간인 사상자가 발생한 것으로 알려졌다.     러시아 당국은 우크라이나 전투원들은 지난달 22∼23일에도 벨고로드주 그라이보론 지역에 침투해 주민 1명을 사살하고 주택들을 파괴했다고 주장했다.     이에 벨고로드주는 지난달 말부터 셰베키노와 그라이보론 등 국경 지역의 어린이 1천여명을 대피시키고 있다.     러시아 본토뿐 아니라 러시아 점령지에 대한 공격도 거세지고 있다.    지난달 31일엔 러시아가 세운 루한스크인민공화국 내 루한스크 카르파티 마을을 우크라이나 군이 포격해 20여명의 사상자가 발생했고, 러시아가 점령 중인 우크라이나 자포리자주의 폴로히에서도 일련의 폭발이 발생한 것으로 알려졌다.    다만 우크라이나 정부는 공격 개입 사실을 공식 부인하고 있다.     DI는 "러시아군이 지난번보다 이번 벨고로드 공습을 더 빠르게 진압했을 것"이라면서도 "러시아 지휘관들은 이제 러시아 국경 지역의 방어를 강화할지, 아니면 우크라이나 점령지에서 전선을 강화할지 심각한 딜레마에 직면해 있다"고 지적했다.    san@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>금감원, 가상자산 투자사기 적극 대응…신고센터 개설 外 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003818566?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>금융감독원이 가상자산 시세조종, 유사수신 등 불공정거래에 대한 엄단에 나섰다. 금감원은 가상자산과 관련한 투자사기를 신고할 수 있는 피해신고센터를 신설하고 연말까지 가상자산 투자사기 집중 신고기간으로 운영하기로 했다.     세계일보는 6월1일자 지면에서 이와 함께 대환대출 플랫폼 출범 첫날 분위기와 올해 4월까지 세수 결손 규모가 34조원에 육박한다는 소식 등을 담았다.     ◆금감원, 가상자산 피해신고센터 가동     금감원은 ‘가상자산 연계 투자사기 신고센터’를 설치해 주가조작 세력 엄단과는 별도로 가상자산 관련 투자 투자사기에 대해서도 적극적으로 대응하기로 했다고 31일 밝혔다.     서울 여의도 금융감독원 모습. 뉴스1    피해신고접수는 금감원 홈페이지나 1332를 통한 유선상담으로 할 수 있다. 신고센터로 접수된 사건은 금융사기전담대응단을 컨트롤타워로 각 사안별로 민생금융국, 자산운용검사국 등 유관부서가 협력하기로 했다. 수사가 필요한 사항은 검찰 등 수사기관에 공조를 요청하고 투자사기 피해가 커질 것으로 우려되는 사건의 경우 금융소비자경보를 발령해 피해확산을 방지한다. 세계일보가 최근 보도한 시세조종(MM·마켓메이킹)을 통해 가상자산 시세를 띄운 뒤 다단계 업체를 통해 물량을 떠넘겨 피해자가 속출한 사례도 들여다볼 것으로 예상된다. &lt;세계일보 5월22일자 5면 기사 참조&gt;     국내 가상자산거래소도 자율 규제를 통해 가상자산 입법 공백을 최소화할 방침이다. 국내 5대 거래소가 모인 디지털자산거래소 공동협의체(닥사·DAXA) 김재진 부회장은 전날 금감원과 가진 간담회에서 “향후 가상자산 유형별 위험 지표 및 모니터링 방식을 마련하고 거래지원 종료 공통 가이드라인을 수립할 계획”이라고 밝혔다.     다만 해외거래소는 여전히 규제공백이라는 지적이 나온다. 해외거래소는 실명 은행계좌를 통해 거래가 이뤄지는 국내거래소와 달리 이메일 등 약식 인증만으로 이용할 수 있다. 사실상 과세당국의 규제 밖이어서, 자금 은닉이나 레퍼럴(추천제) 마케팅을 통한 투자자 유치 등 문제가 불거지고 있다. 미국의 경우 자국민의 해외 가상자산거래소 사용 자체를 규제하고 있다.     ◆대환대출 인프라 첫날, 474억원 이동     금융위원회는 금융결제원을 통해 확인한 결과 대출 비교 플랫폼 앱 출범 첫날인 5월31일 낮 12시30분까지 대환대출 인프라를 통해 금융회사 간  총 1819건의 대출 이동이 이뤄졌다고 밝혔다. 대출자산 이동 규모는 잠정적으로 약 474억원이다. 세부적으로는 은행에서 은행으로 이동한 대출이 건수 기준 95.7%, 이동 금액 기준 90.5%로 90%를 상회했다.      실제 대환대출 사례로는 A은행에서 연 9.9% 금리로 1500만원의 신용한도대출을 받던 차주가 B은행의 5.7% 금리로 갈아타거나, C저축은행의 연 15.2% 금리(일반 신용대출 8000만원)에서 D은행의 4.7% 금리로 이동한 경우 등이 있었다.      금융권의 온라인·원스톱 대환대출 플랫폼이 시행된 31일 오후 서울 시내에 설치된 시중은행들의 ATM기와 카카오페이 대출 비교 서비스 '대출 갈아타기' 화면 모습. 연합뉴스    이날 오전 9시부터 플랫폼 앱(네이버페이, 카카오페이, 토스 등)과 주요 금융회사 앱(NH농협은행, 신한은행, 우리은행. KB국민은행, 하나은행 등)에서 본격적으로 시행됐다. 대출 비교 플랫폼에서 기존 대출을 확인하고 각 금융사의 상품을 비교한 뒤, 유리한 조건의 대출 상품이 있다면 해당 금융사 앱으로 이동해 새로운 대출을 실행할 수 있다. 금융소비자는 53개 금융회사의 대출 상품 및 조건 비교가 가능하다.     대환대출 플랫폼에 참여하는 은행과 카드사 등 대부분 금융사는 가동 첫날 큰 문제 없이 대환대출이 이뤄졌다고 전했다. 다만 일부 플랫폼과 금융사를 연결하는 과정에서 오류가 발생하는 경우도 발생했다. 플랫폼 업계 관계자는 “대환대출 인프라 가동 첫날인 데다 월말이라 송금이 늘어난 점 등이 영향을 미친 것으로 보인다”고 말했다.      금융위는 “일부 금융회사의 경우 플랫폼을 통한 대출조건 조회에 대한 응답이 지연됐으나 각 금융회사가 플랫폼과 조율을 거쳐 시스템을 점차 안정화함에 따라 이러한 경우는 줄어들었다”고 전했다.      ◆4월까지 국세 수입 34조원 감소     기획재정부가 발표한 ‘2023년 4월 국세수입 현황’에 따르면 올해 1~4월 국세수입은 134조원으로 전년 동기보다 33조9000억원 감소했다. 4월 기준으로는 역대 최대폭 감소다. 올해 국세수입 예산(400조5000억원) 대비 실제 걷힌 국세 비율인 진도율은 33.5%에 그쳤다. 이는 2000년 이후 가장 낮은 수준으로, 최근 5년 진도율(37.8%)보다 4.3%포인트 낮다.     1~4월 기준 세목별로는 법인세에서 세수가 15조8000억원 줄었다. 작년 기업실적이 나빠진 데다 올해 들어와야 할 법인세 중 상당 부분이 지난해 8월 중간예납분으로 빠진 데 따른 것이다. 부동산 거래 감소 등에 따라 소득세도 8조9000억원 감소했다. 부가가치세 또한 2021년 하반기 세정지원에 따른 세수이연 기저효과 등에 따라 3조8000억원 줄었고, 유류세 한시 인하 등으로 교통세도 7000억원가량 덜 걷혔다.      사진=뉴스1    정부는 5월 이후 세수가 정상화할 것이란 입장이지만 연간 큰 폭의 세수 결손은 불가피할 전망이다. 5월 이후 연말까지 작년과 똑같은 수준의 세금을 걷는다 해도 올해 세수는 세입 예산(400조5000억원) 대비 38조5000억원 부족하다.     역대급 세수 결손 가능성이 커지고 있지만 정부는 추가경정예산안(추경) 편성에는 선을 긋고 있다. 현 상황에서 인위적으로 빚을 늘리는 건 추경 본연의 요건이나 건전재정 기조에 배치되고, 이미 편성된 사업의 지출을 줄이는 감액추경 역시 검토할 수준은 아니라는 게 정부 입장이다.     정부는 올해 세수를 재추계해 8월 말 혹은 9월 초에 발표할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[OK!제보] "싼 이자로 갈아타려다"…대환대출 사칭한 피싱 주의</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013994071?sid=102</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>온라인 대환대출은 7개 플랫폼, 35개 금융회사 앱에서만 가능(서울=연합뉴스) 김희선 기자 = 은행에 가지 않고 스마트폰 앱으로 신용대출을 갈아탈 수 있는 온라인·원스톱 대환대출 서비스가 지난달 31일부터 시작된 가운데 이를 사칭한 피싱도 기승을 부려 주의가 요망된다.    경북 경산시에 사는 60대 남성 A씨는 온라인 대환대출 서비스가 시작된다는 금융위원회 발표를 지난 1일 접하고 인터넷을 검색했다. 저축은행을 통해 받았던 2천만원가량의 신용대출을 좀 더 유리한 조건의 상품으로 갈아타기 위해서였다.    인터넷 검색창에 '대환대출'을 치니 '저금리, 3.5%, 대환대출' 등의 문구를 내세운 링크가 줄줄이 나왔고, 이 중 한 곳을 클릭하니 상담을 위해 핸드폰 번호를 입력하라는 창이 떴다.     핸드폰 번호를 남기자 1시간 30분쯤 지난 뒤 B 은행의 최모 대리라는 사람으로부터 전화가 왔다.     그는 신용정보 조회를 위해 모바일 신청서를 작성해야 한다며 카카오톡으로 압축파일을 보냈고, A씨는 그가 시키는 대로 파일을 내려받은 뒤 신청서에 직장, 연봉, 주소지, 주민등록번호 등 각종 인적 사항을 기재해 보냈다. 최모 대리라는 사람의 카톡에 가족사진과 해당 은행 명함까지 보여 별다른 의심은 하지 않았다고 한다.A씨와 보이스피싱범의 대화[제보자 제공]    하지만 잠시 뒤 A씨의 핸드폰이 제대로 작동되지 않았고, 최모 대리라는 사람은 전화를 받지 않았다. 무언가 이상하다고  느낀 A씨는 이날 자신의 주거래 은행에 전화해 계좌 지급정지를 시킨 뒤, 다음 날 아침 일찍 B은행 지점을 방문, 자신에게 연락한 최모 대리는 이 은행 직원이 아니라는 사실을 확인했다.    자신이 보이스피싱 당했다는 것을 알게 된 A씨는 경찰에 신고하고 핸드폰을 초기화하는 등의 조처를 했지만, 개인 정보 유출에 따른 피해를 보지는 않을까 노심초사하고 있다.    그는 "아직 금전적인 피해가 확인된 것은 없지만, 모르는 전화번호로 계속 전화가 와서 걱정된다"면서 "핸드폰에 저장되어 있던 주민등록증 등 내 개인정보를 빼내 대출을 시도하지 않을까 염려된다"고 했다.대환대출 서비스 이용이 가능한 앱[금융위원회 제공]     지난달 31일 시작된 온라인 대환대출 서비스는 네이버페이, 뱅크샐러드, 카카오페이, 토스, 핀다, KB국민카드, 웰컴저축은행 등 7개 회사의 대출 비교 플랫폼과 4대 시중은행을 비롯한 35개 금융회사의 앱에서만 이용할 수 있는 서비스다.     대출 비교 플랫폼에서 자신의 기존 대출을 확인하고 여러 금융회사의 대출 조건을 비교한 뒤 선택한 금융회사의 앱으로 이동해 대출을 갈아타는 방식이다.     금융위원회 관계자는 "대환대출은 소비자가 7개 플랫폼과 35개 금융회사 앱을 직접 내려받거나 금융회사 창구를 방문해 직원의 안내에 따라 할 수 있다"며 "전화나 SMS 등을 통해 대환대출을 권유하면서 특정 앱 혹은 압축파일을 내려받도록 하는 경우는 100% 피싱이라고 보면 된다"고 주의를 당부했다.     hisunny@yna.co.kr    기사 문의나 제보는 카카오톡 okjebo</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.06.01~2023.06.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.06.01~2023.06.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 국내 사업자 대상 페이팔 제공</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002718085?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ⓒ토스페이먼츠[데일리안 = 김효숙 기자] 토스의 페이테크 계열사 토스페이먼츠는 국내 사업자를 대상으로 글로벌 결제 수단 페이팔을 제공한다고 1일 밝혔다.토스페이먼츠는 국내 역직구 시장이 빠르게 성장함에 따라, 해외 고객을 대상으로 하는 사업자에게 쉽고 편리한 글로벌 결제 서비스를 제공하기 위해 페이팔을 선보이게 됐다고 설명했다. 페이팔은 글로벌 결제 수단 중 하나로, 해외 소비자가 국내 온라인 쇼핑몰을 이용할 때 세계 각국의 통화로 편리하게 결제할 수 있다.토스페이먼츠를 통해 페이팔을 도입한 사업자는 ▲계약·심사 ▲API연동 ▲운영·기술 문의 ▲정산 ▲고객 민원 처리 등 모든 서비스를 한국어로 이용할 수 있으며, 토스페이먼츠 고객센터를 통해 신속한 지원 서비스를 받을 수 있다.사업자의 효율적인 사업 운영을 위한 서비스도 제공된다. 토스페이먼츠는 사업자가 지정한 날짜에 맞춰, 페이팔 결제에 따른 판매 대금을 원화로 자동 정산한다. 또한, 거래 취소, 환불 요청 등 해외 소비자의 민원을 대응 및 관리할 수 있는 차지백 대시보드도 가맹점에 제공된다.페이팔 이용 신청은 토스페이먼츠 웹사이트를 통해 가능하며, 토스페이먼츠의 기존 가맹점은 간단한 계약 과정을 거쳐 자사몰 전자결제 서비스에 연동해 사용할 수 있다.김민표 토스페이먼츠 대표는 "토스페이먼츠는 국내 사업자가 해외 구매자 대상 판매 시, 언어장벽 등의 한계에 구애받지 않고 비즈니스에만 집중할 수 있도록 다양한 해외 결제 솔루션 출시할 계획"이라며 "가맹점과 소비자 모두에게 편리하고 안전한 결제 경험을 제공하기 위해 최선을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.06.04.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>‘불법 꼬리표’ 떼어낸 타다...위기에도 지속됐던 '모빌리티 혁신'</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000066018?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스‘불법 콜택시’ 논란 끝에 재판에 넘겨진 차량 호출 서비스 타다 전 경영진이 6월 1일 대법원으로 최종 무죄를 확정받았다. 2019년 10월 불구속 상태로 재판에 넘겨진 지 약 4년 만이다.2018년 10월 서비스를 시작한 타다 베이직은 스마트폰 애플리케이션으로 운전기사가 딸린 11인승 승합차를 빌려 이용하도록 하는 것이 핵심 모델이었다. VCNC가 쏘카에서 빌린 렌터카를 운전자와 함께 다시 고객에게 빌려주는 방식으로 운영했다.11인승 카니발을 이용하는 만큼 기존의 택시 서비스와 비교해 요금이 비쌌음에도 불구하고 타다 베이직은 출시와 함께 폭발적인 시장의 반응을 얻었다. 차량 내부가 넓다는 점과 특히 ‘승차 거부’가 없다는 점을 반기는 이들이 적지 않았다. 차량 내부에서 와이파이 등의 사용이 간편해 이동 중에 업무를 보기 좋다는 평가도 많았다. 운전사들은 승객에게 쓸데없는 말도 시키지 않았고 담배 냄새 대신 방향제 냄새가 났다. 타다 베이직 서비스는 출시 9개월 만에 가입자 100만 명을 넘어섰고 곧 170만 명에 다다랐다. 드라이버(운전사) 또한 1만2000명에 달했다. 타다는 한국의 대표적인 ‘모빌리티 혁신’ 서비스로 자리 잡았다.하지만 택시업계는 ‘불법 콜택시’라며 반발했고, 대규모 집회와 법 개정 움직임이 이어졌다. 검찰은 타다 베이직이 옛 여객자동차법상 금지되는 '불법 콜택시 영업'이라고 보고 2019년 10월 이 전 대표와 박 전 대표를 불구속기소 했다. 반면 타다 측은 '기사 알선을 포함한 자동차 대여'로 합법이라고 주장했다. 타다는 1·2심 법원으로부터 무죄를 선고받았다. 하지만 이후 국회를 통과한 일명 ‘타다 금지법’ 등으로 인해 오랫동안 ‘불법 택시’라는 오명을 벗어내는 데 어려움을 겪어왔다.‘타다의 혁신’이 멈춰 선 동안 국내 택시 업계 상황도 많은 부분이 변했다. 지난 3년여간 택시 업계는 ‘카카오 호출 서비스 독점 구조’가 공고해졌다. 택시 기사의 수입이 줄어들며, 상당수 택시회사는 경영난을 겪기도 했다. 전국택시운송사업조합연합회에 따르면, 2019년 말 10만2320명이었던 법인 택시 운전자는 2023년 3월 7만1066명까지 줄어들었다.문제는 그 부담이 고스란히 시민들에게 전가되고 있다는 점이다. 서울지는 지난 2월 택시 요금을 대폭 인상했다. 택시 요금이 대폭 폴랐음에도 여전히 시민들은 심야뿐 아니라 낮 시간에도 택시 서비스를 이용하기 힘든 상황이 이어지고 있다.오랜 시간 법정 공방으로 인해 멈춘 듯 보였던 ‘타다의 혁신’은 2022년 다시 시동을 걸었다. 택시 면허를 가진 드라이버가 운전하는 승합차 택시 ‘타다 넥스트’를 공식 출시하며 모빌리티 시장에서 새로운 시작을 알리는 신호탄을 쏘아 올렸다. 토스 운영사인 비바리퍼블리카에 지분 60%가 인수되며 실탄을 확보한 덕분에 가능했다. 국내 택시업계가 어려움을 겪으며 시민들의 불편이 커지는 상황에서 타다는 국내 모빌리티 시장의 변화를 위해 다양한 시도를 이어오고 있다. 지난 1년간 타다의 성장과 혁신을 짚어봤다.타다의 새출발 1년, 그 동안의 변화들2022년은 타다가 7인승 승합차 택시 ‘타다 넥스트’라는 신사업을 시작하며 공급량 확대와 이용자 유치에 막대한 투자를 진행했던 투자의 원년이었다. 시장에서 새로운 플레이어로 발돋움하기 위해 공격적인 투자가 이뤄졌는데, 대표적인 부문이 차량 공급량을 확대였다. 반도체 부족이라는 구조적 이슈로 차량 수급에 일부 차질을 겪기도 했으나, 타다 넥스트로만 1천 건이 넘는 계약을 성사시키는 등 호황을 누렸다. 이는 차량 공급량과 운행 효율을 대변하는 ETA(Estimated Time to Arrival)의 감소치만 봐도 알 수 있는데, 22년 1월 약 9분 수준이었던 타다 넥스트의 ETA는 1년 만에 5~6분 수준으로 절반 가까이 감소했다. 공격적인 공급 확대가 이용자의 편의를 개선하는 데 성과를 이뤘다고 볼 수 있는 대목이다.타다 넥스트 출시 직후 타다는 50% 할인, 토스페이를 연동한 첫 고객 대상 6천 원 페이백 이벤트 등 신규 이용자 유지와 기존 이용자 깨우기에 나섰다. 초반 적극적인 마케팅 활동의 결과물로 지난 한 해 동안만 70만 명의 신규 가입자를 유치했고, 현재 280만 명의 누적 가입자를 보유한 상태다. 이후부터는 충성고객 확보에 집중했다. 신규 이용자 유치를 위한 프로모션 비용은 꾸준히 줄이고, 드라이버 대상 금융 지원도 은행과 연계함으로써 자기자본 활용에 대한 부담을 낮추는 방식으로 운영 효율을 제고했다. GMV(총 거래액) 대비 마케팅비는 사업 초기보다 1/6 가까이 줄였고, 최근엔 이보다 저 절감했음에도 불구하고 해비 유저들의 이용 빈도를 꾸준히 유지되고 있기 때문에 전반적으로 매우 효율적으로 운영되고 있다고 게 타다 관계자의 설명이다.너무 오른 택시 요금, 타다 ‘여럿이 나눠내기’ 등 요금 부담 해소 이와 함께 택시 서비스를 이용하는 데 대한 소비자들의 부담을 해소하는 데도 공을 들이고 있다. 지난 2월, 서울 중형 택시 기본요금이 2,800원에서 4,800원으로 26% 오르고 기본거리도 2km에서 1.6km로 줄면서 소비자 부담이 가중됐다. 심야 및 야간 할증도 시간대가 확대되고, 할증률이 인상됨에 따라, 야간 기본요금만 시간대에 따라 약 1,200~1,400원이 올랐다. 시민들은 밤길 귀가를 서둘렀고, 되도록 대중교통을 이용하려는 움직임을 보이면서 2월 첫 주 버스 이용객만 23%가 증가했다.사실 타다 넥스트와 플러스에는 야간 할증도, 탄력호출료도 부과되지 않는다. 지자체에서 요금 정책을 관할하는 일반 중형 택시와 달리, 타다 넥스트나 플러스는 고급면허 기반의 고급택시라 요금을 플랫폼이 직접 신고하는 구조기 때문에 가능하다.이용자의 심리적 부담을 해소해 수요를 살리는 것이 중요하다고 판단한 타다는 서비스 이용 매력도를 높여 이용자 심리를 자극하는 방법을 택했다. 이를 위해 가장 먼저 도입한 것은 여럿이 타면 이동한 만큼 요금 나눠주는 ‘1/N 요금 보여주기’ 기능이다. 이제까지 택시는 여럿이 명확하게 정산하기 애매한 소비 영역이지만, ‘여럿이 타서 택시 요금 부담을 완화할 수 있다’는 아이디어를 동력으로 타다는 ‘N분의 1 요금 보여주기’를 도입했다.‘N분의 1 요금 보여주기’는 여러 명의 이용자가 타다의 ‘경유지 설정’ 기능을 이용해 이동한 경우, 하차 직후 각자 이동한 만큼에 비례한 요금을 보여주고 요금 정산 요청 메시지를 보낼 수 있는 기능이다. 실제 각 이용자가 이동한 만큼의 요금을 보여준다는 점에서 일반적인 나누기 방식보다 훨씬 합리적이고 정확하다.요금 내역은 경유지 2곳과 최종 목적지 1곳까지 최대 3건까지 분할 가능하며, 승합차 기반의 ‘타다 넥스트’부터 일반 중형 택시인 ‘타다 라이트’, 준고급 세단의 ‘타다 플러스’까지 전 라인업에서 실시간 호출 시 이용 가능하다. 요금 정산 요청 메시지는 문자 메시지 또는 카카오톡 같은 메신저 서비스를 통해 간편하게 보낼 수 있다.이와 함께 장거리 고객의 부담을 완화한 요금 체계를 마련하는 데도 공을 들였다. 타다 자체 데이터에 따르면, 심야 할증이 부과되는 밤 10시부터 새벽 4시 사이 탑승객 10명 중 6명은 강남역에서 이촌역보다 멀리 가는 8km 이상 장거리 이동객이다. 이중 강남에서 명동까지 거리에 해당하는 10km 이상 장거리 고객은 절반이 넘는다. 타다는 택시 수요를 살리려면 이들부터 잡아야 한다고 판단했고, 요금 체계를 변경해 장거리 고객 부담을 낮췄다.요금체계 개편의 핵심은 장거리 이용 요금 부담 완화와 넥스트 및 플러스 요금체계 통일로 간접적인 공급 확대로 크게 2가지였다. 특히, 기존 요금 체계가 시간과 거리 요금이 동시병산 되는 방식이었다면, 개편을 통해 8km 이상은 장거리로 분류하고, 이를 초과하는 지점부터는 시간 요금을 부과되지 않도록 했다. 대신, 드라이버의 운행 효율과 수익성을 고려해 기본 요금은 기존 4,000원에서 5,000원으로 조정함으로써 이용자와 드라이버 양측 니즈의 접점을 마련했다. 무엇보다, 이용자는 야간에는 서울 안에서 심야 할증 없이 멀리 갈수록 더 합리적인 요금으로 타다를 이용할 수 있게 됐다.타다를 이용하는 고객들의 승차감을 높이기 위한 ‘안전주행미션’도 수행 중이다. 타다는 ‘안전하고 편안한 탑승 경험’에 집착하는 기업이다. 차별화가 어려운 라이드헤일링 시장에서 가장 이용자에게 가장 크게 어필할 수 있는 포인트임과 노하우가 부족하면 완벽하게 구현하기 어려운 영역이 ‘탑승 경험’이기 때문이다. 드라이버가 스스로 운행 건 별, 전체 운행에 대한 급정거 및 급감속 통계를 모니터링할 수 리포트 앱 서비스 ‘주행연구소’에 이러한 기업의 모토가 잘 드러난다.‘주행연구소’ 서비스는 급가속급감속이 탑승 경험에 불만족한 고객 10명 중 9명이 선택한 불만 이유라는 것과 실제 택시 사고 중 가장 많은 사고 유형이라는 점에 착안해 이를 해결하기 위한 방법으로 개발됐다.결과는 성공적이었는데, 시간당 평균 25.9회 수준이었던 급정거 및 급감속 횟수를 9.4회까지 63% 낮추는 성과를 이뤘다. 서비스 출시 당시 목표로 했던 ‘35% 감소’보다 무려 28.5%p 더 개선된 수치다. 급정거는 기존 13.8회에서 5회로 63% 감소했고, 급감속은 12.1회에서 4.3회로 64% 감소했다. 드라이버 10명 중 6명은 운행 습관을 점검해주는 시스템에 대해 “만족스럽다”고 응답했다.야근 후 혹은 먼 출장길도 걱정 없이, ‘타다 비즈니스’ 등 B2B 사업 확장타다는 비가 오나 눈이 오나, 가격이 오르나 내리나 타다를 먼저 부르고 보는 ‘팬’ 유저층이 확고하게 자리잡고 있는 것이 기업의 경쟁력이자 차별점이라고 말한다. 최근 행보만 보더라도 타다가 팬 고객 확보에 주력하고 있다는 걸 알 수 있다. 대표적인 게 ‘타다 비즈니스’를 통한 B2B 사업의 확장이다.비즈니스 고객은 비교적 가격민감도가 낮고, 서비스 만족도가 높으면 한 번 유입돼 꾸준히 이용하는 경향이 있다 보니 관리자가 원하는 부분을 잘 긁어주는 시스템과 서비스가 중요한데, 최근 타다가 ‘타다 비즈니스’를 새로 출시하며 강조하고 있는 것이 바로 이 지점이다.‘타다 비즈니스’는 기업의 관리자가 어드민 사이트에서 계정 이용 방식을 기업 편의에 맞춰 간편하게 설정하고, 전체 이용 내역을 효율적으로 관리할 수 있다. 단순히 법인카드나 비즈니스 계정을 통한 택시 호출을 넘어서, 기업 맞춤형 솔루션을 제공한다는 게 특징이다. 라이드헤일링 운영사 중 기업 대상으로 B2B 관리 플랫폼을 제공하는 회사가 타다와 카카오모빌리티가 유일하다.둘 간에 차이점이 있다면, 타다는 관리자 전용 포털 사이트 이용을 무료로 제공한다는 점이다.타다 측은 ‘타다 비즈니스’가 택시를 임직원과 이를 관리하는 관리자 양측 모두에게 생산적이고 효과적인 솔루션이 될 수 있다고 말한다. 직원들은 출퇴근 시에 자차 운전이나 대중교통에 대한 스트레스를 크게 줄일 수 있고, 미팅이나 출장을 갈 때는 차량이 구비된 무료 와이파이와 충전케이블 등을 이용해 이동 중에도 업무 생산성을 높일 수 있기 때문에 직원들이 이동 복지 향상에 기여할 수 있다는 것이다. 여기에 야근처럼 이용 목적이 분명한 경우에는 특정 시간대만 이용할 수 있도록 일정을 지정하거나, 탑승 목적에 따라 출발지를 특정 위치로 고정하는 등 기업 측에서 관리에 필요한 서비스도 지원하는 것도 장점이다.타다의 시간 대절 서비스인 ‘시간 단위 빌리기’도 주목을 받고 있다. 최근에는 타다를 이용하는 고객들 또한 ‘확실하게 일정을 보장’해주는 호출 예약과 시간 대절 서비스에 대한 수요가 높아지는 추세다. 실제로 5월 초 황금 연휴 기간에만 타다 호출 예약을 통해 공항에 이동한 이용자가 최대 30% 이상 증가했다. 지난 4월에는 하나투어 ITC 측과 방한관광객 유치 활성화를 위해 MICE 산업이나 해외 관광객과 연계한 상품을 함께 개발하고 이동 서비스 지원을 약속하는 업무 협약도 체결한 바 있다.연말에 택시 잡기 힘들어지는 이유? 드라이버에 ‘무료 세무 컨설팅’ 제공타다 넥스트를 런칭하며 타다 이정행 대표는 ‘이용자와 드라이버 모두가 만족하는 모빌리티 플랫폼’으로 만들어 갈 것임을 강조했다. 특히 드라이버를 위한 서비스는 그간 경쟁사들이 외면해왔던 영역을 개선하는 것들이 대다수다. 한 사례로, 타다는 드라이버를 위한 세무 컨설팅을 제공했다. 시간과 노력을 들여 운행한 만큼, 그에 상응하는 수익을 가져갈 수 있도록 도와주기 위한 일이었다.개인택시의 경우, 연 매출 8000만 원을 초과하면 간이과세자에서 일반과세자로 전환되기 때문에 과세 부담을 피하고자 연말로 갈수록 운행 시간을 줄여 총매출을 조절하는 경우가 발생한다. 택시 수요가 늘어나는 연말에 고객들이 택시를 잡는 게 더 어려워지는 이유다.타다는 업계 최초로 일반과세 부담에 대한 문제를 해결하기 위해 무료로 세무 컨설팅을 지원하고 관련 드라이버 앱 기능을 출시했다. 연 1회 종합소득세 신고 대행 서비스 및 신고 비용 지원, 연 2회 부가세 신고 대행 서비스 및 신고 비용 지원 혜택도 제공했다.이 외에 드라이버 앱 전용 기능인 ‘매출 달성 미션’ 베타 서비스로 출시해 높은 성과를 얻고 있다. 매출 달성 미션은 매주 목표 매출을 달성할 때마다 일정 금액의 보상금을 지급하는 기능이다. 매주 미션을 달성한 드라이버에게는 최대 15만 원의 주간 보상금이 지급된다. 4주 연속 미션을 달성하면 매월 최대 60만 원을 받을 수 있고, 오는 연말(12월 31일)까지 연달아 미션을 달성하면 연내 최대 180만 원까지 받을 수 있다. 타다는 이 기능을 통해 연말로 갈수록 일반과세자 전환으로 인한 과세가 두려워 실 운행 시간을 줄일 수밖에 없었던 드라이버들의 고충을 해소할 수 있었다.최근에는 인제대 서울백병원과 함께 타다 드라이버 대상 의료서비스 혜택을 마련했다. 일종의 패스트트랙 창구를 만들어 하루 안에 외래 진료 접수부터 검진까지 받을 수 있는 파격적 혜택이다. 혜택은 직장인 혜택처럼 가족인 배우자와 자녀까지 포괄해 제공한다.이정행 타다 대표는 “과거 타다 ‘베이직’이 이동의 기본이 무엇인지를 보여주는 서비스였다면, 지금의 타다는 택시 시장 안에서 진짜 혁신을 이뤄내기 위해 그 어느때보다 묵묵하고 부단하게 달리고 있다”며 “제2의 타다는 현재 타다 그 자체이며, 혁신은 멈추지 않고 달리고 있다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>센스톤, 'OTAC Token V1.0'으로 '국제 공통평가기준(CC) 인증' 획득</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002151494?sid=103</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>일회성 다이내믹 고유식별 인증코드로 사용자 및 기기 간편 인증 제공차세대 인증 보안 선두주자인 센스톤(대표 유창훈)은 세계 최초의 단방향 다이내믹 인증 기술(OTAC) 기반의 간편인증 솔루션 'OTAC Token V1.0'이 국제 공통평가기준(CC) 인증을 획득했다고 밝혔다.이미 국내 금융권 및 공공기관은 물론, 해외 정부기관 등에 사용자 및 기기인증 솔루션을 공급해 온 센스톤은 이번 국제 CC인증 획득을 계기로 글로벌 인증 보안 시장에서 경쟁력을 더욱 확고히 할 수 있을 것으로 기대된다.CC인증은 ISO 15408 제품의 보안을 평가하도록 설계된 사양 및 지침의 국제표준으로, 우리나라를 비롯해 미국, 영국, 독일 등 전세계 주요 국가에서 IT 제품의 보안성, 안정성, 신뢰성 검증을 위한 기준으로 널리 사용된다. 매우 엄격하고 객관적인 심사과정을 거치는 만큼 정부 및 공공분야는 물론, 민간 분야에서도 전 세계적으로 가장 공신력 있는 IT 제품 보안 인증으로 꼽힌다.'OTAC Token V1.0'은 센스톤이 자체 개발한 OTAC(One-Time Authentication Code) 기술을 바탕으로 일회성 다이내믹 고유식별 인증코드를 통해 사용자 및 기기를 인증하는 단방향 다이내믹 토큰 인증 솔루션이다. 양방향 통신을 사용할 수 없는 환경, 통신환경이 열악하거나 인증 대상인 기기가 초경량화 되어 있는 환경, ID/패스워드를 사용하면서 수동으로 매번 패스워드를 바꾸기 어려운 IT/OT 환경에서 기존 PKI/FIDO 등의 기술이 극복하지 못하는 영역에서 그 활용도가 매우 높다.센스톤의 독보적인 인증보안 기술력은 국내외 다양한 산업에서 이미 충분히 검증된 바 있다. 토스뱅크, 카카오뱅크, 밀리패스, 인도네시아 조폐공사 전자수입인지 서비스 등 가장 민감한 인증 과정을 요구하는 금융, 국방, 공공 분야에 적용돼 사용 중이다. 최근에는 LS일렉트릭과 프로그래밍 제어장치(PLC)의 외부 위협 사전 차단을 위한 1차 개념검증(PoC)을 성공적으로 마치고, 글로벌 공통 취약점 해결을 위해 계속 협력해 나갈 방침이라고 밝힌 바 있다.유창훈 센스톤 대표이사는 “글로벌 시장에서 OTAC 기술의 알고리즘 검증 선행과 이후 시장에서의 검증을 거친 후에 국제CC인증을 진행할 수 있었기에 오랜 인내가 필요했고, 이번 국제 CC인증 획득으로 OTAC 기술의 보안성과 공신력을 동시에 확보한 만큼 글로벌 시장에서 진행 중인 사업화 논의에 큰 진전이 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>여기어때, ‘숙박 세일 페스타’서 독점 추가 할인 제공</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002294276?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>여기어때 독점 할인 붙이면 최대 7만2천원까지 할인여행·여가 플랫폼 여기어때(대표 정명훈)가 이달 말까지 숙박 할인 쿠폰을 제공하는 ‘대한민국 숙박 세일 페스타’에 최대 1만2천원까지 추가 할인을 제공한다고 2일 밝혔다.이 행사에서는 만 19세 이상이면 누구나 국내 숙소 3만원 할인 쿠폰을 받을 수 있다. 오는 30일까지 매일 오전 10시부터 선착순으로 발행한다.쿠폰은 ‘숙박 페스타’ 뱃지가 표시된 전국 모든 숙소에서 숙박 금액이 5만원 초과 시 적용 가능하다. 발급한 쿠폰은 다음날 오전 7시까지 유효하며, 사용하지 않으면 재발급 받을 수 있다. 숙소 체크인 기간은 다음달 14일까지로 여름 휴가철을 포함한다.여기어때여기어때는 결제 금액에 따라 최대 1만2천원까지 추가 할인을 받을 수 있는 더하기 쿠폰을 제공한다. 카카오페이, 토스 등 결제사별로 최대 1만원의 할인 기회도 있다. 또, 숙박 세일 페스타 쿠폰을 사용 후 체크아웃한 고객에게는 결제 금액의 최대 10%(최대 2만원)를 여기어때 포인트로 적립한다. 최대 7만2천원까지 숙박 비용을 아낄 수 있는 셈이다.임세빈 여기어때 마케팅총괄은 “국내 여행 활성화를 위해 숙박 쿠폰에 여기어때 전용 최대 할인을 덧붙인다”며 “여행을 결심할 수 있는 긍정적 분위기를 만들겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 대학생이 뽑은 일하고 싶은 금융기업 1위</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011914640?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이현주 기자 = 카카오뱅크가 2년 연속 대학생이 뽑은 일하고 싶은 금융기업 1위를 차지했다. HR테크 기업 인크루트는 15일 '2023 대학생이 뽑은 일하고 싶은 금융기업' 조사 결과를 공개했다. 이번 조사는 지난달 11~29일 금융권 취업에 관심이 있는 전국 대학생 838명 대상 온라인 설문 방식으로 진행했다. 조사대상 기업은 시중은행과 국책은행, 인터넷전문은행, 증권사, 핀테크 기업 등 44곳이다. 금융권 취업을 원하는 이들은 카카오뱅크(13.6%)를 가장 선호했다. 카카오뱅크는 2020년 1위, 2021년 2위, 2022년 1위에서 올해 다시 1위에 등극했다.카카오뱅크를 선택한 이유로는 ▲비즈니스 가치와 높은 성장 가능성(21.1%)이 가장 많았다. 카카오뱅크에 따르면 올해 1분기 기준 월간활성이용자수(MAU)는 1630만명으로 역대 최대치를 경신했다. 국내 인터넷전문은행 중 유일한 상장사라는 점도 응답자들의 선택에 영향을 끼쳤을 것으로 보인다.KB국민은행(12.6%)은 작년에 이어 올해도 2위에 올랐다. 선택 이유로는 ▲동종업계와 지역사회에서 선도하는 기업 이미지(31.1%)가 가장 많았으며, ▲만족스러운 급여와 보상제도(17.0%)가 뒤를 이었다. 토스(10.1%)는 지난해에 이어 올해도 3위를 기록했다. 토스를 꼽은 이유 중에는 ▲비즈니스 가치와 높은 성장 가능성 기대(24.7%)라는 답이 가장 많았다.4위는 NH농협은행(7.8%)으로, ▲동종업계와 지역사회에서 선도기업 이미지(29.2%) ▲만족스러운 급여와 보상제도(12.3%) 등을 선택 이유로 들었다.신한은행(7.5%)과 카카오페이(7.5%)는 나란히 5위를 차지했다. 7위는 우리은행(4.3%), 8위는 국책은행인 IBK기업은행(3.7%), 9위와 10위는 각각 한국투자증권(3.3%)과 삼성증권(3.1%)이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.06.03.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[금융가 인사이드] "카드론은 갈아탈 수 없나요?"…카드업계, 대환대출 '뭉그적'인 이유</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000338306?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>온라인에서 간편하게 더 낮은 금리의 대출로 갈아탈 수 있는 '대환대출 서비스'를 둘러싼 열기가 뜨겁습니다. 출시 이틀 만에 거래된 자산 규모만 1천억원을 돌파할 정도입니다.그런데 대출을 주요 수익원으로 삼는 여러 금융업종 가운데 카드사는 유독 이 서비스에 소극적인 모습입니다. 대부분의 카드사가 다른 금융사 플랫폼에서 자사 카드론을 갈아탈 수 없게 해놨습니다. 수익성 하락 압박을 받는 상황에서 자칫 다른 경쟁사로 대출 고객을 빼앗길 수 있다는 우려가 작용한 것으로 풀이됩니다.대환대출 서비스 금융 소비자 관심 '활활'…거래대금 1천억원 돌파대환대출 서비스는 지난달 31일 금융당국 주도로 각 금융회사들이 시행하고 있는 사업입니다. 휴대전화 등을 통해 온라인상에서 비교적 간단한 절차를 통해 바로 다른 금융사 대출로 갈아탈 수 있는 서비스입니다. 카카오페이나 토스와 같이 평소 사용하던 핀테크 플랫폼에서 이용이 가능해 접근성도 높습니다.실제로 금융 소비자들도 많이 이용하고 있습니다. 금융위원회에 따르면 지난 1일 누적 기준 대환대출 서비스를 통해 이동한 대출금은 총 1천55억원입니다. 서비스 개시 단 이틀 만에 1천억원을 넘긴 겁니다. 거래 건수도 3천887건으로 4천건에 육박했습니다.해당 서비스를 통해 실제로 금리가 기존보다 크게 낮아진 사례도 속속 등장하고 있습니다. 저축은행에서 연 이자율 14.8%짜리 신용대출 4천800만원을 받은 한 고객은 은행 대출 상품으로 갈아타면서 이자율이 6.5%까지 낮아졌습니다. 또 다른 고객은 저축은행에서 연 이자율이 거의 20%에 육박한 19.9%짜리 대출을 받았는데 대환대출 서비스를 통해 연 이자율 8.7%짜리 은행 대출로 갈아타기도 했습니다.금융권 관계자는 "고물가·고금리에 어려움을 호소하던 고객들로부터 문의가 많다"며 "당분간 대환대출에 대한 관심이 높을 것으로 보인다"고 말했습니다.'고객 이탈' 걱정에 눈치 보는 카드사…"취약 차주 위해 적극 참여해야"현재 대환대출 서비스에 참여하고 있는, 그러니까 자사 대출 고객이 다른 금융회사 대출로 갈아탈 수 있도록 지원하고 있는 금융사는 총 53곳입니다.은행이 5대 시중은행을 포함해 19곳이 참여하면서 가장 많습니다. 저축은행도 18곳이 참여하고 있으며 캐피탈사도 9곳이 참여하고 있습니다.카드사 역시 대환대출 서비스 자체에는 대부분 참여한 모습입니다. 국내 7개 전업카드사가 모두 대환대출 서비스 참여 명단에 이름을 올리고 있습니다. 언뜻 보면 카드업계도 대환대출 서비스에 적극적인 것처럼 보이지만 구체적으로 들어가 보면 실상은 조금 다릅니다. 대부분의 카드사들은 현재 다른 금융사 플랫폼에서 자사의 대출 상품을 갈아탈 수 있도록 만들지 않은 상태입니다. 자사 플랫폼에서만 다른 금융사 대출로 갈아탈 수 있는 정도입니다. 그만큼 고객입장에서 대환대출을 이용할 기회가 적은 셈입니다.실제로 대환대출이 가장 활발하게 일어나고 있는 핀테크 플랫폼에 입점한 카드사는 단 두 곳에 불과합니다. KB국민카드가 네이버페이에 입점해 있고 신한카드가 카카카오페이에 들어가 있습니다. 그 외 카드사 고객은 핀테크 플랫폼에서 카드론 등을 다른 대출로 갈아타기가 불가능합니다.카드사들이 이처럼 대환대출 서비스에 소극적인 이유는 단연 고객 이탈 우려 때문입니다. 가뜩이나 가맹점 수수료율이 잇따라 낮아지면서 카드사들은 카드론 등으로부터 받는 대출 이자가 수익 중에서 큰 비중을 차지합니다. 그런데 대환대출을 통해 고객이 빠져나가면 수익성에 부정적인 요소로 작용하게 되는 겁니다.특히 중·소형 카드사의 경우 대형 카드사보다 금리 조건을 불리하게 제공할 수밖에 없기 때문에 이 같은 우려가 더 클 수밖에 없습니다.한 카드사 관계자는 "신용점수 등을 고려하면 카드론을 이용하는 고객이 은행으로 빠져나가는 경우는 많지 않을 것"이라며 "그 대신 다른 카드사 또는 저축은행이나 캐피탈과 경쟁이 심화 수 있다"고 말했습니다.일각에서는 카드사들이 보다 적극적으로 참여해야 한다는 목소리도 나옵니다.핀테크 업계 관계자는 "자영업자 등 고금리 부담을 호소하는 사람 중에서는 카드론을 이용한 경우가 많다"며 "취약계층이 서비스 혜택을 더 보기 위해서는 카드사 참여도 필요하다"고 밝혔습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>김학도 이사장, 청년창업사관학교 현장 간담회</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002807154?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>김학도 중진공 이사장 등 참석자들이 15일  경기북부 청년창업사관학교에서 열린 현장 소통간담회에서 기념촬영을 하고 있다. [중진공 제공]    김학도(사진) 중소벤처기업진흥공단 이사장이 15일 오후 경기도 파주시에 위치한 경기북부 청년창업사관학교를 방문해 간담회를 열고 청년 창업가들의 애로사항과 정책 건의사항을 청취했다. 현장 간담회는 청년창업기업의 사업화 성공과 데스밸리(Death Valley) 극복 등 지원방안을 모색하기 위한 자리였다. 김 이사장과 더감 등 입교기업 10개사 대표가 참석했다. 김 이사장은 앞으로 전국에 위치한 청년창업사관학교를 찾아 현장의 생동감 있는 의견을 경청하며 소통 행보를 이어갈 예정이다. 전기차 에너지 리사이클 시스템을 사업화 중인 김진욱 더감 대표는 "전기차 전비 개선을 통해 국내 ESG 분야 대표 청년창업기업으로 성장하기 위해 노력 중"이라며 "청년창업사관학교가 축적한 지원 노하우를 바탕으로 청년창업기업이 유니콘기업으로 성장할 수 있도록 중진공이 앞장서 지원해 주길 바란다"고 말했다. 이에 김 이사장은 "스타트업이 겪고 있는 현장의 어려움과 창업에 대한 열정을 체감할 수 있었다"면서 "정책자금, 마케팅, R&amp;D, 투자 등 중진공의 정책역량을 집결해 청년창업가의 성공적인 사업화와 지속 성장을 이끌겠다"고 답했다. 중진공은 청년창업사관학교를 통해 혁신적인 아이디어를 지닌 청년 창업자를 발굴하고, 창업공간, 교육·코칭, 사업화 자금, 제품개발 등 창업 전 단계를 패키지 방식으로 지원하고 있다. 청년창업사관학교는 토스, 직방과 같은 유니콘 기업과 뱅크샐러드와 같은 예비유니콘 기업들도 다수 배출한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>판매관리 시스템 '토스 포스', 멀티 운영환경 지원</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005499678?sid=105</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>토스 프론트와 결합하면 키오스크처럼 사용 가능[이데일리 임유경 기자] 토스플레이스(대표 최지은)는 자사 오프라인 매장용 판매 관리 시스템 ‘토스 포스’가 멀티 운영 환경을 지원한다고 2일 밝혔다.토스 포스는 지난 3월 윈도 버전으로 첫 선을 보인 후 2개월 만에 안드로이드·iOS·맥PC에서도 쓸 수 있게 됐다. 토스플레이스 홈페이지를 통해 무료로 내려받을 수 있다.기존 판매 관리 시스템의 경우, 별도의 사용 교육이 필요했지만, 토스 포스는 직관적인 화면 구성과 설계로 간단한 사용 가이드만 참고해 바로 이용할 수 있다는 점이 특징이다. 또, 매장 점주는 매출 리포트를 통해 매장 매출, 상품별 판매 추이를 한눈에 볼 수 있고, 토스 앱과 연동해 외부에서도 실시간으로 매출 현황을 확인할 수 있다.토스플레이스 결제단말기인 ‘토스 프론트’와 함께 사용할 경우 ‘대면 주문 모드’와 ‘키오스크 모드’를 선택하고 전환할 수 있다. 매장 직원이 주문을 받을 때 사용할 수도 있고, 고객이 직접 주문하고 결제할 수 있는 키오스크로도 활용 가능한 것이다. 토스 프론트는 고화질 7인치 디스플레이를 탑재했으며 신용카드, 간편결제, 애플페이 등 대부분의 결제 수단을 지원한다.토스플레이스는 이번 ‘토스 포스’의 공개와 함께 ‘키오스크 기능’과 ‘포인트 적립 기능’의 무료 이벤트를 진행한다. 이달 말까지 토스 포스와 토스플레이스 결제단말기를 함께 설치하면 이 두 가지 기능을 평생 무료로 제공 받을 수 있다. 특히 ‘포인트 적립’의 경우 지난해 말 진행한 시범테스트 기간동안 약 75% 수준의 적립율을 나타내 고객이 매장을 다시 찾게 하는 효과적인 마케팅 수단이 될 수 있다고 토스플레이스는 분석했다.토스플레이스 관계자는 “정식 서비스를 시작한 지 3개월여만에 모든 운영체제와 다양한 디바이스 환경에 맞는 포스를 제공할 수 있게 됐다”며 “활용도 높은 결제 단말기와 혁신적인 판매 관리 시스템을 제공하며 오프라인 결제 환경의 변화를 이끌고 나갈 것”이라 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.06.09.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>카뱅·토스와 손잡고 토큰증권사업 진출</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000743665?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>한국투자증권한국투자증권(사장 정일문)이 카카오뱅크ㆍ토스뱅크 등과 손잡고 결성한 ‘한국투자 ST 프렌즈’는 금융기관이 중심이 되어 결성한 토큰증권 협의체로 그 의미가 남다르다. 전례 없던 새로운 시장이 열리는 만큼 은행업계 핀테크를 이끌어온 카카오뱅크ㆍ토스뱅크와 한국 자본시장을 선도해 온 한국투자증권이 힘을 합쳐 토큰증권 생태계 구축에 강력한 시너지를 낼 것으로 기대를 모은다.한국투자증권은 지난달 토큰증권 협의체 한국투자 ST 프렌즈를 결성하면서 토큰증권 사업 진출을 공식화했다. 협의체에는 인터넷은행 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범 운영 파트너로 참여하고, 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 합류했다. 지난 2월 금융위원회는 디지털금융 혁신의 일환으로 STO(Security Token Offering, 토큰증권 발행) 관련 가이드라인을 제시하면서 자본시장법 규율 내에서 분산원장기술을 활용한 증권 발행 및 유통을 허용하겠다고 밝혔다. 이에 한국투자 ST 프렌즈는 증권 발행을 위한 플랫폼 개발을 최우선 과제로 선정하고 이달부터 기초 인프라 구축에 돌입, 연내 플랫폼 구축을 완료한다는 계획이다. 분산원장 기술을 활용하면 기존 조각투자업체가 제공 중인 상품은 물론, 투자 접근성이 낮은 자산도 손쉽게 상품화해 증권, 은행 등 각종 채널을 통해 투자할 수 있게 된다. 최근에는 문화 콘텐츠 투자 플랫폼 ‘펀더풀’과 토큰증권 상품 개발을 위한 업무협약도 체결했다. 영화ㆍ드라마 등의 문화 콘텐츠 투자에 특화된 ‘펀더풀’과 ▦토큰증권형 투자상품 개발 ▦투자계약증권의 토큰증권화 ▦플랫폼 내 관련 투자상품 탑재를 위한 인프라 구축 등에서 적극 협력키로 했다.  한국투자증권은 그동안 다양한 형태의 디지털금융 서비스를 성공적으로 시장에 안착시킨 경험을 갖고 있다. 지난 2020년 최초의 비대면 금융상품권인 ‘온라인 금융상품권’을 출시해 금융시장에 반향을 불러왔고, AI를 이용한 인공지능리서치 AIR 서비스를 선보였다. 이듬해에는 해외주식 소수점거래 서비스 ‘미니스탁’을 오픈해 2030세대 고객들의 해외주식 투자 입문을 돕는 등 디지털 기술을 활용한 혁신적인 고객 서비스 제공에 힘을 기울이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>타다, 무죄 확정…상처만 남긴 3년 7개월 재판 [김진성의 판례 읽기]</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000066216?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>이재웅 전 대표 등 경영진 무죄“혁신은 죄가 없다”[법알못 판례 읽기]타다 택시가 도로를 달리고 있다. 사진=연합뉴스모빌리티 플랫폼 ‘타다’의 무면허 택시 영업 행위 혐의가 대법원에서 무죄를 최종 확정받았다. 대법원은 “타다의 사업은 기존에 허용된 자동차 대여 서비스”라고 판단했다.3년 7개월여간 법정 공방 끝에 무죄가 입증됐지만 타다는 ‘상처뿐인 승리’만 거머쥐었다는 평가다. 재판 기간 동안 ‘타다금지법(여객자동차운수사업법 개정안)’이 시행돼 기존 사업 대부분을 할 수 없게 돼서다.벤처업계에선 “기득권 집단과 충돌한 혁신 기업이 ‘제때’ 보호받지 못하면 생존 위기에 직면한다는 것을 보여주는 사례”라는 쓴소리가 줄을 잇고 있다.  “타다는 합법 자동차 대여 서비스”대법원 3부(주심 오석준 대법관)는 2023년 6월 1일 여객자동차운수사업법 위반 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 타다 운영사였던 VCNC의 박재욱 전 대표에게 무죄를 선고한 원심 판결을 확정했다. 대법원은 “타다의 사업은 기존에 허용된 운전자 알선을 포함한 자동차 대여 서비스”라고 결론 내렸다.타다 운영사인 VCNC는 2018년 10월 스마트폰 애플리케이션(앱)으로 운전사와 11인승 승합차를 빌려 이용하는 차량 호출 서비스(타다 베이직)를 내놓았다.VCNC가 당시 모회사였던 공유 모빌리티 플랫폼 쏘카에서 빌린 렌터카를 운전자와 함께 소비자에게 빌려주는 방식으로 사업을 펼쳐 나갔다. 일반 택시 요금보다 20% 정도 비싼 가격에도 불구하고 승차 거부가 없고 배차 속도가 빠르다는 장점이 입소문을 타면서 혁신적인 모빌리티 플랫폼으로 주목받았다.타다는 서비스 출시 9개월 만에 이용자가 100만 명을 넘어설 정도로 가파른 성장세를 탔다. 하지만 얼마 못 가 택시업계의 거센 반발을 마주하게 됐다.서울개인택시조합 전·현직 간부는 2019년 2월 “타다 서비스는 불법 콜택시 영업”이라고 주장하며 타다 측을 서울중앙지방검찰청에 고발했다. 검찰은 타다가 면허 없이 여객 자동차 운송 사업을 했다고 판단해 2019년 10월 이 전 대표와 박 전 대표 등을 기소했다. 사업 시작 1년 만에 범죄 여부를 다투는 처지가 됐다.법원은 연이어 타다 측의 손을 들어줬다. 1심과 2심 재판부는 타다의 이용 약관을 근거로 타다 서비스가 여객자동차 운송 사업이 아니라 운전자 알선을 포함한 자동차 대여(렌터카 서비스)에 해당한다고 판단했다.재판부는 “타다는 노상에서 승차를 요청하는 불특정인의 요구에 즉흥적으로 응하지 못하기 때문에 유상 여객 운송업이라고 볼 수 없다”고 했다. 대법원도 이 같은 원심 판결이 정당하다고 보고 무죄를 확정했다.이 전 대표는 이날 판결 직후 “혁신은 죄가 없음이 최종 확인됐다”며 “혁신을 만들어 내는 기업가를 저주하고 기소하고 법을 바꿔 혁신을 막고 기득권의 이익을 지키는 일은 이번이 마지막이어야 한다”고 소회를 밝혔다.  이미 사업 길 막혀…1만 명 이상 실직법원에서 무죄를 인정받았지만 타다 베이직이 부활하긴 어려울 것으로 보인다. 2020년 3월 타다금지법이 국회 본회의를 통과해 국내에선 ‘초단기 승합차 렌트’ 사업 모델을 더 이상 구현할 수 없게 돼서다.타다금지법은 ‘관광 목적으로 11~15인승 승합차를 빌리되 6시간 이상 사용하거나 대여·반납 장소가 공항이나 항만일 때’만 사업자가 운전자를 알선할 수 있다고 규정했다.대여한 승합차에 운전자를 알선하는 사업을 전부 금지하지는 않았지만 타다 베이직처럼 일정 지역을 비교적 짧은 시간에 이동하는 사업 모델의 법적 근거는 사실상 사라졌다는 평가다.VCNC는 타다금지법에 대한 헌법소원을 청구했지만 헌법재판소는 이듬해 합헌 판정을 내렸다. 김태주 법무법인 광장 변호사는 “재판이 진행되는 동안 모빌리티 분야에선 스타트업들이 다양한 혁신을 시도할 기회를 놓쳤다”고 지적했다.타다 베이직은 결국 2020년 4월 서비스를 중단했다. 타다 드라이버 1만2000명도 함께 일자리를 잃었다. 타다는 같은 해 10월 대리 운전 중개 서비스 ‘타다 대리’와 가맹 택시 서비스 ‘타다 라이트’를 출시하며 사업 방향을 틀었지만 성과를 거두지 못했다. 그러다가 테크핀 업체 토스를 운영하는 비바리퍼블리카가 쏘카에서 VCNC의 지분 60%를 인수해 새 주인이 됐다.정부 규제로 핵심 사업을 잃어버린 타다는 궁여지책으로 법에서 허용된 영역 안에서 재기를 위해 분투하고 있다. 2022년 승합차 택시 호출 서비스 ‘타다 넥스트’를 출시해 고급·대형 택시 시장을 집중 공략하고 있다. 최근엔 택시 호출 서비스 시장 지배자인 카카오모빌리티에 맞서기 위해 택시 중개 플랫폼인 아이엠(IM)택시와 합병을 추진 중이다.벤처기업협회는 대법원 판결에 대해 “기술 발달로 앞서가는 혁신 서비스를 법이 좇아가지 못해 기득권 세력과 충돌할 때 전통적 사고방식에 기반한 판단이 혁신 산업에 얼마나 큰 악영향을 미치는지 보여주는 대표 사례로 남을 것”이라고 평가했다.[돋보기]  ‘제2 타다 사태’ 언제든 나올 수도타다가 3년 7개월여간의 법정 공방 끝에 무죄를 인정받았지만 혁신 플랫폼과 기득권 간 갈등은 여전히 산업 곳곳에서 이어지고 있다. 법률·의료·세무 등 각 전문 영역에서 새로운 서비스를 내놓은 스타트업들은 해당 직역·이익 단체들의 조직적 반발에 부딪쳐 성장 시기를 놓치고 있다.법률 플랫폼 ‘로톡’을 운영하는 로앤컴퍼니는 공정거래위원회가 대한변호사협회에 내린 시정 명령이 5월 30일 정지된 뒤 고뇌의 나날을 보내고 있다.공정위는 변호사들의 로톡 이용(광고 게재)을 막은 대한변호사협회와 서울지방변호사회에 과징금을 부과했는데 이 단체들이 “처분을 취소해 달라”며 낸 집행 정지 신청이 인용된 것이다. 로앤컴퍼니는 변호사협회들이 징계 권한을 앞세워 변호사 개개인의 로톡 이용을 저지하려는 움직임에 힘을 보태주지 않을까 우려하고 있다.김본환 로앤컴퍼니 대표는 “직역 단체들의 과도한 권한 때문에 ‘제2 타다 사태’의 뇌관이 도처에 존재한다”며 “기득권 공격에서 보호받지 못하는 스타트업이 어디다 고통을 호소해야 할지 방향조차 잃은 상황”이라고 토로했다.재진 환자를 중심으로 시작된 비대면 진료 시범 사업을 두고도 스타트업 대 의사협회 간 다툼이 한창이다. 현행법상 비대면 진료는 불법이지만 코로나19 확산 기간에 한시적으로 허용되면서 닥터나우·굿닥 등 여러 관련 스타트업이 몸집을 키웠다.이들 기업은 비대면 초진 진료도 허용해 달라고 목소리를 높이고 있다. 이에 대해 대한의사협회는 “오진, 약물 남용 가능성이 높다”며 반대 방침을 유지하고 있다. 한 스타트업 관계자는 “원칙적으로 비대면 초진이 금지되면서 관련 스타트업들은 말 그대로 존폐 기로에 섰다”고 말했다.최근 상장 예비 심사 신청을 준비 중인 세무 스타트업 자비스앤빌런즈(‘삼쩜삼’ 운영사)도 규제와 세무업계 분쟁이란 ‘이중고’에 처해 있다.한국세무사회는 “스타트업이 세무 업무 처리를 위해 개인 정보를 수집할 권한이 없다”며 이 회사를 상대로 고소‧고발을 한 상태다. 하지만 현행 세무사법과 개인정보보호법에는 스타트업이 관련 업무를 할 수 있느냐 여부 자체에 대한 정의가 없다.부동산업계에선 직방과 한국공인중개사협회가 기싸움을 이어 가고 있다. 공인중개사협회는 법정 단체화를 통한 공인중개사 징계권 확보뿐만 아니라 부동산 중개 매물 플랫폼을 자체적으로 만드는 방안까지 준비 중이다.김진성 한국경제 기자 jskim1028@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[씨줄날줄] 대환대출 전쟁/박현갑 논설위원</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003365437?sid=110</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>자본주의 사회에서 은행 대출 없이 살 수 있다면 부자일 것이다. 서민들은 금융회사의 대출 서비스를 이용하지 않을 수 없다. 낯선 사람 앞에서 옷을 벗는 양 근로소득원천징수영수증, 정규직 여부 등 자신의 담보 능력이나 신용을 평가할 서류를 들고 이 은행, 저 은행 찾아다니며 돈을 빌려야 한다. 이런 사람들이 이용 중인 은행권의 가계대출 잔액이 지난 1분기 말 현재 890조원이다. 주택담보대출이 642조원이고 신용대출 및 마이너스대출 등이 248조원이다.정부가 이런 대출자들의 금리 부담을 덜기 위해 대환대출 서비스를 시작했다. 지금처럼 은행을 방문하지 않고 스마트폰으로 기존의 신용대출을 더 낮은 금리 조건으로 갈아탈 수 있는 서비스다. 토스 같은 대출 비교 플랫폼과 시중은행 등 금융회사 앱을 이용하면 된다. 갈아탈 수 있는 대출은 일반은행, 저축은행, 카드사, 캐피털사 등 53개 금융회사에서 빌린 10억원 이하의 직장인 대출, 마이너스통장 등 보증, 담보 없는 신용대출이다. 은행 영업시간인 오전 9시부터 오후 4시까지 이용 가능하다. 업계에서는 연간 100조원으로 추산되는 신용대출 가운데 10조원 정도가 대환대출이 될 것으로 내다보고 있다.갈아타기로 아낄 수 있는 이자와 기존 대출을 갚을 때 내는 중도상환수수료 등을 따져 신규 대출이 유리하다면 바꾸면 된다. 스마트폰 이용에 익숙하지 않다면 은행의 영업점을 방문해 신청하면 된다.서비스 개시 첫날 기존 대출자들이 몰리면서 카카오페이 등에서는 로딩 지연 현상까지 생길 정도로 반응이 뜨거웠다. 토스에는 대환대출 사전신청 2주 만에 30만명 이상 몰렸다. 핀다도 서비스 시작 열흘 전부터 일평균 4000여명이 사전신청을 했을 정도로 인기였다.하지만 불만족스럽다는 반응도 적지 않다. 기존 대출 조건보다 더 높은 금리를 제시해 이용할 수가 없고, 조회 과정에서 자신의 개인정보만 노출됐다는 불만 등이다. 대환대출 한도 확대 등 보완 조치가 필요해 보인다. 연말쯤 주택담보대출도 대환대출이 되도록 한다고 한다. 경기 활성화로 가계소득을 늘리는 게 근본 대책이겠으나 이자라도 더 낮출 수 있다면 생활공감형 정책으로 평가받을 수 있을 듯하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>"대한항공도 합류" 워크데이, 기업 업무·DX혁신 이끈다</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005021417?sid=105</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>7월부터 인사시스템 적용키로AI·머신러닝 탑재로 정확도 향상기업용 플랫폼시장 공략 박차 폴 헤니건 워크데이 APJ 총괄사장이 1일 서울 강남구 조선 팰리스 서울 강남에서 열린 기자간담회에서 발표하고 있다. 워크데이 제공 기업용 인사 및 재무관리를 위한 클라우드 기반의 애플리케이션(앱) 서비스를 제공하는 워크데이가 대한항공을 고객사에 합류시키면서 국내 기업용 플랫폼 시장 공략에 박차를 가한다.   1일 업계에 따르면 대한항공은 오는 7월부터 인사 시스템에 워크데이의 플랫폼을 탑재한다. 보다 효율적이고 일관된 데이터를 기반으로 인사 시스템을 개선하기 위해서다. 이로써 워크데이는 토스 비바리퍼블리카, 한화솔루션, 무신사 등에 더해 고객사를 항공사인 대한항공까지 넓히게 됐다.   폴 헤니건 워크데이 아태·일본 총괄사장은 이날 서울 강남구 조선 팰리스 서울 강남에서 열린 기자간담회에서 "아태 지역 안에서도 한국과 일본은 선도적 글로벌 기업이 많은 중요한, 대표적인 시장이다"며 "인공지능(AI)과 머신러닝(ML)이 코어에 내장된 워크데이 플랫폼은 고객의 가장 중요한 자산인 인력과 자금을 관리하는, 고객을 위한 지능형 백본을 실행한다"고 설명했다.   워크데이 플랫폼은 6000만 사용자에게 6000억 건 이상의 처리 과정을 제공하고 있다. 여기에 AI와 ML을 기반으로 더 빠르고 정확하면서도 고객맞춤형 솔루션을 제공 중이라고 강조했다. 헤니건 사장은 "워크데이 스킬 클라우드(Workday Skills Cloud)를 통해 직원들이 어떤 역량을 갖고 있고, 어떤 스킬을 확보하고 있는지 기업에 알려주고 있다"며 "이력서, 교육·프로젝트 이력, 업무능력 등에 대한 큰 그림을 제시할 수 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>토스뱅크 체크카드, 국내외 전 가맹점서 혜택 ‘모든결제형’ 캐시백 진행</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002306980?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>5월 31일부터 전 가맹점 혜택 원하는 고객 ‘모든결제형’ 캐시백 혜택 선택 가능 토스뱅크 체크카드 기존 혜택 ‘브랜드형’ 캐시백 형태로 기존과 동일한 혜택 제공토스뱅크 “프로모션 통해 토스뱅크 체크카드가 고객 소비생활에 유용하게 활용되기를 기대” ◆…토스뱅크가 국내외 전 가맹점에서 혜택을 받을 수 있는 토스뱅크 체크카드 \'모든결제형\' 캐시백 프로모션을 진행 중이다. 이미지=토스뱅크 제공토스뱅크가 국내외 전 가맹점에서 혜택을 받을 수 있는 토스뱅크 체크카드 '모든결제형' 캐시백 프로모션을 진행 중이라고 2일 밝혔다.   이번 프로모션 적용을 원하는 고객은 '모든결제형' 캐시백을 선택해서 혜택을 받을 수 있으며 기존 토스뱅크 체크카드 혜택을 그대로 유지하기를 원하는 고객은 '브랜드형' 캐시백을 선택해서 혜택을 누리면 된다.   토스뱅크 체크카드 고객이라면 누구나 매일 1회(월 최대 5회)에 한해 '모든결제형' 또는 '브랜드형' 캐시백 혜택 중에서 자유롭게 선택해서 변경할 수 있다.   고객은 본인의 소비패턴에 맞춰서 자유롭게 선택 가능하며, 변경을 완료한 캐시백 혜택은 다음날 반영된다. 단 한장의 카드상품임에도 캐시백 혜택을 어떻게 선택하느냐에 따라 서로 다른 혜택을 누릴 수 있다는 점에서 의미가 있다.   '모든결제형' 캐시백을 선택한 고객은 국내외 전 가맹점에서 매번 결제할 때마다 즉시 캐시백 혜택을 받을 수 있다. 건당 5000원 이상 결제건에 대해 100원 즉시 캐시백 혜택이 제공되며 5000원 미만 결제건은 1% 즉시 캐시백이 지급된다. 캐시백 한도에 대한 제한은 별도로 없어 쓰면 쓸수록 더 많은 금액을 돌려 받을 수 있다.   '브랜드형' 캐시백은 토스뱅크 체크카드의 기존 혜택과 동일하다. 총 8개 영역(커피전문점, 편의점, 패스트푸드, 영화, 디저트, 택시, 대중교통, 구독 서비스)에서 특화된 혜택을 누릴 수 있다. 하루 1번씩 영역별 건당 1만원 이상 결제건에 대해 500원, 건당 1만원 미만 결제건은 100원 즉시 캐시백 혜택이 제공된다.   기존부터 제공돼오던 ATM 현금인출 수수료 면제 혜택은 '모든결제형'과 '브랜드형'에도 공통으로 적용된다. 국내ATM 수수료는 전면 면제 혜택이 제공되며 해외ATM의 경우 인출수수료(건당 $3)에 한해서 면제 혜택을 받을 수 있다.   캐시백 혜택 변경은 신규 및 기존 카드 보유 관계없이 토스뱅크 체크카드 고객이라면 누구나 변경할 수 있다. 혜택 변경은 토스뱅크 서비스 내에서 '체크카드 &gt; 설정 &gt; 카드 혜택 바꾸기'를 통해 손 쉽게 변경 가능하다. 이번에 새로 도입한 '모든결제형' 캐시백 프로모션은 올해 8월 말까지 진행될 예정이다.   토스뱅크 관계자는 "지출이 많아지는 여름 휴가 시즌을 맞아 고객 선택권 확대 차원에서 준비한 프로모션"이라며 "토스뱅크 체크카드가 고객의 소비생활에 유용하게 활용될 수 있기를 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>“데이터 늘리고 부가혜택 강화” 통신3사 청년요금제 출시</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003227556?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>SKT제공국내 이동통신 3사가 청년을 위한 5세대(G) 요금제를 잇달아 출시한다. 정부의 가계 통신비 부담 완화 기조로 통신사들이 올해 3월 내놓은 5G 중간요금제 신설의 후속 조치로, 같은 값으로 최대 2배 많은 데이터를 제공한다. 또 ‘0원 요금제’로 청년세대에게 인기몰이를 하는 알뜰폰 공세에 맞서 온라인 동영상 서비스(OTT) 할인 등의 다양한 부가혜택도 선보인다.SK텔레콤은 지난 1일 가장 먼저 ‘0 청년요금제’를 내놨다. 통신 3사 중 유일하게 30대(만 34세 이하)도 가입이 가능하다. 이 요금제는 데이터 제공량을 기존 5G 일반 요금제 대비 20%~50% 더 확대한 것이 주요 골자다. 이에 따른 데이터 최대 추가 제공량은 50GB다.로밍 요금은 반값에 이용할 수 있다. SKT 로밍요금제인 ‘바로 요금제’에 가입하면 별도 신청 없이 50％ 할인이 적용된다. 횟수 제한은 없고 바로 요금제 이용 시 상시 할인받을 수 있다고 회사는 설명했다. 투썸플레이스 등 커피 프랜차이즈 8곳에선 매달 커피 50％ 할인쿠폰을, 롯데시네마에선 영화 관람권 50％ 할인 혜택을 월 1회 쓸 수 있다.KT는 2일 만 29세 이하 청년을 대상으로 기본 데이터를 2배 제공하는 정책을 내놨다. 작년 2월 20대 특화 혜택으로 선보인 ‘Y덤 혜택’(요금제에 따라 스마트기기 공유데이터를 2배 제공하고 스마트기기 1회선 이용 요금을 할인받는 무료 서비스)을 더 강화했다.Y덤 혜택은 20대 고객이 해당 요금제에 신규 가입할 때 자동 적용된다. 현재 KT를 쓰고 있는 20대 고객들도 자동으로 혜택이 제공돼 별도 신청 등의 번거로운 절차 없이 고객 편의를 극대화했다.아울러 오는 8월31일까지 티빙 OTT 구독을 신청하면 티빙 베이직 기준 구독료 50% 할인이 연말까지 적용된다. 같은 기간 지메일과 구글 드라이브, 구글 포토의 추가 클라우드 저장 공간을 제공하는 ‘구글 원 100GB’ 1개월 제공 행사도 한다.LG유플러스는 오는 7월 29세 이하 청년을 상대로 요금제를 출시한다. 기존 요금제 대비 최대 60GB의 데이터를 추가로 제공할 예정이다. 커피 쿠폰과 음악 스트리밍 등의 무료 서비스를 매월 한 가지 선택할 수 있는 혜택도 준비 중이다.통신사가 청년세대에 공을 들이는 것은 더 나은 혜택을 찾아 알뜰폰 등으로 요금제를 바꾸는 2030의 특성을 감안한 것이다. 시장 트렌드 분석 업체 컨슈머인사이트가 지난해 12월 발표한 설문조사를 보면 2030이 알뜰폰 이용자 중 49%에 달해 핵심 고객층으로 자리 잡았다. 알뜰폰이 과거 ‘효도폰’ 이미지와 달리 합리적 가격대와 통신 품질로 ‘가심비’를 중시하는 청년세대에게 각광받는 서비스로 자리 잡고 있다는 평가가 나온다.특히 KB국민은행과 토스, 카카오 등 통신사 못지않은 인지도와 신뢰도를 가진 타 업종 기업들이 알뜰폰 시장에 진출하며 청년층의 선호도가 높아지고 있다. 업계에 따르면 올해 2월 기준 KB국민은행의 알뜰폰 리브엠 이용자의 60%가 20·30세대로 파악된다.KT제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>일본이 왕복 8만원...제주항공 ‘찜 특가’ 항공권 할인 이벤트</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000082652?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>국내선 6월 20일, 국제선 21일부터 판매항공권 10월 29일부터 내년 3월 30일까지 탑승 (제주항공 제공)제주항공이 항공권 할인 행사인 ‘찜(JJIM) 특가’를 6월 20일 오전 10시부터 27일 오후 5시까지 진행한다.‘찜(JJIM) 특가’ 항공권은 10월 29일부터 내년 3월 30일까지 탑승할 수 있으며 국내선은 20일, 국제선은 21일부터 판매한다.유류할증료와 공항이용료 등을 모두 포함한 편도 총액을 기준으로 국내선은 1만6800원부터, 국제선은 ▲일본 3만9400원 ▲대만 5만1800원 ▲동남아 6만7600원 ▲대양주 9만4300원부터 판매한다. 자세한 내용은 제주항공 홈페이지(www.jejuair.net)에서 확인할 수 있다.‘찜(JJiM) 특가 항공권’은 무료로 맡기는 수하물이 없이 기내로 하나의 휴대품(3면 합계 115㎝ 이내, 무게 10㎏ 이하)만 들고 갈 수 있다. 수하물을 맡기려면 항공권 예매 후 ‘사전 수하물 구매 서비스’를 이용하면 된다.모바일 애플리케이션(앱)으로 항공권을 구매할 경우 회원 등급에 따라 국제선 왕복 최대 10만원, 최대 10%의 할인 코드를 제공한다. 신규 회원 가입자는 국내선 7%, 국제선 5%의 중복 할인도 받을 수 있다. 카카오페이 또는 토스로 결제할 경우 결제 금액에 따라 최대 2만원의 중복 할인을 제공하는 결제 혜택도 제공한다.여행객이 직접 참여할 수 있는 온라인 이벤트도 준비했다. 제주항공 홈페이지의 이벤트 페이지를 친구, 가족에게 공유하면 1회당 100포인트의 리프레시 포인트를 1인 최대 7회까지 제공한다. 또 제주항공 공식 인스타그램(@jejuair_official)에 게시된 찜 특가 관련 포스트에 댓글을 달고 응모한 고객을 추첨해 국제선 왕복항공권, 잔망루피 기획상품 등을 제공한다.제주항공 관계자는 “정규항공권에 비해 운임이 낮은 대신에 수하물 무료 위탁 서비스가 포함돼 있지 않은 만큼 자신의 여행 계획을 확정한 후 일정에 맞게 항공권을 예매하는 게 효율적”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>“더 빌려 드릴게요”...신용대출 전쟁, 서막 올랐다</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002153034?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>토스뱅크, 한도 2.7억→3억 증액KB국민, 3.5억까지 비대면 대출대환대출 플랫폼 맞서 고객 확보신용대출 전쟁의 서막이 열렸다. 앱에서 클릭 몇번으로 15분만에 대출을 갈아탈 수 있는 ‘온라인·원스톱 대환대출 서비스’ 출시를 계기로 금융사들의 대출확보 경쟁이 치열해지고 있다. 최근 대출 금리 인하와 맞물리며 고객확보에 나선 금융사들은 대출한도를 늘린 상태다.7일 금융권에 따르면 토스뱅크는 지난달 말부터 신용대출 한도를 2억7000만원에서 3억원으로 늘렸다. 시중은행들이 전문직론의 경우 3억~5억원 안팎으로 대출 한도를 보유 중인 상황에서 대출 시장 경쟁력 확보를 위해서는 한도를 추가로 늘려야한다는 판단에서다. 인터넷전문은행인 케이뱅크, 카카오뱅크도 이미 신용대출 한도를 3억원으로 확보한 상태다.토스뱅크 관계자는 “최근 다른 은행들이 한도를 증액한 상품을 내놓는 등 여신 시장 경쟁이 치열해지면서 고객 확보를 위해 이에 따른 대응을 한 것”이라고 말했다. 지난 1분기 기준 토스뱅크 고객수는 607만명으로 전년 동기 251만명에 비해 약 2.5배가 늘었다. 여신잔액도 9조3000억원으로 10조원대를 목전에 뒀다.대출 영업에 공격적으로 나선 건 토스뱅크뿐만이 아니다. KB국민은행은 기존보다 한도를 5000만원 늘린 ‘KB 온국민 신용대출’을 최근 출시했다.KB 온국민 신용대출은 최대 한도가 3억5000만원으로 증빙소득이 발생하는 직장인 누구나 신청할 수 있는 비대면 전용 신용대출로 일반 직장인들을 대상으로 한 ‘KB 직장인든든 신용대출’ 등에 비하면 한도가 5000만원 많다.이밖에 우리은행은 대환대출 서비스 고객에게 0.5%포인트 우대금리를 주고, 자체 앱에서 신용대출을 갈아타면 중도상환수수료와 인지세 등 1인당 대출 거래비용을 최대 10만원까지 지원한다. 신한은행도 ‘신용대출 갈아타기’를 통해 다른 금융사의 신용대출 보유 여부를 조회한 고객들에게 경품 외에 갈아타기를 마친 고객들 일부를 추첨해 첫달 대출이자를 포인트로 돌려준다.최근 은행들이 공격적으로 대출영업 확대에 나선 건 대출이동이 보다 간편해진 데다 대출금리가 낮아지면서 관련 수요가 늘어날 것으로 보고 있기 때문이다. 지난해 6%대까지 솟구쳤던 신용대출 금리는 현재 5%대로 내려온 상태다.여기에 정부는 신용대출을 비대면으로 갈아탈 수 있는 ‘온라인·원스톱 대환대출 인프라’ 서비스를 지난달 내놨다. 집계 결과 시스템 개통 후 사흘간 1541억 원, 하루 평균 500억원 이상 대출이 옮겨간 것으로 분석됐다. 은행들이 대출한도 확대 외에도 대환대출 서비스 고객들에게 각종 우대금리와 혜택을 제공하는 것도 이 연장선상에 있다.대환대출 시장 규모가 연 10조원 안팍으로 추산되는 만큼 발빠르게 고객확보를 나서려는 것으로 풀이된다. 6월부터 자체 앱을 통해 대환대출 서비스를 제공하는 금융사가 늘어나고, 12월에는 주택담보대출시장까지 대환대출 플랫폼이 열릴 전망이다.은행권 관계자는 “최근 부동산 시장 반등뿐 아니라 금리가 고점을 찍고 낮아지면서 대출 시장이 늘어날 것으로 본다”며 “대환대출 플랫폼 출시를 계기로 기업대출에 방점이 찍혀있던 여신 확대 전략도 개인쪽으로 옮겨갈 것”이라고 말했다. 서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>인터넷은행 충당금 두 배 '껑충'…비용 부담 '숙제'</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002721374?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1분기 추가 적립만 2천억 육박실적 '걸림돌'…돌파구 '고심'인터넷전문은행 이미지. ⓒ연합뉴스[데일리안 = 김효숙 기자] 인터넷전문은행이 앞으로 생길 손실에 대비해 올해 들어 새로 쌓은 대손충당금이 1년 전보다 두 배 가까이 늘어난 것으로 나타났다. 중저신용 신용대출을 확대한 가운데, 상환 여력이 부족해진 차주들이 많아지면서 건전성 지표가 악화했기 때문이다.중저신용 비중을 꾸준히 늘려야하는 인터넷은행업계에서는 과도한 충당금 부담이 새로운 비용 부담을 안길 수 있다는 우려도 나온다.14일 금융권에 따르면 카카오뱅크·케이뱅크·토스뱅크가 올해 1분기에 추가 적립한 대손충당금은 1871억원으로 전년 동기 대비 138.6%(1087억원) 증가했다.대손충당금은 기업이 회수가 불가능할 것으로 예상하는 채권 규모를 추정, 손실에 대비하고자 쌓아 둔 적립금이다. 은행 입장에서는 고객에게 빌려준 돈 중 받기 힘들 것으로 예상되는 만큼을 대손충당금으로 구분해 둔다.인터넷은행의 대손충당금 적립액은 많게는 전년 동기 대비 3배까지 늘어난 것으로 나타났다. 은행별로 보면, 토스뱅크가 1분기에 쌓은 대손충당금이 760억원으로 같은 기간 224.8% 늘었다. 케이뱅크는 200.5%(401억원) 늘어난 601억원을 대손충당금으로 확보했고, 카카오뱅크가 적립한 대손충당금은 510억원으로 45.7%(160억원) 불었다.대손충당금, 지급보증충당금 등을 비롯해 이들 은행이 적립한 올해 1분기 충당금전입액은 1936억원으로 141.4%(1134억원) 증가했다.인터넷은행들이 올해 더 많은 충당금을 쌓은 이유는 건전성 지표가 악화하고 있어서다. 금융당국과 약속한 목표치를 달성하기 위해 중저신용 대출 공급을 늘린 반면, 금리상승기 취약차주들의 상환 능력은 떨어지면서 연체율이 급등하고 있다.토스뱅크의 올해 3월 말 기준 고정이하여신(NPL)비율은 1.04%로 전년 동기 대비 1.00%포인트(p) 치솟았다. 케이뱅크 NPL비율은 0.94%로 0.30%p, 카카오뱅크의 NPL비율은 0.43%로 0.18%p 올랐다. NPL비율은은 연체가 3개월 넘은 부실채권 비율을 뜻한다.연체율의 경우 토스뱅크가 1.32%로 1.28%p 올랐다. 케이뱅크는 같은 기간 0.48%에서 0.82%로, 카카오뱅크는 0.26%에서 0.58%로 상승했다.이렇게 늘린 대손충당금은 비용 부담을 키워 실적의 걸림돌이 되고 있다. 대손충당금은 회계처리를 할 때 비용으로 분류하기 때문에 은행의 이익 지표에 영향을 끼친다. 대손충당금이 늘어날수록 비용이 커지고, 이익 지표가 나빠지는 구조다.케이뱅크의 1분기 충당금적립전이익은 723억원으로 전년 동기 대비 250억원 늘었지만, 충당금을 빼고 난 당기순이익은 104억원으로 같은 기간 오히려 141억원 줄었다. 토스뱅크 역시 충당금적립전이익은 492억원으로 흑자전환했지만, 충당금을 뺀 당기순손실은 280억원으로 적자지속했다.특히 올해도 지난해보다 높은 중저신용자 대출 비중 목표를 달성해야하는 인터넷은행 입장으로서는 비용 부담에 대한 우려가 커지고 있다.인터넷은행 관계자는 "올해 중저신용 대출 비중을 늘리면서 연체율은 올라가고 충당금은 자연스럽게 늘어날 수 밖에 없다"며 "대신 리스크가 적은 담보 대출 비중을 높이는 방향으로 건전성, 비용 지표들을 관리하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>친전 돌려 호소한 윤관석…검찰 반응은?</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/449/0000250791?sid=115</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>■ 방송 : 채널A 뉴스A 라이브 (12시~13시 20분)■ 방송일 : 2023년 6월 2일 (금요일)■ 진행 : 이용환 앵커■ 출연 : 김연주 전 국민의힘 상근부대변인, 김유정 전 민주당 의원, 박원석 전 정의당 의원, 송국건 정치평론가[이용환 앵커]검찰이 또 수사를, 속도를 내고 있는 부분이 또 하나 있죠. 더불어민주당의 이른바 2021년 5월 전당대회 돈봉투 의혹에 대한 건입니다. 먼저 윤관석, 이성만 이 두 명의 의원에 대해서 구속영장이 청구가 되어 있는 상태인데. 두 명의 목소리가 준비되어 있습니다. 이어서 들어보시죠. 그런데 윤관석, 이성만 이 두 명의 이제 영장이 청구된 의원들이 최근에 민주당 의원들한테 서한을 보내고 있답니다. 이제 체포동의안 표결 날짜가 오늘이 6월 2일이니까 딱 열흘 앞으로 다가왔네요. 6월 12일 표결이 있거든요. 그런데 윤관석 의원은 이렇게 주장을 했습니다. 아니, 돈을 준 사람과 중간에 이것 돈을 토스하고 이렇게 중계한 사람과, 돈을 주고받는 목적. 이런 것 제대로 적시하지 않은 ‘4無 영장’이다.이렇게 주장을 했는데 어제 검찰 관계자가 윤관석 의원의 저 주장에 대해서 조목조목 반박을 했습니다. 윤 의원님. 영장 한번 제대로 보시죠. 돈 전달, 제공받은 사람이 나와 있고요. 동기와 상황까지 자세히 설명되어 있지 않습니까? 영장을 보고 말씀하시는지 모르겠습니다. 이렇게 검찰 관계자가 반박을 했습니다. 여론조사 하나 볼까요? 말 나온 김에. 이성만, 윤관석 의원에 대한 체포동의안 표결이 열흘 후, 6월 12일 진행이 된다고 말씀을 드렸는데. 국민 의견은 지금 보시는 바와 같습니다. ‘가결되어야 합니다. 그래서 저 두 명의 의원이 판사 앞에 가서 영장실질심사를 받아야 합니다.’라는 의견이 과반을 넘었어요. 54.1%. 부결, 28.1%. 26%p 넘게 가결되어야 한다는 의견이 많게 나온 것이죠. 역시 김유정 의원님께 질문을 드리겠는데요. 김 의원님께서는 6월 12일 표결 때 저 두 명의 의원에 대해서 체포동의안 가결시키는 것이 맞습니까, 부결시키는 것이 맞습니까? 어떻습니까?[김유정 전 민주당 의원]이번에는 정말 예측하기가 더 어려운 것 같습니다. (이번에 예측이 어려워요?) 네. 왜냐하면 지금 10~20명의 의원들이 거론되고 있고, 또 심지어는 상대 캠프, 이런 이야기까지도 지금 나오고 있는 마당이기 때문에. 의원들이 이것이, 만약 그런 것들이 다 사실이라면 얼마만큼 이것이 확대가 될지 지금 알 수 없는 상황이거든요. 그러니까 아마 겉으로 드러내놓고 이야기는 못 해도 속앓이를 하고 있는 의원들이 실제로 많을 수도 있다는 생각이 들기 때문에. 그런 지금 작금의 의원들의 상황이 과연 이것을 부결로 갈 것인가, 아니면 가결로 갈 것인가. 어떻게 영향을 미칠지에 대해서는 정말 예단하기가 어렵다. 이런 생각이 더 들고요.그리고 영장은 하나일 텐데 검찰 이야기와 윤관석 의원 이야기가 이렇게 다른 모습을 보니까 정말 저도 영장을 한번 봤으면 좋겠다. 그런 생각이 우선 들고요. 처음에 이 돈봉투 문제가 불거졌을 때 당의 입장은 ‘검찰의 기획 수사 아니냐.’ 이러면서 이제 검찰을 질타하는 모습들이 많았는데. 수일 내로 이제 그 부분에 대한 입장을 정리를 하고, 이것은 ‘검찰이 정치적인 고려 빼고 신속 공정하게 빨리 수사해 달라.’ 이렇게 이제 입장을 표명하지 않았습니까? 그러고 나서 이제 송영길 전 대표도 탈당했고 이렇게 했는데. 그런데 지금 이 두 분 의원이 검찰의 이것은 기획 수사라고 이야기를 해버리면, 당의 그동안의 입장은 무엇이 되는지 저로서 정말 개인적으로 이해하기가 어려운 부분이에요.그러니까 이 윤관석, 이성만 이 두 분 의원은 굉장히 본인들이 억울함을 지금 토로는 하고 있습니다만. 당에서 검찰의 기획 수사라는 부분을 단정하지 않았잖아요. 그것도 그런 입장을 철회를 한 마당인데 이제 와서 기획 수사라고 하면 저는 본인들이 탈당 안 하고 당을, 당에서 이 부분을 푸는 것이 맞았다고 생각하는데. 탈당하고 나서 이런 이야기를 하니까 오히려 그렇다고 해서 민주당과 이분들을 분리해서 국민들이 바라보지 않으시잖아요. 그런 점에서 당에 여전히 지금 그 어려움을 주는, 그런 입장. 곤궁에 처하게 만드는 그런 원인 제공자들인데. 저렇게 이야기하니까 갈수록 이 상황이 어려워지고 있다. 이렇게 생각합니다.--------------------------------------------* 위 텍스트는 실제 토크 내용의 일부분입니다. 전체 토크 내용은 동영상으로 확인하시기 바랍니다.* 정리=도혜원 인턴</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>'오은영'·경제 유튜버 '슈카'·가수 '션' 줄줄이 서울시 찾은 이유는</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004898909?sid=102</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2021년 4·7 보궐선거 당선 오세훈 서울시장 '미래서울 아침특강' 50회 실시오은영 정신건강의학과 전문의(박사)와 이승건 비바리퍼블리카(토스) 대표, 방송인(경제 유튜버) 슈카 등의 공통점이 있다. 모두 서울시의 '미래서울 아침특강(이하 아침특강)'의 강사라는 점이다.이와 관련해 시는 공무원을 대상으로 시정 핵심가치와 미래도시 서울비전에 대한 공감대 형성을 위해 진행해온 '아침특강'이 최근 50회를 기록했다고 13일 밝혔다. 아침특강은 2021년 4·7 보궐선거에서 당선된 오세훈 서울시장이 같은 해 5월 닻을 올린 프로그램이다.그동안 '아침특강' 강사로 나선 명사들은 최신 트렌드와 4차 산업혁명, 경제·경영, 인문·사회, 국제정세, 도시계획 등 다양한 주제의 전문가들로 일일이 열거하기도 힘들다.삼성의료원 CEO(최고경영자)를 지낸 윤순봉 전 삼성경제연구소 고문, 인구학자 조영태 서울대 보건대학원 교수, 건축가 유현준 홍익대 건축도시대학 교수, 물리학자 김상욱 경희대 물리학과 교수, '지선아 사랑해'의 이지선 이화여대 사회복지학과 교수, 가수 션, 김현정 동양화·한국화 화가 등 기업인과 교수, 문화계 인사 등 분야도 다양하다.4차 산업혁명 관련 전문가들 역시 여럿이었다. 빅데이터 전문가 송길영 바이브컴퍼니 부사장, NFT(대체 불가능한 토큰) 사업 전략가 정지훈 모두의연구소 최고비전책임자, 배순민 KT AI2XL 연구소장, 백상엽 전 카카오엔터프라이즈 대표 등이 대표적이다. 서울이 전국에서 합계출산율(0.59명)이 가장 낮은 가운데 오 박사와 슈카, 전영수한양대학교 국제학대학원 교수 등은 시의 저출산 및 인구변화에 대해 강의했다.슈카는 "저출산 문제를 해결하기 위해서는 청년이 결혼하고 아이를 낳을 수 있는 환경을 조성하는 것이 중요하다"면서 "20대 부모의 부담을 덜어주고, 둘째에 대한 파격적인 정책이 필요하다"고 강조했다. 그의 특강을 들은 한 직원은 "저출산 문제에 대해 공감했다"며 "양육자가 더 행복한 세상이 됐으면 한다"고 전했다.시 관계자는 "올해 3월부터는 참석 대상을 전 부서 과장까지 확대하고 희망 직원들의 참여를 적극 유도하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>판 커지는 자동차금융 시장…'금리경쟁'도 부르릉</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006866847?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>자동차 카드 할부 금리 5%대로 하락…핀테크·인뱅까지 가세ⓒ News1 DB(서울=뉴스1) 한유주 기자 = 지난 연말 7%대까지 치솟았던 카드사 자동차할부 금리가 시장금리 하락으로 5%대까지 내려오며 금리경쟁에 다시 불이 붙고 있다. 여기에 핀테크는 대출비교서비스로, 인터넷은행은 오토론 출시로 발을 디디면서 자동차금융 시장의 판이 커지는 모양새다. 15일 여신금융협회에 따르면 지난 13일 기준 신한·삼성·국민·하나·우리카드 등 주요 5개 카드사의 자동차 할부(현대자동차 디올뉴그랜저·현금 구매비율 30%·36개월 대출) 최저 금리는 연 5.4~6.9%로 집계됐다. 지난 연말 연 7%대까지 올랐던 금리대가 다소 안정을 찾은 것은 시장금리가 내려간 영향이 크다. 금융투자협회에 따르면 전날 여전채 AA+ 3년물 금리는 4.147%로 집계됐다. 지난 연말 6%대까지 올랐던 조달금리는 지난달 3%대까지 내려갔다가 현재 4%대에 머물고 있다. 카드사 자금조달 창구인 여전채 금리가 안정세를 찾기 시작하며 자동차할부 시장도 금리경쟁에 시동을 건 것이다.금리안정세와 더불어 타업권의 참전으로 자동차구입자금대출(오토론), 카드할부 등으로 요약되는 자동차금융 시장은 다시 열기를 찾고 있다. 비교적 경기를 타지 않는 시장이라 새로운 수익구조를 찾는 금융사들이 잇따라 진출하고 있다.특히 눈에 띄는 행보는 핀테크 업권에서 보이고 있다. 토스와 카카오페이는 신차 카드 할부 결제 비교 서비스 출시를 계획하고 있다. 자동차금융은 딜러의 영향력이 큰 정보비대칭이 존재하는 시장으로 여겨져 왔는데, 모바일에서 사용자가 가장 좋은 조건을 비교하고 선택할 기회가 열렸다는 평가다. 아울러 케이뱅크는 인터넷은행 최초로 다음달 자동차 대환대출 상품을 출시할 예정이다. 연말까지는 자동차 구입자금 대출로 시장을 확대한다. 자동차금융은 전통적으로 캐피탈사가 주도했던 시장이지만 카드사에 이어 은행들까지 낮은 금리를 앞세워 추격하고 있다. 두 업권의 중간지대에 있는 인터넷은행 케이뱅크는 낮은 금리로 2금융권 소비자들을 1금융권으로 끌어들인다는 구상이다. 금융권 관계자는 "조달금리가 떨어지고 있고 자동차금융은 비교적 안정적인 내구재 시장이라 새로운 먹거리를 찾는 금융사들이 몰려들고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.06.12.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>5년간 은행 신용대출자 105만명 늘었다</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002720695?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>20·40대 가장 많이 늘어은행별로는 국민銀 최다5대 은행 간판. ⓒ연합뉴스[데일리안 = 고정삼 기자] 국내 은행의 가계 신용대출자가 지난 5년간 105만여명 늘어난 것으로 나타났다. 대부분의 은행이 중저신용자는 외면하면서 고신용자를 대상으로 신용대출을 내줘 손쉽게 '이자 장사'를 하고 있다는 지적이 나온다.12일 금융감독원이 윤창현 국민의힘 의원실에 제출한 자료에 따르면 KB국민·신한·하나·우리은행 등 5대 은행과 케이뱅크·카카오뱅크·토스뱅크 등 3대 인터넷전문은행의 지난해 말 가계 신용대출자 수는 615만1000명으로 2018년 말(510만명) 대비 105만1000명 늘었다.이 기간 모든 연령층에서 가계 신용대출자가 늘어난 가운데 20대와 40대가 가장 많이 증가했다. 20대는 지난 2018년 말 34만3000명에서 지난해 말 59만2000명으로 24만9000명 늘었다. 40대의 경우 158만9000명에서 189만4000명으로 30만5000명 급증했다. 30대는 16만8000명 증가했으며, 50대와 60대 이상도 각각 19만1000명과 13만7000명 늘었다.은행별로 살펴보면 지난해 말 국민은행의 가계 신용대출자가 129만6000명으로 가장 많았다. 이어 ▲카카오뱅크(93만7000명) ▲NH농협은행(80만3000명) ▲신한은행(79만6000명) ▲하나은행(78만5000명) ▲우리은행(67만3000명) ▲케이뱅크(48만3000명) ▲토스뱅크(27만8000명) 등의 순으로 뒤를 이었다.지난해 말 가계 신용대출 잔액은 145조6467억원으로 2018년 말 110조6087억원보다 35조380억원 늘었다.40대의 가계 신용대출 잔액이 지난해 말 52조8064억원으로 2018년 말 39조1481억원보다 13조6583억원이 늘어 연령대별로는 가장 많이 증가했다. 또 50대 가계 신용대출 잔액이 9조9832억원, 30대가 6조8340억원, 60대가 2조8557억원, 20대가 1조7069억원 증가했다.은행별로 살펴보면 국민은행이 지난해 말 가계 신용대출 잔액 32조9210억원으로 최다였다. 이어 ▲신한은행(26조6049억원) ▲우리은행(19조8425억원) ▲농협은행(19조3180억원) ▲하나은행(18조7634억원) ▲카카오뱅크(12조7627억원) ▲케이뱅크(8조2718억원) ▲토스뱅크(7조1624억원) 등의 순으로 집계됐다.문제는 이들 은행의 가계 신용대출 형태가 대부분 고신용자 위주라는 점이다. 이에 손쉽게 이자 장사를 하고 있어 중저신용자에 대한 배려가 적다는 지적이 나온다. 실제 지난해 말 가계 신용대출자 615만1000명 중 448만1000명이 신용평점 850점 이상 고신용자였으며, 가계 신용대출 잔액 145조6467억원 가운데 117조1535억원을 이들이 빌렸다.윤창현 의원은 "최근 시중은행들의 달라지는 영업 관행에 대해서는 긍정적으로 평가한다"면서도 "고소득자와 자산가 등 최고 신용등급 위주의 영업에서 벗어나 중신용자에 대한 문턱을 낮추는 등 국민경제에 대한 의무를 다하는 노력이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>아이엠택시, 타다 인수전서 빠진다… M&amp;A 협상 ‘안갯속’</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001616341?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>타다 인스타그램아이엠택시가 타다 인수전에서 이탈했다. 인수·합병(M&amp;A) 협상은 안갯속으로 빠져들고 있다. 후보는 스윙, 포티투닷, 우티로 좁혀졌다. 하지만 남은 세 회사도 인수설을 부정하거나, 인수가 여의치 않은 상황에 처한 것으로 알려진다. 이에 따라 토스의 타다 매각이 차질을 빚는다는 진단이 나오고 있다.15일 업계에 따르면 아이엠택시(운영사 진모빌리티)는 타다 인수 협상에서 완전히 발을 뺐다. 신생 사모펀드(PEF)인 오션프론트가 맡았던 투자금 1000억원 유치에 차질이 생긴 것이 결정적인 이유였다고 전해진다. 아이엠택시의 외부 자금 조달은 거래의 전제조건이었다. 타다 관계자는 “아이엠택시는 (타다 인수 협상에서) 정리된 것이 맞다”고 확인했다.후보군에는 스윙(운영사 더스윙), 포티투닷(현대자동차그룹의 자율주행 회사), 우티(우버와 티맵모빌리티의 합작사)가 남게 됐다. 시장에서는 스윙이 유력한 후보라고 본다. 다만 스윙도 아이엠택시와 비슷한 자금조달 문제를 안고 있다. 스윙은 지난 3월 타다 인수전에 뛰어들면서, 인수 후 직영차량을 늘리겠다는 사업 계획을 제시했다. 이를 실현하려면 최대 500억원의 투자금을 유치해야 한다는 게 시장의 판단이다.스윙 관계자는 “우리는 3년 연속 흑자를 내고 있는 기업이다. 유동 현금도 약 200억원을 보유하고 있다. 자금조달은 큰 문제가 아니다. 다만 웃돈을 주면서까지 제값보다 비싸게 타다를 살 이유는 없다”고 말했다. 이 관계자는 “타다의 모회사인 토스와 여러 현안을 놓고 일상적으로 소통하고 있다. 하지만 타다 인수와 관련해 그 무엇도 확정한 게 없다”고 강조했다.스윙은 타다의 사업 영역인 ‘프리미엄 밴’에 진출하는 걸 염두에 두고 있다. 스윙 측은 “최근 이륜 모빌리티인 오토바이 사업 진출을 마무리했다. 이제 사륜으로 갈 단계라고 보고 프리미엄 밴, 차량 공유, 대리운전 등 시장 진출을 알아보고 있다”고 설명했다.포티투닷, 우티의 타다 인수 가능성은 스윙보다 낮은 편이다. 송창현 포티투닷 대표는 지난 7일 “(타다 인수설은) 말들이 많이 나오고 있지만, (사실이) 아니라고 보면 된다”고 못을 박았다. 협상에 정통한 업계 관계자는 “포티투닷이 공식적으로 타다 인수 의사를 밝혔던 건 분명한 사실”이라고 전했다. 인수 의사가 있었지만, 현재는 발을 뺐다는 것이다.우티는 주주 간 의견 차이로 인수 추진동력이 약하다. 티맵모빌리티(우티 지분 49% 보유)는 타다 인수를 원한다. 반면 우버(지분 51% 보유)는 반대하는 것으로 알려졌다.시장에서는 잠재적 인수자로 떠올랐던 기업들이 공개적으로 철수하거나 인수설을 부인하면서 토스의 타다 매각은 어려워지고 있다고 분석한다. 업계 관계자는 “토스와 타다 쪽에서 원활한 매각이 어렵다고 판단하고, 자꾸 협상 관련 정보를 흘린다는 의심의 시선도 있다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>‘34조원’ STO시장 진출한다···‘은행 연합군’ 북적(종합)</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005509416?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>[이데일리 유은실 기자] 국내 은행들이 연합군을 형성해 토큰증권발행(STO·Security Token Offerings) 시장에 진출한다. 기존 참여자인 농협은행을 비롯한 수협·전북은행에 이어 기업·신한·우리은행 3곳도 컨소시엄 참여를 확정했다. NH농협은행은 지난 4월 농협은행을 주축으로 결성한 ‘은행권 STO 컨소시엄’에 기업은행·신한은행·우리은행 3개 은행과 조각투자 사업자 등이 추가로 참여를 결정했다고 15일 밝혔다.(사진=연합뉴스)◇STO시장, 2030년 367조원 규모로 성장토큰 증권(ST·Security Token)은 분산원장 기술을 활용해 자본시장법상 증권을 디지털화하는 것을 말한다. 최근 금융당국이 이 토큰 증권의 발행과 유통을 허용(STO)하면서 부동산이나 미술품, 음악저작권 등을 자산으로 하는 가상자산이 제도권 안에서 발행·통되는 길이 열렸다. 실물 기초자산이 없는 가상화폐 발행과는 또 다른 개념인데, 그동안 조각투자로 불리기도 했다. 음악저작권에 공동투자하는 뮤직카우가 대표적으로 금융위원회의 샌드박스에 지정돼 있다. STO시장은 내년 34조원 규모로 급성장할 것으로 업계는 보고 있다. 하나금융경영연구소는 국내 토큰증권시장이 2024년 34조원, 2030년 367조원까지 성장할 것으로 내다봤다. 여기에 정부가 STO 전면 허용 방침을 밝히면서 제도권 입성을 앞둔 만큼, 국내 금융사들의 시장 진출 속도에도 가속이 붙을 전망이다. 현재 금융당국은 금융규제 샌드박스를 통해 제한적 조건을 부과해 조각투자 증권의 발행, 유통 겸영 가능성을 테스트하고 있다.국내 토큰 증권 시장의 정식 출범은 2024년 말 혹은 2025년이 될 것으로 예상된다. 금융당국은 올해 자본시장법과 전자증권법 개정안을 제출해 2024년 법 개정 완료를 목표로 하고 있다. 다만 시행령 개정에 소요되는 시간을 고려하면 정식 제도 운영은 빨라도 내년 말에 가능할 것으로 보인다.금융업계 관계자는 “올해 상반기로 예고됐던 법률 개정안 제출이 조금 늦어지면서 법 개정과 제도 운영 시점도 밀릴 것으로 생각하고 있다”며 “현재 관련 시장과 법률 개정 추진 상황 등을 모니터링하고 있다”고 말했다.[이데일리 김일환 기자]증권·은행, 경쟁 가시화STO시장은 신시장으로 향후 성장 가능성이 높아 증권사, 블록체인 업계, 은행까지 뛰어들면서 판을 키우고 있다.   현재 구축된 STO 협의체 대부분은 증권사가 주도하고 있다. 신한투자증권 ‘STO 얼라이언스’, 미래에셋증권 ‘STO 비즈니스’, KB증권 ‘ST 오너스’, NH투자증권 ‘STO비전그룹’ 등이다. 한국투자증권은 인터넷전문은행인 카카오뱅크·토스뱅크와 손잡고 ‘한국투자 ST프렌즈’를 결성했다. 시중은행이 주도해 STO 컨소시엄을 구축한 것은 NH농협은행이 처음이다. NH농협은행 컨소시엄은 토큰증권 법제화에 따른 은행권 STO 시장참여 방안을 협의하고, 조각투자사업자 등의 토큰증권 발행에 필요한 플랫폼 구축방안도 함께 검토해 나갈 예정이다.중장기적으로는 독일 지멘스 사례처럼 기업의 채권을 직접 토큰증권으로 발행하거나, 유통시장을 구축하는 등 토큰증권 생태계가 활성화될 수 있는 방안도 마련한다. 지멘스는 유럽 최대 엔지니어링 회사로 올해 초에 6000만유로(약 840억원)의 1년짜리 채권을 블록체인 기반으로 발행한 바 있다.또 △부동산 조각투자사업자 펀블 △예술품과 엔터테인먼트 사업자인 블레이드 Ent △ 핀테크 전문기업 아톤의 자회사 트랙체인 △예스24의 자회사인 미술품 조각투자사 아티피오 △전기차 충전 플랫폼기업 차지인 등 토큰증권 시장진출을 준비 중인 사업자들이 추가로 참여한다.NH농협은행 관계자는 “NH농협은행은 P2P, 가상자산거래소 등의 디지털 신시장 형성기에 금융기능을 제공해 시장안착에 기여해왔다”며 “새롭게 열리는 토큰증권 분야에서도 은행들과 협업해 시장이 활성화 될 수 있도록 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.06.13.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>제4 이동통신사, 여덟째 도전은 성공할까</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000066194?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>기존 이통사 견제할 유일한 수단?….쿠팡·KB국민·토스, 유력 후보로 언급[비즈니스 포커스]서울 시내의 한 지하철역 인근 휴대폰 대리점 앞으로 시민이 지나고 있다. (사진=연합뉴스)7전 8기의 공식이 과연 통할까. 2010년대부터 무려 7차례나 시도했지만 결국 성사되지 못했던 ‘제4 이동통신사’가 2023년 들어 다시 화두로 떠올랐다. 정부가 통신 3사의 과점 체제를 깨기 위한 대안으로 넷째 이동통신 사업자를 새로 인가할 것을 공표했기 때문이다. 과학기술정보통신부는 28GHz 대역의 5세대 이동통신(5G) 주파수를 통신 3사에서 회수했고 이를 제4 이통사에 배정하겠다고 밝혔다. 6월 말에는 해당 주파수 할당 공고를 통해 제4 이통사 모집에 본격적으로 착수한다.  투자 비용 커 쉽지 않은 통신 시장 제4 이통사의 시장 진입이 성공하려면 과거의 사례를 되돌아봐야 한다. 이미 2010년부터 2015년까지 이명박·박근혜 정부도 제4 이통사 지정을 추진했지만 7차례나 실패로 돌아간 경험이 있기 때문이다.이유는 무엇일까. 이는 이동통신 사업이 갖는 특징 때문이다. 이동통신 사업은 기지국 설치 등 막대한 투자 비용이 필요하다. 탄탄한 재무 구조를 가진 대기업도 쉽사리 도전장을 내밀기 어렵다. 망을 대규모로 설치해야 하는 것은 물론 유지·보수를 위한 비용도 꾸준히 들어간다. 업계에서는 새로 이 시장에 진입하는 기업은 초기 투자 비용만 3000억원 이상이 필요하다고 보고 있다. 기업들도 이와 같은 사정을 모를 리 없다. 이 때문에 약 6개월간 이어진 제4 이통사 선정에서 나서는 기업들이 지금까지 없었다. 정부는 과거의 실패를 반복하지 않기 위해 지난 번보다 더 큰 혜택을 줘야 할 상황이다.  이 때문에 정부는 지난 5월 말 통신 3사에서 회수한 28GHz 5G 주파수를 제4 이통사들에 할당하는 방식을 고려하고 있다. 6월 말쯤 28GHz 주파수 할당 방안과 제4 이통사를 지원하는 방안을 담은 내용을 발표할 예정이다. 정부는 5월 31일 SK텔레콤을 마지막으로 통신 3사에 할당했던 5G 28GHz 대역 주파수 할당 취소 처분을 확정했다. 취소 처분의 이유는 통신 3사가 할당 조건을 지키지 않았다는 것이다. 단, 국민의 편의를 고려해 28GHz를 백홀로 활용하는 지하철 와이파이는 계속 구축 및 운영이 유지된다.정부는 2018년 통신 3사에 5G 주파수를 할당하면서 각 기업마다 1만5000대의 기지국을 구축할 것을 조건으로 내걸었다. 하지만 SK텔레콤은 1605개, KT는 1586개, LG유플러스는 1868개의 기지국을 구축하는 것에 그쳤다. 당초 약속했던 기지국의 10분의 1 수준이다.최우혁 과학기술정보통신부 전파정책국장은 “그간 정부의 적극적인 노력에도 불구하고 최종적으로 3사 모두 할당이 취소된 것에 대해 유감”이라고 밝히고 “신규 사업자의 진입 유도를 통해 28GHz 대역 생태계의 활성화를 지속 추진함으로써 국민들이 더 높은 수준의 5G 서비스를 누릴 수 있도록 노력하겠다”고 말했다.통신 3사가 기지국 구축에 소극적이었던 이유는 28GHz 주파수가 투자 대비 수익이 나지 않기 때문이다. 기지국을 100m마다 설치해야 도달 거리가 짧은 28GHz 주파수를 잘 사용할 수 있다. 설치 비용이 막대함은 당연하다. 그런데 아직 이 주파수를 지원하는 휴대전화 단말기조차 출시되지 않았다. 투입해야 하는 비용에 비해 사업성이 없다는 것이다. 이처럼 이미 통신 3사조차 손을 뗀 28GHz 주파수가 신규 사업자들에 얼마만큼 매력적인 유인책이 될지는 미지수다. 여기에 통신 사업 자체가 갖는 한계성 또한 신규 사업자의 등장을 늦추고 있다. 이미 한국의 통신 시장은 포화에 이르렀고 기존 통신 3사 역시 콘텐츠나 인공지능(AI) 등 신규 먹거리를 찾는 데 분주하기 때문이다.  뚜렷한 후보자 없이 이름만 오르내려 그럼에도 불구하고 정부의 의지는 쉽사리 꺾이지 않고 있다. 이는 제4 이통사만이 기존 통신사들의 독과점을 깰 수 있는 유일한 대안이라는 결론 때문이다.정보통신정책연구원에 따르면 2008년부터 2020년까지 경제협력개발기구(OECD) 내 신규 이동통신망 사업자(MNO)의 진입 사례는 총 15개국 19건으로 조사됐다. 이러한 사례에서 신규 사업자의 진입으로 1위 사업자의 점유율은 1.5%~7.4%포인트 수준으로 감소했다. 가입자당 평균 매출(ARPU) 역시 유의미한 수준으로 하락한 것으로 알려졌다. 어쨌거나 이러한 전략이 한국에서도 통할지를 알아보기 위해서는 신규 사업자의 등장이 필요하다. 이 때문에 올 초부터 언급된 유력 후보들의 이름은 여전히 오르내리고 있다. 쿠팡·KB국민은행·비바리퍼블리카 등이다. 2022년 3분기 이후 흑자 전환에 성공한 쿠팡은 주파수와 투자비용을 감당할 수 있다고 평가받는다. 또 멤버십 운영으로 기존 통신 사업과 유사한 사업 구조를 가졌다고 언급된다. 유안타증권은 쿠팡에 대해 “풀필먼트와 물류 부문에 대한 대규모 자본적 지출을 통해 사업 경쟁력을 확보하고 감가상각비와 현금 흐름을 통합적으로 관리하는 모델을 갖추고 있다는 점에서 통신업과 유사하다”고 평가했다. 다만 쿠팡은 본사가 미국 시애틀에 있는 외국 기업이기 떄문에 외국인 지분 제한 규제로 독자적인 통신 사업 전개는 어려운 상황이다.이미 알뜰폰 서비스에 뛰어든 KB국민은행과 토스를 운영하는 비바리퍼블리카 역시 유력 후보로 꼽힌다. 통신 사업에 대한 노하우를 보유하고 있기 때문이다. KB국민은행은 2019년 말 금융권 최초로 알뜰폰 브랜드 ‘리브엠’을 출시했다. 5월 12일에는 금융위원회에서 알뜰폰 사업을 정식 승인받았다. 토스는 지난 1월 알뜰폰 ‘토스모바일’을 출시했고 통신 3사의 망을 활용한 요금제를 출시했다.  다만 기존 통신 3사의 망을 활용하는 알뜰폰과 달리 제4 이통사는 신규 망을 구축해야 한다. 이에 따라 이들 기업이 재무적으로 이를 감당할 수 있을지가 관건이 될 것으로 보인다. 한화시스템의 이름이 제4 이통사 후보로 오르내리기도 했다. 한화시스템이 저궤도 위성 통신 사업을 목적으로 기간 통신 사업자 등록을 추진하기 때문이다.한화시스템은 세계 최초 우주 인터넷 기업인 원웹과 위성통신 사업을 협업 중이다. 원엡은 스타링크 서비스를 제공하는 스페이스X와 함께 저궤도 통신 위성을 통해 초고속 인터넷을 제공하는 기업이다. 2019년 세계 최초로 우주 인터넷용 위성 발사에 성공했다. 한화시스템은 2021년 원웹에 3억 달러를 투자하고 위성 제작과 저궤도 위성통신 서비스에서 협업을 모색 중이다.일각에서 기간 통신 사업자 신청이 제4 이통사와 이어지는 게 아니냐는 지적도 나왔지만 한화시스템은 기간 통신 사업자 등록 신청은 위성 통신 서비스 제공을 위한 목적일 뿐이라고 선을 그었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>타다, 고강도 구조조정 돌입</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005508978?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>80여명 전체 직원 대상 희망퇴직자 모집 공고토스, 타다 타사와 합병하는 방안도 검토[이데일리 김국배 기자] 타다 운영사 브이씨엔씨(VCNC)가 고강도 구조조정에 나선다. 15일 VCNC에 따르면 이 회사는 전 직원을 대상으로 희망퇴직자 모집 공지를 했다.전체 80여 명의 직원을 절반 수준으로 줄일 것이라는 얘기가 나오나, 감원 규모는 정해지지 않았다는 게 회사 측 설명이다.  희망 퇴직자는 오는 30일자로 퇴직 처리되며, 2개월치 월급이 지급된다. 타다는 지난 2020년 4월 국회에서 이른바 ‘타다 금지법’이 통과된 이후 택시 면허를 기반으로 합법 서비스에 주력하고 있지만, 적자가 누적된 상황으로 알려졌다.2018년 출시된 타다 베이직은 11인승 승합차와 기사를 함께 빌려주는 렌터카 형태로, 승차거부 없는 서비스로 인기를 끌었다. 그러나 타다 금지법 이후 사업이 불가능해지면서 사업 구조를 개편했다. 2021년엔 핀테크 스타트업 토스에 인수됐지만 차량 수급 문제로 서비스 확대에 어려움을 겪어왔다.타다의 모회사인 토스는 구조조정과 별도로 타다를 다른 회사와 합병하는 방안도 추진 중으로 알려졌다. 타다 관계자는 “경영 안정화 차원에서 구조조정을 진행하고 있다”며 “합병과 관련해선 다양한 방안을 모색 중”이라고 했다.[이데일리 김일환 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>금융권 진출에… 알뜰폰, 힘겨운 생존 경쟁</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000927003?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[머니S리포트-격동의 알뜰폰] ② 단순한 가격 인하보다 질적 성장 도모해야[편집자주]2011년 서비스를 시작한 알뜰폰 업계가 전환점을 맞았다. 규제 장벽에 막혀 있던 금융권이 정부의 승인 아래 알뜰폰 사업 확대를 본격화하기 때문이다. 금융기업들은 압도적인 자본력을 등에 업고 금융 서비스와 접목한 알뜰폰 서비스를 지속 출시할 전망이다. 영세한 중소 알뜰폰사업자들이 생존 위기에 몰린 가운데 정부의 지원이 필요하다는 목소리가 높다.알뜰폰 시장이 자본력을 앞세운 금융권의 진출로 고심이 깊다. /사진=뉴스1 ◆기사 게재 순서① 알뜰폰이 뭐예요?… 통신 3사보다 좋을까② 금융권 진출에… 알뜰폰, 힘겨운 생존 경쟁③ 유명무실 단통법 사라질까… "알뜰폰 잠식" VS "단말기값 인하"알뜰폰 시장이 요동치고 있다. 정부가 한시적으로 허가한 KB국민은행 알뜰폰 서비스 '리브엠'을 정식 승인하면서 금융권의 알뜰폰 진출이 본격화된 탓이다. 저가 요금제로 승부하던 알뜰폰 중소사업자들은 막강한 자본력을 갖춘 금융권의 등장으로 고사 위기에 몰렸다며 아우성이다. 생존 경쟁에 내몰린 알뜰폰 업체들은 통신 3사 보조금을 지원받아 '0원 요금제'를 출시하며 시장 점유율 확보에 나섰지만 가격만 인하하기 보단 민원처리 등 부족한 서비스 경쟁력을 키워야 할 때라는 지적이 나온다.━고물가에 주목받는 알뜰폰… 금융권 진출에 위기감 고조━/사진=토스모바일 물가가 고공행진 하면서 알뜰폰이 통신비를 절약할 수 있는 매력적인 선택지로 각광받는다. 과학기술정보통신부에 따르면 알뜰폰 가입자 수는 2018년 799만명, 2019년 775만명으로 정체 국면을 맞았다. 하지만 2020년 911만명, 2021년 1036만명, 지난해 말엔 1283만명을 기록하며 증가세가 가팔라지더니 올해 3월 기준 1363만명을 달성했다. 통신업계는 알뜰폰 가입자 수가 올해 안에 1400만명을 돌파할 수 있다고 본다.알뜰폰 시장이 커지면서 이를 노리는 새로운 사업자들이 속속 진입하고 있다. 금융권이 가장 먼저 눈독을 들였다. KB국민은행 리브엠은 금융규제 샌드박스(새로운 서비스가 나올 때 일정 기간 기존 규제를 면제하거나 유예 시켜주는 제도)를 통해 2019년 4월 발을 들였다.올해 알뜰폰 시장은 변곡점을 맞았다. 금융위원회가 지난 4월 알뜰폰 사업을 금융법상 금융사의 부수 업무에 포함해 금융사의 알뜰폰 시장 진출을 사실상 열어줬다. 이미 리브엠을 둘러싼 갈등이 고조된 상황에서 이번 금융당국의 결정은 상당한 파장을 불러일으켰다. 알뜰폰 사업자들의 불만이 폭발했다. 알뜰폰 시장은 현재 통신 3사 자회사들이 시장 점유율 50%를 차지하고 있다. 리브엠과 토스의 토스 모바일을 합치면 이른바 '대형' 알뜰폰이 약 56%(사물인터넷 뺀 순수 휴대폰 이용자 기준)다. 금융권마저 우후죽순 진입한다면 설 자리를 완전히 잃을 수 있다는 우려다.전국이동통신유통협회(KMDA)는 지난 4월21일 "KB국민은행은 도매대가 이하 요금제 판매를 지속해 금권 마케팅 논란이 끊이지 않았다"며 "은행 부수업무 지정으로 이를 더욱 강화할 것이  우려된다"고 했다.경제정의실천시민연합(경실련) 역시 지난 5월25일 성명을 통해 정부가 금산분리 원칙에 위배되는 금융기관들의 알뜰폰 사업을 혁신금융서비스와 부수업무에 포함시켜서는 안된다고 강조했다. 은행들의 알뜰폰 사업 진출은 시장의 활성화보단 중소사업자들의 몰락으로 이어져 알뜰폰 시장이 대기업들의 먹잇감으로 전락하게 된다는 이유에서다. ━'생존 위기' 알뜰폰 업계, 출혈 경쟁보다 질적 성장 추구해야━KB국민은행의 알뜰폰(MVNO) 브랜드 리브엠. /사진=KB국민은행 홈페이지 위기감에 알뜰폰 업계는 '0원 요금제'까지 내놓고 있다. 알뜰폰 요금제 안내 사이트 '알뜰폰 허브'에 따르면 지난 5월 기준 0원 요금제는 60개에 육박한다. 기본 이동통신 서비스만 제공하는 대신 6~7개월 정도 요금을 내지 않아도 된다. 약정이 없다는 점을 이용해 무료 기간이 끝날 때쯤 사업자를 옮겨 무한대로 0원 요금제를 사용하는 '갈아타기족'도 나타났다.통신사가 알뜰폰 사업자에게 가입 1건당 보조금 약 20만원을 지급해야 가능하기에 지속성은 의문시된다. 알뜰폰 업계 관계자는 "정확한 수치는 없지만 70% 정도는 이동하면서 0원 요금제를 쓰고 있고 나머지 30%는 프로모션이 끝나도 해당 요금제를 계속 쓰고 있다"고 했다. "요금제 변경이 생각보다 번거롭기 때문에 모든 이용자들이 0원 요금제를 위해 갈아타고 있는 것은 아니다"면서도 "계속 갈 전략은 아니지만 당장 점유율 확대가 시급한 상황"이라고 했다.알뜰폰 업계의 인프라 투자는 사실상 전무하다. 통신 3사와 달리 오프라인 매장, 고객센터 등이 거의 없다. 이 때문에 통신사에 의존한 출혈 경쟁을 고집하지 말고 질적 성장을 우선해야 한다는 지적이 나온다. 이번 0원 요금제처럼 소비자 반응이 좋은 경우 문의 전화가 몰리면 알뜰폰 고객센터 대다수가 이를 소화하지 못하고 있다. 서비스 개통과 기타 서비스 문의를 제대로 대응하지 못한다는 얘기다. 정부가 적극적으로 나서야 한다는 주장도 나온다. 롱텀에볼루션(LTE) 도매대가(알뜰폰 사업자가 통신 3사 망을 빌려쓰는 대가로 지불하는 비용) 인하는 알뜰폰 업체들에게 실질적인 도움이 될 수 있다. 통신 3사 입장에서도 LTE망은 유지하는 비용 빼고는 신규 투자 비용이 들지 않아 인하 여력이 있다.정부는 이달 말 알뜰폰 경쟁력 제고 방안을 발표할 예정이다. 제도적 지원을 통해 중소 업체들이 자체적으로 경쟁력을 갖추게 한다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>적자 누적된 타다, 인력 절반 구조조정…아이엠과 합병도 결렬</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004899920?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>희망퇴직자에 2개월 치 월급 지급"아이엠 외 다른 회사와 합병 논의 지속 중"불법 영업 논란으로 재판에 넘겨진 차량 호출 서비스 '타다' 관련자들에게 최종적으로 무죄가 선고된 1일 서울 중구 서울역 인근에서 타다 차량이 이동하고 있다.  대법원 3부(주심 오석준 대법관)는 이날 여객자동차운수사업법위반 혐의로 기소된 이재웅 전 쏘카 대표 등의 상고심 선고기일을 열고 무죄를 선고한 원심을 확정했다. 함께 기소된 박재욱 전 VCNC 대표, 쏘카 법인, VCNC 법인에도 무죄가 확정됐다. /사진=뉴스1모빌리티 플랫폼 타다를 운영하는 브이씨엔씨(VCNC)가 고강도 구조조정에 나선다. 타다금지법으로 고초를 겪으며 쌓인 적자를 견디지 못한 데다 추가 투자 유치도 지지부진해서다. 적자 탈출을 위해 추진 중이던 아이엠 택시와의 합병도 무산됐다.  15일 업계에 따르면 VCNC는 오는 21일까지 일주일간 희망퇴직을 신청받는다. 감원 목표는 전체 인원의 50%로 80~90명 규모가 될 전망이다. 희망퇴직자에게는 퇴직금위로금으로 2개월 치 월급이 지급된다.타다가 구조조정에 돌입한 이유는 오랜 기간 누적된 적자 때문이다. 지난해 VCNC의 영업손실은 약 262억원으로, 2021년(-177억원), 2020년(-112억원)보다 적자 폭이 커졌다. 업계는 2020년 통과된 타다금지법 여파로 본다. 기사 포함 렌터카 호출 서비스 '타다 베이직'을 기반으로 빠르게 성장하던 타다는 여객자동차 운수사업법 개정안, 일명 타다금지법이 통과되면서 강도 높은 규제에 부딪혔다. 이에 타다 베이직은 1년 6개월 만에 서비스를 종료했다. 최근 약 3년 만에 타다 베이직이 합법이라는 대법원 판결도 나왔지만, 타다 베이직은 이미 사라졌고, 타다는 현재 대형·고급 택시 서비스에 집중하고 있다. 모 기업인 쏘카가 2021년 타다를 모바일 금융 플랫폼 토스에 매각했다. 토스는 타다와 결제사업 관련 시너지를 노렸으나 기대에 못미치자 인수 1년여 만에 다시 매물로 내놓았고, 아이엠 택시를 운영하는 진 모빌리티, 퍼스널 모빌리티 기업 더스윙 등과 합병 논의를 지속했다. 더스윙은 모빌리티 업계에서는 드물게 최근 3년 연속 흑자를 기록하며 금전적 여유를 갖고 있어 가장 유력한 인수후보로 지목된다. 가장 먼저 타다 인수 의사를 표한 진모빌리티와의 인수도 최근 중단했다. VCNC 관계자는 "합병 논의를 중단하기로 한 것은 맞다"라면서도 "다른 기업과의 합병 논의는 아직 계속되고 있다"고 설명했다. 모빌리티 업계 관계자는 "진모빌리티는 애초에 적자가 너무 심한데다 내부 문제도 있어 타다를 인수하기 어려워 보였다"며 "현재 두 곳 정도가 현실성 있는 수준으로 인수 협상을 진행 중이라고 들었다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[게시판] 토스뱅크, '비대면 비과세종합저축' 이용자수 1만명 돌파</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013976039?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>▲ 토스뱅크는 지난달 말 기준 '비대면 비과세종합저축' 서비스 이용자수가 1만명을 돌파했다고 1일 밝혔다. 비과세종합저축은 최대 5천만원 범위에서 발생하는 이자 등 소득에 대해 만기까지 비과세혜택을 제공하는 상품으로 연간 금융소득 2천만원 이하인 고객이 대상이다. 토스뱅크에 따르면 비과세종합저축 고객의 70%가 장애인, 기초생활수급자 등 사회취약계층이다. (서울=연합뉴스) 토스뱅크 비대면 비과세종합저축[토스뱅크 제공. 재판매 및 DB 금지]</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>“우리는 돈 잔치 못 해요”… 충당금 압박에 인터넷은행 실적 ‘주춤’</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001612828?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>건전성 지표 악화에 충당금 3배 이상 적립담보 없는 신용대출 비중 커올해 1분기 역대급의 실적 잔치를 벌인 시중은행들과 달리 인터넷전문은행은 뚜렷한 실적 성장세를 보이지 못하고 있다. 신용대출 비중이 높은 구조에서 금리 인상기 차주 부실에 대비해 대손충당금을 크게 늘린 영향이다. 금융당국의 중저신용자 대출 비중 확대 압박이 큰 상황에서 향후 건전성 지표 악화가 실적에 추가적인 부담이 될 것으로 보인다.31일 금융권에 따르면 토스뱅크는 올해 1분기 280억원의 당기순손실을 기록했다고 30일 밝혔다. 출범 이래 분기 기준 최저 손실을 기록해 수익성이 개선됐지만 대손충당금을 전년 동기 대비 3배 이상인 772억원 적립한 영향으로 적자를 벗어나진 못했다. 부실에 대비하기 위한 충당금은 회계상 손실로 인식된다.케이뱅크의 1분기 당기순이익은 104억원으로 전년 동기 대비 57.5% 감소했다. 이자이익과 비이자이익이 성장했지만 마찬가지로 충당금 적립액이 늘면서 순익이 대폭 줄었다. 케이뱅크가 1분기에 쌓은 충당금은 602억원으로 역시 지난해 같은 기간(196억원) 대비 세 배 이상이었다.인터넷은행이 거액의 충당금을 적립할 수 밖에 없는 것은 건전성 지표가 눈에 띄게 악화하고 있는 탓이다. 토스뱅크의 지난 3월 말 기준 연체율은 1.32%, 고정이하여신비율은 1.04%였다. 출범 초기였던 전년 동기 연체율과 고정이하여신비율은 모두 0.04%에 그쳤지만 1년 만에 1%를 넘어섰다. 같은 기간 케이뱅크는 연체율이 0.48%에서 0.82%로, 카카오뱅크는 0.26%에서 0.58%로 증가했다. 중저신용대출 비중이 높은 구조에서 기준금리가 3.50%까지 급등하자 차주들의 상환 능력이 악화해 부실채권이 늘어난 것이다. 중저신용대출은 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%에 대한 대출을 의미한다.특히 담보대출 비중이 50%에 육박하는 시중은행과 달리 주요 인터넷은행들은 신용대출 비중이 압도적으로 높다. 지난해 말 기준 케이뱅크의 주택담보대출과 전·월세 등 보증대출을 합친 금액은 2조4688억원으로 1년 전(1조2346억원)과 비교해 2배 가량 늘었지만 신용대출 규모가 8조3073억원으로 전체 대출의 77%를 차지했다. 토스뱅크의 지난해 기준 담보·보증 규모는 2115억원으로 전체 대출 금액의 2.45%에 그쳤다. 카카오뱅크만 담보·보증 대출 규모가 50%를 상회했다. 신용대출의 경우 담보가 없어 차주의 신용리스크 영향을 많이 받는다.인터넷은행들은 건전성 악화 우려가 커지자 당국에 꾸준히 중저신용대출 비중을 완화해달라고 건의해왔지만 여의치 않은 상황이다. 최근 당국은 이에 대해 사실상 불가능하다는 입장을 냈다. 이에 올해 목표치를 맞추기 위한 중저신용대출 확대는 불가피하게 됐다. 1분기 말 기준 중저신용자 대상 잔액 기준 신용대출 비중은 카카오뱅크 25.7%, 케이뱅크 23.9%, 토스뱅크 42.06%로 집계됐다. 카카오뱅크는 올해 말까지 30%, 케이뱅크는 32%, 토스뱅크는 44%까지 이 비율을 늘려야 한다. 연내 금리 인하가 요원한 상황에서 향후 추가적인 연체율 및 고정이하여신비율 증가세는 인터넷은행의 실적 상승 여력을 제한할 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.06.04.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>대환대출, 중저신용자에게는 조삼모사? 정부 지원론 '고개'</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000044680?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>'온라인·원스톱 대환대출 인프라' 안내 이미지. (사진=금융위원회)기존에 받은 신용대출을 갈아탈 수 있는 대환대출 인프라가 개시됐다. 차주의 이자 부담을 경감하는 생활공감형 정책이라는 긍정적인 면이 부각되는 반면 중저신용자의 신규 대출이 어려워질 수 있다는 우려도 물밑에서 제기된다. 정책 효과 창출을 위해선 정부의 개입이 요구된다는 제언이 나온다.4일 금융위원회에 따르면 대환대출 인프라 서비스가 지난달 31일 개시한 지 3일 만에 1541억원의 대출자금이 이동했다. 개시 첫 날 통계를 보면 은행에서 은행으로의 '은행 간 대출이동'이 이용금액 기준으로 90.5% 비중을 차지했다. 카드, 캐피탈사 등 2금융 차주들은 효과를 크게 못 본 셈이다.대환대출은 금융기관에서 대출을 받아 이전의 대출금이나 연체금을 갚는 제도다. 정부가 추진하는 대환대출 플랫폼도 일종의 대출 갈아타기인데 온라인으로 금융사별 대출을 비교하고 금리가 낮은 상품으로 갈아타는 내용이 핵심이다.이번 대환대출 인프라 구축에는 총 53개 금융기관이 참여했다. 이들은 대출비교 플랫폼과 각 금융회사 애플리케이션(앱)으로 나눠 대출 갈아타기 기능을 제공한다.대출비교 플랫폼에선 마이데이터를 통해 기존 대출을 확인하고 여러 금융회사의 대출조건을 비교한 뒤 선택한 금융회사의 앱으로 이동해 대출을 갈아탈 수 있다. 대출비교 플랫폼은 △네이버페이 △뱅크샐러드 △카카오페이 △토스 △핀다 △KB국민카드 △웰컴저축은행 등이다.금융위는 "각 금융회사의 대출금리가 얼마나 낮아질지 소비자가 대출을 갈아타서 어느 정도의 이자를 아낄 수 있을지는 금융회사의 영업전략, 소비자의 신용도와 서비스 활용 정도 등에 따라 다양한 결과가 예상된다"며 "개시 초반에는 작년에 고금리 대출을 받은 차주가 상대적으로 낮아진 금리로 이동, 2금융권 고신용자가 1금융권 중금리 상품으로 이동하는 경우 등을 중심으로 이자경감 혜택이 있을 것으로 기대된다"고 밝혔다.그러면서 "향후에는 소비자의 지속적인 이동과 금융회사 간 경쟁의 결과 각 금융회사의 대출금리가 일정한 범위 내로 수렴할 가능성도 예측된다"면서 "소비자가 다른 대출로 이동하지 않아도 낮아진 금리 추세의 혜택을 보는 경우 등 새로운 경쟁 시스템에 따른 긍정적 효과가 지속될 것"이라고 전망했다.당국의 기대와 달리 대환대출 개시로 중저신용자의 신규 대출 기회가 줄어들 것이란 우려가 있다. 연체율이 상대적으로 높은 중저신용자의 비중이 큰 2금융권이 부실을 우려해 대출 태도를 소극화할 수 있기 때문이다. 또한 대환대출 재원은 오롯이 금융회사에서 비롯돼 한정적일 수밖에 없다.전문가들은 이번 대환대출 인프라가 작동하는 과정에서 정부가 보증을 서거나 자금 지원을 하느냐에 따라 결과가 달라질 수 있다고 보고 있다.하준경 한양대 경제학부 교수는 "정부 보증이나 2차 보전과 같은 보조가 없으면 금융기관이 (대환대출을) 스스로 감당해야 한다"면서 "이 경우 새로운 대출을 해주기 어려운 가능성이 있다"고 말했다.그는 또 "정부 지원이 있어야 바람직하다는 것은 아니다"면서도 "대환대출이 기존 대출 차주에게 신규 대출 재원을 투입하는 만큼 금융기관 입장에선 단기적으로 신규 대출에 문제가 있을 수 있다"고 덧붙였다.대환대출 인프라 개시를 앞두고 금융위가 배포한 보도자료를 보면 당국은 서비스 개시에 맞춰 발생할 수 있는 보이스피싱 등 금융범죄에 대비해 수사당국과 협조하는 방안 등을 거론했으나 정부 보증이나 지원은 언급하지 않았다.금융위 관계자는 "정부는 대환대출을 편리하게 이용할 수 있는 인프라를 구축하는 역할"이라면서 "어떤 상품을 추가로 만들지는 않는다"고 설명했다. 이 관계자는 또 "(이번 대환대출 인프라는) 기존에도 있던 대환대출을 활성화하려는 취지"라고 부연했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>대출 갈아타기 첫날… “집토끼 뺏길라” 금리 우대상품 러시</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003767040?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>‘온라인·원스톱 대환대출’ 가동… 대출시장 지각변동 시작/그래픽=백형선										클릭 몇 번만으로 더 낮은 금리의 신용대출로 갈아탈 수 있는 정부의 ‘온라인·원스톱 대환대출 인프라’가 31일 오전 9시부터 가동됐다. 대출 갈아타기 서비스는 카카오페이 등 대출 비교 플랫폼이나 일반 은행·카드·보험사 앱에서 이용할 수 있다. 앱 설치부터 대환 대출 계약까지 약 15분이면 끝낼 수 있다. 금융사 영업점 2곳을 방문해 최소 2영업일을 기다려야 했던 과거에 비해 대출 환승이 훨씬 편리해진 것이다. 고객 이탈을 막으려는 금융사 간 금리 경쟁으로 소비자 편익이 개선될 것이란 기대도 커지고 있다. 이날 출시 3시간여 만에 총 834건 대출이 이동했다. 216억원 규모다. 여러 플랫폼으로 분산돼 전반적으로 접속 지연 문제는 크지 않았다. 집토끼 달아날라…은행, 금리 낮춘 상품 출시							‘뺏고 뺏기는’ 11조원 규모의 온라인 대환대출 시장을 선점하기 위한 금융사 간 경쟁은 초반부터 뜨겁다. 먼저 우리은행은 자사 대출로 갈아탄 고객에게 우대금리 연 0.5%포인트를 제공한다. 6월 말까지는 대출을 갈아타느라 발생한 부수비용(중도상환수수료 등)을 1인당 최대 10만원까지 지원한다. 서비스 출범 초반에 파격적인 인센티브를 걸어 승기를 잡겠다는 전략이다.하나은행은 금리 인상 속도가 더딘 ‘신잔액 기준 코픽스’를 기준으로 하는 대환대출 특화 상품을 선보였다. 이 상품의 이날 금리는 연 4.634%로 금융채를 적용하는 하나은행의 일반 모바일 신용대출 금리(연 5.354%)에 비해 0.72%포인트쯤 낮다. 신한은행은 첫 달 대출이자를 지원하는 방안을 준비하고 있다.KB국민은행은 기존 대출 고객인 ‘집토끼’를 지키는 데에 주력하고 있다. 영업점 직원들에게 고객 이탈 방지 마케팅 가이드를 전파하는 한편, 이탈이 예상되는 대출 고객들에게는 2만원 상당의 금융 쿠폰(예·적금 등 금융상품 가입 시 현금처럼 사용 가능)을 제공했다.대출 비교 플랫폼들도 각종 혜택으로 고객 몰이에 나서고 있다. 네이버페이는 연말까지 대환대출 서비스 조회만 해도 1000원 상당의 포인트를 준다. 또 대출을 갈아탄 뒤 이자를 두 번 정상 납부할 때마다 네이버포인트를 지급(최대 10만 포인트)한다. 토스는 올 연말까지 캐피털 등 일부 2금융권 상품의 중개 수수료를 최대 40% 인하하기로 했고, 소형 플랫폼인 뱅크샐러드는 제휴를 맺은 모든 대출상품 금리를 0.1%포인트 추가로 깎아준다.완벽한 대환 대출 조회는 ‘아직’							카카오페이에선 제휴사 등록이 순차적으로 이뤄진 탓에 이날 오전 일부 고객은 당초 예고됐던 16개 제휴 금융사 금리를 모두 비교하지 못했다. 과도한 개인 정보 요구도 소비자 불편을 샀다. 여러 금융사에 흩어진 금융 정보를 가져오는 마이데이터 서비스에 동의하는 과정에서 일부 플랫폼이 대출 비교에는 필요하지 않은 결제 내역이나 입·출금 정보까지 요구한 것이다. 단계별 필수 동의 항목이 워낙 많다 보니, 마케팅 활용에 동의한다는 ‘선택’ 동의 사항도 무심코 눌러버릴 수 있다는 점도 주의해야 한다.여러 금융 상품을 플랫폼에서 비교하기 전에 제휴된 금융사를 살펴볼 필요도 있다. 아직 초기 단계라 은행 등 1금융권과 제휴가 많이 되지 않은 플랫폼은 상대적으로 낮은 대출 금리를 조회해보기 어려울 수 있기 때문이다. 현재 KB국민·신한·하나·우리·NH농협 등 5대 시중은행 모두와 제휴된 플랫폼은 카카오페이뿐이다. 토스는 1금융권이 농협·하나·광주·경남·대구·SC제일은행 등 6사, 네이버페이는 하나·우리·SC제일은행 등 3사, 핀다는 하나·SC제일은행 등 2사, 뱅크샐러드는 SC제일은행만 비교 가능하다.네이버페이에서 금리가 연 5%대인 시중은행의 신용대출 갈아타기를 조회했더니, 한 저축은행의 대출금리 연 14.13% 상품이 떴다. 네이버페이 관계자는 “신용점수를 올리려고 각 대출을 합치려는 이용자도 있어 대환대출 상품과는 별도로 안내한 것”이라고 했다. 기존 대출보다 낮은 금리로 대환할 상품이 없다는 안내는 작고 흐린 글씨로 써있어서 뒤늦게 눈에 들어왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>은행 가기 힘든 장애인·기초수급자…토스뱅크 비과세저축 몰려</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002642265?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>출시 세달 만에 1만명 가입70%가 장애인·기초수급자 취약계층은행방문 필요 없어지자 가입 몰린듯토스뱅크 상호. 토스뱅크 제공인터넷전문은행 토스뱅크가, 장애인·기초생활수급자 등 저소득 취약계층이 저축 상품을 가입할 때 비과세 혜택을 받으려면 거쳐야 했던 ‘자격 증명’ 절차를 전면 비대면화하면서 3개월간 1만여명이 새로 가입한 것으로 나타났다. 1일 토스뱅크는 지난 2월 도입한 비대면 비과세종합저축 서비스를 세 달간 1만여명이 이용했다고 밝혔다. 비과세종합저축은 만 65세 이상 고령자·장애인·기초생활수급자·독립 유공자와 5·18민주화운동 부상자 등 사회적 취약계층 가운데 연간 금융소득이 2천만원 이하인 이들이 가입 대상이다. 이 저축 상품에 가입하면 납입액 5천만원까지 이자·배당소득에 붙는 소득세(15.4%)를 면제해준다. 시중은행에선 주로 고령층이 이용하는 제도인데, 토스뱅크는 “지난 석달간 총가입자의 70%(7천여명)이 고령자를 제외한 취약계층”이라고 설명했다. 토스뱅크는 “장애인 고객들이 직접 장애인증명서를 발급하고 영업점에 방문해야 하거나 기초생활수급자 고객이 원치않게 자기 신분을 밝혀야 하는 어려움을 해소하고자 했다”고 설명했다. 일반 시중은행에서 이 제도를 이용하려면 대부분 영업점을 직접 방문해 증빙서류를 제출해야 한다. 지난 3월말 서류 제출 절차를 비대면화한 케이비(KB)국민은행의 경우엔 앱으로 서류 제출이 가능하다. 국민은행은 비대면 절차를 도입한 후 두달 간 약 6만2천명이 비과세종합저축에 가입했는데, 도입 전과 견줘 큰 차이가 없었다. 국민은행 관계자는 “고객 편의를 위해 마련했으나 홍보가 충분히 이뤄지지 않은 측면이 있다”고 설명했다. 반면에 토스뱅크는 공공 마이데이터 등을 스크래핑하는 방식을 통해 이런 증빙 절차를 전면 비대면화했다. 모든 대상자는 별도 서류를 은행 창구에 가져가 제출할 필요 없이 모바일 앱을 통해 가입 절차를 진행할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.06.08.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>금감원, 불법사금융 차단 등 소비자 보호 '총력'</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000016915?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>금감원, 금융사 CCO와 소비자보호 간담회김미영 금소처장, "소비자보호 위해 총력 다할 것"금융감독원이 금융소비자보호 강화를 위해 중점 추진과제 5개를 선정했다. 이를 통해 금융회사 업무 전반에 걸쳐 소비자 중심 문화가 정착되도록 하는 데 주력할 계획이다. 금융회사의 소비자 보호 장치 작동 여부가 중점 점검 대상에 오르는 것이다.금융소비자보호 중점 추진 과제 / 그래픽=비즈워치김미영 금감원 금융소비자보호처장(부원장)은 8일 여의도 금감원 본사 9층 대회의실에서 열린 금융회사 최고고객책임자(CCO) 간담회에서 "그동안 금융소비자보호법 현장 안착, 사모펀드 사태 수습에 주력해왔지만 근본적 대응보다 개별 현안 처리에 치우친 측면이 있었다"며 "금융회사의 업무 전반에 걸쳐 소비자 중심 문화가 정착되도록 주력하겠다"며 향후 금소처 운영 계획을 발표했다.이날 간담회는 김 처장 취임 이후 첫 공식 행사로, 6개 금융협회(은행연합회·금융투자·생명보험·손해보험·여신금융협회·저축은행중앙회) 및 42개 주요 금융회사 CCO, 한국소비자연맹·녹색소비자연대 등 소비자단체가 참석했다.김 처장은 "소비자보호를 비용 요인이나 리스크 요인으로만 인식해 소극적으로 대응하는 경향도 있었다"며 "특히 금소법상 설명의무가 대폭 강화됐으나 소비자의 실질적인 이해를 돕기보단 형식적으로 필요한 서명을 받는 데 중점을 두는 등 오히려 금융회사의 면책 수단으로 활용되고 있단 지적이 제기된다"고 지적했다.우선 금소처는 소비자보호 체계의 실질적 작동 여부 점검을 강화하기로 했다. 금소처는 민원 및 판매분석 정보를 금융회사와 공유해 감독·검사 업무에 반영하고, 소비자보호 관련 이사회·경영진 면담 및 현장점검도 공동 실시할 예정이다.취약계층 대상 민생금융범죄 총력 대응도 중점과제중 하나로 선정됐다. 그 일환으로 금감원은 '불법사금융 특별근절 기간'을 올해 10월까지 운영할 계획이다. 김 처장은 "가상자산 연계 투자사기 신고센터를 설치해 제도 공백기를 틈탄 코인 관련 투자사기에 수사기관과 함께 신속·엄정 대응하겠다"고 말했다.이외에도 △근원적 금융분쟁 감축을 위한 사전 예방 활동 강화 △금융 디지털 전환에 대응한 소비자보호 강화 △금융소비자 역량 제고 및 합리적 금융 생활 지원 등도 중점과제로 선정했다. 이날 간담회 이후 열린 백브리핑에서 김 처장은 불법사금융 확산의 원인이 되는 광고 차단에 나설 것이라는 뜻도 밝혔다. 이에 따라 이달 말부터 불법사금융 광고 차단에 머신러닝 등 인공지능(AI) 기법을 등을 도입할 예정이다.금소처가 불법사금융 광고 척결에 나선 건 불법사금융 피해가 증가하고 있기 때문이다. 김 처장은 "불법사금융 신고가 이번달 2일 기준으로 작년 동기 대비 거의 46% 이상 증가했다"며 "키워드를 추출해서 불법 사금융 광고를 찾아내는 기존의 시스템으로는 한계가 있어 이달 중으로 AI 방식으로 불법사금융 광고를 찾아내는 시스템을 개발하려고 한다"고 말했다.한편 금소처는 불법사금융뿐만 아니라 가상자산과 연결된 투자사기에도 신속 대응하겠다고 밝혔다. 김 처장은 "가상자산 관련 불법사금융과 관련해서는 108건 정도 신고가 들어왔다"며 "피해 양상을 집중적으로 분석해 필요한 경우 수사기관과 공조하고 소비자 피해가 우려된다고 생각하는 경우에는 소비자경보를 발령할 것"이라고 설명했다.김 처장은 이날 간담회에서 토스·카카오페이 같은 중계 플랫폼사들 빠져있다는 지적에 대해 비대면 금융거래에 대해서도 소비자보호를 강화해 필요한 사항은 적극 개선해 나가겠다고 당부했다.그는 "비대면 거래 증가에 따라서 혁신금융 서비스 지정을 통해 예금·대출 중개 플랫폼들이 많이 들어오고 있다"며 "금감원은 소비자 이익에 상충하는 방식으로 알고리즘이 운영되고 있지 않은지, 약관 등을 적절하게 마련했는지, 소비자에게 적정하게 공시하고 있는지 등을 살펴보고 있다"고 당부했다.실손보험 민원과 관련해서는 "지난해 (실손보험 관련 민원이) 2020년, 2021년 대비 2배 이상 늘었기 때문에 민원 감축을 위해 보험사에 당부를 드렸다"며 "민원을 사후적인 처리를 하기에는 많은 비용이 들기 때문에 민원 발생 요인에 대해 모니터링을 강화해 소비자 피해가 확산하지 않도록 사전 예방이 필요하다고 전했다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>"한국형 STO 경쟁력, 블록체인 메인넷에 달려"</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011897962?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>미래에셋 "글로벌 메인넷 블록체인과 접촉 중"[서울=뉴시스] 국민의힘 디지털자산위원회가 5일 '우리 기업에 힘이 되는 STO' 토론회를 개최했다. (사진=이지영 기자) 2023.06.05 *재판매 및 DB 금지[서울=뉴시스]이지영 기자 = 한국형 토큰증권(STO)의 경쟁력은 블록체인 메인넷 확보에 달렸다는 주장이 나왔다. 수이와 앱토스 같은 글로벌 블록체인 메인넷과 기술 교류를 통해 시너지를 발휘해야 주도권을 쥘 수 있다는 설명이다.이용재 미래에셋증권 디지털자산 태스크포스(TF) 선임 매니저는 5일 국민의힘 디지털자산위원회가 개최한 '우리 기업에 힘이 되는 STO' 토론회에서 이같이 밝혔다.미래에셋증권은 현재 STO 플랫폼을 중심으로 금융투자업 혁신을 꾀하고 있다. 토큰화된 자산을 통해 국내 및 글로벌 금융 시장을 연결하겠다는 목표인 것이다. 회사는 이를 위해 글로벌 메인넷과 접촉 중이다.이 매니저는 "토큰증권 시장은 글로벌 시장을 염두에 두고 있기 때문에 다양한 혁신 서비스와 연계도 중요하다"며 "이 모든 것들은 하나의 블록체인 메인넷 안에서 구현해야 한다"고 강조했다.이어 현재 가상자산 업계에서 떠오르고 있는 주요 블록체인 메인넷들과 협업을 추진 중이라고 전했다. 대표적으로 지난달 3일 메인넷 출시 후 국내 5대 대형 원화거래소(업비트·빗썸·코인원·코빗·고팍스)에 일제히 상장된 '수이'가 있다. 수이는 앱토스와 함께 대표적인 레이어1 블록체인 플랫폼으로 꼽히며 인지도를 높여왔다.이 매니저는 토론회가 끝난 후 수이 등 글로벌 메인넷 블록체인과 접촉한 바가 있냐는 기자의 질문에 "다양한 글로벌 블록체인 기술사들과 만나고 있다"며 "이들을 통해 기술 트렌드를 익히고, 비즈니스 협업 포인트를 찾고 있다"고 전했다.아울러 퍼블릭(Public) 블록체인 활용의 중요성도 밝혔다. 현재 국내 시장에서 주로 거론되는 '프라이빗 블록체인'으로는 글로벌 시장 확장에 한계가 있다는 우려에서다.실제로 최근 2년간 해외 토큰증권 시장에서 거래량 상위 자산들은 모두 이더리움과 같은 퍼블릭 체인 기반이었다. 토큰증권 유동화의 중요 요소인 '상호운용성' 측면에서는 모두가 접근할 수 있는 토큰 기술 표준을 따르는 것이 이점이 크기 때문이다.이 매니저는 국내 시장 또한 현재 해외 토큰증권 동향을 따라야 한다고 짚었다. 그는 "현재 국내 시장은 소수의 네트워크 참여자(노드)만 분산원장을 공유하는 '프라이빗 블록체인'을 기반으로 토큰증권을 발행하는 데 초점을 맞추고 있다"며 "하지만 장기적인 관점이나 향후 확장성을 생각했을 때 (프라이빗 블록체인만 사용하는 것은) 수정돼야 할 내용"이라고 꼬집었다.토큰증권 활성화 방안으로 금융 선진국 및 웹3 플랫폼과 연동도 강조했다. 이 매니저는 "최근 일본이 금융 위기 타개책으로 토큰증권과 스테이블코인 분야에 열을 올리고 있다"며 "이런 금융 선진국과의 플랫폼 연동도 중요하다. 국내에서 안전하게 토큰증권을 발행하는 데만 초점을 맞추면 국내 시장은 실패할 것"이라고 말했다. 이어 "글로벌 확장성을 위해 스테이블코인을 활용한 토큰증권 거래 등 다양한 방법을 모색해야 한다"며 "한국은행의 중앙은행디지털화폐(CBDC)나 민간 기업이 발행하는 스테이블코인으로 토큰증권을 거래할 경우 블록체인 기반(웹3) 즉시 결제 금융 플랫폼을 구축할 수 있다"고 제안했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>대출 싸게 바꾸고 우대금리도 쏠쏠 vs 은행 갈아타다가 수수료 더 나갔네</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002575757?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>■ 대출 ‘똑똑하게’ 갈아타는 요령대환대출 플랫폼 활용은 필수금리 14.8% → 6.5% 사례 나와중도상환 땐 1.5%안팎 수수료저금리 갈아타도 손해 볼 수도올 들어 대출금리가 뚜렷한 하락세를 보이고 있다. 지난 1월까지만 해도 평균적으로 연 5% 안팎에서 형성된 주요 시중은행의 주택담보대출(주담대) 금리가 지난달 평균 연 4%대로 하락했다. 지난해 말과 올해 초 연 6∼7%대였던 은행 신용대출 금리도 지난달 기준으로 일제히 연 5%대로 내려왔다. 금리 하락세가 이어진다면 다른 은행으로 대출을 갈아타는 대환대출 전략을 고민해볼 필요가 있다. 기존 대출을 현재보다 싼 이자로 ‘똑똑하게’ 갈아타는 방법을 알아봤다.◇중도상환 수수료 먼저 따져봐야 = 7일 금융권에 따르면 시중은행에서 금리를 비교해보고, 싼 이자의 대출을 찾았다고 하더라도, 대출을 갈아타기 전에 기존 대출을 일찍 상환할 때 발생하는 중도상환수수료가 얼마인지 꼼꼼히 따져봐야 한다. 국내 시중은행은 대부분 대출이 처음 실행된 이후 3년 안에 대출을 갚을 경우 1.5% 안팎의 중도상환수수료를 부과한다. 1.5% 안팎의 중도상환수수료가 대환대출로 아낄 수 있는 향후 이자액보다 클 경우 다른 은행의 금리가 낮더라도 대환대출을 하지 않는 것이 바람직하다.전국은행연합회에 따르면 지난달 국내 5대 은행(KB국민·신한·하나·우리·NH농협은행)의 분할 상환 방식 주담대 평균 금리는 모두 연 4%대를 기록했다. NH농협은행이 연 4.24%로 가장 낮았고, 가장 높은 우리은행도 연 4.70%였다. 5대 은행 주담대 평균 금리가 모두 연 4%대를 기록한 것은 지난해 9월 이후 8개월 만이다. 연초만 해도 5대 은행 주담대 평균 금리는 모두 연 5%를 넘었는데 5개월여 만에 1%포인트가량 하락했다. 변동금리 주담대의 금리를 정할 때 기준으로 삼는 지표인 코픽스(COFIX)가 하락한 여파다. 지난해 12월과 올해 1월 NH농협은행의 신용대출 평균 금리가 연 7%가 넘고, 나머지 은행들도 모두 연 6%대였는데 지난달 기준으로 일제히 연 5%대로 내려왔다. 이처럼 시중은행의 주담대 금리가 하락세를 보이는 이유는 한국과 미국의 기준금리가 더는 오르지 않을 것이란 기대가 확산하고 있기 때문이다. ◇대환대출 플랫폼 활용 필수 = 지난달 31일 서비스가 시작된 대환대출 플랫폼을 이용해보는 것도 방법이다. 금융당국은 지난달 31일 전 금융권과 함께 금융회사를 직접 방문하지 않고도 스마트폰 클릭 몇 번이면 더 싼 이자로 대출을 갈아탈 수 있는 ‘온라인·원스톱 대환대출’을 본격 개시했다. 세계 최초로 마련된 것으로 금리가 낮은 타사 대출로 갈아타려면 여러 차례 영업점을 방문해야 하는 기존의 어려움을 해결하기 위해 추진됐다. 현재까지는 금융사에서 받은 10억 이하의 보증·담보가 없는 신용대출만 대환대출 플랫폼을 통해 갈아타기가 가능하다. 대환대출 플랫폼은 금리 비교부터 실행에 이르기까지 하나의 플랫폼에서 모두 진행할 수 있다. 소비자들은 53개 은행, 저축은행, 카드·캐피털에서 받은 기존 대출을 모바일 앱을 통해 비교해 보고 갈아탈 수 있다. 또 네이버페이·카카오페이·뱅크샐러드·토스·핀다 등 대출비교플랫폼 앱에서도 갈아타기가 가능하다. 무엇보다 2금융권에서 1금융권으로 갈아타는 것이 가능하기 때문에 2금융권 대출을 보유한 금융소비자는 금리 인하 혜택을 누릴 수 있다. 금융위원회에 따르면 지난달 31일과 이달 1일 이틀 동안 무려 3887건의 대출 이동이 이뤄졌다. 금액 기준으로 1055억 원에 달한다. 금리가 대폭 인하된 사례도 나오고 있다. 가령 저축은행에서 신용대출 4800만 원을 빌린 B 씨는 1금융권인 시중은행으로 대출을 갈아탔다. 금리는 연 14.8%에서 6.5%로 뚝 떨어졌다. 이자 부담이 월 33만 원 이상 줄어든 것이다.◇우대금리 혜택도 ‘솔솔’= 국민은행은 기존보다 5000만 원 늘어난 3억5000만 원 한도의 ‘KB 온국민 신용대출’을 선보였다. 하나은행은 신잔액 코픽스를 기준금리로 사용한 ‘하나원큐 신용대출 갈아타기’를 출시했다. 신잔액 코픽스는 일반 금융채나 신규 코픽스보다 변동 폭이 작아 금리 절감 효과를 누릴 수 있다. 하나은행은 네이버파이낸셜·카카오페이·토스·핀다 등 4대 플랫폼과 제휴를 맺기도 했다. 우리은행은 대환대출 서비스 고객에게 0.5%포인트의 우대금리를 적용한다. 자체 앱에서 신용대출을 갈아타면 중도상환수수료와 인지세 등 1인당 대출 거래비용을 최대 10만 원까지 지원한다. 신한은행은 모바일뱅킹 앱에서 다른 금융회사의 신용대출 보유 여부를 조회한 1만 명에게 추첨을 통해 스타벅스 아메리카노 기프티콘을 증정한다. 핀테크 플랫폼의 경우 네이버페이는 생애 첫 대출 조회 시 네이버페이 포인트 1000원을 적립해준다. 또 대출을 받거나 갈아탄 뒤 이자를 연체하지 않고 2회차까지 정상 납부하면 회차별로 네이버페이 포인트를 1만∼5만 원씩, 최대 10만 원을 주기로 했다. 뱅크샐러드는 대환대출 서비스를 통해 대출을 갈아탈 경우 금리를 0.1%포인트 깎아주고, 토스는 일부 저축은행과 캐피털사 상품 수수료를 올해 말까지 최대 40% 인하하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.06.09.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>민심 대신 개딸, 쇄신 대신 친명…위기 자초한 이재명</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000059120?sid=100</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>이래경 '9시간 만의 사퇴' 왜?…"팬덤 강화가 혁신"이라는 착각'개딸 서브-처럼회 토스-이재명 스파이크'…국민과 점점 멀어져이재명의 더불어민주당은 새로운 위기 국면을 맞이했다. 위기 극복을 위해 둔 수습책이 결정적인 악수(惡手)가 됐다. 이재명 민주당 대표가 6월5일 당 혁신위원장에 임명한 이래경 다른백년 명예이사장이 과거 '천안함 자폭설' 등 발언과 '친이재명' 행보로 당 안팎에서 논란을 일으켜 불과 9시간 만에 사퇴하는 일이 일어났다. 전례를 찾아보기 힘든 초유의 사태다.'전당대회 돈봉투' 의혹과 '김남국 의원의 가상자산(코인) 투기 논란'으로 도덕성 위기를 맞은 민주당은 혁신기구를 통해 전면적 쇄신 방안을 내놓기로 결의한 바 있다. 당 쇄신의 중대 분기점이 될 혁신기구를 첫 단추부터 잘못 끼운 이 대표는 쇄신에 대한 의지를 의심받는 것은 물론, 리더십에도 큰 오점을 남겼다. 계파 간 갈등 등 당 전체에 내홍도 격화하고 있다.엎친 데 덮친 격으로 최근 민주당의 지지율 흐름도 심상치 않다. 한국갤럽 기준으로 당 전체 지지율은 지난 한 달여간(5월 2주 차부터 6월 1주 차) 32%→33%→31%→32%로 큰 변화가 없지만, 총선 승리를 위해 꼭 잡아야 할 중도층과 20대(18~29세) 지지율은 요동치는 모습을 보였다. 같은 기간 중도층 지지율은 30%→33%→30%→26%로, 20대 지지율은 19%→32%→25%→21%로 크게 흔들리는 추세를 보였다. 돈봉투 의혹과 코인 투기 논란으로 꺾였던 중도층과 20대 지지율을 반성적 태도를 통해 간신히 회복하는 듯싶었지만, 근본적인 쇄신책이 지지부진 늦어지면서 다시금 추락하는 흐름을 보인 것이다. 이래경 사태로 이재명 리더십 큰 타격병을 치료하려면 올바른 진단이 우선이다. 진단이 틀리면 백약이 무효다. 이재명 대표는 왜 국민 눈높이에 맞지 않는 처방전을 냈을까. 민주당 내부에서는 이 대표가 생각하는 혁신의 방향성이 민심과 괴리돼 있다는 지적이 적잖게 표출되고 있다. "팬덤 지지층을 강화하는 게 혁신이라고 생각하는 것 같다"는 김종민 민주당 의원의 일침이 대표적이다. 김 의원은 "이렇게 되면 강성 지지층 지지는 더 강화될 수 있지만, 중도층과 일반 여론, 더 넓은 국민 지지는 기대하기 어렵다"고 토로했다. "문제를 해결하려면 '이재명의 민주당'이 아니고 '국민의 민주당'으로 가야 한다. 혁신 논의의 핵심"이라는 김 의원의 말은 사실 정석에 가깝다. 특히 내년 총선에서 승리하기 위해서는 너무 당연한 이야기다. 문제는 바로 여기서부터 시작된다. 김 의원의 지적을 인수분해하면 ①현재 여론 흐름상으로는 이 대표 얼굴로 내년 총선 승리를 담보할 수 없고 ②좀 더 넓은 지지 획득을 위해선 이 대표가 '개딸(개혁의 딸)'이라 불리는 강성(적극) 지지층과 결별해야 하며 ③당 쇄신의 방향은 강성 지지층이 아닌 국민 전체를 바라보고 해야 한다는 이야기가 된다. 이런 인식은 비명(非이재명)계는 물론 침묵하고 있는 상당수 현역 의원들을 포함해 당 전체에 상당히 퍼져있다. 그런데 이 대표는 이런 분석과 인식에 동의하지 않는 모습이다. 특히 적극 지지층과의 결별에 대해서는 '노(No)'라는 단호하면서도 분명한 입장을 갖고 있다. 어찌 보면 이 대표가 취임하고 나서부터 지금까지 모든 문제의 시작과 끝에는 바로 이 팬덤정치 이슈가 자리한다. 사실 정치인에게 지지자들과 결별하라는 주문은 어불성설이다. 하지만 모든 게 과하면 탈이 나게 마련이다. "지금 개딸들은 민주당 게시판과 SNS를 점령함으로써 '과대 대표'되고 있고, 민주당의 주요 정치인들은 당파적 여론에 취해 국민 다수의 민심과 멀어졌다"(조기숙 이화여대 교수)는 진단이 나올 정도다. 이런 진단이 실제 민심을 관통하고, 이런 분위기가 내년 총선까지도 이어진다면 선거 결과는 불 보듯 뻔할 수 있다.그렇다면 대체 이 대표는 왜 당 안팎의 숱한 반발과 공격 속에서도 자신의 리더십과 정체성의 핵심축에 팬덤정치를 두고 있는 것일까. 이 질문에 지금 이재명의 민주당이 처한 위기와 한계, 과제 모두가 담겨있다. 시사저널이 살펴봤다.이래경 전 민주당 혁신위원장은 ‘천안함 자폭설’ 등의 논란으로 6월5일 임명 9시간 만에 사퇴했다. ⓒ연합뉴스"민주당에 민주가 없다"…토론 대신 문자폭탄"세계사적 의미가 있는 새로운 정치행태." 이 대표는 지난해 처음 '개딸 현상'이 나타나자 이를 이렇게 평가했다. 분명 처음에는 새로운 정치로 향해 가는 에너지를 담고 있었다. 이들의 모습엔 '직접·디지털 민주주의'라는 키워드들이 존재했고, 그게 '정치 효능감'과 결합하면서 정치 참여의 지평을 넓히는 것처럼 보였다. 대선 결과를 바꾸지는 못했지만, 대선 과정에서 정당과 정치인들이 자신들의 요구를 담아낼 수 있는 그릇이 될 수 있다는 사실을 '발견'하고 정치적 효능감을 강하게 느낀 이들은 '집단적 각성'을 겪었다. 정당이 갈등을 조직하고 동원해 통합의 길로 가는 게 민주주의 원리라는 점을 기억하면 개딸들의 행동은 그 자체로 의미 있는 시도였다.  문제는 이들이 의미 있는 주권자로서의 행동보다는 반(反)정치적이고 폭력적인 언행들을 일삼으면서부터 시작됐다. 자신들의 주장과 다른 의견을 내는 이들을 향해 무차별적인 공격에 나선 것이다. 상대방을 악마화하며 적대시하고, 폭력에 가까운 문자폭탄과 막말 등을 당원 게시판과 SNS에 쏟아냈다. 이들은 당내 갈등의 주요 고비 때마다 합리적 토론과 논의를 밀어내고 그 공간을 막말과 공격으로 채웠다. 최근 불거진 돈봉투 의혹과 김남국 코인 사태 등에서도 개딸들은 제기되는 대부분의 의혹과 논란에 대해 '정권의 야당 탄압'과 '검찰의 표적 수사' 등의 프레임으로 대응하며 '반성과 사과'라는 흐름을 당에서 밀어내는 선봉장 역할을 했다. 더 큰 문제는 이들의 행동과 목소리에 강경파 의원들이 적극적으로 올라타면서부터 시작됐다. 개딸들이 문제를 제기하고(서브), 그걸 강성 친명계 의원 모임인 '처럼회' 등에서 당내 주요 의제로 끌어올리고(토스), 이재명 대표가 그 의제를 실제 두둔(혹은 비판)하거나 집행하는 모습들이(스파이크) 반복적으로 연출됐다. 위장 탈당부터 검수완박 법안 강행, 당헌 80조 개정 등 주요 기로에서 개딸들과 처럼회 등 강경파 친명계 의원들은 이 대표와 함께 '무조건 직진' 모드로 내달렸다. 이들과 다른 의견을 내면 '겉은 민주당, 속은 국민의힘'을 뜻하는 은어인 '수박' 같은 폭력적인 언사가 수시로 튀어나왔다. 일련의 흐름 속에서 당내 질서와 규범은 흐릿해졌고, 소금 같은 쓴소리는 내부 총질로 공격받았다. 대화와 타협의 정치는 실종됐고, 건강한 토론은 점차 민주당에서 힘을 잃어갔다. 불체포 특권을 없애겠다는 대선 공약을 지키라는 항의도, 기소돼도 대표직을 유지할 수 있도록 당헌을 바꾼 것에 대한 비판도, 권리당원 투표가 전당대회 의결보다 우선한다는 당헌 개정안을 밀어붙이려는 것에 대한 지적에도 돌아오는 답은 '문자폭탄'이거나 '내부 총질'이라는 손가락질이 대부분이었다. 오히려 "진보라고 꼭 도덕성을 내세울 필요가 있느냐. 우리 당은 너무 도덕주의가 강하다"(양이원영 의원)는 발언이 당내에서 분출되기까지 했다.동력(개딸: 주권자가 명령한다)과 명분(친명계: 지지자가 원한다), 권한(이 대표: 선출된 권력)을 가진 채 민주당의 새로운 주류로 떠오른 이들은 당내 청년들과 원외 인사들의 목소리에도 거칠게 대응했다. 코인 논란을 야기한 김남국 의원과 김 의원 사태 수습 과정에서의 이 대표의 미지근한 리더십을 비판한 당내 청년 정치인들에게 일부 극단 지지자는 '원외 8적(敵)'이란 낙인을 찍고 괴롭혔다. 여기에 일부 친명계 의원도 가세했고, 이 대표는 수수방관하는 모습을 보였다. 이에 전문가들은 쓴소리를 쏟아내고 있다. "민주당은 도덕적으로 파산했다"(박성민 정치컨설턴트), "미 의사당 폭력 사건 때의 트럼프가 떠올려지는 게 한국 민주당의 어처구니없는 현주소"(안병진 경희대 미래문명원 교수), "욕설 댓글 개딸, 트럼프 지지자와 굉장히 유사한 포퓰리즘"(조기숙 교수) 등의 비판이 제기되고 있는 것이다. 2월10일 대장동 비리 의혹으로 서울지방검찰청에 출석하는 이재명 대표를 지지하는 집회가 서울지검 삼거리에서 열리고 있다. ⓒ시사저널 이종현이재명이 개딸 손 못 놓는 3가지 이유당 안팎의 전방위적 결별 요구에도 이재명 대표는 '개딸과의 동행'을 이어나가고 있다. 대체 왜 이 대표는 개딸과 함께하는 걸까. 민주당 복수의 핵심 관계자는 이 질문을 뒤집어서 봐야만 상황을 입체적으로 볼 수 있다고 했다. 이 대표에게 개딸이 필요하고, 개딸에게도 이 대표는 필수적이다. 이 대표와 개딸은 이제 서로를 떼서 생각할 수 없을 만큼 운명공동체가 됐다는 분석이다. 시사저널 취재를 종합하면, 개딸은 이 대표에게 ①정치적 동력(대선 패배에서 헤어나와 다음을 기약하게 만듦) ②정치적 대외 전선(反윤석열 구도를 선명하게 이어가게 해주는 세력) ③정치적 대내 전선(민주당 비주류로서 당 개혁의 당위성을 선사) 등의 핵심 가치를 선사한다. 거꾸로 개딸에게 이 대표도 대체불가능한 존재다. 이 대표만큼 자신들의 요구를 가장 충실히 이행하는 정치인은 찾기 어렵다. 문재인 전 대통령도 이 대표 못지않은 팬덤을 누렸지만, 이 대표만큼 지지층과 거리가 좁지는 않았다. 이 대표는 개딸들의 운동장인 온라인 사이트 '재명이네 마을'의 이장으로 활동할 만큼 팬덤과의 소통에 적극적이다.문제는 이 대표의 이런 행보가 '과연 내년 총선 승리에 유리하게 작용하는가' 여부다. 시사저널이 접촉한 대부분의 민주당 관계자는 이 질문에 고개를 저었다. 현재 개딸들의 모습은 폐쇄적이고 순혈주의적 성격을 가지는데, 그 자체로 외연 확대가 필수적인 선거에 도움이 되지 않는다는 지적이 많았다. 정당의 주인은 당원이지만, 선거는 국민 전체가 하는 만큼 강성 지지층 규합만으로는 총선에서 승리할 수 없다는 설명이다. 민주당 핵심 관계자는 "이낙연 전 대표는 물론 문재인 전 대통령까지 '수박'이라고 부르고 적으로 내모는 상황"이라면서 "유권자 연합을 해체하는 걸 넘어 '뺄셈 정치' 그 자체가 지금 상황"이라고 토로했다. 개딸들이 지금 민주당이 유리하게 싸울 공간에서 자꾸 당을 이탈시키고 있다는 진단도 나왔다. 익명을 요구한 한 초선 의원은 "이 대표와 개딸은 여론이 문제를 제기하면 '국민의힘은 어떤가'라고 자꾸 반문한다. 그렇게 민주당의 가장 큰 자산인 도덕성을 스스로 깎아내린다. 우린 야당이다. 정책으로 승부를 볼 수 없다. 그건 여당의 전략이다. 도덕적 우위 경쟁으로 민심을 가져와야 하는데, 자꾸 엉뚱하게 물타기를 하려고 한다"고 했다. 시사저널이 접촉한 상당수 관계자도 "민주당의 지금 경쟁우위가 무엇인가. 입법권력을 가진 원내 1당이 '거리정치'와 '장외투쟁'을 외치는 게 과연 유효한 전략일까. 과연 지금이 '윤석열 탄핵'을 외칠 때인가"라는 반문을 많이 내놨다. 개딸 논쟁이 민주당의 진짜 문제를 가리고 있다는 지적도 있다. 18대 국회 때부터 민주당에서 활동한 베테랑 보좌관은 이렇게 말했다. "'개딸' 문제가 사라지면 과연 국민은 민주당을 다시금 수권능력을 가진 정당으로 바라볼까. '개딸 아웃'을 외치는 비명계는 과연 이재명계를 대체해 민주당을 총선 승리로 이끌 수 있는 비전과 가치를 선보이고 있는가. 지금 이 질문에서 누구도 자유롭지 않다. 어서 빨리 개딸 논란이 해결되고 진짜 중요한 다음 이슈로 넘어가야 산다."</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>금리 주춤·주담대 확대에 은행 가계대출 17개월 만에 증가 전환 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003818978?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>대출 금리가 하락세로 돌아섰고 부동산 시장이 일부 회복세를 띄면서 주요 시중은행의 5월 가계대출이 17개월 만에 증가했다. 주택담보대출(주담대)가 7000억원가량 늘어난 영향이 컸다. 한국은행의 연이은 기준금리 동결로 현재 금리가 정점이라는 인식이 퍼지면서 3%대 후반 금리를 제공하는 상품의 ‘막차’를 타려는 수요로 예·적금도 증가세다.     ◆ 5대 시중은행 가계대출 잔액 17개월 만에 증가     1일 금융권에 따르면 5대 은행(KB국민·신한·하나·우리·NH농협)의 5월 말 가계대출 잔액은 677조6122억원으로 전월(677조4691억원) 대비 1431억원 늘어난 것으로 나타났다.        서울 시내에 설치된 시중은행들의 ATM기 모습. 연합뉴스    가계대출 잔액은 2021년 12월(3649억원) 이후 1년5개월 만에 증가세로 전환했다. 잔액이 늘어났다는 것은 가계에서 대출 원리금을 상환한 금액보다 은행의 신규 대출 규모가 증가했다는 의미다.     주담대(전세자금대출 포함)가 늘어난 것이 영향을 줬다. 5대 은행의 지난달 주담대 규모는 509조6762억원으로 전월(508조9827억원)보다 6935억원 증가했다. 2월 이후 4개월 만의 증가세 전환이다. 증가 폭은 올해 들어 가장 크다. 전세자금대출은 전월 대비 9222억원 줄어 감소세가 이어졌으나 3월(1조9014억원), 4월(1조7346억원)에 비해 감소 폭이 축소됐다. 개인신용대출은 같은 기간 2580억원 감소했다.     기준금리가 1월 이후 동결돼 은행권도 대출 금리를 낮추면서 원리금 상환 부담이 낮아져 대출 규모가 다시 늘어났다는 분석이다. 은행권은 당국의 금리 인하 압박 등으로 연초 이후 주담대를 중심으로 대출 금리를 내리는 추세다. 한은에 따르면 4월 말 기준 예금은행의 전체 가계 대출금리는 5.01%로 지난해 9월(4.71%) 이후 8개월 만에 가장 낮은 수준을 기록했다. 주담대 금리도 4월 말을 기준으로 6개월 연속 하락세를 보이고 있다.     최근 부동산 시장 하락세 완화로 주택 수요가 회복되는 분위기도 영향을 미친 것으로 보인다. 한국부동산원에 따르면 서울 아파트 가격은 2주 연속 상승세다. 이에 매수 심리가 개선되면서 5월 넷째 주(22일 기준) 서울 아파트 매매수급지수는 8개월 만에 80선을 넘어섰다.      중소기업 대출 잔액은 이 기간 3조2359억원 늘었고, 개인사업자 대출도 4152억원 증가한 것으로 나타났다. 중소기업·개인사업자 대출 모두 4개월 연속 증가했다. 은행권의 중소기업, 소상공인 대상 상생금융 정책이 영향을 줬다는 시각이다.     5대 은행의 예·적금 등 수신 규모도 2개월 연속 증가했다. 지난달 총수신 잔액 규모는 1895조5696억원으로 전월 대비 16조6876억원 늘었다. 정기예금과 정기적금은 이 기간 11조8088억원, 1조542억원 증가했다. 5대 은행의 정기 예·적금 증가 폭은 올해 들어 가장 크다.     보통예금 등의 요구불예금 잔액은 555조7534억원으로 전월 대비 1조8193억원 줄었으나 감소세는 둔화하는 모습이다. 4월에는 전달 대비 4조2127억원이 빠져나갔다.     은행권 관계자는 “향후 금리 인하 예상이 우세해지면서 현재 예·적금 금리 혜택을 누리려는 수요가 있는 데다 일부 정책상품의 영향을 받은 것으로 보인다”고 설명했다.        이복현 금융감독원장이 1일 오후 취임 1주년을 맞아 출입기자단과 가진 간담회에서 기자들의 질문에 답하고 있다. 금융감독원 제공    ◆ 이복현 “배수의 진 치고 시장 불공정행위 근절”     이복현 금융감독원장은 이날 취임 1주년을 맞았다. 이 원장은 “우리나라 금융과 경제가 현재의 어려운 상황을 헤쳐 나아가고 재도약할 기반을 마련할 수 있도록 배수의 진을 치고 금융시장 안정과 자본시장 불공정행위 근절에 노력해 나가겠다”고 밝혔다.     이 원장은 취임 1주년을 맞아 서울 여의도 한 식당에서 가진 기자간담회에서 “우리 금융시장은 선진시장 도약을 위한 출발선에 서 있다. 공정과 신뢰가 뒷받침되지 않는 금융시장은 모래성과 같다”며 이같이 말했다. 이 원장의 이런 언급은 최근 불거진 소시에테제네랄(SG)증권발 주가 폭락 사태 등 자본시장 불공정행위에 대한 강력한 근절 의지를 내보인 것으로 해석된다.     이 원장은 이어진 질의·응답에서도 “우리 주식시장이 아직도 (코스피) 2500 언저리에 머물러 있는 이유 중 하나가 불법을 저지른 사람들의 처벌에 대한 시장의 신뢰가 부족하다는 것”이라고 지적했다. 그러면서 “(불공정거래 엄단은) 누구에 대한 응징이나 제재의 관점이 아니라 자본시장 자체의 매력을 높이고 신뢰를 회복할 수 있는 정책적 틀로 생각한다”며 “오랫동안 일관되게 지속할 것”이라고 강조했다.      지난해 6월 취임한 이 원장은 앞으로 1년 동안의 금감원 업무 방향에 대해 “감독원 업무 혁신 성과를 가시화하고 금융 시스템과 민생 안정을 위해 부동산 프로젝트파이낸싱(PF) 등 잠재 불안 요인에 선제 대응하겠다”고 말했다. 또 금융산업 성장을 위해 건전한 디지털 금융 혁신 기반을 조성하겠다고 밝혔다.     이 원장은 해외투자자를 중심으로 공매도 전면 재개를 요구하는 것과 관련해 “시장이 조금 더 안정되면 심도 있는 논의가 이뤄질 것으로 기대된다”며 “재개 여부를 논하는 시점에서는 공매도 시장 접근성이나 운영 방식 등이 사전적으로 점검돼야 한다”고 말해 당분간 어렵다는 생각을 내비쳤다.     한편 이 원장은 내년 4월 22대 국회의원 선거 출마설에 대해서는 “제가 앞으로 1년 동안 무엇을 하겠다고 말씀드렸다”며 에둘러 출마 의지가 없음을 피력했다.      ◆ 증권사는 토큰증권 시장 준비에 합종연횡     내년 본격적인 토큰증권(ST) 출시를 앞두고 증권사, 은행, 정보통신기술(ICT), 조각투자 플랫폼 등이 합종연횡하고 있다. 블록체인 기술을 활용해 다양한 실물자산에 조각 투자하는 토큰증권이 금융사의 미래 먹거리로 주목받는 만큼 생태계를 미리 구축해 시장을 선점하겠다는 전략이다.        함영주 하나금융그룹 회장(왼쪽)과 최현만 미래에셋증권 회장이 지난달 31일 하나금융그룹 명동사옥에서 토큰증권 및 웹3.0 사업 협력을 위한 업무협약을 체결하고 기념 촬영을 하고 있다. 하나금융그룹 제공    하나금융그룹은 이날 미래에셋증권, SK텔레콤과 손잡고 토큰증권 컨소시엄인 ‘넥스트 파이낸스 이니셔티브(NFI)’를 구축했다고 밝혔다. 이들은 토큰증권 사업에 필요한 분산원장(블록체인 네트워크) 체계를 함께 구축하고 양질의 토큰증권 발행, 혁신 서비스 발굴, 투자자 보호 체계와 제도 등을 함께 마련할 계획이다. 토큰증권 사업을 시작으로 금융 혁신, 웹3.0 사업까지 협력을 이어 나가기로 했다.     함영주 하나금융 회장은 “견고한 파트너십을 통해 변화의 기회를 적극 활용하고 미래 디지털 금융 혁신을 주도함으로써 고객에게 새로운 가치와 참신한 경험을 제공할 것”이라고 밝혔다. 미래에셋증권 관계자는 “토큰증권은 은행, 증권사 등 여러 주체가 역할을 할 수 있다”며 “SK텔레콤은 웹3.0 환경 등 기술력에서, 하나은행은 신탁과 자산 발굴 등 다양한 역할을 할 수 있을 것”이라고 설명했다.     토큰증권 시장을 준비하는 금융사들은 발행·유통 분담, 기술 개발, 신탁 등 전반적인 인프라 협업을 위해 기업들과 동맹을 맺는 동시에 상품 판매를 위한 조각투자 플랫폼과 협업하는 얼라이언스를 별도로 구축하고 있다.     NH투자증권과 NH농협은행은 SH수협은행, 전북은행 등과 ‘STO 비전그룹’을 만들었고, 한국투자증권은 인터넷전문은행인 카카오뱅크, 토스뱅크와 협력해 ‘한국투자 ST프렌즈’를 만들었다. 신한투자증권도 이지스자산운용, 두나무 자회사인 람다256, 에이판다파트너스 등과 함께 토큰증권 플랫폼을 구축했고 KB증권도 ‘ST오너스’를 만들어 SK C&amp;C 등 기업들과 조각투자 플랫폼을 끌어모았다.     토큰증권 시장은 내년 관련 법제도가 완비된 뒤 본격화할 예정이지만 신한투자증권은 금융규제 샌드박스를 통해 올해 하반기 출시를 앞두고 있다.     금융투자업계 관계자는 “증권사들이 적극적으로 토큰증권 협의체를 만들고 있다”며 “토큰증권 투자자가 주로 개인일 것으로 예상되는데 초기에 강력한 인프라를 구축하고 매력적인 투자 자산을 얼마나 확보하는지가 성패의 관건이 될 수 있다”고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[스페셜리포트]대환대출 쏠림 현상...“기울어진 운동장부터 바로 잡아야”</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003105193?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>출처 게티이미지뱅크대환대출플랫폼의 성공적인 생태계 안착을 위해 빅테크 쏠림 현상을 완화해야 한다는 목소리가 나온다. 상품 경쟁을 독려해 대환대출 생태계를 활성화하고 연말 예정된 주택담보 대환대출까지 흥행 열기를 이어나가야 한다는 지적이다.네이버페이·카카오페이·토스 등 빅테크는 대형 은행을 대거 유치하며 치열한 고객 유치 경쟁을 예고했다. 시중 5대 은행을 유일하게 모두 입점시킨 카카오페이에 이어 토스와 네이버가 5대 은행 중 각각 2개 은행을 입점시켰다.중소 핀테크 업계는 초반 시장 점유율이 빅테크 중심으로 형성되는 상황에 우려를 표하고 있다. 빅테크 가 네임밸류와 자본력에서 월등해 금융사 유치 경쟁에서 밀릴 수 밖에 없다는 것이다. 따라서 현재 자율경쟁 구조를 보완해야 한다는 주장이다.실제로 플랫폼 개시 후  중소 핀테크 업체 제휴 현황을 살펴보니 핀다는 하나은행과 입점 계약을 맺었고, 뱅크샐러드·KB국민카드·웰컴저축은행 등 3개사가 운영하는 대출 갈아타기 서비스에는 5대 은행이 들어오지 않았다. 아예 제휴사 확보에 실패해 서비스 개시를 연기한 중소 핀테크 업체도 있는 것으로 나타났다.업계 관계자는 “대환대출 서비스 개시와 함께 제휴사 입점 목록을 보니 빅테크 중심 시장 독식이 현실화 됐다”면서 “당장 플랫폼 흥행보다 생태계 안착을 위해 금융 당국에서 나설 필요가 있다”고 말했다.중소 핀테크 업계는 초기 시장 상황이 올해 12월 예정된 주택담보대출 대환 시장에도 영향을 미칠 수 있다는 점을 우려한다. 빅테크의 중개수수료 인하 경쟁을 지양하고, 금융사 플랫폼 입점을 독려하는 등 당국 차원 관여가 필요하다는 주장이다. 중소형 플랫폼 입점 금융사에 수수료 감경 혜택, 정부 지원 대출 상품 중소형 플랫폼 입점 의무화 등도 제기된다.대출한도 증액 목소리도 나온다. 대환대출에서 개별 금융회사가 신규 유치할 수 있는 한도를 4000억원으로 설정함에 따라, 시중은행이 경쟁력이 입증된 일부 빅테크에 몰리는 현상이 심화됐다는 지적이다.업계 관계자는 “주택담보대출은 규모와 수요가 훨씬 큰 만큼, 한도 설정을 달리하고 고객 유치 경쟁을 독려한다면 빅테크 쏠림 현상을 완화할 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.06.10.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>MZ세대는 왜 전통시장에서 돈을 썼을까 [슬기로운 금융생활]</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001106674?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>충남 예산시장 방문 MZ 934%↑'할매니얼 간식' 인기 급증'저렴' '건강' 주요 키워드로"전통시장 매출상승 주요 요인은 MZ 고객 유입"최근 한 카드사가 전통시장의 매출 데이터를 공개했습니다. 외식물가지수가 가파르게 오르면서 상대적으로 저렴하게 식사를 할 수 있는 전통시장 방문 고객이 늘고 있다는 내용인데, 놀랍게도 전통시장의 매출은 중장년층이 아닌 MZ세대가 이끈 것으로 나타났습니다. MZ세대는 왜 전통시장에서 돈을 썼을까요. 카드사의 매출데이터를 통해 MZ세대의 소비습관을 들여다보겠습니다.◆ 전통시장 찾는 MZ, 5년 만에 10배 늘었다BC카드 신금융연구소가 2019년 1~4월부터 2023년 1~4월까지 총 5년간 전국 주요 전통시장 15곳에서 발생된 매출 데이터를 분석한 결과, 전통시장 매출은 코로나19 발생 직후인 2021년을 기점으로 매년 가파른 증가세를 기록하고 있는 것으로 나타났습니다.특징적인 부분은, 같은 기간 마트와 음식점의 매출 회복세는 전통시장에 비해 상대적으로 더뎠다는 점입니다. 지난 4월 발표된 외식물가 지수는 117.5로, 2020년 12월부터 29개월 연속 상승 중입니다. 특히 외식물가 상승률은 7.6%로 소비자물가 상승률(3.7%) 대비 2배 이상 벌어져 외식에 대한 부담이 가중되고 있습니다.이 가운데 보다 저렴한 식사와 생필품 구매가 가능한 전통시장 방문이 꾸준히 증가하고 있는 것으로 카드사는 분석했습니다. 실제 전통시장을 방문하는 고객은 5년 전 대비 42%, 연 평균 9%씩 증가세를 보이고 있습니다.이런 높은 증가세를 이끄는 것은 중장년층이 아닌 바로 MZ세대. 최근 레트로 열풍으로 향수를 자극하는 장소나 간식들이 MZ세대 중심으로 큰 인기를 끌면서 전통시장이 'MZ세대들의 놀이터'로 변화했다는 분석입니다.시장별로 보면, 2019년 대비 2023년 충남 예산시장을 방문한 MZ고객의 증가율은 934%, 무려 10배 가량 늘었습니다. 충남 예산시장은 최근 백종원 더본코리아 대표가 리뉴얼을 주도한 곳이죠. MZ세대 사이에서 충남 예산시장은 '핫플'로 자리 잡았고, 실제 많은 고객들이 방문한 것으로 확인됐습니다. 뒤이어 서울의 신당 시장도 MZ고객 증가율이 무려 117%, 강원 강릉중앙시장은 70%, 제주 동문시장은 25%, 서울 망원시장은 18% 각각 증가했습니다.◆ 케이크 대신 '떡·한과' 찾는다MZ세대의 레트로 열풍은 다른 데이터에서도 찾아볼 수 있습니다. KB국민카드가 가맹점 수 1,000개 이상을 보유한 디저트업종의 최근 4년간(2019년 대비 2022년) 매출액을 분석한 결과, 떡과 한과업종의 증가율이 66%로 가장 높았습니다. 뒤이어 와플·파이(65%), 아이스크림·요거트(36%), 도너츠(29%), 케이크(7%) 순으로 나타났습니다.떡이나 한과는 일반적으로 중장년층이 선호하는 간식으로 알려져 있죠. 실제 떡과 한과업종의 매출 비중은 50대와 60대 이상이 60.3%로 압도적이긴 하나, 2019년 대비 2022년 떡과 한과 업종의 연령대별 매출액 비중 변화를 보면 20대의 매출액 비중이 2.2%p 증가해 타 연령대비 가장 많이 확대된 것으로 나타났습니다.실제로 MZ세대 사이에선 떡이나 약과 등의 먹거리가 일명 '할매니얼 간식'으로 불리며 새로운 트렌드로 자리잡았습니다. MZ세대들 사이에선 약과 맛집 공유가 확산되기도 하고, 이를 구매하기 위한 이른바 '약게팅(약과+티켓팅)'이 유행 중이기도 합니다. '하나를 먹어도 건강하고 든든하게'라는 인식에 따라 전통 디저트의 인기가 높아지고 있는 것으로 업계는 분석하고 있습니다.◆ '사진관' 있는 곳에 MZ가 있다데이터로 살펴보는 MZ세대의 소비습관, 전통시장과 떡·한과에 이어 MZ세대가 많은 돈을 쓰는 곳은 어디일까요. 바로 '사진관'입니다. 대출전문 빅데이터 핀테크기업인 핀다가 상권분석 플랫폼을 통해 매출데이터를 분석한 결과 서울의 명동과 강남역, 홍대입구역 등 주요 상권에서 사진관업종 전체 매출 중 90%는 20~30대가 차지하고 있었습니다.과거 20여년 전 '스티커사진'이 열풍이었다면 최근 몇 년간 '인생네컷'으로 불리는 즉석사진과 프로필사진 촬영 등이 큰 인기를 끌었죠. 여기에 연예인이나 운동선수들의 전유물로 여겨졌던 '바디프로필'도 사실상 유행처럼 번지면서 사진은 MZ세대의 대표 놀이문화로 자리 잡았습니다.실제로 이런 인기에 힘입어 무인 셀프사진관과 전문 스튜디오 모두 빠르게 늘고 있는 것으로 나타났습니다. 국세청에 따르면 2022년 기준 사진관 업체 수는 1만8,742곳으로 2018년 1만3,404곳과 비교해 5년 사이 5,000곳 이상 증가했습니다. 강한 자기표현 욕구로 사진에 아낌없이 지갑을 여는 MZ세대 덕에 사진관은 '핫플'로 불리며 빠르게 성장하고 있습니다.★ 슬기로운 TIP그렇다면 나는 어디서 돈을 가장 많이 쓰고 있을까? 과거에는 가계부를 통해 한 달간 소비처를 일일이 정리해봤다면, 최근에는 금융앱이 '마이데이터'를 활용해 자동으로 소비습관을 분석해줍니다. 은행이나 카드사, 보험사 등 금융기관은 물론 네이버와 카카오, 토스 등 빅테크, 핀테크사 등 총 64개 마이데이터 사업자가 운영하는 각각의 앱을 통해 이 같은 소비데이터 분석이 가능합니다.마이데이터 서비스 가입 후 나의 자산을 등록·연결하면 지난해보다, 또는 지난 달보다 얼마나 지출을 많이 했는 지, 주요 소비처는 어디인지 간편하게 확인이 가능합니다. 특히 최근엔 소비리포트 외에도 AI를 접목한 분석이나 신용관리리포트 등 다양한 분석서비스도 제공되고 있습니다. 금융사만 데이터를 관리하게 둘 순 없겠죠, 금융사가 모아 준 데이터를 나 스스로도 적극 활용해봅시다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>[환생하는 뱅크]②앱 뛰어넘은 SNS 활용법</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000750144?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>SNS 평판리스크에 흔들리는 금융시스템웹툰 연재부터 단편 드라마까지 소통 확대몇 번의 터치만으로 자금이 이동하는 디지털 금융 시대가 되면서 은행들은 뱅킹앱 고도화에 주력하고 있다. 그러나 기능 강화만으로 소비자들을 묶어 두지는 못했다. 기능 못지않게 중요한 건 SNS를 통한 평판 관리라는 분석이 많다.인터넷과 소셜미디어, 디지털뱅킹 등의 사용 증가는 과거보다 금융시스템을 더욱 취약하게 만들었다.지난해 10월 15일 오후 3시 30분쯤 카카오가 입주한 판교 SK C&amp;C 데이터센터 화재로 카카오페이와 카카오뱅크의 일부 서비스에 장애가 발생했다. 당일 반나절 만에 온라인에선 "카카오뱅크에 넣어둔 예금을 다른 은행으로 옮겨야겠다"는 글들이 올라오며 불안감이 빠르게 퍼졌다. 결국 다음날 감독 당국이 "안전하다"고 해명에 나서야만 했다.인터넷전문은행인 토스뱅크도 '이자 미리 주기' 적금과 관련해 '유동성이 부족해 수신을 유치하려는 고육책이 아니냐'는 우려가 번지면서 홍역을 앓았다.SNS를 통한 평판 리스크를 실감나게 겪은 은행들의 태도는 사뭇 달라지고 있다. 신상품 출시 홍보 용도로만 활용하던 SNS를 통해 소통에 적극 나섰다. 은행권의 트렌트세터로 거듭난 건 NH농협은행이다.농협은행이 5일부터 연재하는 농다미의 농담같은 회사일기. [사진=농협은행 인스타그램 갈무리 ]NH농협은행은 5일부터 공식 인스타그램 '농다미의 농담 같은 회사일기'를 연재한다. 사회초년생 농다미를 통해 행원의 생활을 웹툰으로 보여주기로 했다. 또 '농대장의 인생극장'을 통해 직장인이라면 공감할 수 있는 애로사항을 짧은 드라마로 보여주고 있다. 이외에도 MZ세대 사이에서 유행하는 '댄스챌린지' 혹은 출근룩 안내, 강아지를 내세운 SNS 광고를 연재하기도 했다.SNS 말투도 딱딱하지 않고 MZ세대가 즐겨 사용하는 비속어를 절묘하게 섞어 쓰기도 한다. 이런 노력으로 NH농협은행의 인스타그램 팔로워는 92만1천만명으로 성장했다. 국내은행 중 넘버원 인기스타다. 국민은행(35만8천명), 신한은행(38만3천명), 하나은행(12만4천명), 우리은행(24만1천명)을 크게 앞지른다.국민은행도 SNS 활용법이 늘었다. 유튜브와 인스타그램을 통해 에스파의 인터뷰를 공개하는가 하면, NCT DREAM의 이벤트도 진행 중이다. 5일부터는 환경의 날을 기념한 팔로워 참여 이벤트도 한다.유튜브에서는 '케이비쇼츠' 단편 드라마를 통해 행 내 에피소드를 보여주고 있다. '케이비쇼츠'를 통해 국민은행의 홍보 효과도 좋게 나타나고 있다. 이를테면 두 커플이 리브 모바일 친구 결합을 통해 결합했다는 줄거리 등을 통해 리브엠 결합상품을 자연스럽게 알렸다.하나은행도 '별 이야기'라는 웹툰을 연재하고 있으며, 구독자 이벤트도 부지런히 열며 팔로워 늘리기에 안간힘이다.은행 관계자는 "꾸준한 콘텐츠 업로드, 고객참여형 SNS 이벤트를 통한 지속적인 소통으로 고객과 소통을 늘리겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.06.15.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>‘아이엠택시’ 진모빌리티·‘타다’ VCNC, 합병 결렬</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002150490?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[사진=각사][디지털데일리 이나연 기자] 타다 운영사 브이씨엔씨(VCNC)가 경영 안전을 위한 구조조정을 시작한 가운데, 올해 초부터 진행된 아이엠(I.M) 택시 운영사 진모빌리티와 합병 논의가 결렬됐다.15일 진모빌리티는 VCNC, VCNC 최대주주인 비바리퍼블리카(토스)와 지난 1월경부터 합병을 검토했으나, 끝내 무산됐다고 전했다.진모빌리티와 VCNC 측 모두 합병 논의가 중단됐다는 사실을 밝히면서도 구체적인 결렬 사유에 대해서는 말을 아꼈다.앞서 진모빌리티는 VCNC 지분 인수와 지분 교환 등 다양한 방식을 검토했다. 투자은행(IB)업계에 따르면 삼정KPMG를 주관사로 선정해 자금 마련을 위한 투자 유치도 진행했다. 신생 사모투자펀드(PEF)인 오션프론트파트너스가 양사 합병법인에 투자하는 방안도 추진됐다.업계는 이번 협상이 결렬된 데는 각사 부채가 영향을 미쳤을 것이라 보고 있다.진모빌리티 감사보고서에 따르면 지난해 진모빌리티 부채는 657억9939만원에 달한다. 영업손실 또한 지난 2021년 138억3676만원에서 작년 136억3019만원으로 적자를 이어오고 있다.VCNC도 상황은 비슷하다. 지난해 VCNC는 41억8804만원 매출을 올렸지만, 영업손실이 262억3715만원에 달했다. 당기순손실 또한 272억5506만원으로 나타났다.한편, VCNC는 지난 14일 사내 구성원에 구조조정 진행 소식을 공지했다. 희망퇴직은 현재 80∼90명가량 인원의 최소 50%를 감축하는 것을 목표로 일주일간 진행하며, 희망퇴직자에게는 2개월치 월급을 지급하는 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>제주항공, 항공권 할인행사 ‘찜(JJIM)’ 오픈..'일본 3만9400원부터'</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005507889?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>10월 29일~내년 3월 30일 탑승분위탁수하물 0kg 등 제한조건 있어[이데일리 박민 기자] 제주항공(089590)은 항공권 할인 행사인 ‘찜(JJIM) 특가’를 오는 20일 오전 10시부터 27일 오후 5시까지 진행한다고 14일 밝혔다.이번 행사는 제주항공의 미션을 바탕으로 특가 항공권 혜택을 고객들에게 제공함으로써 행복한 여행의 경험을 고객과 함께 나누기 위해 기획됐다.‘찜(JJIM) 특가’의 경우 가족이나 친구 등 같이 행복한 여행의 경험을 나누고 싶은 대상에게 이번 할인혜택을 많이 공유할수록 더 많은 혜택을 제공하는 이벤트도 진행된다.‘찜(JJIM) 특가’ 예매는 오는 10월 29일부터 내년 3월 30일까지 탑승할 수 있는 항공권을 대상으로 20일 국내선, 21일부터 국제선 항공권 할인 판매를 시작한다. 유류할증료와 공항이용료 등을 모두 포함한 편도 총액을 기준으로 국내선은 1만6800원부터, 국제선의 경우 △일본 3만9400원 △대만 5만1800원 △동남아 6만7600원 △대양주 9만4300원부터 판매한다. 자세한 내용은 제주항공 홈페이지에서 확인할 수 있다.‘찜(JJiM) 특가 항공권’은 무료로 맡기는 수하물 없이 비행기 안으로 1개의 휴대품(3면 합계 115cm 이내, 무게 10kg 이하)만 들고 가는 조건이기 때문에 자신의 여행계획에 맞춰 예매를 해야 한다. 수하물을 맡겨야 한다면 특가 항공권’을 예매한 후 ‘사전 수하물 구매 서비스’를 이용하면 된다모바일 앱으로 항공권 구매할 경우 회원 등급에 따라 국제선 왕복 최대 10만원, 최대 10%의 할인코드를 제공한다. 신규 회원 가입자의 경우 국내선 7%, 국제선 5%의 중복 할인도 받을 수 있다. 카카오페이 또는 토스로 결제할 경우 결제 금액에 따라 최대 2만원의 중복 할인을 제공하는 결제 혜택도 제공한다.고객들이 직접 참여할 수 있는 온라인 이벤트도 진행한다. 제주항공 홈페이지의 이벤트 페이지를 친구, 가족에게 공유하면 1회당 100P의 리프레시 포인트를 1인 최대 7회까지 제공한다. 또 제주항공 공식인스타그램(@jejuair_official)에 게시된 찜특가 관련 포스트에 댓글을 달고 응모한 고객들을 대상으로 추첨을 통해 국제선 왕복항공권, 잔망루피 기획상품 등을 제공한다.제주항공 관계자는 “항공여행을 계획하고있는 고객들에게 경비 부담을 덜어주기 위해 연중 최대 항공권 할인 행사인 ‘찜(JJIM) 특가’를 진행하게 됐다”며, “정규항공권에 비해 운임이 낮은 대신에 수하물 무료 위탁 서비스가 포함되어 있지 않은 만큼 자신의 여행계획을 확정한 후 일정에 맞게 항공권을 예매하는 게 효율적”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.06.11.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>이차전지 열풍에도 굳건한 삼성전자, 주식 선물하기 1위</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000908227?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>삼성전자가 ‘선물용 주식’ 1위에 올랐다.서울 서초구 삼성전자 서초사옥. /뉴스1         11일 국내 7개 증권사(KB·NH투자·대신·삼성·신한투자·토스·하나증권)에 따르면 지난달 주식 선물하기 서비스 거래 건수 1위는 삼성전자였다.주식 선물하기 서비스란 홈트레이딩서비스(HTS) 또는 모바일트레이딩서비스(MTS)에서 타인의 사람의 이름과 전화번호 등을 입력해 손쉽게 주식을 선물하는 서비스다.증권사별로 많이 선물한 종목 2~5위는 다 달랐지만, 1위는 모두 삼성전자였다. 이차전지 열풍에도 삼성전자가 투자자의 러브콜을 받은 것이다.삼성전자가 국내 증시에서 대표성을 띤다는 점과 안정적인 주가 흐름을 보인다는 점이 반영된 것으로 풀이된다.이와 관련해 김동원 KB증권 연구원은 “삼성전자 주가는 메모리 반도체 경쟁사 대비 덜 올랐다”며 “파운드리 사업 가치와 환차익 등을 고려하면 매력적인 투자처”라고 평가했다.한편 KB증권의 2~5위는 차례로 에코프로, LG에너지솔루션, POSCO홀딩스·카카오, 삼성전자우였다. NH투자증권은 카카오, 삼성전자우, 에코프로비엠, 에코프로였으며 대신증권은 LG에너지솔루션, 카카오, SK하이닉스, 삼성전자우였다.신한투자증권은 에코프로, 네이처셀·씨유박스·LG전자, 한국전력공사·어반리튬·LG디스플레이·삼성전자우·포스코인터네셔널이었다. 토스는 에코프로비엠, 삼성전자우, 카카오, 금양이었으며 하나증권은 상지카일룸, 와이씨켐, KBI메탈·NAVER·로보티즈·한화시스템·현대차2우B, DGB금융지주, POSCO홀딩스였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.06.02.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>인터넷은행도 신용카드 준비…신규 허가 비관론도</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000044648?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>(사진=픽사베이)인터넷전문은행들이 신용카드업 진출을 위한 밑그림을 그리고 있다. 인터넷은행들이 신용카드업자로 인정받으려면 금융위원회 허가가 있어야 하는데, 일각에선 신규 허가가 요원할 수 있다는 부정적 견해도 나온다.2일 금융권에 따르면 인터넷은행들이 신용카드업 라이선스 취득을 통한 사업 진출 가능성을 타진하고 있다.여신전문금융업법상 신용카드업자로 분류되는 신용카드사는 금융위의 허가를 받아야 한다. 허가 요건을 보면 최대 400억원의 자본금이 필요하다. 경영하고 있는 사업의 성격상 신용카드업을 겸해 경영하는 것이 바람직하다고 인정되는 경우에는 허가 대신 등록으로도 신용카드업에 진출할 수 있다. 다만 대통령령에서 부적합하다고 판단할 여지가 있으면 등록이 제한된다.현행법상 인터넷은행의 신용카드업 진출을 막는 조항은 없다. 인터넷은행 역시 여신전문금융업법에서 원하는 조건을 충족하면 금융위에게 신규 허가를 받을 수 있는 셈이다.인터넷은행 3사 가운데 신용카드업 진출에 가장 적극적인 모습을 보이는 곳은 카카오뱅크다. 윤호영 카카오뱅크 대표이사는 지난해 5월 2분기 실적발표 컨퍼런스콜에서 "신용카드 라이선스 취득을 통한 직접 진출도 긍정적으로 검토 중"이라고 언급하기도 했다.카카오뱅크는 최근 들어 카드 시스템 구축 사업 입찰 공고를 내는 등 신규 사업 진출을 위한 준비 작업에도 착수했다. 공고를 보면 제안서 접수일은 지난 3월 16일이었다. 카카오뱅크는 우선협상자를 선정하고 최종 협상을 진행한 뒤 계약을 진행한다. 사업 예상 기간은 총 6개월로 오는 10월 마무리되는 일정이다. 다만 카카오뱅크는 신용카드업 진출 시기 등 구체적인 사안은 정해지지 않았다고 설명했다.카카오뱅크 관계자는 "카드 시스템 구축 작업을 위한 공고를 내는 등 라이선스 직접 취득을 위한 준비를 하고 있다"면서도 "시스템 구축 준비가 언제까지 되고, 언제 라이선스를 취득하는지 등 정확한 타임라인은 결정되지 않았다"고 말했다.토스뱅크는 출범과 함께 신용카드업 진출을 공식화했다. 홍민택 대표는 토스뱅크가 출범한 지난 2021년 "신용카드 사업 라이선스 취득과 관련해 정부와 초기 단계에서 협의를 진행하고 있다"고 밝힌 바 있다.약 2년이 지난 현재 토스뱅크는 신용카드업 진출을 추진하되 대출 등 은행 본연 업무에서 경쟁력을 키울 방침이다. 신용카드업 진출을 서두르지 않는 대신 전세자금대출 등 기존 은행들이 선보인 대출 상품을 먼저 출시해 덩치를 키운다는 심산이다.토스뱅크 관계자는 "신용카드업 진출은 장기적인 계획하에 계획하고 준비하는 부분 중 하나"라며 "전세자금대출, 주택담보대출과 같은 상품을 출시한 뒤 규모의 성장을 이루면 신용카드 비즈니스를 할 여유가 생길 것"이라고 전했다.케이뱅크는 카카오뱅크, 토스뱅크와 달리 신용카드업 진출에 큰 의지를 드러내지 않고 있다. 사업 영역을 확장하기 위한 기조는 분명하지만 신용카드가 유력 후보 중 하나는 아니라는 뜻으로 여겨진다.케이뱅크 관계자는 "사업 다각화를 위한 다양한 검토 방안이 있지만 신용카드업을 염두에 두고 있지는 않다"고 설명했다.외부에선 인터넷은행의 신용카드업 진출이 성공한다면 대략 2~5년 후가 될 것으로 보고 있다. 여신전문금융업법에서 요구하는 자본금을 충족하더라도 전문인력, 전산설비 등 물적 시설을 확보하고 사업계획 타당성과 건전성을 입증해야 하는 등 진입장벽이 높기 때문이다.일각에선 금융위가 신규 신용카드사 허가를 내주지 않을 수 있다는 관측도 제기된다. 금융위가 인터넷은행 인허가 과정에서 신용카드 관련 요건을 들여다보긴 했지만 시장 상황이 좋지 않아 사용자 보호를 위해 신규 허가를 내주지 않을 것이란 분석이다.나이스신용평가에 따르면 올해 분기 △신한 △KB △삼성 △현대 △우리 △하나 △롯데 등 7개 전업신용카드사의 영업수익은 전년 동기 대비 16% 증가했지만 이자비용(69%)과 대손비용(51%)의 증가폭이 이를 크게 뛰어넘어 이익규모가 축소됐다. 당기순이익도 5725억원으로 전년 같은 기간 1844억원과 비교해 24.4% 떨어졌다. BC카드를 포함한 8개 카드사의 평균 연체율은 1%에 육박하면서 고공행진 중이다.카드업계 관계자는 "감당하지 못할 수준까진 아니지만 수익성 지표가 나빠지고 있는 것은 사실"이라며 "기존 업체들도 장기화된 경기 악화에서 탈출구를 찾지 못하고 있는데 새로운 신용카드사 허가를 내주긴 어려울 것"이라고 내다봤다.또 다른 관계자는 "10개도 채 되지 않는 카드사가 시장을 독과점하는 형태이고, 새 카드사가 나오면 회원이나 가맹점에게 돌아갈 혜택도 커질 수 있어 신규 허가를 긍정적으로 볼 여지는 있다"면서도 "신규 사업자가 가져올 긍정적인 영향을 정확하게 예측할 수 없고, 장기적으로 연체율이나 리스크 관리 정도도 계산할 수 없어 허가가 나올지는 미지수"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.06.04.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>[ET뷰] 대환대출협의회 출범...플랫폼 운영 탄력</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003105039?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 류영석 기자 = 금융권의 온라인·원스톱 대환대출 플랫폼이 시행된 5월 31일 오후 서울 시내에 설치된 시중은행들의 ATM기와 카카오페이 대출 비교 서비스 ‘대출 갈아타기’ 화면 모습. 이날부터 소비자는 대출 비교 플랫폼, 주요 금융회사 등의 스마트폰 앱을 통해 기존에 받은 신용대출을 더 유리한 조건으로 한 번에 갈아탈 수 있다. 2022023.5.31 ondol@yna.co.kr대환대출협의회가 출범한다. 금융당국이 가계부채 경감, 금리인하 등을 목적으로 시작한 대환대출플랫폼이 탄력을 받을 수 있을지 주목된다.4일 금융권에 따르면 최근 대환대출플랫폼에 참여한 금융사를 중심으로 민간 협의체가 구성됐다. 대환대출협의회에는 시중 5대 은행과 저축은행·카드사를 포함한 53개 금융사와 비바리퍼블리카(토스), 카카오페이, 핀다, 뱅크샐러드 등 플랫폼 제공 회사들이 참여한다.협의회 회장사는 신한은행이 맡는다. 전국은행연합회 회장이 추천했다. 부회장 3인은 저축은행중앙회장, 여신금융협회장, 핀테크산업협회장이 각각 추천한 SBI저축은행, KB국민카드, 비바리퍼블리카(토스)가 맡기로 했다. 회장사, 부회장사 임기는 1년이며 연임도 가능하다.협의회가 구성되며 대환대출플랫폼 운영이 보다 효율적으로 이뤄질 전망이다. 협의회는 우선 중개수수료 산정과 공시 기준, 공시일 등 구체적인 공시 방안을 결정할 계획이다. 이 밖에 중개수수료 구간별 범위 공시 등을 논의할 것으로 알려졌다.대환대출 리스크 관리 방안도 구체화한다. 협의회는 참여사가 협약 내용을 위반한 경우 대출이동시스템 이용을 잠정 중단시키는 등 이용제한 및 재개 조치를 취할 방침이다.협의회가 구성되며 시중은행이 대환대출플랫폼에 보다 적극적으로 뛰어들 것이라는 전망이 나온다. 금융당국과 금융권이 지난 달 말 시작한 대환대출플랫폼은 온라인으로 대출상품을 갈아탈 수 있는 서비스다.  시행 초기라는 점을 감안해도 시중은행 참여가 저조하다는 지적을 받고 있다. 시중은행이 자사 대출 상품을 한정적으로 플랫폼에 내놓고 있어 효과가 떨어진다는 것이다.협의회가 이러한 난맥상을 타개할 수 있을 것으로 기대를 모은다. 업계 관계자는 “은행 참여를 이끌어내려는 핀테크 업계와 고객지키기 방어전을 펼치는 은행사간 협의 장이 마련됐다”면서 “시중은행 플랫폼 입점 확대와 상품·금리 경쟁 등 시장 활성화까지 이끌어낼 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>은행 1분기 건전성지표 개선…BIS 총자본비율 0.29%p↑</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002306835?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>◆…서울 시내 은행 현금인출기 앞으로 시민이 지나가고 있다. [연합뉴스]3월말 국내은행의 자본비율은 전분기말 대비 상승했고, 모든 은행의 자본비율이 규제비율을 웃도는 등 양호한 수준을 유지한 것으로 나타났다.   금융감독원이 1일 발표한 '2023년 3월말 은행지주회사 및 은행 BIS기준 자본비율 현황'에 따르면 3월말 국내은행의 BIS(국제결제은행) 기준 보통주자본비율, 기본자본비율, 총자본비율, 단순기본자본비율은 각각 12.88%, 14.24%, 15.58%, 6.51%를 기록했다.   보통주자본비율, 기본자본비율, 총자본비율이 작년말 대비 각각 0.28%p, 0.33%p, 0.29%p 상승했다.   금감원은 "순이익 시현, 증자·신종자본증권 발행 등 자본확충으로 자본이 대폭(+4.6%) 증가했다"며 "대출자산 증가에도 불구하고 바젤Ⅲ 최종안 적용으로 위험가중자산이 소폭(+2.7%) 증가에 그쳤다"고 분석했다.   단순기본자본비율은 총위험노출액이 증가했으나 기본자본이 더 큰 폭으로 증가하면서 작년말 대비 0.31%p 상승했다.   모든 국내은행이 규제비율(보통주자본 7.0%, 기본자본 8.5%, 총자본 10.5%, 단순기본자본비율 3.0%)을 웃돌았다.   상대적으로 위험가중자산이 크게 감소하거나 자본 증가폭이 큰 11개 은행은 전분기말 대비 자본비율이 상승했다. KB, 우리, DGB, JB, 농협, SC, 씨티, 기업, 수출입, 수협, 토스 등이다.   위험가중자산 증가율이 자본 증가율을 웃돈 5개 은행(신한, 하나, 케이, 카카오, 산업)은 자본비율이 하락했다.   금감원 관계자는 "국내은행의 자본비율 현황에 대한 모니터링을 강화하고 자본비율이 취약한 은행에 대해서는 자본적정성 관리를 강화토록 할 것"이라며 "내년 5월 경기대응완충자본 적립의무 부과(1%), 스트레스 완충자본 제도 도입 추진 등 강화되는 자본규제에 대비해 은행이 충분한 수준의 자기자본을 유지하도록 유도하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.06.14.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>파리 간 이영 장관 “BTS 만든 하이브도 스타트업”</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003822987?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>이영 장관, ‘비바테크놀로지 2023’ 기조연설“토스, 직방, 야놀자 등 유니콘 14곳 보유”‘K-스타버스’ 등 스타트업 정책 방향 제시“한국에선 스타트업에서 거대 IT기업으로 커나간 성공 사례가 많습니다. BTS를 만들어 낸 하이브라는 엔터테인먼트 기업도 벤처 스타트업으로 시작해 성장한 대표적인 기업입니다.”     이영 중소벤처기업부 장관이 프랑스 파리에서 열리는 스타트업 행사 ‘비바테크놀로지 2023’에서 14일(현지시간) 기조연설자로 나섰다. 비바텍은 유럽 최대 규모 정보통신기술(ICT) 기반 스타트업 행사다. 이날부터 4일간 열리는 행사에서 한국은 ‘올해의 국가’ 파트너로 참여했다.      이영 중소벤처기업부 장관.    이 장관은 “한국은 삼성과 BTS만 있는 것은 아니다”라며 “활발한 스타트업 생태계를 가지고 있고 여기서 나온 K-스타트업들이 쑥쑥 성장하고 있다”고 했다. 스타트업에서 시작해 기업가치가 수십조에 달하는 IT 기업이 된 네이버, 카카오, 넥슨, 크래프톤 등도 언급했다.     국내 유니콘(기업가치 1조원 이상 비상장 기업)이 14곳이라는 점도 강조했다. 그러면서 “토스, 직방, 야놀자 등 한국인들이 일상생활에서 매일 사용하는 서비스를 제공하는 유니콘 스타트업들이 많다”고 했다. 이는 지난해 CB인사이트 기준이며 중기부가 추가 파악한 유니콘은 총 23개로 알려져 있다.      이 장관은 엑시트(투자금 회수) 사례도 언급했다. 그는 “한국의 아마존이라고 할 수 있는 ‘쿠팡’은 10여 년 전 시작해서 뉴욕증시에 상장해 지금은 수십조 회사”라며 “‘배달의 민족’은 독일의 딜리버리히어로에 40억달러에, ‘하이퍼커넥트‘라는 기업은 미국의 매치닷컴에 15억달러에 매각됐다”고 설명했다. 이어 “매력적인 한국 스타트업들에 대한 글로벌 IT기업들의 관심이 더욱 커지고 있다”고 부연했다.     이 장관은 이 자리에서 스타트업 정책 방향 세 가지를 발표했다. 첫 번째는 전 세계 인재들이 한국에서 창업과 취업을 쉽게 할 수 있게 비자 발급을 편리하게 개선하고, 외국인 창업을 지원하는 정책이다. 국적과 물리적 공간을 초월해 창업할 수 있는 가상 스타트업 생태계인 ‘K-스타버스’ 구축도 약속했다.     두 번째는 한국 스타트업의 글로벌 도전을 지원하는 방향이다. 이 장관은 “구글, 오라클, AWS 등 빅테크 기업과 공동으로 한국 스타트업을 육성하고, 해외 진출 수요가 높은 지역을 중심으로 스타트업 해외 진출거점을 확대하고 있다”며 “이번 비바텍 방문을 계기로 프랑스의 글로벌 기업과도 좋은 협업 관계를 만들어 보겠다”고 했다.     세 번째 정책은 딥테크(첨단기술) 스타트업 집중 지원이다. 중기부는 향후 5년간 시스템반도체, AI 등 10대 미래 핵심기술 분야의 딥테크 스타트업에 2조원 이상을 투입할 계획이다.     이 장관은 마무리 발언으로 ‘연결의 힘’을 강조했다. 유럽과 한국 사이에 있는 경계를 허물고 활발한 연결이 일어나길 기대한다는 의미에서다. 그러면서 11월 한국에서 열리는 스타트업 축제 ‘컴업’을 언급하며 “여기 오신 스타트업들이 컴업에도 오셔서 생태계 간 연결이 더 발전하길 바란다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.06.07.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>이대리 김과장도 1000점…950점 이상도 1100만명 넘은 ‘이것’</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005140748?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>신용점수 950점 이상자작년 말 첫 1100만명 돌파빚 상환능력 등 평가 기준 일각선 ‘점수 인플레’ 지적 KCB 기준 신용점수별 인원 분포.[자료 제공 = KCB]직장인 A씨는 은행 앱을 통해 신용점수가 1000점인 것을 확인하고 사내에서 은근히 자랑했다. 그런데 알고보니 신용점수 1000점 만점은 A씨뿐만이 아니었다. 이미 여럿 있었던 것. A씨는 주변에 신용점수 만점자가 이렇게 가까이 있을 줄은 꿈에도 생각 못했다.A씨처럼 고신용자가 많아지면서 신용점수도 ‘인플레 시대’를 맞고 있다. 설문조사만 참여해도 신용점수를 올릴 수 있는 등 가점 요인이 다양해지면서다.때문에 개인의 빚 상환 능력을 평가하는 신용점수에 대한 변별력이 제대로 작동할 수 있겠느냐는 지적이 나온다.7일 개인신용평가회사 코리아크레딧뷰로(KCB)에 따르면 신용점수 1000점 만점에 950점 이상은 지난해 말 기준 1167만5675명으로 집계돼 처음으로 1100만명을 넘어섰다.이는 전년 말(1063만9706명) 대비 103만5969명 늘어난 것으로, 관련 통계가 확인되는 2018년 말(827만205명)과 비교하면 무려 340만명(340만5470명) 넘게 늘었다.고신용자로 볼 수 있는 신용점수 900점 이상으로 대상을 확대하면 지난해 말 해당 구간에 2053만468명이 분포해 신용점수를 보유한 4901만4426명 중 약 42%에 달했다. 우리나라에서 신용점수를 보유한 10명 중 4명이 고신용자란 의미다. 나이스평가정보 기준 신용평점별 인원수.[자료 제공 = 나이스평가정보]이같은 통계치는 개인신용평가회사 나이스평가정보에서도 맥락을 같이한다.이 회사에 따르면 지난해 말 신용점수 900점 이상은 2162만9926명으로 전체 4813만1125명의 45% 수준을 차지했다.고신용자가 많아진 것은 소득정보를 비롯해 통신비, 건강보험, 국민연금 납부 내역을 개인신용평가회사에 등록하는 것만으로도 신용점수를 올릴 수 있기 때문이다.KCB의 경우 최근 예금과 적금 정보, 생명보험, 손해보험, 실손의료보험 납부 정보 등록까지 신용점수에 긍정적 요인으로 반영하고 있다.일부 은행의 경우 개인신용평가회사와 함께 오픈뱅킹을 통해 자산 정보를 연결하기만 하면 신용점수가 즉석에서 상승하는 것을 확인할 수 있다.고신용자가 비중이 점점 많아지면서 은행권에서는 KCB나 나이스평가정보 등 CB사가 산출한 신용점수보다는 내부신용평가를 별도로 산정해 여기에 비중을 더 높여 대출심사 등에 반영하고 있는 실정이다.중신용자 대출에 특화한 카카오뱅크, 토스뱅크 등 인터넷전문은행은 기존 CB사에 의존하기 보다는 대출심사 시 비금융정보 활용에 방점을 두는 뱡향으로 전략을 펴고 있다.한편, 신용점수란 개인의 금융거래 정보 등을 바탕으로 향후 연체가 발생할 가능성 등을 분석해 산출하는 평가체계로 1000점 만점의 점수제로 운영된다. 일반적으로 신용점수가 높을수록 대출을 받을 때 제약을 덜 받고 금리도 낮다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.06.01.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>금리 무한경쟁 첫날 474억 이동…10%p 이상 낮추기도</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000338067?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[앵커]스마트폰으로 15분 만에 더 싼 이자의 신용대출로 갈아탈 수 있는 대환대출 플랫폼이 어제(31일) 가동을 시작했죠.첫날부터 이용자가 몰리면서 470억원이 넘는 '대출 갈아타기'가 이뤄졌습니다.박연신 기자 연결합니다.대환대출 서비스가 시작된 첫날부터 관심이 뜨거웠다고요?[기자]금융위원회가 어제(31일) 하루 이용실적을 집계한 결과, 오전 9시부터 서비스가 종료된 오후 4시까지 대출 갈아타기 건수는 1천819건이었습니다.이동한 대출 자산은 약 474억 원에 달했는데요.이동 유형은 90% 이상이 은행 간 대출 이동이었습니다.카카오뱅크는 서비스를 시작한 지 2시간 만에 하루 한도가 소진됐다는 이유로 신청 접수를 중단하기까지 했습니다.토스 또한 어제 오후 2시쯤 대환대출 서비스에 이용자가 몰려 일부 접속자들에게 '대출 조회서비스 이용 불가' 안내문을 띄운 것으로 전해졌습니다.[앵커]대환대출 서비스로 실제로 얼마나 이자가 줄었나요?[기자]한 직장인은 대환대출 비교 서비스를 통해 5천만 원 마이너스 통장 금리를 낮출 수 있었는데요.대환대출을 통해 기존 연 5.51%였던 금리를 연 3.9%의 최저 금리 상품으로 갈아타 1.61%p 낮춘 겁니다.10분 만에 월 6만 원 정도의 이자를 아낄 수 있게 된 건데요.특히 저축은행 신용대출 1500만 원을 19.9%에서 은행대출 8.7%로 이동하는 등 10%포인트 이상의 금리 인하 효과를 본 경우도 있었습니다.다만 "갈아탈 수 있는 유리한 상품이 없다"는 결과를 받아든 금융소비자들도 여럿 있는 것으로 전해졌습니다.SBS Biz 박연신입니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.06.05.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>'청년도약계좌' 반쪽 출발…주고객층 외면한 인터넷뱅크</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000817908?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>김소영 금융위원회 부위원장이 31일 오전 서울 종로구 정부서울청사에서 열린 청년도약계좌 운영 사전 점검 회의에서 발언하고 있다. 이날 회의에는 은행연합회, 서민금융진흥원, 시중은행 관계자들이 참석했다. 연합뉴스청년의 목돈 마련을 돕는 것을 목표로 만들어진 정책금융상품 '청년도약계좌'가 이달 출시를 앞둔 가운데 인터넷전문은행이 참여하지 않기로 하면서 주 소비자인 청년층을 외면했다는 비판이 나온다. 인터넷은행의 2030세대 고객 비중이 일반 은행보다 월등히 높아 금융당국도 이들의 참여를 위해 사전 협조에 나섰지만, 끝내 지원도 하지 않은 상황을 두고 수익성만 쫓는다는 지적이 나오는 것이다.금융권에 따르면 이달 중 운영을 개시하는 청년도약계좌 취급 은행은 KB국민, 신한, 우리, 하나, NH농협, SC제일, IBK기업, DGB대구, BNK부산·경남, JB광주·전북은행 등 12곳이다. 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행 3사는 빠졌다.인터넷은행은 청년도약계좌의 진행 과정 중 가구소득 중위 180% 이하 확인 작업, 특별중도해지 요건 확인 업무 등 소득 증빙 및 해지 작업이 비대면으로 처리하기 어렵다는 입장이다.하지만 일각에서는 인터넷은행이 주택담보대출 등 수익성이 높은 사업에만 공격적으로 영업을 확장한다는 지적이 나온다. 이미 청년도약계좌보다 더 복잡한 금융상품인 주택담보대출도 비대면으로 처리하고 있어 말이 맞지 않다는 것이다.실제로 카카오뱅크는 소유권이전등기 처리를 제외하고 주택담보대출을 모두 비대면으로 진행할 수 있다. 케이뱅크와 토스뱅크도 각각 아파트담보대출, 개인사업자 관련 비대면 담보대출을 운용 중이다.이 때문에 김소영 금융위원회 부위원장은 지난달 말 열린 사전 점검회의에서 "청년도약계좌 취급기관에는 청년들의 중장기 자산형성이라는 취지가 구현될 수 있도록 차질없이 지원하고, 청년도약계좌 운영에 있어 미래세대에 대한 사회적 책임을 다한다는 측면을 고려해줄 필요가 있다"면서 청년도약계좌는 비대면 중심으로 운영된다고 강조했다.인터넷은행에 에둘러 비판 목소리를 낸 것이다.더욱이 금융당국이 청년도약계좌 출시를 앞두고 인터넷은행의 어려움을 해결하고자 지원의사를 수차례 밝혔음에도 인터넷은행은 지난 3월에 있었던 공개모집에 지원 자체를 하지 않은 것으로 알려졌다.아울러 이 같은 상황이 청년도약계좌 흥행 자체에 악영향을 미치는 것 아니냐는 우려가 나온다. 현재 인터넷전문은행의 2030세대 비중은 카카오뱅크는 47%, 토스뱅크는 50%, 케이뱅크는 55%로 평균 50.6%에 달한다. 청년도약계좌를 취급하기로 한 12개 은행 평균치(약 30%)보다 20%p가량 높다.한편, 청년도약계좌는 윤석열 대통령이 대선 과정에서 공약한 정책형 금융상품이다. 청년의 중장기 자산 형성을 지원하는게 목적이다.5년 만기 상품에 가입한 청년이 매월 70만원 한도 내에서 자유롭게 내면 정부가 월 최대 2만4천원을 더해주고, 이자 소득에 비과세 혜택을 준다. 만기 유지 시 5천만원 안팎의 목돈을 만들 수 있도록 설계됐다. 개인소득 6천만원 이하이면서 가구소득 중위 180% 이하인 19~34세 청년을 대상으로 한다.구체적인 금리 수준은 8일 예비 공시하고서 12일에 최종 확정된다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
